--- a/Week_8/end_to_end_testing.xlsx
+++ b/Week_8/end_to_end_testing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\QA\Week_8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16C1AE6-79C7-41EE-9285-42BCE6F9318B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A69A7B6C-7C3C-4B13-AEBC-157B7724BBBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D306577F-726B-460D-A4B8-43874F0773D9}"/>
   </bookViews>
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="783">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="796">
   <si>
     <t>Operating System</t>
   </si>
@@ -2522,9 +2522,6 @@
     <t>Despite the fact that most of the functionality has been implemented and is working, the portal is not ready for release</t>
   </si>
   <si>
-    <t>Login/Refistration</t>
-  </si>
-  <si>
     <t>Shoping Cart</t>
   </si>
   <si>
@@ -2541,13 +2538,55 @@
   </si>
   <si>
     <t>Submission Forms</t>
+  </si>
+  <si>
+    <t>Number of tests (passed/failed)</t>
+  </si>
+  <si>
+    <t>Login/Registration</t>
+  </si>
+  <si>
+    <t>User successfully logged in</t>
+  </si>
+  <si>
+    <t>Failed attempts do not block subsequent correct logins</t>
+  </si>
+  <si>
+    <t>12/5</t>
+  </si>
+  <si>
+    <t>0/15</t>
+  </si>
+  <si>
+    <t>0/20</t>
+  </si>
+  <si>
+    <t>14/6</t>
+  </si>
+  <si>
+    <t>10/5</t>
+  </si>
+  <si>
+    <t>0/13</t>
+  </si>
+  <si>
+    <t>0/12</t>
+  </si>
+  <si>
+    <t>4/5</t>
+  </si>
+  <si>
+    <t>7/7</t>
+  </si>
+  <si>
+    <t>Product search is not implemented</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2659,6 +2698,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -2711,7 +2756,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2765,45 +2810,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2814,18 +2834,58 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3250,10 +3310,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03E50950-0777-4465-8C4E-877A3B414320}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3263,26 +3323,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="22" t="s">
         <v>763</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="23" t="s">
         <v>764</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="22" t="s">
         <v>766</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="23" t="s">
         <v>765</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="22" t="s">
         <v>767</v>
       </c>
-      <c r="B3" s="41">
+      <c r="B3" s="24">
         <v>45535</v>
       </c>
     </row>
@@ -3292,174 +3352,219 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="28" t="s">
         <v>775</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="35"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
+      <c r="A7" s="28"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="35"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
+      <c r="A8" s="28"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="29" t="s">
+        <v>795</v>
+      </c>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="29" t="s">
         <v>769</v>
       </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="36" t="s">
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="29" t="s">
         <v>770</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="35" t="s">
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="28" t="s">
         <v>771</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="35"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="28"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="29" t="s">
         <v>772</v>
       </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="37" t="s">
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="30" t="s">
         <v>773</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="38" t="s">
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="27" t="s">
         <v>774</v>
       </c>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-    </row>
-    <row r="19" spans="1:1" ht="26.25">
-      <c r="A19" s="42" t="s">
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+    </row>
+    <row r="19" spans="1:2" ht="30">
+      <c r="B19" s="10" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="26.25">
+      <c r="A20" s="25" t="s">
+        <v>783</v>
+      </c>
+      <c r="B20" s="46" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="26.25">
+      <c r="A21" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="44" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="26.25">
+      <c r="A22" s="26" t="s">
         <v>776</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" ht="26.25">
-      <c r="A20" s="43" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" ht="26.25">
-      <c r="A21" s="43" t="s">
+      <c r="B22" s="47" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="26.25">
+      <c r="A23" s="26" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" ht="26.25">
-      <c r="A22" s="43" t="s">
+      <c r="B23" s="44" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="26.25">
+      <c r="A24" s="26" t="s">
         <v>778</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" ht="26.25">
-      <c r="A23" s="43" t="s">
+      <c r="B24" s="48" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="26.25">
+      <c r="A25" s="26" t="s">
         <v>779</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" ht="26.25">
-      <c r="A24" s="43" t="s">
+      <c r="B25" s="45" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="26.25">
+      <c r="A26" s="26" t="s">
         <v>780</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" ht="26.25">
-      <c r="A25" s="43" t="s">
+      <c r="B26" s="45" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="26.25">
+      <c r="A27" s="26" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" ht="26.25">
-      <c r="A26" s="43" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" ht="26.25">
-      <c r="A27" s="43" t="s">
+      <c r="B27" s="45" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="26.25">
+      <c r="A28" s="26" t="s">
         <v>531</v>
       </c>
+      <c r="B28" s="45" t="s">
+        <v>794</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A6:G8"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="A12:G13"/>
+    <mergeCell ref="A14:G14"/>
     <mergeCell ref="A15:G15"/>
-    <mergeCell ref="A6:G8"/>
     <mergeCell ref="A9:G9"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="A11:G12"/>
-    <mergeCell ref="A13:G13"/>
-    <mergeCell ref="A14:G14"/>
   </mergeCells>
+  <phoneticPr fontId="15" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A19" location="loginRegistration!A1" display="Login/Refistration" xr:uid="{96ADB375-8818-4151-9D7B-3D75334572F7}"/>
-    <hyperlink ref="A20" location="productSearch!A1" display="Product Search" xr:uid="{84BFDE73-86ED-43D5-A6A2-04F4EB327646}"/>
-    <hyperlink ref="A21" location="'shoppingCart '!A1" display="Shoping Cart" xr:uid="{64EDDA89-2CA7-4F11-B76B-9230AA83422A}"/>
-    <hyperlink ref="A22" location="checkoutAndPayment!A1" display="Checkout/Payment" xr:uid="{03640327-2DD7-411D-BEBA-D1BA08C7537D}"/>
-    <hyperlink ref="A23" location="review!A1" display="Review" xr:uid="{7DBA9C85-A32F-402C-B4FD-62BCF3674CDC}"/>
-    <hyperlink ref="A24" location="service!A1" display="Services" xr:uid="{E1C50F98-2CD9-45CB-8F43-EFCFA9F746E4}"/>
-    <hyperlink ref="A25" location="testDrive!A1" display="Test Drive" xr:uid="{4EC54358-12DD-474D-8BF1-01E108F95283}"/>
-    <hyperlink ref="A26" location="submissionForms!A1" display="Submission Forms" xr:uid="{DA2AA72B-E371-4B5A-95AF-F80CC631609C}"/>
-    <hyperlink ref="A27" location="usability!A1" display="Usability" xr:uid="{CCAC85C6-C774-44D9-B769-53BCC89071C5}"/>
+    <hyperlink ref="A20" location="loginRegistration!A1" display="Login/Refistration" xr:uid="{96ADB375-8818-4151-9D7B-3D75334572F7}"/>
+    <hyperlink ref="A21" location="productSearch!A1" display="Product Search" xr:uid="{84BFDE73-86ED-43D5-A6A2-04F4EB327646}"/>
+    <hyperlink ref="A22" location="'shoppingCart '!A1" display="Shoping Cart" xr:uid="{64EDDA89-2CA7-4F11-B76B-9230AA83422A}"/>
+    <hyperlink ref="A23" location="checkoutAndPayment!A1" display="Checkout/Payment" xr:uid="{03640327-2DD7-411D-BEBA-D1BA08C7537D}"/>
+    <hyperlink ref="A24" location="review!A1" display="Review" xr:uid="{7DBA9C85-A32F-402C-B4FD-62BCF3674CDC}"/>
+    <hyperlink ref="A25" location="service!A1" display="Services" xr:uid="{E1C50F98-2CD9-45CB-8F43-EFCFA9F746E4}"/>
+    <hyperlink ref="A26" location="testDrive!A1" display="Test Drive" xr:uid="{4EC54358-12DD-474D-8BF1-01E108F95283}"/>
+    <hyperlink ref="A27" location="submissionForms!A1" display="Submission Forms" xr:uid="{DA2AA72B-E371-4B5A-95AF-F80CC631609C}"/>
+    <hyperlink ref="A28" location="usability!A1" display="Usability" xr:uid="{CCAC85C6-C774-44D9-B769-53BCC89071C5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3470,7 +3575,7 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
@@ -3561,7 +3666,7 @@
       <c r="D7" s="11"/>
     </row>
     <row r="9" spans="1:7" ht="30">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="31" t="s">
         <v>697</v>
       </c>
       <c r="B9" s="11" t="s">
@@ -3577,7 +3682,7 @@
       <c r="F9" s="18"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="23"/>
+      <c r="A10" s="31"/>
       <c r="B10" s="11" t="s">
         <v>699</v>
       </c>
@@ -3588,7 +3693,7 @@
       <c r="F10" s="13"/>
     </row>
     <row r="11" spans="1:7" ht="30">
-      <c r="A11" s="23"/>
+      <c r="A11" s="31"/>
       <c r="B11" s="11" t="s">
         <v>700</v>
       </c>
@@ -3602,7 +3707,7 @@
       <c r="F11" s="18"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="31" t="s">
         <v>707</v>
       </c>
       <c r="B13" s="11" t="s">
@@ -3618,7 +3723,7 @@
       <c r="F13" s="17"/>
     </row>
     <row r="14" spans="1:7" ht="30">
-      <c r="A14" s="23"/>
+      <c r="A14" s="31"/>
       <c r="B14" s="11" t="s">
         <v>704</v>
       </c>
@@ -3632,7 +3737,7 @@
       <c r="F14" s="17"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="23"/>
+      <c r="A15" s="31"/>
       <c r="B15" s="11" t="s">
         <v>700</v>
       </c>
@@ -3640,7 +3745,7 @@
       <c r="D15" s="11"/>
     </row>
     <row r="17" spans="1:7" ht="30">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="31" t="s">
         <v>706</v>
       </c>
       <c r="B17" s="11" t="s">
@@ -3656,7 +3761,7 @@
       <c r="F17" s="17"/>
     </row>
     <row r="18" spans="1:7" ht="30">
-      <c r="A18" s="23"/>
+      <c r="A18" s="31"/>
       <c r="B18" s="11" t="s">
         <v>502</v>
       </c>
@@ -3670,7 +3775,7 @@
       <c r="F18" s="17"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="23"/>
+      <c r="A19" s="31"/>
       <c r="B19" s="11" t="s">
         <v>700</v>
       </c>
@@ -3678,7 +3783,7 @@
       <c r="D19" s="11"/>
     </row>
     <row r="21" spans="1:7" ht="30">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="31" t="s">
         <v>709</v>
       </c>
       <c r="B21" s="11" t="s">
@@ -3694,7 +3799,7 @@
       <c r="F21" s="13"/>
     </row>
     <row r="22" spans="1:7" ht="30">
-      <c r="A22" s="23"/>
+      <c r="A22" s="31"/>
       <c r="B22" s="11" t="s">
         <v>710</v>
       </c>
@@ -3708,7 +3813,7 @@
       <c r="F22" s="13"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="23"/>
+      <c r="A23" s="31"/>
       <c r="B23" s="11" t="s">
         <v>700</v>
       </c>
@@ -3716,7 +3821,7 @@
       <c r="D23" s="11"/>
     </row>
     <row r="25" spans="1:7" ht="30">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="31" t="s">
         <v>713</v>
       </c>
       <c r="B25" s="11" t="s">
@@ -3735,7 +3840,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="30">
-      <c r="A26" s="23"/>
+      <c r="A26" s="31"/>
       <c r="B26" s="11" t="s">
         <v>715</v>
       </c>
@@ -3752,7 +3857,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="30">
-      <c r="A27" s="23"/>
+      <c r="A27" s="31"/>
       <c r="B27" s="11" t="s">
         <v>700</v>
       </c>
@@ -3766,7 +3871,7 @@
       <c r="F27" s="18"/>
     </row>
     <row r="29" spans="1:7" ht="30">
-      <c r="A29" s="23" t="s">
+      <c r="A29" s="31" t="s">
         <v>718</v>
       </c>
       <c r="B29" s="11" t="s">
@@ -3782,7 +3887,7 @@
       <c r="F29" s="13"/>
     </row>
     <row r="30" spans="1:7" ht="30">
-      <c r="A30" s="23"/>
+      <c r="A30" s="31"/>
       <c r="B30" s="11" t="s">
         <v>719</v>
       </c>
@@ -3796,7 +3901,7 @@
       <c r="F30" s="13"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="23"/>
+      <c r="A31" s="31"/>
       <c r="B31" s="11" t="s">
         <v>700</v>
       </c>
@@ -3804,7 +3909,7 @@
       <c r="D31" s="11"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="23" t="s">
+      <c r="A33" s="31" t="s">
         <v>750</v>
       </c>
       <c r="B33" s="11" t="s">
@@ -3820,7 +3925,7 @@
       <c r="F33" s="17"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="23"/>
+      <c r="A34" s="31"/>
       <c r="B34" s="11" t="s">
         <v>722</v>
       </c>
@@ -3834,7 +3939,7 @@
       <c r="F34" s="17"/>
     </row>
     <row r="35" spans="1:6" ht="30">
-      <c r="A35" s="23"/>
+      <c r="A35" s="31"/>
       <c r="B35" s="11" t="s">
         <v>723</v>
       </c>
@@ -3848,7 +3953,7 @@
       <c r="F35" s="17"/>
     </row>
     <row r="37" spans="1:6" ht="30">
-      <c r="A37" s="23" t="s">
+      <c r="A37" s="31" t="s">
         <v>751</v>
       </c>
       <c r="B37" s="11" t="s">
@@ -3864,7 +3969,7 @@
       <c r="F37" s="17"/>
     </row>
     <row r="38" spans="1:6" ht="45">
-      <c r="A38" s="23"/>
+      <c r="A38" s="31"/>
       <c r="B38" s="11" t="s">
         <v>727</v>
       </c>
@@ -3878,7 +3983,7 @@
       <c r="F38" s="17"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="23"/>
+      <c r="A39" s="31"/>
       <c r="B39" s="11" t="s">
         <v>728</v>
       </c>
@@ -3887,7 +3992,7 @@
       <c r="F39" s="17"/>
     </row>
     <row r="41" spans="1:6" ht="30">
-      <c r="A41" s="23" t="s">
+      <c r="A41" s="31" t="s">
         <v>752</v>
       </c>
       <c r="B41" s="11" t="s">
@@ -3903,7 +4008,7 @@
       <c r="F41" s="13"/>
     </row>
     <row r="42" spans="1:6" ht="30">
-      <c r="A42" s="23"/>
+      <c r="A42" s="31"/>
       <c r="B42" s="11" t="s">
         <v>731</v>
       </c>
@@ -3915,7 +4020,7 @@
       <c r="F42" s="13"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="23"/>
+      <c r="A43" s="31"/>
       <c r="B43" s="11" t="s">
         <v>732</v>
       </c>
@@ -3943,7 +4048,7 @@
   <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
@@ -4000,7 +4105,7 @@
         <v>532</v>
       </c>
       <c r="C4" s="11"/>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="43" t="s">
         <v>672</v>
       </c>
     </row>
@@ -4012,7 +4117,7 @@
         <v>533</v>
       </c>
       <c r="C5" s="11"/>
-      <c r="E5" s="34"/>
+      <c r="E5" s="43"/>
     </row>
     <row r="6" spans="1:7" ht="17.25" customHeight="1">
       <c r="A6" s="10"/>
@@ -4029,7 +4134,7 @@
       <c r="C7"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="31" t="s">
         <v>534</v>
       </c>
       <c r="B9" s="11" t="s">
@@ -4045,7 +4150,7 @@
       <c r="F9" s="17"/>
     </row>
     <row r="10" spans="1:7" ht="30">
-      <c r="A10" s="23"/>
+      <c r="A10" s="31"/>
       <c r="B10" s="11" t="s">
         <v>669</v>
       </c>
@@ -4059,10 +4164,10 @@
       <c r="F10" s="17"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="23"/>
+      <c r="A11" s="31"/>
     </row>
     <row r="13" spans="1:7" ht="30">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="31" t="s">
         <v>538</v>
       </c>
       <c r="B13" s="11" t="s">
@@ -4078,7 +4183,7 @@
       <c r="F13" s="17"/>
     </row>
     <row r="14" spans="1:7" ht="30">
-      <c r="A14" s="23"/>
+      <c r="A14" s="31"/>
       <c r="B14" s="11" t="s">
         <v>539</v>
       </c>
@@ -4092,7 +4197,7 @@
       <c r="F14" s="17"/>
     </row>
     <row r="16" spans="1:7" ht="30">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="31" t="s">
         <v>542</v>
       </c>
       <c r="B16" s="11" t="s">
@@ -4108,7 +4213,7 @@
       <c r="F16" s="17"/>
     </row>
     <row r="17" spans="1:6" ht="45">
-      <c r="A17" s="23"/>
+      <c r="A17" s="31"/>
       <c r="B17" s="11" t="s">
         <v>544</v>
       </c>
@@ -4122,7 +4227,7 @@
       <c r="F17" s="17"/>
     </row>
     <row r="19" spans="1:6" ht="30">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="31" t="s">
         <v>547</v>
       </c>
       <c r="B19" s="11" t="s">
@@ -4138,7 +4243,7 @@
       <c r="F19" s="17"/>
     </row>
     <row r="20" spans="1:6" ht="30">
-      <c r="A20" s="23"/>
+      <c r="A20" s="31"/>
       <c r="B20" s="11" t="s">
         <v>549</v>
       </c>
@@ -4151,8 +4256,8 @@
       </c>
       <c r="F20" s="17"/>
     </row>
-    <row r="22" spans="1:6" ht="30">
-      <c r="A22" s="23" t="s">
+    <row r="22" spans="1:6" ht="45">
+      <c r="A22" s="31" t="s">
         <v>552</v>
       </c>
       <c r="B22" s="11" t="s">
@@ -4168,7 +4273,7 @@
       <c r="F22" s="13"/>
     </row>
     <row r="23" spans="1:6" ht="45">
-      <c r="A23" s="23"/>
+      <c r="A23" s="31"/>
       <c r="B23" s="11" t="s">
         <v>554</v>
       </c>
@@ -4182,7 +4287,7 @@
       <c r="F23" s="13"/>
     </row>
     <row r="25" spans="1:6" ht="30">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="31" t="s">
         <v>557</v>
       </c>
       <c r="B25" s="11" t="s">
@@ -4198,7 +4303,7 @@
       <c r="F25" s="17"/>
     </row>
     <row r="26" spans="1:6" ht="30">
-      <c r="A26" s="23"/>
+      <c r="A26" s="31"/>
       <c r="B26" s="11" t="s">
         <v>559</v>
       </c>
@@ -4239,7 +4344,7 @@
       <c r="F29" s="17"/>
     </row>
     <row r="31" spans="1:6" ht="30">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="31" t="s">
         <v>754</v>
       </c>
       <c r="B31" s="11" t="s">
@@ -4255,7 +4360,7 @@
       <c r="F31" s="17"/>
     </row>
     <row r="32" spans="1:6" ht="45">
-      <c r="A32" s="23"/>
+      <c r="A32" s="31"/>
       <c r="B32" s="11" t="s">
         <v>565</v>
       </c>
@@ -4269,7 +4374,7 @@
       <c r="F32" s="17"/>
     </row>
     <row r="34" spans="1:6" ht="30" customHeight="1">
-      <c r="A34" s="23" t="s">
+      <c r="A34" s="31" t="s">
         <v>755</v>
       </c>
       <c r="B34" s="11" t="s">
@@ -4279,13 +4384,13 @@
       <c r="D34" s="11" t="s">
         <v>571</v>
       </c>
-      <c r="E34" s="24" t="s">
+      <c r="E34" s="33" t="s">
         <v>672</v>
       </c>
       <c r="F34" s="13"/>
     </row>
     <row r="35" spans="1:6" ht="30">
-      <c r="A35" s="23"/>
+      <c r="A35" s="31"/>
       <c r="B35" s="11" t="s">
         <v>569</v>
       </c>
@@ -4293,11 +4398,11 @@
       <c r="D35" s="11" t="s">
         <v>572</v>
       </c>
-      <c r="E35" s="24"/>
+      <c r="E35" s="33"/>
       <c r="F35" s="13"/>
     </row>
     <row r="36" spans="1:6" ht="30">
-      <c r="A36" s="23"/>
+      <c r="A36" s="31"/>
       <c r="B36" s="11" t="s">
         <v>570</v>
       </c>
@@ -4305,7 +4410,7 @@
       <c r="D36" s="11" t="s">
         <v>573</v>
       </c>
-      <c r="E36" s="24"/>
+      <c r="E36" s="33"/>
       <c r="F36" s="13"/>
     </row>
     <row r="38" spans="1:6" ht="60">
@@ -4367,7 +4472,7 @@
       </c>
       <c r="F43" s="17"/>
     </row>
-    <row r="44" spans="1:6" ht="30">
+    <row r="44" spans="1:6" ht="60">
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
       <c r="D44" s="11" t="s">
@@ -4379,7 +4484,7 @@
       <c r="F44" s="13"/>
     </row>
     <row r="46" spans="1:6" ht="30">
-      <c r="A46" s="23" t="s">
+      <c r="A46" s="31" t="s">
         <v>759</v>
       </c>
       <c r="B46" s="11" t="s">
@@ -4395,7 +4500,7 @@
       <c r="F46" s="17"/>
     </row>
     <row r="47" spans="1:6" ht="30">
-      <c r="A47" s="23"/>
+      <c r="A47" s="31"/>
       <c r="B47" s="11" t="s">
         <v>583</v>
       </c>
@@ -4461,7 +4566,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4541,8 +4646,8 @@
   <dimension ref="A1:G157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C92" sqref="C92"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G85" sqref="G85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4628,7 +4733,7 @@
       <c r="C8" s="10"/>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="31" t="s">
         <v>66</v>
       </c>
       <c r="B9" s="12" t="s">
@@ -4644,10 +4749,10 @@
         <v>27</v>
       </c>
       <c r="F9" s="17"/>
-      <c r="G9" s="22"/>
+      <c r="G9" s="32"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="23"/>
+      <c r="A10" s="31"/>
       <c r="B10" s="12" t="s">
         <v>28</v>
       </c>
@@ -4661,10 +4766,10 @@
         <v>28</v>
       </c>
       <c r="F10" s="17"/>
-      <c r="G10" s="22"/>
+      <c r="G10" s="32"/>
     </row>
     <row r="11" spans="1:7" ht="24.75" customHeight="1">
-      <c r="A11" s="23"/>
+      <c r="A11" s="31"/>
       <c r="B11" s="12" t="s">
         <v>29</v>
       </c>
@@ -4676,10 +4781,10 @@
         <v>30</v>
       </c>
       <c r="F11" s="17"/>
-      <c r="G11" s="22"/>
+      <c r="G11" s="32"/>
     </row>
     <row r="12" spans="1:7" ht="39.75" customHeight="1">
-      <c r="A12" s="24"/>
+      <c r="A12" s="33"/>
       <c r="B12" s="11" t="s">
         <v>68</v>
       </c>
@@ -4694,7 +4799,7 @@
       <c r="G12" s="11"/>
     </row>
     <row r="13" spans="1:7" ht="32.25" customHeight="1">
-      <c r="A13" s="24"/>
+      <c r="A13" s="33"/>
       <c r="B13" s="11" t="s">
         <v>69</v>
       </c>
@@ -4716,7 +4821,7 @@
       <c r="G14" s="11"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="31" t="s">
         <v>72</v>
       </c>
       <c r="B15" t="s">
@@ -4732,27 +4837,27 @@
       <c r="F15" s="17"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="25"/>
+      <c r="A16" s="34"/>
       <c r="B16" t="s">
         <v>73</v>
       </c>
       <c r="C16"/>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="32" t="s">
         <v>75</v>
       </c>
       <c r="F16" s="17"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="25"/>
+      <c r="A17" s="34"/>
       <c r="B17" t="s">
         <v>32</v>
       </c>
       <c r="C17"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
       <c r="F17" s="17"/>
     </row>
     <row r="18" spans="1:7">
@@ -4760,7 +4865,7 @@
       <c r="C18"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="31" t="s">
         <v>76</v>
       </c>
       <c r="B19" t="s">
@@ -4776,27 +4881,27 @@
       <c r="F19" s="17"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="23"/>
+      <c r="A20" s="31"/>
       <c r="B20" t="s">
         <v>77</v>
       </c>
       <c r="C20"/>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="E20" s="22" t="s">
+      <c r="E20" s="32" t="s">
         <v>590</v>
       </c>
       <c r="F20" s="17"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="23"/>
+      <c r="A21" s="31"/>
       <c r="B21" t="s">
         <v>32</v>
       </c>
       <c r="C21"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
       <c r="F21" s="17"/>
     </row>
     <row r="22" spans="1:7">
@@ -4804,7 +4909,7 @@
       <c r="C22"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="31" t="s">
         <v>78</v>
       </c>
       <c r="B23" t="s">
@@ -4820,27 +4925,27 @@
       <c r="F23" s="17"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="23"/>
+      <c r="A24" s="31"/>
       <c r="B24" t="s">
         <v>79</v>
       </c>
       <c r="C24"/>
-      <c r="D24" s="22" t="s">
+      <c r="D24" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="E24" s="22" t="s">
+      <c r="E24" s="32" t="s">
         <v>591</v>
       </c>
       <c r="F24" s="17"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="23"/>
+      <c r="A25" s="31"/>
       <c r="B25" t="s">
         <v>32</v>
       </c>
       <c r="C25"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
       <c r="F25" s="17"/>
     </row>
     <row r="26" spans="1:7">
@@ -4848,7 +4953,7 @@
       <c r="C26"/>
     </row>
     <row r="27" spans="1:7" ht="24.75" customHeight="1">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="31" t="s">
         <v>81</v>
       </c>
       <c r="B27" s="11" t="s">
@@ -4858,31 +4963,31 @@
       <c r="D27" t="s">
         <v>74</v>
       </c>
-      <c r="E27" s="23" t="s">
+      <c r="E27" s="31" t="s">
         <v>592</v>
       </c>
       <c r="F27" s="18"/>
     </row>
     <row r="28" spans="1:7" ht="28.5" customHeight="1">
-      <c r="A28" s="23"/>
+      <c r="A28" s="31"/>
       <c r="B28" s="11" t="s">
         <v>82</v>
       </c>
       <c r="C28"/>
-      <c r="D28" s="22" t="s">
+      <c r="D28" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="E28" s="23"/>
+      <c r="E28" s="31"/>
       <c r="F28" s="18"/>
     </row>
     <row r="29" spans="1:7" ht="39.75" customHeight="1">
-      <c r="A29" s="23"/>
+      <c r="A29" s="31"/>
       <c r="B29" s="11" t="s">
         <v>32</v>
       </c>
       <c r="C29"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="23"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="31"/>
       <c r="F29" s="18"/>
     </row>
     <row r="30" spans="1:7">
@@ -4890,7 +4995,7 @@
       <c r="C30"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="31" t="s">
         <v>83</v>
       </c>
       <c r="B31" s="11" t="s">
@@ -4906,15 +5011,15 @@
       <c r="F31" s="18"/>
     </row>
     <row r="32" spans="1:7" ht="45">
-      <c r="A32" s="23"/>
+      <c r="A32" s="31"/>
       <c r="B32" t="s">
         <v>84</v>
       </c>
       <c r="C32"/>
-      <c r="D32" s="22" t="s">
+      <c r="D32" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="E32" s="22" t="s">
+      <c r="E32" s="32" t="s">
         <v>593</v>
       </c>
       <c r="F32" s="18"/>
@@ -4923,23 +5028,23 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="15" customHeight="1">
-      <c r="A33" s="23"/>
+      <c r="A33" s="31"/>
       <c r="B33" t="s">
         <v>85</v>
       </c>
       <c r="C33"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
       <c r="F33" s="18"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="23"/>
+      <c r="A34" s="31"/>
       <c r="B34" s="11" t="s">
         <v>32</v>
       </c>
       <c r="C34"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
       <c r="F34" s="18"/>
     </row>
     <row r="35" spans="1:6" ht="26.25" customHeight="1">
@@ -4947,7 +5052,7 @@
       <c r="C35"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="23" t="s">
+      <c r="A36" s="31" t="s">
         <v>89</v>
       </c>
       <c r="B36" s="11" t="s">
@@ -4963,33 +5068,33 @@
       <c r="F36" s="17"/>
     </row>
     <row r="37" spans="1:6" ht="15" hidden="1" customHeight="1">
-      <c r="A37" s="23"/>
+      <c r="A37" s="31"/>
       <c r="B37"/>
       <c r="C37"/>
       <c r="F37" s="17"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="23"/>
+      <c r="A38" s="31"/>
       <c r="B38" t="s">
         <v>90</v>
       </c>
       <c r="C38"/>
-      <c r="D38" s="22" t="s">
+      <c r="D38" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="E38" s="22" t="s">
+      <c r="E38" s="32" t="s">
         <v>597</v>
       </c>
       <c r="F38" s="17"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="23"/>
+      <c r="A39" s="31"/>
       <c r="B39" t="s">
         <v>32</v>
       </c>
       <c r="C39"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
       <c r="F39" s="17"/>
     </row>
     <row r="40" spans="1:6">
@@ -5042,7 +5147,7 @@
       <c r="C47" s="10"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="23" t="s">
+      <c r="A49" s="31" t="s">
         <v>92</v>
       </c>
       <c r="B49" s="3" t="s">
@@ -5057,7 +5162,7 @@
       <c r="F49" s="17"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="23"/>
+      <c r="A50" s="31"/>
       <c r="B50" s="3" t="s">
         <v>40</v>
       </c>
@@ -5073,7 +5178,7 @@
       <c r="F50" s="17"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="23"/>
+      <c r="A51" s="31"/>
       <c r="B51" s="3" t="s">
         <v>41</v>
       </c>
@@ -5093,10 +5198,10 @@
       <c r="B52" t="s">
         <v>93</v>
       </c>
-      <c r="D52" s="22" t="s">
+      <c r="D52" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="E52" s="22" t="s">
+      <c r="E52" s="32" t="s">
         <v>94</v>
       </c>
       <c r="F52" s="17"/>
@@ -5106,15 +5211,15 @@
       <c r="B53" t="s">
         <v>32</v>
       </c>
-      <c r="D53" s="22"/>
-      <c r="E53" s="22"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="32"/>
       <c r="F53" s="17"/>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="10"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="23" t="s">
+      <c r="A55" s="31" t="s">
         <v>95</v>
       </c>
       <c r="B55" t="s">
@@ -5130,27 +5235,27 @@
       <c r="F55" s="17"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="23"/>
+      <c r="A56" s="31"/>
       <c r="B56" t="s">
         <v>97</v>
       </c>
       <c r="C56"/>
-      <c r="D56" s="22" t="s">
+      <c r="D56" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="E56" s="22" t="s">
+      <c r="E56" s="32" t="s">
         <v>599</v>
       </c>
       <c r="F56" s="17"/>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="23"/>
+      <c r="A57" s="31"/>
       <c r="B57" t="s">
         <v>32</v>
       </c>
       <c r="C57"/>
-      <c r="D57" s="22"/>
-      <c r="E57" s="22"/>
+      <c r="D57" s="32"/>
+      <c r="E57" s="32"/>
       <c r="F57" s="17"/>
     </row>
     <row r="58" spans="1:6">
@@ -5158,7 +5263,7 @@
       <c r="C58"/>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="23" t="s">
+      <c r="A59" s="31" t="s">
         <v>100</v>
       </c>
       <c r="B59" t="s">
@@ -5174,27 +5279,27 @@
       <c r="F59" s="17"/>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="23"/>
+      <c r="A60" s="31"/>
       <c r="B60" t="s">
         <v>101</v>
       </c>
       <c r="C60"/>
-      <c r="D60" s="22" t="s">
+      <c r="D60" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="E60" s="22" t="s">
+      <c r="E60" s="32" t="s">
         <v>600</v>
       </c>
       <c r="F60" s="17"/>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="23"/>
+      <c r="A61" s="31"/>
       <c r="B61" t="s">
         <v>32</v>
       </c>
       <c r="C61"/>
-      <c r="D61" s="22"/>
-      <c r="E61" s="22"/>
+      <c r="D61" s="32"/>
+      <c r="E61" s="32"/>
       <c r="F61" s="17"/>
     </row>
     <row r="62" spans="1:6">
@@ -5202,7 +5307,7 @@
       <c r="C62"/>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="23" t="s">
+      <c r="A63" s="31" t="s">
         <v>103</v>
       </c>
       <c r="B63" t="s">
@@ -5218,27 +5323,27 @@
       <c r="F63" s="17"/>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="23"/>
+      <c r="A64" s="31"/>
       <c r="B64" t="s">
         <v>104</v>
       </c>
       <c r="C64"/>
-      <c r="D64" s="22" t="s">
+      <c r="D64" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="E64" s="22" t="s">
+      <c r="E64" s="32" t="s">
         <v>601</v>
       </c>
       <c r="F64" s="17"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="23"/>
+      <c r="A65" s="31"/>
       <c r="B65" t="s">
         <v>32</v>
       </c>
       <c r="C65"/>
-      <c r="D65" s="22"/>
-      <c r="E65" s="22"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="32"/>
       <c r="F65" s="17"/>
     </row>
     <row r="66" spans="1:7">
@@ -5246,7 +5351,7 @@
       <c r="C66"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="23" t="s">
+      <c r="A67" s="31" t="s">
         <v>106</v>
       </c>
       <c r="B67" t="s">
@@ -5262,27 +5367,27 @@
       <c r="F67" s="17"/>
     </row>
     <row r="68" spans="1:7" ht="30" customHeight="1">
-      <c r="A68" s="23"/>
+      <c r="A68" s="31"/>
       <c r="B68" s="11" t="s">
         <v>107</v>
       </c>
       <c r="C68"/>
-      <c r="D68" s="22" t="s">
+      <c r="D68" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="E68" s="22" t="s">
+      <c r="E68" s="32" t="s">
         <v>602</v>
       </c>
       <c r="F68" s="17"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="23"/>
+      <c r="A69" s="31"/>
       <c r="B69" t="s">
         <v>32</v>
       </c>
       <c r="C69"/>
-      <c r="D69" s="22"/>
-      <c r="E69" s="22"/>
+      <c r="D69" s="32"/>
+      <c r="E69" s="32"/>
       <c r="F69" s="17"/>
     </row>
     <row r="70" spans="1:7">
@@ -5290,7 +5395,7 @@
       <c r="C70"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="23" t="s">
+      <c r="A71" s="31" t="s">
         <v>109</v>
       </c>
       <c r="B71" t="s">
@@ -5303,27 +5408,27 @@
       <c r="F71" s="18"/>
     </row>
     <row r="72" spans="1:7" ht="30">
-      <c r="A72" s="23"/>
+      <c r="A72" s="31"/>
       <c r="B72" s="11" t="s">
         <v>110</v>
       </c>
       <c r="C72"/>
-      <c r="D72" s="22" t="s">
+      <c r="D72" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="E72" s="23" t="s">
+      <c r="E72" s="31" t="s">
         <v>603</v>
       </c>
       <c r="F72" s="18"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="23"/>
+      <c r="A73" s="31"/>
       <c r="B73" t="s">
         <v>32</v>
       </c>
       <c r="C73"/>
-      <c r="D73" s="22"/>
-      <c r="E73" s="23"/>
+      <c r="D73" s="32"/>
+      <c r="E73" s="31"/>
       <c r="F73" s="18"/>
     </row>
     <row r="74" spans="1:7">
@@ -5331,7 +5436,7 @@
       <c r="C74"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="23" t="s">
+      <c r="A75" s="31" t="s">
         <v>112</v>
       </c>
       <c r="B75" t="s">
@@ -5341,38 +5446,38 @@
       <c r="D75" t="s">
         <v>98</v>
       </c>
-      <c r="E75" s="23" t="s">
+      <c r="E75" s="31" t="s">
         <v>604</v>
       </c>
       <c r="F75" s="13"/>
     </row>
     <row r="76" spans="1:7" ht="30">
-      <c r="A76" s="23"/>
+      <c r="A76" s="31"/>
       <c r="B76" s="11" t="s">
         <v>113</v>
       </c>
       <c r="C76"/>
-      <c r="D76" s="22" t="s">
+      <c r="D76" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="E76" s="23"/>
+      <c r="E76" s="31"/>
       <c r="F76" s="17"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="23"/>
+      <c r="A77" s="31"/>
       <c r="B77" t="s">
         <v>32</v>
       </c>
       <c r="C77"/>
-      <c r="D77" s="22"/>
-      <c r="E77" s="23"/>
+      <c r="D77" s="32"/>
+      <c r="E77" s="31"/>
     </row>
     <row r="78" spans="1:7" ht="26.25" customHeight="1">
       <c r="B78"/>
       <c r="C78"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="23" t="s">
+      <c r="A79" s="31" t="s">
         <v>115</v>
       </c>
       <c r="B79" s="3" t="s">
@@ -5383,83 +5488,83 @@
         <v>118</v>
       </c>
       <c r="E79" t="s">
-        <v>118</v>
-      </c>
-      <c r="F79" s="17"/>
-      <c r="G79" s="21" t="s">
+        <v>784</v>
+      </c>
+      <c r="F79" s="13"/>
+      <c r="G79" s="35" t="s">
         <v>605</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="15" hidden="1" customHeight="1">
-      <c r="A80" s="23"/>
+      <c r="A80" s="31"/>
       <c r="C80"/>
-      <c r="F80" s="17"/>
-      <c r="G80" s="21"/>
+      <c r="F80" s="13"/>
+      <c r="G80" s="35"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="23"/>
+      <c r="A81" s="31"/>
       <c r="B81" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C81"/>
-      <c r="D81" s="22" t="s">
+      <c r="D81" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="E81" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="F81" s="17"/>
-      <c r="G81" s="21"/>
+      <c r="E81" s="32" t="s">
+        <v>785</v>
+      </c>
+      <c r="F81" s="13"/>
+      <c r="G81" s="35"/>
     </row>
     <row r="82" spans="1:7" ht="47.25" customHeight="1">
-      <c r="A82" s="23"/>
+      <c r="A82" s="31"/>
       <c r="B82" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C82"/>
-      <c r="D82" s="22"/>
-      <c r="E82" s="22"/>
-      <c r="F82" s="17"/>
-      <c r="G82" s="21"/>
+      <c r="D82" s="32"/>
+      <c r="E82" s="32"/>
+      <c r="F82" s="13"/>
+      <c r="G82" s="35"/>
     </row>
     <row r="83" spans="1:7">
       <c r="B83"/>
       <c r="C83"/>
     </row>
     <row r="84" spans="1:7" ht="30">
-      <c r="A84" s="23" t="s">
+      <c r="A84" s="31" t="s">
         <v>120</v>
       </c>
       <c r="B84" s="11" t="s">
         <v>121</v>
       </c>
       <c r="C84"/>
-      <c r="D84" s="22" t="s">
+      <c r="D84" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="E84" s="21" t="s">
+      <c r="E84" s="35" t="s">
         <v>608</v>
       </c>
       <c r="F84" s="13"/>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" s="23"/>
+      <c r="A85" s="31"/>
       <c r="B85" t="s">
         <v>122</v>
       </c>
       <c r="C85"/>
-      <c r="D85" s="22"/>
-      <c r="E85" s="21"/>
+      <c r="D85" s="32"/>
+      <c r="E85" s="35"/>
       <c r="F85" s="13"/>
     </row>
     <row r="86" spans="1:7">
-      <c r="A86" s="23"/>
+      <c r="A86" s="31"/>
       <c r="B86" t="s">
         <v>32</v>
       </c>
       <c r="C86"/>
-      <c r="D86" s="22"/>
-      <c r="E86" s="21"/>
+      <c r="D86" s="32"/>
+      <c r="E86" s="35"/>
       <c r="F86" s="13"/>
     </row>
     <row r="87" spans="1:7">
@@ -5467,7 +5572,7 @@
       <c r="C87"/>
     </row>
     <row r="88" spans="1:7" ht="30">
-      <c r="A88" s="23" t="s">
+      <c r="A88" s="31" t="s">
         <v>124</v>
       </c>
       <c r="B88" t="s">
@@ -5483,7 +5588,7 @@
       <c r="F88" s="17"/>
     </row>
     <row r="89" spans="1:7" ht="30">
-      <c r="A89" s="23"/>
+      <c r="A89" s="31"/>
       <c r="B89" s="11" t="s">
         <v>126</v>
       </c>
@@ -5497,7 +5602,7 @@
       <c r="F89" s="17"/>
     </row>
     <row r="90" spans="1:7">
-      <c r="A90" s="23"/>
+      <c r="A90" s="31"/>
       <c r="B90" t="s">
         <v>127</v>
       </c>
@@ -5773,24 +5878,21 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="A88:A90"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="A75:A77"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="A79:A82"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="A67:A69"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="A84:A86"/>
-    <mergeCell ref="D84:D86"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="E84:E86"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="E75:E77"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="G79:G82"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="E64:E65"/>
     <mergeCell ref="G9:G11"/>
     <mergeCell ref="A49:A51"/>
     <mergeCell ref="A9:A13"/>
@@ -5807,21 +5909,24 @@
     <mergeCell ref="A36:A39"/>
     <mergeCell ref="D38:D39"/>
     <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="G79:G82"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="E84:E86"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="E75:E77"/>
-    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="A67:A69"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="A84:A86"/>
+    <mergeCell ref="D84:D86"/>
+    <mergeCell ref="A88:A90"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="A79:A82"/>
+    <mergeCell ref="D81:D82"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5832,7 +5937,7 @@
   <dimension ref="A1:G75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E4" sqref="E4:E5"/>
     </sheetView>
   </sheetViews>
@@ -5889,7 +5994,7 @@
         <v>43</v>
       </c>
       <c r="C4" s="11"/>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="36" t="s">
         <v>609</v>
       </c>
     </row>
@@ -5901,7 +6006,7 @@
         <v>44</v>
       </c>
       <c r="C5" s="11"/>
-      <c r="E5" s="23"/>
+      <c r="E5" s="31"/>
     </row>
     <row r="6" spans="1:7" ht="17.25" customHeight="1">
       <c r="A6" s="10"/>
@@ -5918,7 +6023,7 @@
       <c r="C7" s="10"/>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="31" t="s">
         <v>130</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -5930,7 +6035,7 @@
       <c r="E9" s="11"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="23"/>
+      <c r="A10" s="31"/>
       <c r="B10" s="3" t="s">
         <v>47</v>
       </c>
@@ -5940,7 +6045,7 @@
       <c r="E10" s="11"/>
     </row>
     <row r="11" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A11" s="23"/>
+      <c r="A11" s="31"/>
       <c r="B11" s="11" t="s">
         <v>131</v>
       </c>
@@ -5960,35 +6065,35 @@
       <c r="E12" s="11"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="31" t="s">
         <v>133</v>
       </c>
       <c r="E13" s="11"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="23"/>
+      <c r="A14" s="31"/>
       <c r="B14" t="s">
         <v>135</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="32" t="s">
         <v>138</v>
       </c>
       <c r="E14" s="11"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="23"/>
+      <c r="A15" s="31"/>
       <c r="B15" t="s">
         <v>134</v>
       </c>
-      <c r="D15" s="22"/>
+      <c r="D15" s="32"/>
       <c r="E15" s="11"/>
     </row>
     <row r="16" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A16" s="23"/>
+      <c r="A16" s="31"/>
       <c r="B16" t="s">
         <v>136</v>
       </c>
-      <c r="D16" s="22"/>
+      <c r="D16" s="32"/>
       <c r="E16" s="11"/>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1">
@@ -5996,239 +6101,239 @@
       <c r="C17"/>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="31" t="s">
         <v>139</v>
       </c>
       <c r="B18" t="s">
         <v>135</v>
       </c>
       <c r="C18"/>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="32" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1">
-      <c r="A19" s="23"/>
+      <c r="A19" s="31"/>
       <c r="B19" t="s">
         <v>140</v>
       </c>
       <c r="C19"/>
-      <c r="D19" s="22"/>
+      <c r="D19" s="32"/>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1">
-      <c r="A20" s="23"/>
+      <c r="A20" s="31"/>
       <c r="B20" t="s">
         <v>136</v>
       </c>
       <c r="C20"/>
-      <c r="D20" s="22"/>
+      <c r="D20" s="32"/>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1">
       <c r="B21"/>
       <c r="C21"/>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="31" t="s">
         <v>142</v>
       </c>
       <c r="B22" t="s">
         <v>135</v>
       </c>
       <c r="C22"/>
-      <c r="D22" s="22" t="s">
+      <c r="D22" s="32" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="23"/>
+      <c r="A23" s="31"/>
       <c r="B23" t="s">
         <v>143</v>
       </c>
       <c r="C23"/>
-      <c r="D23" s="22"/>
+      <c r="D23" s="32"/>
     </row>
     <row r="24" spans="1:4" ht="18" customHeight="1">
-      <c r="A24" s="23"/>
+      <c r="A24" s="31"/>
       <c r="B24" t="s">
         <v>136</v>
       </c>
       <c r="C24"/>
-      <c r="D24" s="22"/>
+      <c r="D24" s="32"/>
     </row>
     <row r="25" spans="1:4">
       <c r="B25"/>
       <c r="C25"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="31" t="s">
         <v>145</v>
       </c>
       <c r="B26" t="s">
         <v>135</v>
       </c>
       <c r="C26"/>
-      <c r="D26" s="22" t="s">
+      <c r="D26" s="32" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="23"/>
+      <c r="A27" s="31"/>
       <c r="B27" t="s">
         <v>146</v>
       </c>
       <c r="C27"/>
-      <c r="D27" s="22"/>
+      <c r="D27" s="32"/>
     </row>
     <row r="28" spans="1:4" ht="18" customHeight="1">
-      <c r="A28" s="23"/>
+      <c r="A28" s="31"/>
       <c r="B28" t="s">
         <v>136</v>
       </c>
       <c r="C28"/>
-      <c r="D28" s="22"/>
+      <c r="D28" s="32"/>
     </row>
     <row r="29" spans="1:4">
       <c r="B29"/>
       <c r="C29"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="31" t="s">
         <v>148</v>
       </c>
       <c r="B30" t="s">
         <v>135</v>
       </c>
       <c r="C30"/>
-      <c r="D30" s="22" t="s">
+      <c r="D30" s="32" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="23"/>
+      <c r="A31" s="31"/>
       <c r="B31" t="s">
         <v>149</v>
       </c>
       <c r="C31"/>
-      <c r="D31" s="22"/>
+      <c r="D31" s="32"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="23"/>
+      <c r="A32" s="31"/>
       <c r="B32" t="s">
         <v>136</v>
       </c>
       <c r="C32"/>
-      <c r="D32" s="22"/>
+      <c r="D32" s="32"/>
     </row>
     <row r="33" spans="1:4">
       <c r="B33"/>
       <c r="C33"/>
     </row>
     <row r="34" spans="1:4" ht="23.25" customHeight="1">
-      <c r="A34" s="23" t="s">
+      <c r="A34" s="31" t="s">
         <v>151</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>135</v>
       </c>
       <c r="C34"/>
-      <c r="D34" s="22" t="s">
+      <c r="D34" s="32" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="30" customHeight="1">
-      <c r="A35" s="23"/>
+      <c r="A35" s="31"/>
       <c r="B35" s="3" t="s">
         <v>152</v>
       </c>
       <c r="C35"/>
-      <c r="D35" s="22"/>
+      <c r="D35" s="32"/>
     </row>
     <row r="36" spans="1:4" ht="40.5" customHeight="1">
-      <c r="A36" s="23"/>
+      <c r="A36" s="31"/>
       <c r="B36" s="3" t="s">
         <v>136</v>
       </c>
       <c r="C36"/>
-      <c r="D36" s="22"/>
+      <c r="D36" s="32"/>
     </row>
     <row r="37" spans="1:4">
       <c r="B37"/>
       <c r="C37"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="23" t="s">
+      <c r="A38" s="31" t="s">
         <v>154</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>135</v>
       </c>
       <c r="C38"/>
-      <c r="D38" s="22" t="s">
+      <c r="D38" s="32" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="23"/>
+      <c r="A39" s="31"/>
       <c r="B39" t="s">
         <v>155</v>
       </c>
       <c r="C39"/>
-      <c r="D39" s="22"/>
+      <c r="D39" s="32"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="23"/>
+      <c r="A40" s="31"/>
       <c r="B40" s="3" t="s">
         <v>136</v>
       </c>
       <c r="C40"/>
-      <c r="D40" s="22"/>
+      <c r="D40" s="32"/>
     </row>
     <row r="41" spans="1:4">
       <c r="B41"/>
       <c r="C41"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="23" t="s">
+      <c r="A42" s="31" t="s">
         <v>157</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>135</v>
       </c>
       <c r="C42"/>
-      <c r="D42" s="22" t="s">
+      <c r="D42" s="32" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="23"/>
+      <c r="A43" s="31"/>
       <c r="B43" t="s">
         <v>158</v>
       </c>
       <c r="C43"/>
-      <c r="D43" s="22"/>
+      <c r="D43" s="32"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="23"/>
+      <c r="A44" s="31"/>
       <c r="B44" t="s">
         <v>159</v>
       </c>
       <c r="C44"/>
-      <c r="D44" s="22"/>
+      <c r="D44" s="32"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="27"/>
+      <c r="A45" s="37"/>
       <c r="B45" s="3" t="s">
         <v>136</v>
       </c>
       <c r="C45"/>
-      <c r="D45" s="22"/>
+      <c r="D45" s="32"/>
     </row>
     <row r="46" spans="1:4">
       <c r="B46"/>
       <c r="C46"/>
     </row>
     <row r="47" spans="1:4" ht="30">
-      <c r="A47" s="23" t="s">
+      <c r="A47" s="31" t="s">
         <v>161</v>
       </c>
       <c r="B47" s="3" t="s">
@@ -6240,7 +6345,7 @@
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="23"/>
+      <c r="A48" s="31"/>
       <c r="B48" t="s">
         <v>162</v>
       </c>
@@ -6248,7 +6353,7 @@
       <c r="D48" s="11"/>
     </row>
     <row r="49" spans="1:4" ht="30">
-      <c r="A49" s="23"/>
+      <c r="A49" s="31"/>
       <c r="B49" s="3" t="s">
         <v>136</v>
       </c>
@@ -6262,152 +6367,152 @@
       <c r="C50"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="23" t="s">
+      <c r="A51" s="31" t="s">
         <v>165</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>135</v>
       </c>
       <c r="C51"/>
-      <c r="D51" s="22" t="s">
+      <c r="D51" s="32" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="23"/>
+      <c r="A52" s="31"/>
       <c r="B52" t="s">
         <v>166</v>
       </c>
       <c r="C52"/>
-      <c r="D52" s="22"/>
+      <c r="D52" s="32"/>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="23"/>
+      <c r="A53" s="31"/>
       <c r="B53" s="3" t="s">
         <v>136</v>
       </c>
       <c r="C53"/>
-      <c r="D53" s="22"/>
+      <c r="D53" s="32"/>
     </row>
     <row r="54" spans="1:4">
       <c r="B54"/>
       <c r="C54"/>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="23" t="s">
+      <c r="A55" s="31" t="s">
         <v>168</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>135</v>
       </c>
       <c r="C55"/>
-      <c r="D55" s="22" t="s">
+      <c r="D55" s="32" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="30">
-      <c r="A56" s="23"/>
+      <c r="A56" s="31"/>
       <c r="B56" s="11" t="s">
         <v>169</v>
       </c>
       <c r="C56"/>
-      <c r="D56" s="22"/>
+      <c r="D56" s="32"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="23"/>
+      <c r="A57" s="31"/>
       <c r="B57" s="3" t="s">
         <v>136</v>
       </c>
       <c r="C57"/>
-      <c r="D57" s="22"/>
+      <c r="D57" s="32"/>
     </row>
     <row r="58" spans="1:4">
       <c r="B58"/>
       <c r="C58"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="23" t="s">
+      <c r="A59" s="31" t="s">
         <v>171</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>135</v>
       </c>
       <c r="C59"/>
-      <c r="D59" s="22" t="s">
+      <c r="D59" s="32" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="23"/>
+      <c r="A60" s="31"/>
       <c r="B60" t="s">
         <v>172</v>
       </c>
       <c r="C60"/>
-      <c r="D60" s="22"/>
+      <c r="D60" s="32"/>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="23"/>
+      <c r="A61" s="31"/>
       <c r="B61" s="3" t="s">
         <v>136</v>
       </c>
       <c r="C61"/>
-      <c r="D61" s="22"/>
+      <c r="D61" s="32"/>
     </row>
     <row r="62" spans="1:4">
       <c r="B62"/>
       <c r="C62"/>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="23" t="s">
+      <c r="A63" s="31" t="s">
         <v>174</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>135</v>
       </c>
       <c r="C63"/>
-      <c r="D63" s="22" t="s">
+      <c r="D63" s="32" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="23"/>
+      <c r="A64" s="31"/>
       <c r="B64" t="s">
         <v>175</v>
       </c>
       <c r="C64"/>
-      <c r="D64" s="22"/>
+      <c r="D64" s="32"/>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="23"/>
+      <c r="A65" s="31"/>
       <c r="B65" s="3" t="s">
         <v>136</v>
       </c>
       <c r="C65"/>
-      <c r="D65" s="22"/>
+      <c r="D65" s="32"/>
     </row>
     <row r="66" spans="1:4">
       <c r="B66"/>
       <c r="C66"/>
     </row>
     <row r="67" spans="1:4" ht="23.25" customHeight="1">
-      <c r="A67" s="23" t="s">
+      <c r="A67" s="31" t="s">
         <v>177</v>
       </c>
       <c r="B67" t="s">
         <v>178</v>
       </c>
       <c r="C67"/>
-      <c r="D67" s="22" t="s">
+      <c r="D67" s="32" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="23.25" customHeight="1">
-      <c r="A68" s="23"/>
+      <c r="A68" s="31"/>
       <c r="B68" t="s">
         <v>179</v>
       </c>
       <c r="C68"/>
-      <c r="D68" s="22"/>
+      <c r="D68" s="32"/>
     </row>
     <row r="69" spans="1:4">
       <c r="B69"/>
@@ -6439,19 +6544,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="D55:D57"/>
-    <mergeCell ref="D59:D61"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="D22:D24"/>
     <mergeCell ref="A63:A65"/>
     <mergeCell ref="A67:A68"/>
     <mergeCell ref="D67:D68"/>
@@ -6468,6 +6560,19 @@
     <mergeCell ref="A51:A53"/>
     <mergeCell ref="D51:D53"/>
     <mergeCell ref="A55:A57"/>
+    <mergeCell ref="D55:D57"/>
+    <mergeCell ref="D59:D61"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="D22:D24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6478,8 +6583,8 @@
   <dimension ref="A1:G88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:G7"/>
+      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6557,56 +6662,56 @@
       <c r="C7" s="10"/>
     </row>
     <row r="9" spans="1:7" ht="54.75" customHeight="1">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="31" t="s">
         <v>181</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="32" t="s">
         <v>184</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="32" t="s">
         <v>610</v>
       </c>
       <c r="F9" s="17"/>
     </row>
     <row r="10" spans="1:7" ht="54.75" customHeight="1">
-      <c r="A10" s="23"/>
+      <c r="A10" s="31"/>
       <c r="B10" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
       <c r="F10" s="17"/>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1"/>
     <row r="12" spans="1:7" ht="48" customHeight="1">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="31" t="s">
         <v>185</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="32" t="s">
         <v>189</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="32" t="s">
         <v>611</v>
       </c>
       <c r="F12" s="17"/>
     </row>
     <row r="13" spans="1:7" ht="48.75" customHeight="1">
-      <c r="A13" s="23"/>
+      <c r="A13" s="31"/>
       <c r="B13" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
       <c r="F13" s="17"/>
     </row>
     <row r="15" spans="1:7" ht="30.75" customHeight="1">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="31" t="s">
         <v>190</v>
       </c>
       <c r="B15" s="11" t="s">
@@ -6621,7 +6726,7 @@
       <c r="F15" s="17"/>
     </row>
     <row r="16" spans="1:7" ht="30">
-      <c r="A16" s="23"/>
+      <c r="A16" s="31"/>
       <c r="B16" s="11" t="s">
         <v>192</v>
       </c>
@@ -6634,7 +6739,7 @@
       <c r="F16" s="17"/>
     </row>
     <row r="17" spans="1:7" ht="30">
-      <c r="A17" s="23"/>
+      <c r="A17" s="31"/>
       <c r="B17" s="11" t="s">
         <v>193</v>
       </c>
@@ -6647,7 +6752,7 @@
       <c r="F17" s="17"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="31" t="s">
         <v>197</v>
       </c>
       <c r="B19" s="11" t="s">
@@ -6655,7 +6760,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="30">
-      <c r="A20" s="23"/>
+      <c r="A20" s="31"/>
       <c r="B20" s="11" t="s">
         <v>192</v>
       </c>
@@ -6668,7 +6773,7 @@
       <c r="F20" s="17"/>
     </row>
     <row r="21" spans="1:7" ht="30">
-      <c r="A21" s="23"/>
+      <c r="A21" s="31"/>
       <c r="B21" s="11" t="s">
         <v>198</v>
       </c>
@@ -6681,7 +6786,7 @@
       <c r="F21" s="17"/>
     </row>
     <row r="22" spans="1:7" ht="30">
-      <c r="A22" s="23"/>
+      <c r="A22" s="31"/>
       <c r="B22" s="11" t="s">
         <v>199</v>
       </c>
@@ -6694,19 +6799,19 @@
       <c r="F22" s="17"/>
     </row>
     <row r="24" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="31" t="s">
         <v>203</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>204</v>
       </c>
       <c r="F24" s="13"/>
-      <c r="G24" s="29" t="s">
+      <c r="G24" s="41" t="s">
         <v>620</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="30">
-      <c r="A25" s="23"/>
+      <c r="A25" s="31"/>
       <c r="B25" s="11" t="s">
         <v>205</v>
       </c>
@@ -6717,10 +6822,10 @@
         <v>619</v>
       </c>
       <c r="F25" s="13"/>
-      <c r="G25" s="23"/>
+      <c r="G25" s="31"/>
     </row>
     <row r="26" spans="1:7" ht="28.5" customHeight="1">
-      <c r="A26" s="23"/>
+      <c r="A26" s="31"/>
       <c r="B26" s="11" t="s">
         <v>183</v>
       </c>
@@ -6731,10 +6836,10 @@
         <v>618</v>
       </c>
       <c r="F26" s="13"/>
-      <c r="G26" s="23"/>
+      <c r="G26" s="31"/>
     </row>
     <row r="28" spans="1:7" ht="30">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="31" t="s">
         <v>208</v>
       </c>
       <c r="B28" s="11" t="s">
@@ -6749,7 +6854,7 @@
       <c r="F28" s="17"/>
     </row>
     <row r="29" spans="1:7" ht="30">
-      <c r="A29" s="22"/>
+      <c r="A29" s="32"/>
       <c r="D29" s="11" t="s">
         <v>211</v>
       </c>
@@ -6759,7 +6864,7 @@
       <c r="F29" s="17"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="31" t="s">
         <v>212</v>
       </c>
       <c r="B31" s="11" t="s">
@@ -6767,7 +6872,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="15" customHeight="1">
-      <c r="A32" s="23"/>
+      <c r="A32" s="31"/>
       <c r="B32" s="11" t="s">
         <v>192</v>
       </c>
@@ -6775,16 +6880,16 @@
         <v>215</v>
       </c>
       <c r="F32" s="18"/>
-      <c r="G32" s="30" t="s">
+      <c r="G32" s="40" t="s">
         <v>668</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="30">
-      <c r="A33" s="23"/>
+      <c r="A33" s="31"/>
       <c r="B33" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="C33" s="33" t="s">
+      <c r="C33" s="21" t="s">
         <v>667</v>
       </c>
       <c r="D33" s="11" t="s">
@@ -6794,10 +6899,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="F33" s="18"/>
-      <c r="G33" s="24"/>
+      <c r="G33" s="33"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="23"/>
+      <c r="A34" s="31"/>
       <c r="B34" s="11" t="s">
         <v>214</v>
       </c>
@@ -6805,10 +6910,10 @@
         <v>217</v>
       </c>
       <c r="F34" s="18"/>
-      <c r="G34" s="24"/>
+      <c r="G34" s="33"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="23" t="s">
+      <c r="A36" s="31" t="s">
         <v>218</v>
       </c>
       <c r="B36" s="11" t="s">
@@ -6816,7 +6921,7 @@
       </c>
     </row>
     <row r="37" spans="1:7" ht="30">
-      <c r="A37" s="23"/>
+      <c r="A37" s="31"/>
       <c r="B37" s="11" t="s">
         <v>192</v>
       </c>
@@ -6829,14 +6934,14 @@
       <c r="F37" s="17"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="23"/>
+      <c r="A38" s="31"/>
       <c r="B38" t="s">
         <v>219</v>
       </c>
       <c r="F38" s="17"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="23"/>
+      <c r="A39" s="31"/>
       <c r="B39" t="s">
         <v>214</v>
       </c>
@@ -6849,7 +6954,7 @@
       <c r="F39" s="17"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="23" t="s">
+      <c r="A41" s="31" t="s">
         <v>222</v>
       </c>
       <c r="B41" t="s">
@@ -6862,12 +6967,12 @@
         <v>224</v>
       </c>
       <c r="F41" s="17"/>
-      <c r="G41" s="30" t="s">
+      <c r="G41" s="40" t="s">
         <v>625</v>
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="23"/>
+      <c r="A42" s="31"/>
       <c r="B42" t="s">
         <v>192</v>
       </c>
@@ -6878,10 +6983,10 @@
         <v>225</v>
       </c>
       <c r="F42" s="17"/>
-      <c r="G42" s="24"/>
+      <c r="G42" s="33"/>
     </row>
     <row r="43" spans="1:7" ht="31.5" customHeight="1">
-      <c r="A43" s="23"/>
+      <c r="A43" s="31"/>
       <c r="B43" t="s">
         <v>223</v>
       </c>
@@ -6892,10 +6997,10 @@
         <v>217</v>
       </c>
       <c r="F43" s="17"/>
-      <c r="G43" s="24"/>
+      <c r="G43" s="33"/>
     </row>
     <row r="45" spans="1:7" ht="30">
-      <c r="A45" s="23" t="s">
+      <c r="A45" s="31" t="s">
         <v>226</v>
       </c>
       <c r="B45" s="3" t="s">
@@ -6910,7 +7015,7 @@
       <c r="F45" s="17"/>
     </row>
     <row r="46" spans="1:7" ht="30">
-      <c r="A46" s="23"/>
+      <c r="A46" s="31"/>
       <c r="B46" s="3" t="s">
         <v>227</v>
       </c>
@@ -6923,7 +7028,7 @@
       <c r="F46" s="17"/>
     </row>
     <row r="48" spans="1:7" ht="15" customHeight="1">
-      <c r="A48" s="23" t="s">
+      <c r="A48" s="31" t="s">
         <v>230</v>
       </c>
       <c r="B48" s="3" t="s">
@@ -6931,7 +7036,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="51.75" customHeight="1">
-      <c r="A49" s="23"/>
+      <c r="A49" s="31"/>
       <c r="B49" s="3" t="s">
         <v>183</v>
       </c>
@@ -6944,7 +7049,7 @@
       <c r="F49" s="17"/>
     </row>
     <row r="50" spans="1:6" ht="42" customHeight="1">
-      <c r="A50" s="23"/>
+      <c r="A50" s="31"/>
       <c r="B50" s="3" t="s">
         <v>231</v>
       </c>
@@ -6957,7 +7062,7 @@
       <c r="F50" s="17"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="23" t="s">
+      <c r="A52" s="31" t="s">
         <v>234</v>
       </c>
       <c r="B52" s="3" t="s">
@@ -6965,7 +7070,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="30">
-      <c r="A53" s="23"/>
+      <c r="A53" s="31"/>
       <c r="B53" s="3" t="s">
         <v>236</v>
       </c>
@@ -6978,7 +7083,7 @@
       <c r="F53" s="17"/>
     </row>
     <row r="54" spans="1:6" ht="30">
-      <c r="A54" s="23"/>
+      <c r="A54" s="31"/>
       <c r="B54" s="3" t="s">
         <v>237</v>
       </c>
@@ -6991,7 +7096,7 @@
       <c r="F54" s="17"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="23" t="s">
+      <c r="A56" s="31" t="s">
         <v>240</v>
       </c>
       <c r="B56" s="3" t="s">
@@ -6999,7 +7104,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="30">
-      <c r="A57" s="23"/>
+      <c r="A57" s="31"/>
       <c r="B57" s="3" t="s">
         <v>242</v>
       </c>
@@ -7012,7 +7117,7 @@
       <c r="F57" s="17"/>
     </row>
     <row r="58" spans="1:6" ht="30">
-      <c r="A58" s="23"/>
+      <c r="A58" s="31"/>
       <c r="B58" s="3" t="s">
         <v>243</v>
       </c>
@@ -7025,7 +7130,7 @@
       <c r="F58" s="17"/>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="23" t="s">
+      <c r="A60" s="31" t="s">
         <v>246</v>
       </c>
       <c r="B60" s="3" t="s">
@@ -7040,7 +7145,7 @@
       <c r="F60" s="13"/>
     </row>
     <row r="61" spans="1:6" ht="30">
-      <c r="A61" s="23"/>
+      <c r="A61" s="31"/>
       <c r="B61" s="3" t="s">
         <v>192</v>
       </c>
@@ -7053,14 +7158,14 @@
       <c r="F61" s="13"/>
     </row>
     <row r="62" spans="1:6" ht="26.25" customHeight="1">
-      <c r="A62" s="23"/>
+      <c r="A62" s="31"/>
       <c r="B62" s="3" t="s">
         <v>247</v>
       </c>
       <c r="F62" s="13"/>
     </row>
     <row r="63" spans="1:6" ht="30">
-      <c r="A63" s="23"/>
+      <c r="A63" s="31"/>
       <c r="B63" s="3" t="s">
         <v>199</v>
       </c>
@@ -7070,7 +7175,7 @@
       <c r="F63" s="13"/>
     </row>
     <row r="65" spans="1:6" ht="30">
-      <c r="A65" s="23" t="s">
+      <c r="A65" s="31" t="s">
         <v>250</v>
       </c>
       <c r="B65" s="3" t="s">
@@ -7079,30 +7184,30 @@
       <c r="D65" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="E65" s="28" t="s">
+      <c r="E65" s="39" t="s">
         <v>636</v>
       </c>
       <c r="F65" s="13"/>
     </row>
     <row r="66" spans="1:6" ht="45">
-      <c r="A66" s="23"/>
+      <c r="A66" s="31"/>
       <c r="B66" s="3" t="s">
         <v>192</v>
       </c>
       <c r="D66" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="E66" s="28"/>
+      <c r="E66" s="39"/>
       <c r="F66" s="13"/>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="23"/>
+      <c r="A67" s="31"/>
       <c r="B67" s="3" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="31" t="s">
+      <c r="A69" s="38" t="s">
         <v>253</v>
       </c>
       <c r="B69" s="3" t="s">
@@ -7117,7 +7222,7 @@
       <c r="F69" s="17"/>
     </row>
     <row r="70" spans="1:6" ht="30">
-      <c r="A70" s="31"/>
+      <c r="A70" s="38"/>
       <c r="B70" s="3" t="s">
         <v>183</v>
       </c>
@@ -7130,24 +7235,24 @@
       <c r="F70" s="17"/>
     </row>
     <row r="71" spans="1:6" ht="30">
-      <c r="A71" s="22"/>
+      <c r="A71" s="32"/>
       <c r="D71" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="E71" s="28" t="s">
+      <c r="E71" s="39" t="s">
         <v>636</v>
       </c>
       <c r="F71" s="13"/>
     </row>
     <row r="72" spans="1:6">
-      <c r="E72" s="28"/>
+      <c r="E72" s="39"/>
       <c r="F72" s="13"/>
     </row>
     <row r="73" spans="1:6">
-      <c r="E73" s="28"/>
+      <c r="E73" s="39"/>
     </row>
     <row r="74" spans="1:6" ht="30">
-      <c r="A74" s="23" t="s">
+      <c r="A74" s="31" t="s">
         <v>258</v>
       </c>
       <c r="B74" s="3" t="s">
@@ -7156,29 +7261,29 @@
       <c r="D74" s="15" t="s">
         <v>261</v>
       </c>
-      <c r="E74" s="28" t="s">
+      <c r="E74" s="39" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="23"/>
+      <c r="A75" s="31"/>
       <c r="B75" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="E75" s="23"/>
+      <c r="E75" s="31"/>
     </row>
     <row r="76" spans="1:6" ht="30">
-      <c r="A76" s="23"/>
+      <c r="A76" s="31"/>
       <c r="B76" s="3" t="s">
         <v>260</v>
       </c>
       <c r="D76" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="E76" s="23"/>
+      <c r="E76" s="31"/>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="23" t="s">
+      <c r="A78" s="31" t="s">
         <v>263</v>
       </c>
       <c r="B78" s="3" t="s">
@@ -7193,7 +7298,7 @@
       <c r="F78" s="17"/>
     </row>
     <row r="79" spans="1:6" ht="45">
-      <c r="A79" s="23"/>
+      <c r="A79" s="31"/>
       <c r="B79" s="3" t="s">
         <v>183</v>
       </c>
@@ -7206,7 +7311,7 @@
       <c r="F79" s="17"/>
     </row>
     <row r="81" spans="1:7" ht="30">
-      <c r="A81" s="23" t="s">
+      <c r="A81" s="31" t="s">
         <v>267</v>
       </c>
       <c r="B81" s="3" t="s">
@@ -7221,7 +7326,7 @@
       <c r="F81" s="17"/>
     </row>
     <row r="82" spans="1:7" ht="30">
-      <c r="A82" s="23"/>
+      <c r="A82" s="31"/>
       <c r="B82" s="3" t="s">
         <v>269</v>
       </c>
@@ -7234,19 +7339,19 @@
       <c r="F82" s="17"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="23"/>
+      <c r="A83" s="31"/>
       <c r="B83" s="3" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="30">
-      <c r="A85" s="23" t="s">
+      <c r="A85" s="31" t="s">
         <v>272</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="C85" s="33" t="s">
+      <c r="C85" s="21" t="s">
         <v>667</v>
       </c>
       <c r="D85" s="11" t="s">
@@ -7256,20 +7361,20 @@
         <v>#VALUE!</v>
       </c>
       <c r="F85" s="18"/>
-      <c r="G85" s="30" t="s">
+      <c r="G85" s="40" t="s">
         <v>668</v>
       </c>
     </row>
     <row r="86" spans="1:7">
-      <c r="A86" s="23"/>
+      <c r="A86" s="31"/>
       <c r="B86" s="3" t="s">
         <v>192</v>
       </c>
       <c r="F86" s="18"/>
-      <c r="G86" s="24"/>
+      <c r="G86" s="33"/>
     </row>
     <row r="87" spans="1:7" ht="30">
-      <c r="A87" s="23"/>
+      <c r="A87" s="31"/>
       <c r="B87" s="3" t="s">
         <v>273</v>
       </c>
@@ -7277,29 +7382,23 @@
         <v>275</v>
       </c>
       <c r="F87" s="18"/>
-      <c r="G87" s="24"/>
+      <c r="G87" s="33"/>
     </row>
     <row r="88" spans="1:7">
-      <c r="A88" s="23"/>
+      <c r="A88" s="31"/>
       <c r="B88" s="3" t="s">
         <v>214</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A74:A76"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="A81:A83"/>
-    <mergeCell ref="A85:A88"/>
-    <mergeCell ref="A56:A58"/>
-    <mergeCell ref="A60:A63"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="A69:A71"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="E74:E76"/>
+    <mergeCell ref="G85:G87"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="G32:G34"/>
+    <mergeCell ref="G41:G43"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="E71:E73"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="A28:A29"/>
@@ -7311,13 +7410,19 @@
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="A15:A17"/>
-    <mergeCell ref="E74:E76"/>
-    <mergeCell ref="G85:G87"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="G32:G34"/>
-    <mergeCell ref="G41:G43"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="E71:E73"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="A74:A76"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="A81:A83"/>
+    <mergeCell ref="A85:A88"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="A69:A71"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7328,7 +7433,7 @@
   <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E4" sqref="E4:E5"/>
     </sheetView>
   </sheetViews>
@@ -7385,7 +7490,7 @@
         <v>50</v>
       </c>
       <c r="C4" s="11"/>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="36" t="s">
         <v>644</v>
       </c>
     </row>
@@ -7397,7 +7502,7 @@
         <v>51</v>
       </c>
       <c r="C5" s="11"/>
-      <c r="E5" s="23"/>
+      <c r="E5" s="31"/>
     </row>
     <row r="6" spans="1:7" ht="17.25" customHeight="1"/>
     <row r="7" spans="1:7">
@@ -7410,7 +7515,7 @@
       <c r="C7" s="10"/>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="31" t="s">
         <v>278</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -7421,7 +7526,7 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="23"/>
+      <c r="A10" s="31"/>
       <c r="B10" s="3" t="s">
         <v>276</v>
       </c>
@@ -7429,7 +7534,7 @@
       <c r="E10" s="15"/>
     </row>
     <row r="11" spans="1:7" ht="30">
-      <c r="A11" s="23"/>
+      <c r="A11" s="31"/>
       <c r="B11" s="3" t="s">
         <v>279</v>
       </c>
@@ -7438,14 +7543,14 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="23"/>
+      <c r="A12" s="31"/>
       <c r="B12" s="3" t="s">
         <v>280</v>
       </c>
       <c r="D12" s="15"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="23"/>
+      <c r="A13" s="31"/>
       <c r="B13" s="3" t="s">
         <v>281</v>
       </c>
@@ -7457,7 +7562,7 @@
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:7" ht="33" customHeight="1">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="31" t="s">
         <v>285</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -7466,20 +7571,20 @@
       <c r="D15" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="25"/>
+      <c r="E15" s="34"/>
     </row>
     <row r="16" spans="1:7" ht="33.75" customHeight="1">
-      <c r="A16" s="23"/>
+      <c r="A16" s="31"/>
       <c r="B16" s="3" t="s">
         <v>287</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>289</v>
       </c>
-      <c r="E16" s="25"/>
+      <c r="E16" s="34"/>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1">
-      <c r="A17" s="23"/>
+      <c r="A17" s="31"/>
       <c r="B17" s="3" t="s">
         <v>288</v>
       </c>
@@ -7489,7 +7594,7 @@
     </row>
     <row r="18" spans="1:4" ht="28.5" customHeight="1"/>
     <row r="19" spans="1:4" ht="27.75" customHeight="1">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="31" t="s">
         <v>291</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -7497,7 +7602,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="32.25" customHeight="1">
-      <c r="A20" s="23"/>
+      <c r="A20" s="31"/>
       <c r="B20" s="3" t="s">
         <v>292</v>
       </c>
@@ -7506,7 +7611,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="30">
-      <c r="A21" s="23"/>
+      <c r="A21" s="31"/>
       <c r="B21" s="3" t="s">
         <v>214</v>
       </c>
@@ -7515,7 +7620,7 @@
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="23"/>
+      <c r="A22" s="31"/>
       <c r="B22" s="3" t="s">
         <v>227</v>
       </c>
@@ -7524,13 +7629,13 @@
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="23"/>
+      <c r="A23" s="31"/>
       <c r="B23" s="3" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="30">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="31" t="s">
         <v>296</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -7541,14 +7646,14 @@
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="23"/>
+      <c r="A26" s="31"/>
       <c r="B26" s="3" t="s">
         <v>276</v>
       </c>
       <c r="D26" s="15"/>
     </row>
     <row r="27" spans="1:4" ht="30">
-      <c r="A27" s="23"/>
+      <c r="A27" s="31"/>
       <c r="B27" s="3" t="s">
         <v>297</v>
       </c>
@@ -7557,13 +7662,13 @@
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="23"/>
+      <c r="A28" s="31"/>
       <c r="B28" s="3" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="30">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="31" t="s">
         <v>300</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -7574,7 +7679,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="30">
-      <c r="A31" s="23"/>
+      <c r="A31" s="31"/>
       <c r="B31" s="3" t="s">
         <v>301</v>
       </c>
@@ -7583,13 +7688,13 @@
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="23"/>
+      <c r="A32" s="31"/>
       <c r="B32" s="3" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="30">
-      <c r="A34" s="23" t="s">
+      <c r="A34" s="31" t="s">
         <v>304</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -7600,7 +7705,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="30">
-      <c r="A35" s="23"/>
+      <c r="A35" s="31"/>
       <c r="B35" s="3" t="s">
         <v>305</v>
       </c>
@@ -7609,13 +7714,13 @@
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="23"/>
+      <c r="A36" s="31"/>
       <c r="B36" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="23" t="s">
+      <c r="A38" s="31" t="s">
         <v>309</v>
       </c>
       <c r="B38" s="11" t="s">
@@ -7626,7 +7731,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="30">
-      <c r="A39" s="23"/>
+      <c r="A39" s="31"/>
       <c r="B39" s="11" t="s">
         <v>276</v>
       </c>
@@ -7635,7 +7740,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="30">
-      <c r="A40" s="23"/>
+      <c r="A40" s="31"/>
       <c r="B40" s="11" t="s">
         <v>310</v>
       </c>
@@ -7644,7 +7749,7 @@
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="23"/>
+      <c r="A41" s="31"/>
       <c r="B41" s="11" t="s">
         <v>281</v>
       </c>
@@ -7655,7 +7760,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="30">
-      <c r="A43" s="23" t="s">
+      <c r="A43" s="31" t="s">
         <v>312</v>
       </c>
       <c r="B43" s="11" t="s">
@@ -7666,7 +7771,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="30">
-      <c r="A44" s="23"/>
+      <c r="A44" s="31"/>
       <c r="B44" s="11" t="s">
         <v>313</v>
       </c>
@@ -7675,13 +7780,13 @@
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="23"/>
+      <c r="A45" s="31"/>
       <c r="B45" s="11" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="23" t="s">
+      <c r="A47" s="31" t="s">
         <v>316</v>
       </c>
       <c r="B47" s="3" t="s">
@@ -7692,7 +7797,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="30">
-      <c r="A48" s="23"/>
+      <c r="A48" s="31"/>
       <c r="B48" s="3" t="s">
         <v>276</v>
       </c>
@@ -7701,7 +7806,7 @@
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="23"/>
+      <c r="A49" s="31"/>
       <c r="B49" s="3" t="s">
         <v>317</v>
       </c>
@@ -7710,13 +7815,13 @@
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="23"/>
+      <c r="A50" s="31"/>
       <c r="B50" s="3" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="30">
-      <c r="A52" s="23" t="s">
+      <c r="A52" s="31" t="s">
         <v>318</v>
       </c>
       <c r="B52" s="3" t="s">
@@ -7727,14 +7832,14 @@
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="23"/>
+      <c r="A53" s="31"/>
       <c r="B53" s="3" t="s">
         <v>319</v>
       </c>
       <c r="D53" s="11"/>
     </row>
     <row r="54" spans="1:4" ht="30">
-      <c r="A54" s="23"/>
+      <c r="A54" s="31"/>
       <c r="B54" s="3" t="s">
         <v>288</v>
       </c>
@@ -7743,7 +7848,7 @@
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="23" t="s">
+      <c r="A56" s="31" t="s">
         <v>322</v>
       </c>
       <c r="B56" s="11" t="s">
@@ -7751,7 +7856,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" ht="30">
-      <c r="A57" s="23"/>
+      <c r="A57" s="31"/>
       <c r="B57" s="11" t="s">
         <v>276</v>
       </c>
@@ -7760,7 +7865,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" ht="30">
-      <c r="A58" s="23"/>
+      <c r="A58" s="31"/>
       <c r="B58" s="11" t="s">
         <v>323</v>
       </c>
@@ -7769,13 +7874,13 @@
       </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="23"/>
+      <c r="A59" s="31"/>
       <c r="B59" s="11" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="30">
-      <c r="A61" s="23" t="s">
+      <c r="A61" s="31" t="s">
         <v>326</v>
       </c>
       <c r="B61" s="11" t="s">
@@ -7786,14 +7891,14 @@
       </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="23"/>
+      <c r="A62" s="31"/>
       <c r="B62" s="11" t="s">
         <v>327</v>
       </c>
       <c r="D62" s="11"/>
     </row>
     <row r="63" spans="1:4" ht="30">
-      <c r="A63" s="23"/>
+      <c r="A63" s="31"/>
       <c r="B63" s="11" t="s">
         <v>328</v>
       </c>
@@ -7802,13 +7907,13 @@
       </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="23"/>
+      <c r="A64" s="31"/>
       <c r="B64" s="11" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="30">
-      <c r="A66" s="23" t="s">
+      <c r="A66" s="31" t="s">
         <v>331</v>
       </c>
       <c r="B66" s="3" t="s">
@@ -7819,7 +7924,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" ht="30">
-      <c r="A67" s="23"/>
+      <c r="A67" s="31"/>
       <c r="B67" s="3" t="s">
         <v>332</v>
       </c>
@@ -7828,7 +7933,7 @@
       </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="23"/>
+      <c r="A68" s="31"/>
       <c r="B68" s="3" t="s">
         <v>333</v>
       </c>
@@ -7837,13 +7942,13 @@
       </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="23"/>
+      <c r="A69" s="31"/>
       <c r="B69" s="3" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="30">
-      <c r="A71" s="23" t="s">
+      <c r="A71" s="31" t="s">
         <v>337</v>
       </c>
       <c r="B71" t="s">
@@ -7854,14 +7959,14 @@
       </c>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="23"/>
+      <c r="A72" s="31"/>
       <c r="B72" t="s">
         <v>338</v>
       </c>
       <c r="D72" s="11"/>
     </row>
     <row r="73" spans="1:4" ht="30">
-      <c r="A73" s="23"/>
+      <c r="A73" s="31"/>
       <c r="B73" t="s">
         <v>288</v>
       </c>
@@ -7870,7 +7975,7 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="30">
-      <c r="A75" s="23" t="s">
+      <c r="A75" s="31" t="s">
         <v>341</v>
       </c>
       <c r="B75" s="3" t="s">
@@ -7881,14 +7986,14 @@
       </c>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="23"/>
+      <c r="A76" s="31"/>
       <c r="B76" s="3" t="s">
         <v>327</v>
       </c>
       <c r="D76" s="11"/>
     </row>
     <row r="77" spans="1:4" ht="30">
-      <c r="A77" s="23"/>
+      <c r="A77" s="31"/>
       <c r="B77" s="3" t="s">
         <v>342</v>
       </c>
@@ -7897,13 +8002,13 @@
       </c>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="23"/>
+      <c r="A78" s="31"/>
       <c r="B78" s="3" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="30">
-      <c r="A80" s="23" t="s">
+      <c r="A80" s="31" t="s">
         <v>345</v>
       </c>
       <c r="B80" s="3" t="s">
@@ -7914,7 +8019,7 @@
       </c>
     </row>
     <row r="81" spans="1:4" ht="30">
-      <c r="A81" s="23"/>
+      <c r="A81" s="31"/>
       <c r="B81" s="3" t="s">
         <v>346</v>
       </c>
@@ -7923,13 +8028,13 @@
       </c>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="23"/>
+      <c r="A82" s="31"/>
       <c r="B82" s="3" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="30">
-      <c r="A84" s="23" t="s">
+      <c r="A84" s="31" t="s">
         <v>348</v>
       </c>
       <c r="B84" s="3" t="s">
@@ -7940,7 +8045,7 @@
       </c>
     </row>
     <row r="85" spans="1:4" ht="30">
-      <c r="A85" s="23"/>
+      <c r="A85" s="31"/>
       <c r="B85" s="3" t="s">
         <v>349</v>
       </c>
@@ -7949,13 +8054,13 @@
       </c>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="23"/>
+      <c r="A86" s="31"/>
       <c r="B86" s="3" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="23" t="s">
+      <c r="A88" s="31" t="s">
         <v>351</v>
       </c>
       <c r="B88" s="3" t="s">
@@ -7966,7 +8071,7 @@
       </c>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" s="23"/>
+      <c r="A89" s="31"/>
       <c r="B89" s="3" t="s">
         <v>327</v>
       </c>
@@ -7975,7 +8080,7 @@
       </c>
     </row>
     <row r="90" spans="1:4" ht="30">
-      <c r="A90" s="23"/>
+      <c r="A90" s="31"/>
       <c r="B90" s="3" t="s">
         <v>352</v>
       </c>
@@ -7984,7 +8089,7 @@
       </c>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="23"/>
+      <c r="A91" s="31"/>
       <c r="B91" s="3" t="s">
         <v>353</v>
       </c>
@@ -7993,7 +8098,7 @@
       </c>
     </row>
     <row r="93" spans="1:4" ht="30">
-      <c r="A93" s="23" t="s">
+      <c r="A93" s="31" t="s">
         <v>355</v>
       </c>
       <c r="B93" s="11" t="s">
@@ -8004,14 +8109,14 @@
       </c>
     </row>
     <row r="94" spans="1:4">
-      <c r="A94" s="23"/>
+      <c r="A94" s="31"/>
       <c r="B94" s="11" t="s">
         <v>356</v>
       </c>
       <c r="D94" s="11"/>
     </row>
     <row r="95" spans="1:4" ht="30">
-      <c r="A95" s="23"/>
+      <c r="A95" s="31"/>
       <c r="B95" s="11" t="s">
         <v>288</v>
       </c>
@@ -8020,7 +8125,7 @@
       </c>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="23" t="s">
+      <c r="A97" s="31" t="s">
         <v>359</v>
       </c>
       <c r="B97" s="11" t="s">
@@ -8028,7 +8133,7 @@
       </c>
     </row>
     <row r="98" spans="1:4" ht="30">
-      <c r="A98" s="23"/>
+      <c r="A98" s="31"/>
       <c r="B98" s="11" t="s">
         <v>276</v>
       </c>
@@ -8037,7 +8142,7 @@
       </c>
     </row>
     <row r="99" spans="1:4" ht="30">
-      <c r="A99" s="23"/>
+      <c r="A99" s="31"/>
       <c r="B99" s="11" t="s">
         <v>360</v>
       </c>
@@ -8046,7 +8151,7 @@
       </c>
     </row>
     <row r="100" spans="1:4" ht="30">
-      <c r="A100" s="23"/>
+      <c r="A100" s="31"/>
       <c r="B100" s="11" t="s">
         <v>361</v>
       </c>
@@ -8055,19 +8160,13 @@
       </c>
     </row>
     <row r="101" spans="1:4">
-      <c r="A101" s="23"/>
+      <c r="A101" s="31"/>
       <c r="B101" s="11" t="s">
         <v>288</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A97:A101"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="A80:A82"/>
-    <mergeCell ref="A84:A86"/>
-    <mergeCell ref="A88:A91"/>
-    <mergeCell ref="A93:A95"/>
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="A75:A78"/>
@@ -8084,6 +8183,12 @@
     <mergeCell ref="A52:A54"/>
     <mergeCell ref="A61:A64"/>
     <mergeCell ref="A66:A69"/>
+    <mergeCell ref="A97:A101"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="A80:A82"/>
+    <mergeCell ref="A84:A86"/>
+    <mergeCell ref="A88:A91"/>
+    <mergeCell ref="A93:A95"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8094,7 +8199,7 @@
   <dimension ref="A1:F98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -8164,10 +8269,10 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1">
-      <c r="F9" s="22"/>
+      <c r="F9" s="32"/>
     </row>
     <row r="10" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="31" t="s">
         <v>364</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -8180,10 +8285,10 @@
         <v>645</v>
       </c>
       <c r="E10" s="17"/>
-      <c r="F10" s="22"/>
+      <c r="F10" s="32"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="23"/>
+      <c r="A11" s="31"/>
       <c r="B11" s="3" t="s">
         <v>366</v>
       </c>
@@ -8193,7 +8298,7 @@
       <c r="E11" s="17"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="23"/>
+      <c r="A12" s="31"/>
       <c r="B12" s="3" t="s">
         <v>367</v>
       </c>
@@ -8206,19 +8311,19 @@
       <c r="E12" s="17"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="23"/>
+      <c r="A13" s="31"/>
       <c r="B13" s="3" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="23"/>
+      <c r="A14" s="31"/>
       <c r="B14" s="3" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="31" t="s">
         <v>372</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -8230,7 +8335,7 @@
       <c r="E16" s="17"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="23"/>
+      <c r="A17" s="31"/>
       <c r="B17" s="3" t="s">
         <v>366</v>
       </c>
@@ -8240,7 +8345,7 @@
       <c r="E17" s="17"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="23"/>
+      <c r="A18" s="31"/>
       <c r="B18" t="s">
         <v>373</v>
       </c>
@@ -8250,19 +8355,19 @@
       <c r="E18" s="17"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="23"/>
+      <c r="A19" s="31"/>
       <c r="B19" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="23"/>
+      <c r="A20" s="31"/>
       <c r="B20" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="31" t="s">
         <v>375</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -8270,7 +8375,7 @@
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="23"/>
+      <c r="A23" s="31"/>
       <c r="B23" s="3" t="s">
         <v>366</v>
       </c>
@@ -8283,7 +8388,7 @@
       <c r="E23" s="17"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="23"/>
+      <c r="A24" s="31"/>
       <c r="B24" t="s">
         <v>376</v>
       </c>
@@ -8296,21 +8401,21 @@
       <c r="E24" s="17"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="23"/>
+      <c r="A25" s="31"/>
       <c r="B25" t="s">
         <v>377</v>
       </c>
       <c r="E25" s="17"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="23"/>
+      <c r="A26" s="31"/>
       <c r="B26" t="s">
         <v>369</v>
       </c>
       <c r="E26" s="17"/>
     </row>
     <row r="28" spans="1:5" ht="30">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="31" t="s">
         <v>379</v>
       </c>
       <c r="B28" s="11" t="s">
@@ -8325,7 +8430,7 @@
       <c r="E28" s="17"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="23"/>
+      <c r="A29" s="31"/>
       <c r="B29" s="11" t="s">
         <v>366</v>
       </c>
@@ -8333,7 +8438,7 @@
       <c r="E29" s="17"/>
     </row>
     <row r="30" spans="1:5" ht="30">
-      <c r="A30" s="23"/>
+      <c r="A30" s="31"/>
       <c r="B30" s="11" t="s">
         <v>380</v>
       </c>
@@ -8346,19 +8451,19 @@
       <c r="E30" s="17"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="23"/>
+      <c r="A31" s="31"/>
       <c r="B31" s="11" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="23"/>
+      <c r="A32" s="31"/>
       <c r="B32" s="11" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="23" t="s">
+      <c r="A34" s="31" t="s">
         <v>383</v>
       </c>
       <c r="B34" s="11" t="s">
@@ -8373,7 +8478,7 @@
       <c r="E34" s="17"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="23"/>
+      <c r="A35" s="31"/>
       <c r="B35" s="11" t="s">
         <v>366</v>
       </c>
@@ -8386,7 +8491,7 @@
       <c r="E35" s="17"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="23"/>
+      <c r="A36" s="31"/>
       <c r="B36" t="s">
         <v>384</v>
       </c>
@@ -8399,19 +8504,19 @@
       <c r="E36" s="17"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="23"/>
+      <c r="A37" s="31"/>
       <c r="B37" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="23"/>
+      <c r="A38" s="31"/>
       <c r="B38" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="23" t="s">
+      <c r="A40" s="31" t="s">
         <v>385</v>
       </c>
       <c r="B40" t="s">
@@ -8426,14 +8531,14 @@
       <c r="E40" s="17"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="23"/>
+      <c r="A41" s="31"/>
       <c r="B41" s="11" t="s">
         <v>366</v>
       </c>
       <c r="E41" s="17"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="23"/>
+      <c r="A42" s="31"/>
       <c r="B42" t="s">
         <v>386</v>
       </c>
@@ -8446,19 +8551,19 @@
       <c r="E42" s="17"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="23"/>
+      <c r="A43" s="31"/>
       <c r="B43" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="23"/>
+      <c r="A44" s="31"/>
       <c r="B44" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="30">
-      <c r="A46" s="23" t="s">
+      <c r="A46" s="31" t="s">
         <v>388</v>
       </c>
       <c r="B46" s="3" t="s">
@@ -8473,7 +8578,7 @@
       <c r="E46" s="17"/>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="23"/>
+      <c r="A47" s="31"/>
       <c r="B47" s="11" t="s">
         <v>366</v>
       </c>
@@ -8481,7 +8586,7 @@
       <c r="E47" s="17"/>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="23"/>
+      <c r="A48" s="31"/>
       <c r="B48" s="3" t="s">
         <v>367</v>
       </c>
@@ -8494,25 +8599,25 @@
       <c r="E48" s="17"/>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="23"/>
+      <c r="A49" s="31"/>
       <c r="B49" s="3" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="23"/>
+      <c r="A50" s="31"/>
       <c r="B50" s="3" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="23"/>
+      <c r="A51" s="31"/>
       <c r="B51" s="3" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="45">
-      <c r="A53" s="23" t="s">
+      <c r="A53" s="31" t="s">
         <v>392</v>
       </c>
       <c r="B53" s="3" t="s">
@@ -8527,7 +8632,7 @@
       <c r="E53" s="17"/>
     </row>
     <row r="54" spans="1:5" ht="30">
-      <c r="A54" s="23"/>
+      <c r="A54" s="31"/>
       <c r="B54" t="s">
         <v>394</v>
       </c>
@@ -8540,28 +8645,28 @@
       <c r="E54" s="17"/>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="23"/>
+      <c r="A55" s="31"/>
       <c r="B55" t="s">
         <v>366</v>
       </c>
       <c r="E55" s="17"/>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="23"/>
+      <c r="A56" s="31"/>
       <c r="B56" t="s">
         <v>393</v>
       </c>
       <c r="E56" s="17"/>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="23"/>
+      <c r="A57" s="31"/>
       <c r="B57" t="s">
         <v>369</v>
       </c>
       <c r="E57" s="17"/>
     </row>
     <row r="59" spans="1:5" ht="30">
-      <c r="A59" s="23" t="s">
+      <c r="A59" s="31" t="s">
         <v>397</v>
       </c>
       <c r="B59" s="3" t="s">
@@ -8576,7 +8681,7 @@
       <c r="E59" s="13"/>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="23"/>
+      <c r="A60" s="31"/>
       <c r="B60" t="s">
         <v>366</v>
       </c>
@@ -8589,19 +8694,19 @@
       <c r="E60" s="13"/>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="23"/>
+      <c r="A61" s="31"/>
       <c r="B61" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="23"/>
+      <c r="A62" s="31"/>
       <c r="B62" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="23" t="s">
+      <c r="A64" s="31" t="s">
         <v>399</v>
       </c>
       <c r="B64" s="3" t="s">
@@ -8616,7 +8721,7 @@
       <c r="E64" s="17"/>
     </row>
     <row r="65" spans="1:6" ht="30">
-      <c r="A65" s="23"/>
+      <c r="A65" s="31"/>
       <c r="B65" s="3" t="s">
         <v>401</v>
       </c>
@@ -8626,7 +8731,7 @@
       <c r="E65" s="17"/>
     </row>
     <row r="66" spans="1:6" ht="30">
-      <c r="A66" s="23"/>
+      <c r="A66" s="31"/>
       <c r="B66" s="3" t="s">
         <v>402</v>
       </c>
@@ -8639,19 +8744,19 @@
       <c r="E66" s="17"/>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="23"/>
+      <c r="A67" s="31"/>
       <c r="B67" s="3" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="23"/>
+      <c r="A68" s="31"/>
       <c r="B68" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="30">
-      <c r="A70" s="23" t="s">
+      <c r="A70" s="31" t="s">
         <v>406</v>
       </c>
       <c r="B70" s="3" t="s">
@@ -8669,7 +8774,7 @@
       </c>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="23"/>
+      <c r="A71" s="31"/>
       <c r="B71" t="s">
         <v>366</v>
       </c>
@@ -8682,25 +8787,25 @@
       <c r="E71" s="13"/>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="23"/>
+      <c r="A72" s="31"/>
       <c r="B72" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="23"/>
+      <c r="A73" s="31"/>
       <c r="B73" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="23"/>
+      <c r="A74" s="31"/>
       <c r="B74" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="23" t="s">
+      <c r="A76" s="31" t="s">
         <v>410</v>
       </c>
       <c r="B76" s="3" t="s">
@@ -8715,7 +8820,7 @@
       <c r="E76" s="17"/>
     </row>
     <row r="77" spans="1:6" ht="30">
-      <c r="A77" s="23"/>
+      <c r="A77" s="31"/>
       <c r="B77" s="3" t="s">
         <v>366</v>
       </c>
@@ -8728,25 +8833,25 @@
       <c r="E77" s="17"/>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="23"/>
+      <c r="A78" s="31"/>
       <c r="B78" s="3" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="23"/>
+      <c r="A79" s="31"/>
       <c r="B79" s="3" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" s="23"/>
+      <c r="A80" s="31"/>
       <c r="B80" s="3" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="23" t="s">
+      <c r="A82" s="31" t="s">
         <v>415</v>
       </c>
       <c r="B82" t="s">
@@ -8759,12 +8864,12 @@
         <v>659</v>
       </c>
       <c r="E82" s="13"/>
-      <c r="F82" s="32" t="e" vm="3">
+      <c r="F82" s="42" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="23"/>
+      <c r="A83" s="31"/>
       <c r="B83" s="3" t="s">
         <v>366</v>
       </c>
@@ -8775,10 +8880,10 @@
         <v>658</v>
       </c>
       <c r="E83" s="13"/>
-      <c r="F83" s="32"/>
+      <c r="F83" s="42"/>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" s="23"/>
+      <c r="A84" s="31"/>
       <c r="B84" t="s">
         <v>416</v>
       </c>
@@ -8788,21 +8893,21 @@
       <c r="E84" s="13"/>
     </row>
     <row r="85" spans="1:6">
-      <c r="A85" s="23"/>
+      <c r="A85" s="31"/>
       <c r="B85" t="s">
         <v>408</v>
       </c>
       <c r="E85" s="13"/>
     </row>
     <row r="86" spans="1:6">
-      <c r="A86" s="23"/>
+      <c r="A86" s="31"/>
       <c r="B86" t="s">
         <v>369</v>
       </c>
       <c r="E86" s="13"/>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" s="23" t="s">
+      <c r="A88" s="31" t="s">
         <v>419</v>
       </c>
       <c r="B88" s="3" t="s">
@@ -8815,12 +8920,12 @@
         <v>659</v>
       </c>
       <c r="E88" s="13"/>
-      <c r="F88" s="32" t="e" vm="4">
+      <c r="F88" s="42" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="89" spans="1:6">
-      <c r="A89" s="23"/>
+      <c r="A89" s="31"/>
       <c r="B89" s="3" t="s">
         <v>366</v>
       </c>
@@ -8831,10 +8936,10 @@
         <v>658</v>
       </c>
       <c r="E89" s="13"/>
-      <c r="F89" s="32"/>
+      <c r="F89" s="42"/>
     </row>
     <row r="90" spans="1:6">
-      <c r="A90" s="23"/>
+      <c r="A90" s="31"/>
       <c r="B90" t="s">
         <v>420</v>
       </c>
@@ -8844,21 +8949,21 @@
       <c r="E90" s="13"/>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" s="23"/>
+      <c r="A91" s="31"/>
       <c r="B91" t="s">
         <v>408</v>
       </c>
       <c r="E91" s="13"/>
     </row>
     <row r="92" spans="1:6">
-      <c r="A92" s="23"/>
+      <c r="A92" s="31"/>
       <c r="B92" t="s">
         <v>369</v>
       </c>
       <c r="E92" s="13"/>
     </row>
     <row r="94" spans="1:6">
-      <c r="A94" s="23" t="s">
+      <c r="A94" s="31" t="s">
         <v>422</v>
       </c>
       <c r="B94" t="s">
@@ -8867,50 +8972,45 @@
       <c r="C94" t="s">
         <v>427</v>
       </c>
-      <c r="D94" s="23" t="s">
+      <c r="D94" s="31" t="s">
         <v>665</v>
       </c>
       <c r="E94" s="18"/>
     </row>
     <row r="95" spans="1:6">
-      <c r="A95" s="23"/>
+      <c r="A95" s="31"/>
       <c r="B95" t="s">
         <v>424</v>
       </c>
       <c r="C95" t="s">
         <v>428</v>
       </c>
-      <c r="D95" s="23"/>
+      <c r="D95" s="31"/>
       <c r="E95" s="18"/>
     </row>
     <row r="96" spans="1:6">
-      <c r="A96" s="23"/>
+      <c r="A96" s="31"/>
       <c r="B96" t="s">
         <v>425</v>
       </c>
       <c r="C96" t="s">
         <v>429</v>
       </c>
-      <c r="D96" s="23"/>
+      <c r="D96" s="31"/>
       <c r="E96" s="18"/>
     </row>
     <row r="97" spans="1:5">
-      <c r="A97" s="23"/>
+      <c r="A97" s="31"/>
       <c r="B97" t="s">
         <v>426</v>
       </c>
       <c r="E97" s="18"/>
     </row>
     <row r="98" spans="1:5">
-      <c r="A98" s="23"/>
+      <c r="A98" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="A10:A14"/>
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="A28:A32"/>
     <mergeCell ref="A34:A38"/>
     <mergeCell ref="A40:A44"/>
     <mergeCell ref="F82:F83"/>
@@ -8925,6 +9025,11 @@
     <mergeCell ref="A59:A62"/>
     <mergeCell ref="A64:A68"/>
     <mergeCell ref="A70:A74"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="A28:A32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8935,7 +9040,7 @@
   <dimension ref="A1:F63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D3" sqref="D3:D7"/>
     </sheetView>
   </sheetViews>
@@ -8971,7 +9076,7 @@
       <c r="B3" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="41" t="s">
         <v>666</v>
       </c>
     </row>
@@ -8982,7 +9087,7 @@
       <c r="B4" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="29"/>
+      <c r="D4" s="41"/>
     </row>
     <row r="5" spans="1:6" ht="30">
       <c r="A5" s="10" t="s">
@@ -8991,7 +9096,7 @@
       <c r="B5" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="29"/>
+      <c r="D5" s="41"/>
     </row>
     <row r="6" spans="1:6" ht="30">
       <c r="A6" s="10" t="s">
@@ -9000,10 +9105,10 @@
       <c r="B6" s="11" t="s">
         <v>431</v>
       </c>
-      <c r="D6" s="29"/>
+      <c r="D6" s="41"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="D7" s="29"/>
+      <c r="D7" s="41"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="10" t="s">
@@ -9014,7 +9119,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="30">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="31" t="s">
         <v>432</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -9025,7 +9130,7 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="23"/>
+      <c r="A11" s="31"/>
       <c r="B11" s="3" t="s">
         <v>434</v>
       </c>
@@ -9034,19 +9139,19 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="23"/>
+      <c r="A12" s="31"/>
       <c r="B12" s="3" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="23"/>
+      <c r="A13" s="31"/>
       <c r="B13" s="3" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="45">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="31" t="s">
         <v>438</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -9057,7 +9162,7 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="23"/>
+      <c r="A16" s="31"/>
       <c r="B16" s="3" t="s">
         <v>440</v>
       </c>
@@ -9066,25 +9171,25 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="23"/>
+      <c r="A17" s="31"/>
       <c r="B17" s="3" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="23"/>
+      <c r="A18" s="31"/>
       <c r="B18" s="3" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="23"/>
+      <c r="A19" s="31"/>
       <c r="B19" s="3" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="30">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="31" t="s">
         <v>444</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -9095,7 +9200,7 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="23"/>
+      <c r="A22" s="31"/>
       <c r="B22" s="3" t="s">
         <v>445</v>
       </c>
@@ -9104,13 +9209,13 @@
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="23"/>
+      <c r="A23" s="31"/>
       <c r="B23" s="3" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="31" t="s">
         <v>448</v>
       </c>
       <c r="B25" s="11" t="s">
@@ -9121,7 +9226,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="30">
-      <c r="A26" s="23"/>
+      <c r="A26" s="31"/>
       <c r="B26" s="11" t="s">
         <v>449</v>
       </c>
@@ -9130,14 +9235,14 @@
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="23"/>
+      <c r="A27" s="31"/>
       <c r="B27" s="11" t="s">
         <v>369</v>
       </c>
       <c r="C27" s="11"/>
     </row>
     <row r="29" spans="1:3" ht="30">
-      <c r="A29" s="23" t="s">
+      <c r="A29" s="31" t="s">
         <v>451</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -9148,7 +9253,7 @@
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="23"/>
+      <c r="A30" s="31"/>
       <c r="B30" s="3" t="s">
         <v>452</v>
       </c>
@@ -9157,16 +9262,16 @@
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="23"/>
+      <c r="A31" s="31"/>
       <c r="B31" s="3" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="23"/>
+      <c r="A32" s="31"/>
     </row>
     <row r="34" spans="1:3" ht="30">
-      <c r="A34" s="23" t="s">
+      <c r="A34" s="31" t="s">
         <v>455</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -9177,7 +9282,7 @@
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="23"/>
+      <c r="A35" s="31"/>
       <c r="B35" s="3" t="s">
         <v>456</v>
       </c>
@@ -9186,13 +9291,13 @@
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="23"/>
+      <c r="A36" s="31"/>
       <c r="B36" s="3" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="23" t="s">
+      <c r="A38" s="31" t="s">
         <v>459</v>
       </c>
       <c r="B38" s="11" t="s">
@@ -9203,7 +9308,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" ht="30">
-      <c r="A39" s="23"/>
+      <c r="A39" s="31"/>
       <c r="B39" s="11" t="s">
         <v>460</v>
       </c>
@@ -9212,14 +9317,14 @@
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="23"/>
+      <c r="A40" s="31"/>
       <c r="B40" s="11" t="s">
         <v>369</v>
       </c>
       <c r="C40" s="11"/>
     </row>
     <row r="42" spans="1:3" ht="45">
-      <c r="A42" s="23" t="s">
+      <c r="A42" s="31" t="s">
         <v>463</v>
       </c>
       <c r="B42" s="11" t="s">
@@ -9230,7 +9335,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" ht="30">
-      <c r="A43" s="23"/>
+      <c r="A43" s="31"/>
       <c r="B43" s="11" t="s">
         <v>464</v>
       </c>
@@ -9239,14 +9344,14 @@
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="23"/>
+      <c r="A44" s="31"/>
       <c r="B44" s="11" t="s">
         <v>369</v>
       </c>
       <c r="C44" s="11"/>
     </row>
     <row r="46" spans="1:3" ht="30">
-      <c r="A46" s="23" t="s">
+      <c r="A46" s="31" t="s">
         <v>467</v>
       </c>
       <c r="B46" s="11" t="s">
@@ -9257,7 +9362,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" ht="30">
-      <c r="A47" s="23"/>
+      <c r="A47" s="31"/>
       <c r="B47" s="11" t="s">
         <v>468</v>
       </c>
@@ -9266,14 +9371,14 @@
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="23"/>
+      <c r="A48" s="31"/>
       <c r="B48" s="11" t="s">
         <v>369</v>
       </c>
       <c r="C48" s="11"/>
     </row>
     <row r="50" spans="1:3" ht="30">
-      <c r="A50" s="23" t="s">
+      <c r="A50" s="31" t="s">
         <v>471</v>
       </c>
       <c r="B50" s="11" t="s">
@@ -9284,7 +9389,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" ht="30">
-      <c r="A51" s="23"/>
+      <c r="A51" s="31"/>
       <c r="B51" s="11" t="s">
         <v>472</v>
       </c>
@@ -9293,14 +9398,14 @@
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="23"/>
+      <c r="A52" s="31"/>
       <c r="B52" s="11" t="s">
         <v>369</v>
       </c>
       <c r="C52" s="11"/>
     </row>
     <row r="54" spans="1:3" ht="30">
-      <c r="A54" s="23" t="s">
+      <c r="A54" s="31" t="s">
         <v>475</v>
       </c>
       <c r="B54" s="11" t="s">
@@ -9311,7 +9416,7 @@
       </c>
     </row>
     <row r="55" spans="1:3" ht="30">
-      <c r="A55" s="23"/>
+      <c r="A55" s="31"/>
       <c r="B55" s="11" t="s">
         <v>477</v>
       </c>
@@ -9320,14 +9425,14 @@
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="23"/>
+      <c r="A56" s="31"/>
       <c r="B56" s="11" t="s">
         <v>369</v>
       </c>
       <c r="C56" s="11"/>
     </row>
     <row r="58" spans="1:3" ht="30">
-      <c r="A58" s="23" t="s">
+      <c r="A58" s="31" t="s">
         <v>480</v>
       </c>
       <c r="B58" s="11" t="s">
@@ -9338,7 +9443,7 @@
       </c>
     </row>
     <row r="59" spans="1:3" ht="30">
-      <c r="A59" s="23"/>
+      <c r="A59" s="31"/>
       <c r="B59" s="11" t="s">
         <v>481</v>
       </c>
@@ -9347,14 +9452,14 @@
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="23"/>
+      <c r="A60" s="31"/>
       <c r="B60" s="11" t="s">
         <v>369</v>
       </c>
       <c r="C60" s="11"/>
     </row>
     <row r="62" spans="1:3" ht="30">
-      <c r="A62" s="23" t="s">
+      <c r="A62" s="31" t="s">
         <v>484</v>
       </c>
       <c r="B62" s="11" t="s">
@@ -9365,7 +9470,7 @@
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="23"/>
+      <c r="A63" s="31"/>
       <c r="B63" s="11" t="s">
         <v>486</v>
       </c>
@@ -9399,7 +9504,7 @@
   <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
@@ -9443,7 +9548,7 @@
       <c r="B3" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="41" t="s">
         <v>666</v>
       </c>
     </row>
@@ -9454,7 +9559,7 @@
       <c r="B4" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="29"/>
+      <c r="D4" s="41"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="16" t="s">
@@ -9463,10 +9568,10 @@
       <c r="B5" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="29"/>
+      <c r="D5" s="41"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="D6" s="29"/>
+      <c r="D6" s="41"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="10" t="s">
@@ -9475,10 +9580,10 @@
       <c r="B7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="29"/>
+      <c r="D7" s="41"/>
     </row>
     <row r="9" spans="1:6" ht="30">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="31" t="s">
         <v>489</v>
       </c>
       <c r="B9" s="11" t="s">
@@ -9489,7 +9594,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="30">
-      <c r="A10" s="23"/>
+      <c r="A10" s="31"/>
       <c r="B10" s="11" t="s">
         <v>491</v>
       </c>
@@ -9498,7 +9603,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="30">
-      <c r="A11" s="23"/>
+      <c r="A11" s="31"/>
       <c r="B11" s="11" t="s">
         <v>492</v>
       </c>
@@ -9507,14 +9612,14 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="23"/>
+      <c r="A12" s="31"/>
       <c r="B12" s="11" t="s">
         <v>369</v>
       </c>
       <c r="C12" s="11"/>
     </row>
     <row r="14" spans="1:6" ht="30">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="31" t="s">
         <v>496</v>
       </c>
       <c r="B14" s="11" t="s">
@@ -9525,7 +9630,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="30">
-      <c r="A15" s="23"/>
+      <c r="A15" s="31"/>
       <c r="B15" s="11" t="s">
         <v>498</v>
       </c>
@@ -9534,14 +9639,14 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="23"/>
+      <c r="A16" s="31"/>
       <c r="B16" s="11" t="s">
         <v>369</v>
       </c>
       <c r="C16" s="11"/>
     </row>
     <row r="18" spans="1:3" ht="30">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="31" t="s">
         <v>501</v>
       </c>
       <c r="B18" s="11" t="s">
@@ -9552,7 +9657,7 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="23"/>
+      <c r="A19" s="31"/>
       <c r="B19" s="11" t="s">
         <v>502</v>
       </c>
@@ -9561,14 +9666,14 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="23"/>
+      <c r="A20" s="31"/>
       <c r="B20" s="11" t="s">
         <v>369</v>
       </c>
       <c r="C20" s="11"/>
     </row>
     <row r="22" spans="1:3" ht="30">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="31" t="s">
         <v>505</v>
       </c>
       <c r="B22" s="11" t="s">
@@ -9579,7 +9684,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="30">
-      <c r="A23" s="23"/>
+      <c r="A23" s="31"/>
       <c r="B23" s="11" t="s">
         <v>506</v>
       </c>
@@ -9588,14 +9693,14 @@
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="23"/>
+      <c r="A24" s="31"/>
       <c r="B24" s="11" t="s">
         <v>369</v>
       </c>
       <c r="C24" s="11"/>
     </row>
     <row r="26" spans="1:3" ht="30">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="31" t="s">
         <v>509</v>
       </c>
       <c r="B26" s="11" t="s">
@@ -9606,7 +9711,7 @@
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="23"/>
+      <c r="A27" s="31"/>
       <c r="B27" s="11" t="s">
         <v>510</v>
       </c>
@@ -9615,13 +9720,13 @@
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="23"/>
+      <c r="A28" s="31"/>
       <c r="B28" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="30">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="31" t="s">
         <v>455</v>
       </c>
       <c r="B30" s="11" t="s">
@@ -9632,7 +9737,7 @@
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="23"/>
+      <c r="A31" s="31"/>
       <c r="B31" s="11" t="s">
         <v>456</v>
       </c>
@@ -9641,14 +9746,14 @@
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="23"/>
+      <c r="A32" s="31"/>
       <c r="B32" s="11" t="s">
         <v>369</v>
       </c>
       <c r="C32" s="11"/>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="23" t="s">
+      <c r="A34" s="31" t="s">
         <v>459</v>
       </c>
       <c r="B34" s="11" t="s">
@@ -9659,7 +9764,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="30">
-      <c r="A35" s="23"/>
+      <c r="A35" s="31"/>
       <c r="B35" s="11" t="s">
         <v>513</v>
       </c>
@@ -9668,14 +9773,14 @@
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="23"/>
+      <c r="A36" s="31"/>
       <c r="B36" s="11" t="s">
         <v>369</v>
       </c>
       <c r="C36" s="11"/>
     </row>
     <row r="38" spans="1:3" ht="30">
-      <c r="A38" s="23" t="s">
+      <c r="A38" s="31" t="s">
         <v>514</v>
       </c>
       <c r="B38" s="11" t="s">
@@ -9686,7 +9791,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" ht="30">
-      <c r="A39" s="23"/>
+      <c r="A39" s="31"/>
       <c r="B39" s="11" t="s">
         <v>472</v>
       </c>
@@ -9695,14 +9800,14 @@
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="23"/>
+      <c r="A40" s="31"/>
       <c r="B40" s="11" t="s">
         <v>369</v>
       </c>
       <c r="C40" s="11"/>
     </row>
     <row r="42" spans="1:3" ht="30">
-      <c r="A42" s="23" t="s">
+      <c r="A42" s="31" t="s">
         <v>515</v>
       </c>
       <c r="B42" s="11" t="s">
@@ -9713,7 +9818,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" ht="30">
-      <c r="A43" s="23"/>
+      <c r="A43" s="31"/>
       <c r="B43" s="11" t="s">
         <v>516</v>
       </c>
@@ -9722,14 +9827,14 @@
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="23"/>
+      <c r="A44" s="31"/>
       <c r="B44" s="11" t="s">
         <v>369</v>
       </c>
       <c r="C44" s="11"/>
     </row>
     <row r="46" spans="1:3" ht="30">
-      <c r="A46" s="23" t="s">
+      <c r="A46" s="31" t="s">
         <v>519</v>
       </c>
       <c r="B46" s="11" t="s">
@@ -9740,7 +9845,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" ht="30">
-      <c r="A47" s="23"/>
+      <c r="A47" s="31"/>
       <c r="B47" s="11" t="s">
         <v>520</v>
       </c>
@@ -9749,14 +9854,14 @@
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="23"/>
+      <c r="A48" s="31"/>
       <c r="B48" s="11" t="s">
         <v>369</v>
       </c>
       <c r="C48" s="11"/>
     </row>
     <row r="50" spans="1:3" ht="33" customHeight="1">
-      <c r="A50" s="23" t="s">
+      <c r="A50" s="31" t="s">
         <v>521</v>
       </c>
       <c r="B50" s="11" t="s">
@@ -9767,7 +9872,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" ht="30">
-      <c r="A51" s="23"/>
+      <c r="A51" s="31"/>
       <c r="B51" s="11" t="s">
         <v>523</v>
       </c>
@@ -9776,14 +9881,14 @@
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="23"/>
+      <c r="A52" s="31"/>
       <c r="B52" s="11"/>
       <c r="C52" s="11" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="45">
-      <c r="A54" s="23" t="s">
+      <c r="A54" s="31" t="s">
         <v>527</v>
       </c>
       <c r="B54" s="11" t="s">
@@ -9794,7 +9899,7 @@
       </c>
     </row>
     <row r="55" spans="1:3" ht="30">
-      <c r="A55" s="23"/>
+      <c r="A55" s="31"/>
       <c r="B55" s="11" t="s">
         <v>528</v>
       </c>
@@ -9803,7 +9908,7 @@
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="23"/>
+      <c r="A56" s="31"/>
       <c r="B56" s="11" t="s">
         <v>369</v>
       </c>

--- a/Week_8/end_to_end_testing.xlsx
+++ b/Week_8/end_to_end_testing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\QA\Week_8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A69A7B6C-7C3C-4B13-AEBC-157B7724BBBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86464435-A9B5-42B5-A51F-5CF5D67CE514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D306577F-726B-460D-A4B8-43874F0773D9}"/>
   </bookViews>
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="796">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="798">
   <si>
     <t>Operating System</t>
   </si>
@@ -2519,9 +2519,6 @@
     <t>No protection against comments with inappropriate content</t>
   </si>
   <si>
-    <t>Despite the fact that most of the functionality has been implemented and is working, the portal is not ready for release</t>
-  </si>
-  <si>
     <t>Shoping Cart</t>
   </si>
   <si>
@@ -2580,13 +2577,22 @@
   </si>
   <si>
     <t>Product search is not implemented</t>
+  </si>
+  <si>
+    <t>Type of Testing</t>
+  </si>
+  <si>
+    <t>Despite the fact that most of the functionality has been implemented and is working, the portal is not ready for release.</t>
+  </si>
+  <si>
+    <t>There are short list of problems:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2691,21 +2697,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="20"/>
-      <color theme="10"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2738,12 +2736,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF5050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -2751,12 +2761,189 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2813,32 +3000,14 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2846,16 +3015,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2865,26 +3028,114 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2893,6 +3144,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF5050"/>
+      <color rgb="FFFF3300"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3313,248 +3570,257 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="41.5703125" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" style="36" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" style="36" customWidth="1"/>
+    <col min="3" max="5" width="9.140625" style="36"/>
+    <col min="6" max="6" width="9.140625" style="36" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="46" t="s">
         <v>763</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="47" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="22" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="48" t="s">
         <v>766</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="49" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="22" t="s">
+    <row r="3" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A3" s="44" t="s">
         <v>767</v>
       </c>
-      <c r="B3" s="24">
+      <c r="B3" s="45">
         <v>45535</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
+    <row r="4" spans="1:6" ht="15.75" thickBot="1"/>
+    <row r="5" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A5" s="72" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="28" t="s">
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="74"/>
+    </row>
+    <row r="6" spans="1:6" ht="15" customHeight="1">
+      <c r="A6" s="50" t="s">
+        <v>796</v>
+      </c>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="51"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A7" s="66"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="68"/>
+    </row>
+    <row r="8" spans="1:6" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A8" s="41"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A9" s="71" t="s">
+        <v>797</v>
+      </c>
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="70"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="52" t="s">
+        <v>794</v>
+      </c>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="53"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="52" t="s">
+        <v>769</v>
+      </c>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="53"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="52" t="s">
+        <v>770</v>
+      </c>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="53"/>
+    </row>
+    <row r="13" spans="1:6" ht="15" customHeight="1">
+      <c r="A13" s="50" t="s">
+        <v>771</v>
+      </c>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="51"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="50"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="51"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="52" t="s">
+        <v>772</v>
+      </c>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="53"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="54" t="s">
+        <v>773</v>
+      </c>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="55"/>
+    </row>
+    <row r="17" spans="1:6" ht="15" customHeight="1" thickBot="1">
+      <c r="A17" s="63" t="s">
+        <v>774</v>
+      </c>
+      <c r="B17" s="64"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="65"/>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" thickBot="1"/>
+    <row r="19" spans="1:6" ht="30.75" thickBot="1">
+      <c r="A19" s="56" t="s">
+        <v>795</v>
+      </c>
+      <c r="B19" s="35" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="37" t="s">
+        <v>782</v>
+      </c>
+      <c r="B20" s="57" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="60" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="38" t="s">
         <v>775</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="28"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="29" t="s">
-        <v>795</v>
-      </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="29" t="s">
-        <v>769</v>
-      </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="29" t="s">
-        <v>770</v>
-      </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="28" t="s">
-        <v>771</v>
-      </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="28"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="29" t="s">
-        <v>772</v>
-      </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="30" t="s">
-        <v>773</v>
-      </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="27" t="s">
-        <v>774</v>
-      </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-    </row>
-    <row r="19" spans="1:2" ht="30">
-      <c r="B19" s="10" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="26.25">
-      <c r="A20" s="25" t="s">
-        <v>783</v>
-      </c>
-      <c r="B20" s="46" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="26.25">
-      <c r="A21" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="44" t="s">
+      <c r="B22" s="58" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="38" t="s">
+        <v>776</v>
+      </c>
+      <c r="B23" s="60" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="26.25">
-      <c r="A22" s="26" t="s">
-        <v>776</v>
-      </c>
-      <c r="B22" s="47" t="s">
+    <row r="24" spans="1:6">
+      <c r="A24" s="38" t="s">
+        <v>777</v>
+      </c>
+      <c r="B24" s="59" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="26.25">
-      <c r="A23" s="26" t="s">
-        <v>777</v>
-      </c>
-      <c r="B23" s="44" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="26.25">
-      <c r="A24" s="26" t="s">
+    <row r="25" spans="1:6">
+      <c r="A25" s="38" t="s">
         <v>778</v>
       </c>
-      <c r="B24" s="48" t="s">
+      <c r="B25" s="61" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="26.25">
-      <c r="A25" s="26" t="s">
+    <row r="26" spans="1:6">
+      <c r="A26" s="38" t="s">
         <v>779</v>
       </c>
-      <c r="B25" s="45" t="s">
+      <c r="B26" s="61" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="26.25">
-      <c r="A26" s="26" t="s">
+    <row r="27" spans="1:6">
+      <c r="A27" s="38" t="s">
         <v>780</v>
       </c>
-      <c r="B26" s="45" t="s">
+      <c r="B27" s="61" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="26.25">
-      <c r="A27" s="26" t="s">
-        <v>781</v>
-      </c>
-      <c r="B27" s="45" t="s">
+    <row r="28" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A28" s="39" t="s">
+        <v>531</v>
+      </c>
+      <c r="B28" s="62" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="26.25">
-      <c r="A28" s="26" t="s">
-        <v>531</v>
-      </c>
-      <c r="B28" s="45" t="s">
-        <v>794</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A6:G8"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="A11:G11"/>
-    <mergeCell ref="A12:G13"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="A15:G15"/>
-    <mergeCell ref="A9:G9"/>
+  <mergeCells count="5">
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F7"/>
+    <mergeCell ref="A13:F14"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A9:F9"/>
   </mergeCells>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A20" location="loginRegistration!A1" display="Login/Refistration" xr:uid="{96ADB375-8818-4151-9D7B-3D75334572F7}"/>
     <hyperlink ref="A21" location="productSearch!A1" display="Product Search" xr:uid="{84BFDE73-86ED-43D5-A6A2-04F4EB327646}"/>
@@ -3567,6 +3833,7 @@
     <hyperlink ref="A28" location="usability!A1" display="Usability" xr:uid="{CCAC85C6-C774-44D9-B769-53BCC89071C5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3666,7 +3933,7 @@
       <c r="D7" s="11"/>
     </row>
     <row r="9" spans="1:7" ht="30">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="24" t="s">
         <v>697</v>
       </c>
       <c r="B9" s="11" t="s">
@@ -3682,7 +3949,7 @@
       <c r="F9" s="18"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="31"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="11" t="s">
         <v>699</v>
       </c>
@@ -3693,7 +3960,7 @@
       <c r="F10" s="13"/>
     </row>
     <row r="11" spans="1:7" ht="30">
-      <c r="A11" s="31"/>
+      <c r="A11" s="24"/>
       <c r="B11" s="11" t="s">
         <v>700</v>
       </c>
@@ -3707,7 +3974,7 @@
       <c r="F11" s="18"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="24" t="s">
         <v>707</v>
       </c>
       <c r="B13" s="11" t="s">
@@ -3723,7 +3990,7 @@
       <c r="F13" s="17"/>
     </row>
     <row r="14" spans="1:7" ht="30">
-      <c r="A14" s="31"/>
+      <c r="A14" s="24"/>
       <c r="B14" s="11" t="s">
         <v>704</v>
       </c>
@@ -3737,7 +4004,7 @@
       <c r="F14" s="17"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="31"/>
+      <c r="A15" s="24"/>
       <c r="B15" s="11" t="s">
         <v>700</v>
       </c>
@@ -3745,7 +4012,7 @@
       <c r="D15" s="11"/>
     </row>
     <row r="17" spans="1:7" ht="30">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="24" t="s">
         <v>706</v>
       </c>
       <c r="B17" s="11" t="s">
@@ -3761,7 +4028,7 @@
       <c r="F17" s="17"/>
     </row>
     <row r="18" spans="1:7" ht="30">
-      <c r="A18" s="31"/>
+      <c r="A18" s="24"/>
       <c r="B18" s="11" t="s">
         <v>502</v>
       </c>
@@ -3775,7 +4042,7 @@
       <c r="F18" s="17"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="31"/>
+      <c r="A19" s="24"/>
       <c r="B19" s="11" t="s">
         <v>700</v>
       </c>
@@ -3783,7 +4050,7 @@
       <c r="D19" s="11"/>
     </row>
     <row r="21" spans="1:7" ht="30">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="24" t="s">
         <v>709</v>
       </c>
       <c r="B21" s="11" t="s">
@@ -3799,7 +4066,7 @@
       <c r="F21" s="13"/>
     </row>
     <row r="22" spans="1:7" ht="30">
-      <c r="A22" s="31"/>
+      <c r="A22" s="24"/>
       <c r="B22" s="11" t="s">
         <v>710</v>
       </c>
@@ -3813,7 +4080,7 @@
       <c r="F22" s="13"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="31"/>
+      <c r="A23" s="24"/>
       <c r="B23" s="11" t="s">
         <v>700</v>
       </c>
@@ -3821,7 +4088,7 @@
       <c r="D23" s="11"/>
     </row>
     <row r="25" spans="1:7" ht="30">
-      <c r="A25" s="31" t="s">
+      <c r="A25" s="24" t="s">
         <v>713</v>
       </c>
       <c r="B25" s="11" t="s">
@@ -3840,7 +4107,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="30">
-      <c r="A26" s="31"/>
+      <c r="A26" s="24"/>
       <c r="B26" s="11" t="s">
         <v>715</v>
       </c>
@@ -3857,7 +4124,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="30">
-      <c r="A27" s="31"/>
+      <c r="A27" s="24"/>
       <c r="B27" s="11" t="s">
         <v>700</v>
       </c>
@@ -3871,7 +4138,7 @@
       <c r="F27" s="18"/>
     </row>
     <row r="29" spans="1:7" ht="30">
-      <c r="A29" s="31" t="s">
+      <c r="A29" s="24" t="s">
         <v>718</v>
       </c>
       <c r="B29" s="11" t="s">
@@ -3887,7 +4154,7 @@
       <c r="F29" s="13"/>
     </row>
     <row r="30" spans="1:7" ht="30">
-      <c r="A30" s="31"/>
+      <c r="A30" s="24"/>
       <c r="B30" s="11" t="s">
         <v>719</v>
       </c>
@@ -3901,7 +4168,7 @@
       <c r="F30" s="13"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="31"/>
+      <c r="A31" s="24"/>
       <c r="B31" s="11" t="s">
         <v>700</v>
       </c>
@@ -3909,7 +4176,7 @@
       <c r="D31" s="11"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="31" t="s">
+      <c r="A33" s="24" t="s">
         <v>750</v>
       </c>
       <c r="B33" s="11" t="s">
@@ -3925,7 +4192,7 @@
       <c r="F33" s="17"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="31"/>
+      <c r="A34" s="24"/>
       <c r="B34" s="11" t="s">
         <v>722</v>
       </c>
@@ -3939,7 +4206,7 @@
       <c r="F34" s="17"/>
     </row>
     <row r="35" spans="1:6" ht="30">
-      <c r="A35" s="31"/>
+      <c r="A35" s="24"/>
       <c r="B35" s="11" t="s">
         <v>723</v>
       </c>
@@ -3953,7 +4220,7 @@
       <c r="F35" s="17"/>
     </row>
     <row r="37" spans="1:6" ht="30">
-      <c r="A37" s="31" t="s">
+      <c r="A37" s="24" t="s">
         <v>751</v>
       </c>
       <c r="B37" s="11" t="s">
@@ -3969,7 +4236,7 @@
       <c r="F37" s="17"/>
     </row>
     <row r="38" spans="1:6" ht="45">
-      <c r="A38" s="31"/>
+      <c r="A38" s="24"/>
       <c r="B38" s="11" t="s">
         <v>727</v>
       </c>
@@ -3983,7 +4250,7 @@
       <c r="F38" s="17"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="31"/>
+      <c r="A39" s="24"/>
       <c r="B39" s="11" t="s">
         <v>728</v>
       </c>
@@ -3992,7 +4259,7 @@
       <c r="F39" s="17"/>
     </row>
     <row r="41" spans="1:6" ht="30">
-      <c r="A41" s="31" t="s">
+      <c r="A41" s="24" t="s">
         <v>752</v>
       </c>
       <c r="B41" s="11" t="s">
@@ -4008,7 +4275,7 @@
       <c r="F41" s="13"/>
     </row>
     <row r="42" spans="1:6" ht="30">
-      <c r="A42" s="31"/>
+      <c r="A42" s="24"/>
       <c r="B42" s="11" t="s">
         <v>731</v>
       </c>
@@ -4020,7 +4287,7 @@
       <c r="F42" s="13"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="31"/>
+      <c r="A43" s="24"/>
       <c r="B43" s="11" t="s">
         <v>732</v>
       </c>
@@ -4105,7 +4372,7 @@
         <v>532</v>
       </c>
       <c r="C4" s="11"/>
-      <c r="E4" s="43" t="s">
+      <c r="E4" s="34" t="s">
         <v>672</v>
       </c>
     </row>
@@ -4117,7 +4384,7 @@
         <v>533</v>
       </c>
       <c r="C5" s="11"/>
-      <c r="E5" s="43"/>
+      <c r="E5" s="34"/>
     </row>
     <row r="6" spans="1:7" ht="17.25" customHeight="1">
       <c r="A6" s="10"/>
@@ -4134,7 +4401,7 @@
       <c r="C7"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="24" t="s">
         <v>534</v>
       </c>
       <c r="B9" s="11" t="s">
@@ -4150,7 +4417,7 @@
       <c r="F9" s="17"/>
     </row>
     <row r="10" spans="1:7" ht="30">
-      <c r="A10" s="31"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="11" t="s">
         <v>669</v>
       </c>
@@ -4164,10 +4431,10 @@
       <c r="F10" s="17"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="31"/>
+      <c r="A11" s="24"/>
     </row>
     <row r="13" spans="1:7" ht="30">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="24" t="s">
         <v>538</v>
       </c>
       <c r="B13" s="11" t="s">
@@ -4183,7 +4450,7 @@
       <c r="F13" s="17"/>
     </row>
     <row r="14" spans="1:7" ht="30">
-      <c r="A14" s="31"/>
+      <c r="A14" s="24"/>
       <c r="B14" s="11" t="s">
         <v>539</v>
       </c>
@@ -4197,7 +4464,7 @@
       <c r="F14" s="17"/>
     </row>
     <row r="16" spans="1:7" ht="30">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="24" t="s">
         <v>542</v>
       </c>
       <c r="B16" s="11" t="s">
@@ -4213,7 +4480,7 @@
       <c r="F16" s="17"/>
     </row>
     <row r="17" spans="1:6" ht="45">
-      <c r="A17" s="31"/>
+      <c r="A17" s="24"/>
       <c r="B17" s="11" t="s">
         <v>544</v>
       </c>
@@ -4227,7 +4494,7 @@
       <c r="F17" s="17"/>
     </row>
     <row r="19" spans="1:6" ht="30">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="24" t="s">
         <v>547</v>
       </c>
       <c r="B19" s="11" t="s">
@@ -4243,7 +4510,7 @@
       <c r="F19" s="17"/>
     </row>
     <row r="20" spans="1:6" ht="30">
-      <c r="A20" s="31"/>
+      <c r="A20" s="24"/>
       <c r="B20" s="11" t="s">
         <v>549</v>
       </c>
@@ -4257,7 +4524,7 @@
       <c r="F20" s="17"/>
     </row>
     <row r="22" spans="1:6" ht="45">
-      <c r="A22" s="31" t="s">
+      <c r="A22" s="24" t="s">
         <v>552</v>
       </c>
       <c r="B22" s="11" t="s">
@@ -4273,7 +4540,7 @@
       <c r="F22" s="13"/>
     </row>
     <row r="23" spans="1:6" ht="45">
-      <c r="A23" s="31"/>
+      <c r="A23" s="24"/>
       <c r="B23" s="11" t="s">
         <v>554</v>
       </c>
@@ -4287,7 +4554,7 @@
       <c r="F23" s="13"/>
     </row>
     <row r="25" spans="1:6" ht="30">
-      <c r="A25" s="31" t="s">
+      <c r="A25" s="24" t="s">
         <v>557</v>
       </c>
       <c r="B25" s="11" t="s">
@@ -4303,7 +4570,7 @@
       <c r="F25" s="17"/>
     </row>
     <row r="26" spans="1:6" ht="30">
-      <c r="A26" s="31"/>
+      <c r="A26" s="24"/>
       <c r="B26" s="11" t="s">
         <v>559</v>
       </c>
@@ -4344,7 +4611,7 @@
       <c r="F29" s="17"/>
     </row>
     <row r="31" spans="1:6" ht="30">
-      <c r="A31" s="31" t="s">
+      <c r="A31" s="24" t="s">
         <v>754</v>
       </c>
       <c r="B31" s="11" t="s">
@@ -4360,7 +4627,7 @@
       <c r="F31" s="17"/>
     </row>
     <row r="32" spans="1:6" ht="45">
-      <c r="A32" s="31"/>
+      <c r="A32" s="24"/>
       <c r="B32" s="11" t="s">
         <v>565</v>
       </c>
@@ -4374,7 +4641,7 @@
       <c r="F32" s="17"/>
     </row>
     <row r="34" spans="1:6" ht="30" customHeight="1">
-      <c r="A34" s="31" t="s">
+      <c r="A34" s="24" t="s">
         <v>755</v>
       </c>
       <c r="B34" s="11" t="s">
@@ -4384,13 +4651,13 @@
       <c r="D34" s="11" t="s">
         <v>571</v>
       </c>
-      <c r="E34" s="33" t="s">
+      <c r="E34" s="25" t="s">
         <v>672</v>
       </c>
       <c r="F34" s="13"/>
     </row>
     <row r="35" spans="1:6" ht="30">
-      <c r="A35" s="31"/>
+      <c r="A35" s="24"/>
       <c r="B35" s="11" t="s">
         <v>569</v>
       </c>
@@ -4398,11 +4665,11 @@
       <c r="D35" s="11" t="s">
         <v>572</v>
       </c>
-      <c r="E35" s="33"/>
+      <c r="E35" s="25"/>
       <c r="F35" s="13"/>
     </row>
     <row r="36" spans="1:6" ht="30">
-      <c r="A36" s="31"/>
+      <c r="A36" s="24"/>
       <c r="B36" s="11" t="s">
         <v>570</v>
       </c>
@@ -4410,7 +4677,7 @@
       <c r="D36" s="11" t="s">
         <v>573</v>
       </c>
-      <c r="E36" s="33"/>
+      <c r="E36" s="25"/>
       <c r="F36" s="13"/>
     </row>
     <row r="38" spans="1:6" ht="60">
@@ -4484,7 +4751,7 @@
       <c r="F44" s="13"/>
     </row>
     <row r="46" spans="1:6" ht="30">
-      <c r="A46" s="31" t="s">
+      <c r="A46" s="24" t="s">
         <v>759</v>
       </c>
       <c r="B46" s="11" t="s">
@@ -4500,7 +4767,7 @@
       <c r="F46" s="17"/>
     </row>
     <row r="47" spans="1:6" ht="30">
-      <c r="A47" s="31"/>
+      <c r="A47" s="24"/>
       <c r="B47" s="11" t="s">
         <v>583</v>
       </c>
@@ -4646,7 +4913,7 @@
   <dimension ref="A1:G157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G85" sqref="G85"/>
     </sheetView>
   </sheetViews>
@@ -4733,7 +5000,7 @@
       <c r="C8" s="10"/>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="24" t="s">
         <v>66</v>
       </c>
       <c r="B9" s="12" t="s">
@@ -4749,10 +5016,10 @@
         <v>27</v>
       </c>
       <c r="F9" s="17"/>
-      <c r="G9" s="32"/>
+      <c r="G9" s="23"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="31"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="12" t="s">
         <v>28</v>
       </c>
@@ -4766,10 +5033,10 @@
         <v>28</v>
       </c>
       <c r="F10" s="17"/>
-      <c r="G10" s="32"/>
+      <c r="G10" s="23"/>
     </row>
     <row r="11" spans="1:7" ht="24.75" customHeight="1">
-      <c r="A11" s="31"/>
+      <c r="A11" s="24"/>
       <c r="B11" s="12" t="s">
         <v>29</v>
       </c>
@@ -4781,10 +5048,10 @@
         <v>30</v>
       </c>
       <c r="F11" s="17"/>
-      <c r="G11" s="32"/>
+      <c r="G11" s="23"/>
     </row>
     <row r="12" spans="1:7" ht="39.75" customHeight="1">
-      <c r="A12" s="33"/>
+      <c r="A12" s="25"/>
       <c r="B12" s="11" t="s">
         <v>68</v>
       </c>
@@ -4799,7 +5066,7 @@
       <c r="G12" s="11"/>
     </row>
     <row r="13" spans="1:7" ht="32.25" customHeight="1">
-      <c r="A13" s="33"/>
+      <c r="A13" s="25"/>
       <c r="B13" s="11" t="s">
         <v>69</v>
       </c>
@@ -4821,7 +5088,7 @@
       <c r="G14" s="11"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="24" t="s">
         <v>72</v>
       </c>
       <c r="B15" t="s">
@@ -4837,27 +5104,27 @@
       <c r="F15" s="17"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="34"/>
+      <c r="A16" s="26"/>
       <c r="B16" t="s">
         <v>73</v>
       </c>
       <c r="C16"/>
-      <c r="D16" s="32" t="s">
+      <c r="D16" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="E16" s="32" t="s">
+      <c r="E16" s="23" t="s">
         <v>75</v>
       </c>
       <c r="F16" s="17"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="34"/>
+      <c r="A17" s="26"/>
       <c r="B17" t="s">
         <v>32</v>
       </c>
       <c r="C17"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
       <c r="F17" s="17"/>
     </row>
     <row r="18" spans="1:7">
@@ -4865,7 +5132,7 @@
       <c r="C18"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="24" t="s">
         <v>76</v>
       </c>
       <c r="B19" t="s">
@@ -4881,27 +5148,27 @@
       <c r="F19" s="17"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="31"/>
+      <c r="A20" s="24"/>
       <c r="B20" t="s">
         <v>77</v>
       </c>
       <c r="C20"/>
-      <c r="D20" s="32" t="s">
+      <c r="D20" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="E20" s="32" t="s">
+      <c r="E20" s="23" t="s">
         <v>590</v>
       </c>
       <c r="F20" s="17"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="31"/>
+      <c r="A21" s="24"/>
       <c r="B21" t="s">
         <v>32</v>
       </c>
       <c r="C21"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
       <c r="F21" s="17"/>
     </row>
     <row r="22" spans="1:7">
@@ -4909,7 +5176,7 @@
       <c r="C22"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="31" t="s">
+      <c r="A23" s="24" t="s">
         <v>78</v>
       </c>
       <c r="B23" t="s">
@@ -4925,27 +5192,27 @@
       <c r="F23" s="17"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="31"/>
+      <c r="A24" s="24"/>
       <c r="B24" t="s">
         <v>79</v>
       </c>
       <c r="C24"/>
-      <c r="D24" s="32" t="s">
+      <c r="D24" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="E24" s="32" t="s">
+      <c r="E24" s="23" t="s">
         <v>591</v>
       </c>
       <c r="F24" s="17"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="31"/>
+      <c r="A25" s="24"/>
       <c r="B25" t="s">
         <v>32</v>
       </c>
       <c r="C25"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
       <c r="F25" s="17"/>
     </row>
     <row r="26" spans="1:7">
@@ -4953,7 +5220,7 @@
       <c r="C26"/>
     </row>
     <row r="27" spans="1:7" ht="24.75" customHeight="1">
-      <c r="A27" s="31" t="s">
+      <c r="A27" s="24" t="s">
         <v>81</v>
       </c>
       <c r="B27" s="11" t="s">
@@ -4963,31 +5230,31 @@
       <c r="D27" t="s">
         <v>74</v>
       </c>
-      <c r="E27" s="31" t="s">
+      <c r="E27" s="24" t="s">
         <v>592</v>
       </c>
       <c r="F27" s="18"/>
     </row>
     <row r="28" spans="1:7" ht="28.5" customHeight="1">
-      <c r="A28" s="31"/>
+      <c r="A28" s="24"/>
       <c r="B28" s="11" t="s">
         <v>82</v>
       </c>
       <c r="C28"/>
-      <c r="D28" s="32" t="s">
+      <c r="D28" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="E28" s="31"/>
+      <c r="E28" s="24"/>
       <c r="F28" s="18"/>
     </row>
     <row r="29" spans="1:7" ht="39.75" customHeight="1">
-      <c r="A29" s="31"/>
+      <c r="A29" s="24"/>
       <c r="B29" s="11" t="s">
         <v>32</v>
       </c>
       <c r="C29"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="31"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="24"/>
       <c r="F29" s="18"/>
     </row>
     <row r="30" spans="1:7">
@@ -4995,7 +5262,7 @@
       <c r="C30"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="31" t="s">
+      <c r="A31" s="24" t="s">
         <v>83</v>
       </c>
       <c r="B31" s="11" t="s">
@@ -5011,15 +5278,15 @@
       <c r="F31" s="18"/>
     </row>
     <row r="32" spans="1:7" ht="45">
-      <c r="A32" s="31"/>
+      <c r="A32" s="24"/>
       <c r="B32" t="s">
         <v>84</v>
       </c>
       <c r="C32"/>
-      <c r="D32" s="32" t="s">
+      <c r="D32" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="E32" s="32" t="s">
+      <c r="E32" s="23" t="s">
         <v>593</v>
       </c>
       <c r="F32" s="18"/>
@@ -5028,23 +5295,23 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="15" customHeight="1">
-      <c r="A33" s="31"/>
+      <c r="A33" s="24"/>
       <c r="B33" t="s">
         <v>85</v>
       </c>
       <c r="C33"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
       <c r="F33" s="18"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="31"/>
+      <c r="A34" s="24"/>
       <c r="B34" s="11" t="s">
         <v>32</v>
       </c>
       <c r="C34"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
       <c r="F34" s="18"/>
     </row>
     <row r="35" spans="1:6" ht="26.25" customHeight="1">
@@ -5052,7 +5319,7 @@
       <c r="C35"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="31" t="s">
+      <c r="A36" s="24" t="s">
         <v>89</v>
       </c>
       <c r="B36" s="11" t="s">
@@ -5068,33 +5335,33 @@
       <c r="F36" s="17"/>
     </row>
     <row r="37" spans="1:6" ht="15" hidden="1" customHeight="1">
-      <c r="A37" s="31"/>
+      <c r="A37" s="24"/>
       <c r="B37"/>
       <c r="C37"/>
       <c r="F37" s="17"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="31"/>
+      <c r="A38" s="24"/>
       <c r="B38" t="s">
         <v>90</v>
       </c>
       <c r="C38"/>
-      <c r="D38" s="32" t="s">
+      <c r="D38" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="E38" s="32" t="s">
+      <c r="E38" s="23" t="s">
         <v>597</v>
       </c>
       <c r="F38" s="17"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="31"/>
+      <c r="A39" s="24"/>
       <c r="B39" t="s">
         <v>32</v>
       </c>
       <c r="C39"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
       <c r="F39" s="17"/>
     </row>
     <row r="40" spans="1:6">
@@ -5147,7 +5414,7 @@
       <c r="C47" s="10"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="31" t="s">
+      <c r="A49" s="24" t="s">
         <v>92</v>
       </c>
       <c r="B49" s="3" t="s">
@@ -5162,7 +5429,7 @@
       <c r="F49" s="17"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="31"/>
+      <c r="A50" s="24"/>
       <c r="B50" s="3" t="s">
         <v>40</v>
       </c>
@@ -5178,7 +5445,7 @@
       <c r="F50" s="17"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="31"/>
+      <c r="A51" s="24"/>
       <c r="B51" s="3" t="s">
         <v>41</v>
       </c>
@@ -5198,10 +5465,10 @@
       <c r="B52" t="s">
         <v>93</v>
       </c>
-      <c r="D52" s="32" t="s">
+      <c r="D52" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="E52" s="32" t="s">
+      <c r="E52" s="23" t="s">
         <v>94</v>
       </c>
       <c r="F52" s="17"/>
@@ -5211,15 +5478,15 @@
       <c r="B53" t="s">
         <v>32</v>
       </c>
-      <c r="D53" s="32"/>
-      <c r="E53" s="32"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="23"/>
       <c r="F53" s="17"/>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="10"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="31" t="s">
+      <c r="A55" s="24" t="s">
         <v>95</v>
       </c>
       <c r="B55" t="s">
@@ -5235,27 +5502,27 @@
       <c r="F55" s="17"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="31"/>
+      <c r="A56" s="24"/>
       <c r="B56" t="s">
         <v>97</v>
       </c>
       <c r="C56"/>
-      <c r="D56" s="32" t="s">
+      <c r="D56" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="E56" s="32" t="s">
+      <c r="E56" s="23" t="s">
         <v>599</v>
       </c>
       <c r="F56" s="17"/>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="31"/>
+      <c r="A57" s="24"/>
       <c r="B57" t="s">
         <v>32</v>
       </c>
       <c r="C57"/>
-      <c r="D57" s="32"/>
-      <c r="E57" s="32"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="23"/>
       <c r="F57" s="17"/>
     </row>
     <row r="58" spans="1:6">
@@ -5263,7 +5530,7 @@
       <c r="C58"/>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="31" t="s">
+      <c r="A59" s="24" t="s">
         <v>100</v>
       </c>
       <c r="B59" t="s">
@@ -5279,27 +5546,27 @@
       <c r="F59" s="17"/>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="31"/>
+      <c r="A60" s="24"/>
       <c r="B60" t="s">
         <v>101</v>
       </c>
       <c r="C60"/>
-      <c r="D60" s="32" t="s">
+      <c r="D60" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="E60" s="32" t="s">
+      <c r="E60" s="23" t="s">
         <v>600</v>
       </c>
       <c r="F60" s="17"/>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="31"/>
+      <c r="A61" s="24"/>
       <c r="B61" t="s">
         <v>32</v>
       </c>
       <c r="C61"/>
-      <c r="D61" s="32"/>
-      <c r="E61" s="32"/>
+      <c r="D61" s="23"/>
+      <c r="E61" s="23"/>
       <c r="F61" s="17"/>
     </row>
     <row r="62" spans="1:6">
@@ -5307,7 +5574,7 @@
       <c r="C62"/>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="31" t="s">
+      <c r="A63" s="24" t="s">
         <v>103</v>
       </c>
       <c r="B63" t="s">
@@ -5323,27 +5590,27 @@
       <c r="F63" s="17"/>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="31"/>
+      <c r="A64" s="24"/>
       <c r="B64" t="s">
         <v>104</v>
       </c>
       <c r="C64"/>
-      <c r="D64" s="32" t="s">
+      <c r="D64" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="E64" s="32" t="s">
+      <c r="E64" s="23" t="s">
         <v>601</v>
       </c>
       <c r="F64" s="17"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="31"/>
+      <c r="A65" s="24"/>
       <c r="B65" t="s">
         <v>32</v>
       </c>
       <c r="C65"/>
-      <c r="D65" s="32"/>
-      <c r="E65" s="32"/>
+      <c r="D65" s="23"/>
+      <c r="E65" s="23"/>
       <c r="F65" s="17"/>
     </row>
     <row r="66" spans="1:7">
@@ -5351,7 +5618,7 @@
       <c r="C66"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="31" t="s">
+      <c r="A67" s="24" t="s">
         <v>106</v>
       </c>
       <c r="B67" t="s">
@@ -5367,27 +5634,27 @@
       <c r="F67" s="17"/>
     </row>
     <row r="68" spans="1:7" ht="30" customHeight="1">
-      <c r="A68" s="31"/>
+      <c r="A68" s="24"/>
       <c r="B68" s="11" t="s">
         <v>107</v>
       </c>
       <c r="C68"/>
-      <c r="D68" s="32" t="s">
+      <c r="D68" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="E68" s="32" t="s">
+      <c r="E68" s="23" t="s">
         <v>602</v>
       </c>
       <c r="F68" s="17"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="31"/>
+      <c r="A69" s="24"/>
       <c r="B69" t="s">
         <v>32</v>
       </c>
       <c r="C69"/>
-      <c r="D69" s="32"/>
-      <c r="E69" s="32"/>
+      <c r="D69" s="23"/>
+      <c r="E69" s="23"/>
       <c r="F69" s="17"/>
     </row>
     <row r="70" spans="1:7">
@@ -5395,7 +5662,7 @@
       <c r="C70"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="31" t="s">
+      <c r="A71" s="24" t="s">
         <v>109</v>
       </c>
       <c r="B71" t="s">
@@ -5408,27 +5675,27 @@
       <c r="F71" s="18"/>
     </row>
     <row r="72" spans="1:7" ht="30">
-      <c r="A72" s="31"/>
+      <c r="A72" s="24"/>
       <c r="B72" s="11" t="s">
         <v>110</v>
       </c>
       <c r="C72"/>
-      <c r="D72" s="32" t="s">
+      <c r="D72" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="E72" s="31" t="s">
+      <c r="E72" s="24" t="s">
         <v>603</v>
       </c>
       <c r="F72" s="18"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="31"/>
+      <c r="A73" s="24"/>
       <c r="B73" t="s">
         <v>32</v>
       </c>
       <c r="C73"/>
-      <c r="D73" s="32"/>
-      <c r="E73" s="31"/>
+      <c r="D73" s="23"/>
+      <c r="E73" s="24"/>
       <c r="F73" s="18"/>
     </row>
     <row r="74" spans="1:7">
@@ -5436,7 +5703,7 @@
       <c r="C74"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="31" t="s">
+      <c r="A75" s="24" t="s">
         <v>112</v>
       </c>
       <c r="B75" t="s">
@@ -5446,38 +5713,38 @@
       <c r="D75" t="s">
         <v>98</v>
       </c>
-      <c r="E75" s="31" t="s">
+      <c r="E75" s="24" t="s">
         <v>604</v>
       </c>
       <c r="F75" s="13"/>
     </row>
     <row r="76" spans="1:7" ht="30">
-      <c r="A76" s="31"/>
+      <c r="A76" s="24"/>
       <c r="B76" s="11" t="s">
         <v>113</v>
       </c>
       <c r="C76"/>
-      <c r="D76" s="32" t="s">
+      <c r="D76" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="E76" s="31"/>
+      <c r="E76" s="24"/>
       <c r="F76" s="17"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="31"/>
+      <c r="A77" s="24"/>
       <c r="B77" t="s">
         <v>32</v>
       </c>
       <c r="C77"/>
-      <c r="D77" s="32"/>
-      <c r="E77" s="31"/>
+      <c r="D77" s="23"/>
+      <c r="E77" s="24"/>
     </row>
     <row r="78" spans="1:7" ht="26.25" customHeight="1">
       <c r="B78"/>
       <c r="C78"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="31" t="s">
+      <c r="A79" s="24" t="s">
         <v>115</v>
       </c>
       <c r="B79" s="3" t="s">
@@ -5488,83 +5755,83 @@
         <v>118</v>
       </c>
       <c r="E79" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="F79" s="13"/>
-      <c r="G79" s="35" t="s">
+      <c r="G79" s="22" t="s">
         <v>605</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="15" hidden="1" customHeight="1">
-      <c r="A80" s="31"/>
+      <c r="A80" s="24"/>
       <c r="C80"/>
       <c r="F80" s="13"/>
-      <c r="G80" s="35"/>
+      <c r="G80" s="22"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="31"/>
+      <c r="A81" s="24"/>
       <c r="B81" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C81"/>
-      <c r="D81" s="32" t="s">
+      <c r="D81" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="E81" s="32" t="s">
-        <v>785</v>
+      <c r="E81" s="23" t="s">
+        <v>784</v>
       </c>
       <c r="F81" s="13"/>
-      <c r="G81" s="35"/>
+      <c r="G81" s="22"/>
     </row>
     <row r="82" spans="1:7" ht="47.25" customHeight="1">
-      <c r="A82" s="31"/>
+      <c r="A82" s="24"/>
       <c r="B82" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C82"/>
-      <c r="D82" s="32"/>
-      <c r="E82" s="32"/>
+      <c r="D82" s="23"/>
+      <c r="E82" s="23"/>
       <c r="F82" s="13"/>
-      <c r="G82" s="35"/>
+      <c r="G82" s="22"/>
     </row>
     <row r="83" spans="1:7">
       <c r="B83"/>
       <c r="C83"/>
     </row>
     <row r="84" spans="1:7" ht="30">
-      <c r="A84" s="31" t="s">
+      <c r="A84" s="24" t="s">
         <v>120</v>
       </c>
       <c r="B84" s="11" t="s">
         <v>121</v>
       </c>
       <c r="C84"/>
-      <c r="D84" s="32" t="s">
+      <c r="D84" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="E84" s="35" t="s">
+      <c r="E84" s="22" t="s">
         <v>608</v>
       </c>
       <c r="F84" s="13"/>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" s="31"/>
+      <c r="A85" s="24"/>
       <c r="B85" t="s">
         <v>122</v>
       </c>
       <c r="C85"/>
-      <c r="D85" s="32"/>
-      <c r="E85" s="35"/>
+      <c r="D85" s="23"/>
+      <c r="E85" s="22"/>
       <c r="F85" s="13"/>
     </row>
     <row r="86" spans="1:7">
-      <c r="A86" s="31"/>
+      <c r="A86" s="24"/>
       <c r="B86" t="s">
         <v>32</v>
       </c>
       <c r="C86"/>
-      <c r="D86" s="32"/>
-      <c r="E86" s="35"/>
+      <c r="D86" s="23"/>
+      <c r="E86" s="22"/>
       <c r="F86" s="13"/>
     </row>
     <row r="87" spans="1:7">
@@ -5572,7 +5839,7 @@
       <c r="C87"/>
     </row>
     <row r="88" spans="1:7" ht="30">
-      <c r="A88" s="31" t="s">
+      <c r="A88" s="24" t="s">
         <v>124</v>
       </c>
       <c r="B88" t="s">
@@ -5588,7 +5855,7 @@
       <c r="F88" s="17"/>
     </row>
     <row r="89" spans="1:7" ht="30">
-      <c r="A89" s="31"/>
+      <c r="A89" s="24"/>
       <c r="B89" s="11" t="s">
         <v>126</v>
       </c>
@@ -5602,7 +5869,7 @@
       <c r="F89" s="17"/>
     </row>
     <row r="90" spans="1:7">
-      <c r="A90" s="31"/>
+      <c r="A90" s="24"/>
       <c r="B90" t="s">
         <v>127</v>
       </c>
@@ -5878,21 +6145,24 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="E84:E86"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="E75:E77"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="G79:G82"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="A88:A90"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="A79:A82"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="A67:A69"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="A84:A86"/>
+    <mergeCell ref="D84:D86"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="D60:D61"/>
     <mergeCell ref="G9:G11"/>
     <mergeCell ref="A49:A51"/>
     <mergeCell ref="A9:A13"/>
@@ -5909,24 +6179,21 @@
     <mergeCell ref="A36:A39"/>
     <mergeCell ref="D38:D39"/>
     <mergeCell ref="E16:E17"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="A67:A69"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="A84:A86"/>
-    <mergeCell ref="D84:D86"/>
-    <mergeCell ref="A88:A90"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="A75:A77"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="A79:A82"/>
-    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="G79:G82"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="E84:E86"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="E75:E77"/>
+    <mergeCell ref="E81:E82"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5994,7 +6261,7 @@
         <v>43</v>
       </c>
       <c r="C4" s="11"/>
-      <c r="E4" s="36" t="s">
+      <c r="E4" s="27" t="s">
         <v>609</v>
       </c>
     </row>
@@ -6006,7 +6273,7 @@
         <v>44</v>
       </c>
       <c r="C5" s="11"/>
-      <c r="E5" s="31"/>
+      <c r="E5" s="24"/>
     </row>
     <row r="6" spans="1:7" ht="17.25" customHeight="1">
       <c r="A6" s="10"/>
@@ -6023,7 +6290,7 @@
       <c r="C7" s="10"/>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="24" t="s">
         <v>130</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -6035,7 +6302,7 @@
       <c r="E9" s="11"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="31"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="3" t="s">
         <v>47</v>
       </c>
@@ -6045,7 +6312,7 @@
       <c r="E10" s="11"/>
     </row>
     <row r="11" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A11" s="31"/>
+      <c r="A11" s="24"/>
       <c r="B11" s="11" t="s">
         <v>131</v>
       </c>
@@ -6065,35 +6332,35 @@
       <c r="E12" s="11"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="24" t="s">
         <v>133</v>
       </c>
       <c r="E13" s="11"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="31"/>
+      <c r="A14" s="24"/>
       <c r="B14" t="s">
         <v>135</v>
       </c>
-      <c r="D14" s="32" t="s">
+      <c r="D14" s="23" t="s">
         <v>138</v>
       </c>
       <c r="E14" s="11"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="31"/>
+      <c r="A15" s="24"/>
       <c r="B15" t="s">
         <v>134</v>
       </c>
-      <c r="D15" s="32"/>
+      <c r="D15" s="23"/>
       <c r="E15" s="11"/>
     </row>
     <row r="16" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A16" s="31"/>
+      <c r="A16" s="24"/>
       <c r="B16" t="s">
         <v>136</v>
       </c>
-      <c r="D16" s="32"/>
+      <c r="D16" s="23"/>
       <c r="E16" s="11"/>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1">
@@ -6101,239 +6368,239 @@
       <c r="C17"/>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="24" t="s">
         <v>139</v>
       </c>
       <c r="B18" t="s">
         <v>135</v>
       </c>
       <c r="C18"/>
-      <c r="D18" s="32" t="s">
+      <c r="D18" s="23" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1">
-      <c r="A19" s="31"/>
+      <c r="A19" s="24"/>
       <c r="B19" t="s">
         <v>140</v>
       </c>
       <c r="C19"/>
-      <c r="D19" s="32"/>
+      <c r="D19" s="23"/>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1">
-      <c r="A20" s="31"/>
+      <c r="A20" s="24"/>
       <c r="B20" t="s">
         <v>136</v>
       </c>
       <c r="C20"/>
-      <c r="D20" s="32"/>
+      <c r="D20" s="23"/>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1">
       <c r="B21"/>
       <c r="C21"/>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1">
-      <c r="A22" s="31" t="s">
+      <c r="A22" s="24" t="s">
         <v>142</v>
       </c>
       <c r="B22" t="s">
         <v>135</v>
       </c>
       <c r="C22"/>
-      <c r="D22" s="32" t="s">
+      <c r="D22" s="23" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="31"/>
+      <c r="A23" s="24"/>
       <c r="B23" t="s">
         <v>143</v>
       </c>
       <c r="C23"/>
-      <c r="D23" s="32"/>
+      <c r="D23" s="23"/>
     </row>
     <row r="24" spans="1:4" ht="18" customHeight="1">
-      <c r="A24" s="31"/>
+      <c r="A24" s="24"/>
       <c r="B24" t="s">
         <v>136</v>
       </c>
       <c r="C24"/>
-      <c r="D24" s="32"/>
+      <c r="D24" s="23"/>
     </row>
     <row r="25" spans="1:4">
       <c r="B25"/>
       <c r="C25"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="24" t="s">
         <v>145</v>
       </c>
       <c r="B26" t="s">
         <v>135</v>
       </c>
       <c r="C26"/>
-      <c r="D26" s="32" t="s">
+      <c r="D26" s="23" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="31"/>
+      <c r="A27" s="24"/>
       <c r="B27" t="s">
         <v>146</v>
       </c>
       <c r="C27"/>
-      <c r="D27" s="32"/>
+      <c r="D27" s="23"/>
     </row>
     <row r="28" spans="1:4" ht="18" customHeight="1">
-      <c r="A28" s="31"/>
+      <c r="A28" s="24"/>
       <c r="B28" t="s">
         <v>136</v>
       </c>
       <c r="C28"/>
-      <c r="D28" s="32"/>
+      <c r="D28" s="23"/>
     </row>
     <row r="29" spans="1:4">
       <c r="B29"/>
       <c r="C29"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="31" t="s">
+      <c r="A30" s="24" t="s">
         <v>148</v>
       </c>
       <c r="B30" t="s">
         <v>135</v>
       </c>
       <c r="C30"/>
-      <c r="D30" s="32" t="s">
+      <c r="D30" s="23" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="31"/>
+      <c r="A31" s="24"/>
       <c r="B31" t="s">
         <v>149</v>
       </c>
       <c r="C31"/>
-      <c r="D31" s="32"/>
+      <c r="D31" s="23"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="31"/>
+      <c r="A32" s="24"/>
       <c r="B32" t="s">
         <v>136</v>
       </c>
       <c r="C32"/>
-      <c r="D32" s="32"/>
+      <c r="D32" s="23"/>
     </row>
     <row r="33" spans="1:4">
       <c r="B33"/>
       <c r="C33"/>
     </row>
     <row r="34" spans="1:4" ht="23.25" customHeight="1">
-      <c r="A34" s="31" t="s">
+      <c r="A34" s="24" t="s">
         <v>151</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>135</v>
       </c>
       <c r="C34"/>
-      <c r="D34" s="32" t="s">
+      <c r="D34" s="23" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="30" customHeight="1">
-      <c r="A35" s="31"/>
+      <c r="A35" s="24"/>
       <c r="B35" s="3" t="s">
         <v>152</v>
       </c>
       <c r="C35"/>
-      <c r="D35" s="32"/>
+      <c r="D35" s="23"/>
     </row>
     <row r="36" spans="1:4" ht="40.5" customHeight="1">
-      <c r="A36" s="31"/>
+      <c r="A36" s="24"/>
       <c r="B36" s="3" t="s">
         <v>136</v>
       </c>
       <c r="C36"/>
-      <c r="D36" s="32"/>
+      <c r="D36" s="23"/>
     </row>
     <row r="37" spans="1:4">
       <c r="B37"/>
       <c r="C37"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="31" t="s">
+      <c r="A38" s="24" t="s">
         <v>154</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>135</v>
       </c>
       <c r="C38"/>
-      <c r="D38" s="32" t="s">
+      <c r="D38" s="23" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="31"/>
+      <c r="A39" s="24"/>
       <c r="B39" t="s">
         <v>155</v>
       </c>
       <c r="C39"/>
-      <c r="D39" s="32"/>
+      <c r="D39" s="23"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="31"/>
+      <c r="A40" s="24"/>
       <c r="B40" s="3" t="s">
         <v>136</v>
       </c>
       <c r="C40"/>
-      <c r="D40" s="32"/>
+      <c r="D40" s="23"/>
     </row>
     <row r="41" spans="1:4">
       <c r="B41"/>
       <c r="C41"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="31" t="s">
+      <c r="A42" s="24" t="s">
         <v>157</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>135</v>
       </c>
       <c r="C42"/>
-      <c r="D42" s="32" t="s">
+      <c r="D42" s="23" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="31"/>
+      <c r="A43" s="24"/>
       <c r="B43" t="s">
         <v>158</v>
       </c>
       <c r="C43"/>
-      <c r="D43" s="32"/>
+      <c r="D43" s="23"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="31"/>
+      <c r="A44" s="24"/>
       <c r="B44" t="s">
         <v>159</v>
       </c>
       <c r="C44"/>
-      <c r="D44" s="32"/>
+      <c r="D44" s="23"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="37"/>
+      <c r="A45" s="28"/>
       <c r="B45" s="3" t="s">
         <v>136</v>
       </c>
       <c r="C45"/>
-      <c r="D45" s="32"/>
+      <c r="D45" s="23"/>
     </row>
     <row r="46" spans="1:4">
       <c r="B46"/>
       <c r="C46"/>
     </row>
     <row r="47" spans="1:4" ht="30">
-      <c r="A47" s="31" t="s">
+      <c r="A47" s="24" t="s">
         <v>161</v>
       </c>
       <c r="B47" s="3" t="s">
@@ -6345,7 +6612,7 @@
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="31"/>
+      <c r="A48" s="24"/>
       <c r="B48" t="s">
         <v>162</v>
       </c>
@@ -6353,7 +6620,7 @@
       <c r="D48" s="11"/>
     </row>
     <row r="49" spans="1:4" ht="30">
-      <c r="A49" s="31"/>
+      <c r="A49" s="24"/>
       <c r="B49" s="3" t="s">
         <v>136</v>
       </c>
@@ -6367,152 +6634,152 @@
       <c r="C50"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="31" t="s">
+      <c r="A51" s="24" t="s">
         <v>165</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>135</v>
       </c>
       <c r="C51"/>
-      <c r="D51" s="32" t="s">
+      <c r="D51" s="23" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="31"/>
+      <c r="A52" s="24"/>
       <c r="B52" t="s">
         <v>166</v>
       </c>
       <c r="C52"/>
-      <c r="D52" s="32"/>
+      <c r="D52" s="23"/>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="31"/>
+      <c r="A53" s="24"/>
       <c r="B53" s="3" t="s">
         <v>136</v>
       </c>
       <c r="C53"/>
-      <c r="D53" s="32"/>
+      <c r="D53" s="23"/>
     </row>
     <row r="54" spans="1:4">
       <c r="B54"/>
       <c r="C54"/>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="31" t="s">
+      <c r="A55" s="24" t="s">
         <v>168</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>135</v>
       </c>
       <c r="C55"/>
-      <c r="D55" s="32" t="s">
+      <c r="D55" s="23" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="30">
-      <c r="A56" s="31"/>
+      <c r="A56" s="24"/>
       <c r="B56" s="11" t="s">
         <v>169</v>
       </c>
       <c r="C56"/>
-      <c r="D56" s="32"/>
+      <c r="D56" s="23"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="31"/>
+      <c r="A57" s="24"/>
       <c r="B57" s="3" t="s">
         <v>136</v>
       </c>
       <c r="C57"/>
-      <c r="D57" s="32"/>
+      <c r="D57" s="23"/>
     </row>
     <row r="58" spans="1:4">
       <c r="B58"/>
       <c r="C58"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="31" t="s">
+      <c r="A59" s="24" t="s">
         <v>171</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>135</v>
       </c>
       <c r="C59"/>
-      <c r="D59" s="32" t="s">
+      <c r="D59" s="23" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="31"/>
+      <c r="A60" s="24"/>
       <c r="B60" t="s">
         <v>172</v>
       </c>
       <c r="C60"/>
-      <c r="D60" s="32"/>
+      <c r="D60" s="23"/>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="31"/>
+      <c r="A61" s="24"/>
       <c r="B61" s="3" t="s">
         <v>136</v>
       </c>
       <c r="C61"/>
-      <c r="D61" s="32"/>
+      <c r="D61" s="23"/>
     </row>
     <row r="62" spans="1:4">
       <c r="B62"/>
       <c r="C62"/>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="31" t="s">
+      <c r="A63" s="24" t="s">
         <v>174</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>135</v>
       </c>
       <c r="C63"/>
-      <c r="D63" s="32" t="s">
+      <c r="D63" s="23" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="31"/>
+      <c r="A64" s="24"/>
       <c r="B64" t="s">
         <v>175</v>
       </c>
       <c r="C64"/>
-      <c r="D64" s="32"/>
+      <c r="D64" s="23"/>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="31"/>
+      <c r="A65" s="24"/>
       <c r="B65" s="3" t="s">
         <v>136</v>
       </c>
       <c r="C65"/>
-      <c r="D65" s="32"/>
+      <c r="D65" s="23"/>
     </row>
     <row r="66" spans="1:4">
       <c r="B66"/>
       <c r="C66"/>
     </row>
     <row r="67" spans="1:4" ht="23.25" customHeight="1">
-      <c r="A67" s="31" t="s">
+      <c r="A67" s="24" t="s">
         <v>177</v>
       </c>
       <c r="B67" t="s">
         <v>178</v>
       </c>
       <c r="C67"/>
-      <c r="D67" s="32" t="s">
+      <c r="D67" s="23" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="23.25" customHeight="1">
-      <c r="A68" s="31"/>
+      <c r="A68" s="24"/>
       <c r="B68" t="s">
         <v>179</v>
       </c>
       <c r="C68"/>
-      <c r="D68" s="32"/>
+      <c r="D68" s="23"/>
     </row>
     <row r="69" spans="1:4">
       <c r="B69"/>
@@ -6544,6 +6811,19 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="D55:D57"/>
+    <mergeCell ref="D59:D61"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="D22:D24"/>
     <mergeCell ref="A63:A65"/>
     <mergeCell ref="A67:A68"/>
     <mergeCell ref="D67:D68"/>
@@ -6560,19 +6840,6 @@
     <mergeCell ref="A51:A53"/>
     <mergeCell ref="D51:D53"/>
     <mergeCell ref="A55:A57"/>
-    <mergeCell ref="D55:D57"/>
-    <mergeCell ref="D59:D61"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="D22:D24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6662,56 +6929,56 @@
       <c r="C7" s="10"/>
     </row>
     <row r="9" spans="1:7" ht="54.75" customHeight="1">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="24" t="s">
         <v>181</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="E9" s="32" t="s">
+      <c r="E9" s="23" t="s">
         <v>610</v>
       </c>
       <c r="F9" s="17"/>
     </row>
     <row r="10" spans="1:7" ht="54.75" customHeight="1">
-      <c r="A10" s="31"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
       <c r="F10" s="17"/>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1"/>
     <row r="12" spans="1:7" ht="48" customHeight="1">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="24" t="s">
         <v>185</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="D12" s="32" t="s">
+      <c r="D12" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="E12" s="32" t="s">
+      <c r="E12" s="23" t="s">
         <v>611</v>
       </c>
       <c r="F12" s="17"/>
     </row>
     <row r="13" spans="1:7" ht="48.75" customHeight="1">
-      <c r="A13" s="31"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
       <c r="F13" s="17"/>
     </row>
     <row r="15" spans="1:7" ht="30.75" customHeight="1">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="24" t="s">
         <v>190</v>
       </c>
       <c r="B15" s="11" t="s">
@@ -6726,7 +6993,7 @@
       <c r="F15" s="17"/>
     </row>
     <row r="16" spans="1:7" ht="30">
-      <c r="A16" s="31"/>
+      <c r="A16" s="24"/>
       <c r="B16" s="11" t="s">
         <v>192</v>
       </c>
@@ -6739,7 +7006,7 @@
       <c r="F16" s="17"/>
     </row>
     <row r="17" spans="1:7" ht="30">
-      <c r="A17" s="31"/>
+      <c r="A17" s="24"/>
       <c r="B17" s="11" t="s">
         <v>193</v>
       </c>
@@ -6752,7 +7019,7 @@
       <c r="F17" s="17"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="24" t="s">
         <v>197</v>
       </c>
       <c r="B19" s="11" t="s">
@@ -6760,7 +7027,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="30">
-      <c r="A20" s="31"/>
+      <c r="A20" s="24"/>
       <c r="B20" s="11" t="s">
         <v>192</v>
       </c>
@@ -6773,7 +7040,7 @@
       <c r="F20" s="17"/>
     </row>
     <row r="21" spans="1:7" ht="30">
-      <c r="A21" s="31"/>
+      <c r="A21" s="24"/>
       <c r="B21" s="11" t="s">
         <v>198</v>
       </c>
@@ -6786,7 +7053,7 @@
       <c r="F21" s="17"/>
     </row>
     <row r="22" spans="1:7" ht="30">
-      <c r="A22" s="31"/>
+      <c r="A22" s="24"/>
       <c r="B22" s="11" t="s">
         <v>199</v>
       </c>
@@ -6799,19 +7066,19 @@
       <c r="F22" s="17"/>
     </row>
     <row r="24" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="24" t="s">
         <v>203</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>204</v>
       </c>
       <c r="F24" s="13"/>
-      <c r="G24" s="41" t="s">
+      <c r="G24" s="31" t="s">
         <v>620</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="30">
-      <c r="A25" s="31"/>
+      <c r="A25" s="24"/>
       <c r="B25" s="11" t="s">
         <v>205</v>
       </c>
@@ -6822,10 +7089,10 @@
         <v>619</v>
       </c>
       <c r="F25" s="13"/>
-      <c r="G25" s="31"/>
+      <c r="G25" s="24"/>
     </row>
     <row r="26" spans="1:7" ht="28.5" customHeight="1">
-      <c r="A26" s="31"/>
+      <c r="A26" s="24"/>
       <c r="B26" s="11" t="s">
         <v>183</v>
       </c>
@@ -6836,10 +7103,10 @@
         <v>618</v>
       </c>
       <c r="F26" s="13"/>
-      <c r="G26" s="31"/>
+      <c r="G26" s="24"/>
     </row>
     <row r="28" spans="1:7" ht="30">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="24" t="s">
         <v>208</v>
       </c>
       <c r="B28" s="11" t="s">
@@ -6854,7 +7121,7 @@
       <c r="F28" s="17"/>
     </row>
     <row r="29" spans="1:7" ht="30">
-      <c r="A29" s="32"/>
+      <c r="A29" s="23"/>
       <c r="D29" s="11" t="s">
         <v>211</v>
       </c>
@@ -6864,7 +7131,7 @@
       <c r="F29" s="17"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="31" t="s">
+      <c r="A31" s="24" t="s">
         <v>212</v>
       </c>
       <c r="B31" s="11" t="s">
@@ -6872,7 +7139,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="15" customHeight="1">
-      <c r="A32" s="31"/>
+      <c r="A32" s="24"/>
       <c r="B32" s="11" t="s">
         <v>192</v>
       </c>
@@ -6880,12 +7147,12 @@
         <v>215</v>
       </c>
       <c r="F32" s="18"/>
-      <c r="G32" s="40" t="s">
+      <c r="G32" s="30" t="s">
         <v>668</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="30">
-      <c r="A33" s="31"/>
+      <c r="A33" s="24"/>
       <c r="B33" s="11" t="s">
         <v>213</v>
       </c>
@@ -6899,10 +7166,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="F33" s="18"/>
-      <c r="G33" s="33"/>
+      <c r="G33" s="25"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="31"/>
+      <c r="A34" s="24"/>
       <c r="B34" s="11" t="s">
         <v>214</v>
       </c>
@@ -6910,10 +7177,10 @@
         <v>217</v>
       </c>
       <c r="F34" s="18"/>
-      <c r="G34" s="33"/>
+      <c r="G34" s="25"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="31" t="s">
+      <c r="A36" s="24" t="s">
         <v>218</v>
       </c>
       <c r="B36" s="11" t="s">
@@ -6921,7 +7188,7 @@
       </c>
     </row>
     <row r="37" spans="1:7" ht="30">
-      <c r="A37" s="31"/>
+      <c r="A37" s="24"/>
       <c r="B37" s="11" t="s">
         <v>192</v>
       </c>
@@ -6934,14 +7201,14 @@
       <c r="F37" s="17"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="31"/>
+      <c r="A38" s="24"/>
       <c r="B38" t="s">
         <v>219</v>
       </c>
       <c r="F38" s="17"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="31"/>
+      <c r="A39" s="24"/>
       <c r="B39" t="s">
         <v>214</v>
       </c>
@@ -6954,7 +7221,7 @@
       <c r="F39" s="17"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="31" t="s">
+      <c r="A41" s="24" t="s">
         <v>222</v>
       </c>
       <c r="B41" t="s">
@@ -6967,12 +7234,12 @@
         <v>224</v>
       </c>
       <c r="F41" s="17"/>
-      <c r="G41" s="40" t="s">
+      <c r="G41" s="30" t="s">
         <v>625</v>
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="31"/>
+      <c r="A42" s="24"/>
       <c r="B42" t="s">
         <v>192</v>
       </c>
@@ -6983,10 +7250,10 @@
         <v>225</v>
       </c>
       <c r="F42" s="17"/>
-      <c r="G42" s="33"/>
+      <c r="G42" s="25"/>
     </row>
     <row r="43" spans="1:7" ht="31.5" customHeight="1">
-      <c r="A43" s="31"/>
+      <c r="A43" s="24"/>
       <c r="B43" t="s">
         <v>223</v>
       </c>
@@ -6997,10 +7264,10 @@
         <v>217</v>
       </c>
       <c r="F43" s="17"/>
-      <c r="G43" s="33"/>
+      <c r="G43" s="25"/>
     </row>
     <row r="45" spans="1:7" ht="30">
-      <c r="A45" s="31" t="s">
+      <c r="A45" s="24" t="s">
         <v>226</v>
       </c>
       <c r="B45" s="3" t="s">
@@ -7015,7 +7282,7 @@
       <c r="F45" s="17"/>
     </row>
     <row r="46" spans="1:7" ht="30">
-      <c r="A46" s="31"/>
+      <c r="A46" s="24"/>
       <c r="B46" s="3" t="s">
         <v>227</v>
       </c>
@@ -7028,7 +7295,7 @@
       <c r="F46" s="17"/>
     </row>
     <row r="48" spans="1:7" ht="15" customHeight="1">
-      <c r="A48" s="31" t="s">
+      <c r="A48" s="24" t="s">
         <v>230</v>
       </c>
       <c r="B48" s="3" t="s">
@@ -7036,7 +7303,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="51.75" customHeight="1">
-      <c r="A49" s="31"/>
+      <c r="A49" s="24"/>
       <c r="B49" s="3" t="s">
         <v>183</v>
       </c>
@@ -7049,7 +7316,7 @@
       <c r="F49" s="17"/>
     </row>
     <row r="50" spans="1:6" ht="42" customHeight="1">
-      <c r="A50" s="31"/>
+      <c r="A50" s="24"/>
       <c r="B50" s="3" t="s">
         <v>231</v>
       </c>
@@ -7062,7 +7329,7 @@
       <c r="F50" s="17"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="31" t="s">
+      <c r="A52" s="24" t="s">
         <v>234</v>
       </c>
       <c r="B52" s="3" t="s">
@@ -7070,7 +7337,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="30">
-      <c r="A53" s="31"/>
+      <c r="A53" s="24"/>
       <c r="B53" s="3" t="s">
         <v>236</v>
       </c>
@@ -7083,7 +7350,7 @@
       <c r="F53" s="17"/>
     </row>
     <row r="54" spans="1:6" ht="30">
-      <c r="A54" s="31"/>
+      <c r="A54" s="24"/>
       <c r="B54" s="3" t="s">
         <v>237</v>
       </c>
@@ -7096,7 +7363,7 @@
       <c r="F54" s="17"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="31" t="s">
+      <c r="A56" s="24" t="s">
         <v>240</v>
       </c>
       <c r="B56" s="3" t="s">
@@ -7104,7 +7371,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="30">
-      <c r="A57" s="31"/>
+      <c r="A57" s="24"/>
       <c r="B57" s="3" t="s">
         <v>242</v>
       </c>
@@ -7117,7 +7384,7 @@
       <c r="F57" s="17"/>
     </row>
     <row r="58" spans="1:6" ht="30">
-      <c r="A58" s="31"/>
+      <c r="A58" s="24"/>
       <c r="B58" s="3" t="s">
         <v>243</v>
       </c>
@@ -7130,7 +7397,7 @@
       <c r="F58" s="17"/>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="31" t="s">
+      <c r="A60" s="24" t="s">
         <v>246</v>
       </c>
       <c r="B60" s="3" t="s">
@@ -7145,7 +7412,7 @@
       <c r="F60" s="13"/>
     </row>
     <row r="61" spans="1:6" ht="30">
-      <c r="A61" s="31"/>
+      <c r="A61" s="24"/>
       <c r="B61" s="3" t="s">
         <v>192</v>
       </c>
@@ -7158,14 +7425,14 @@
       <c r="F61" s="13"/>
     </row>
     <row r="62" spans="1:6" ht="26.25" customHeight="1">
-      <c r="A62" s="31"/>
+      <c r="A62" s="24"/>
       <c r="B62" s="3" t="s">
         <v>247</v>
       </c>
       <c r="F62" s="13"/>
     </row>
     <row r="63" spans="1:6" ht="30">
-      <c r="A63" s="31"/>
+      <c r="A63" s="24"/>
       <c r="B63" s="3" t="s">
         <v>199</v>
       </c>
@@ -7175,7 +7442,7 @@
       <c r="F63" s="13"/>
     </row>
     <row r="65" spans="1:6" ht="30">
-      <c r="A65" s="31" t="s">
+      <c r="A65" s="24" t="s">
         <v>250</v>
       </c>
       <c r="B65" s="3" t="s">
@@ -7184,30 +7451,30 @@
       <c r="D65" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="E65" s="39" t="s">
+      <c r="E65" s="29" t="s">
         <v>636</v>
       </c>
       <c r="F65" s="13"/>
     </row>
     <row r="66" spans="1:6" ht="45">
-      <c r="A66" s="31"/>
+      <c r="A66" s="24"/>
       <c r="B66" s="3" t="s">
         <v>192</v>
       </c>
       <c r="D66" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="E66" s="39"/>
+      <c r="E66" s="29"/>
       <c r="F66" s="13"/>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="31"/>
+      <c r="A67" s="24"/>
       <c r="B67" s="3" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="38" t="s">
+      <c r="A69" s="32" t="s">
         <v>253</v>
       </c>
       <c r="B69" s="3" t="s">
@@ -7222,7 +7489,7 @@
       <c r="F69" s="17"/>
     </row>
     <row r="70" spans="1:6" ht="30">
-      <c r="A70" s="38"/>
+      <c r="A70" s="32"/>
       <c r="B70" s="3" t="s">
         <v>183</v>
       </c>
@@ -7235,24 +7502,24 @@
       <c r="F70" s="17"/>
     </row>
     <row r="71" spans="1:6" ht="30">
-      <c r="A71" s="32"/>
+      <c r="A71" s="23"/>
       <c r="D71" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="E71" s="39" t="s">
+      <c r="E71" s="29" t="s">
         <v>636</v>
       </c>
       <c r="F71" s="13"/>
     </row>
     <row r="72" spans="1:6">
-      <c r="E72" s="39"/>
+      <c r="E72" s="29"/>
       <c r="F72" s="13"/>
     </row>
     <row r="73" spans="1:6">
-      <c r="E73" s="39"/>
+      <c r="E73" s="29"/>
     </row>
     <row r="74" spans="1:6" ht="30">
-      <c r="A74" s="31" t="s">
+      <c r="A74" s="24" t="s">
         <v>258</v>
       </c>
       <c r="B74" s="3" t="s">
@@ -7261,29 +7528,29 @@
       <c r="D74" s="15" t="s">
         <v>261</v>
       </c>
-      <c r="E74" s="39" t="s">
+      <c r="E74" s="29" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="31"/>
+      <c r="A75" s="24"/>
       <c r="B75" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="E75" s="31"/>
+      <c r="E75" s="24"/>
     </row>
     <row r="76" spans="1:6" ht="30">
-      <c r="A76" s="31"/>
+      <c r="A76" s="24"/>
       <c r="B76" s="3" t="s">
         <v>260</v>
       </c>
       <c r="D76" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="E76" s="31"/>
+      <c r="E76" s="24"/>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="31" t="s">
+      <c r="A78" s="24" t="s">
         <v>263</v>
       </c>
       <c r="B78" s="3" t="s">
@@ -7298,7 +7565,7 @@
       <c r="F78" s="17"/>
     </row>
     <row r="79" spans="1:6" ht="45">
-      <c r="A79" s="31"/>
+      <c r="A79" s="24"/>
       <c r="B79" s="3" t="s">
         <v>183</v>
       </c>
@@ -7311,7 +7578,7 @@
       <c r="F79" s="17"/>
     </row>
     <row r="81" spans="1:7" ht="30">
-      <c r="A81" s="31" t="s">
+      <c r="A81" s="24" t="s">
         <v>267</v>
       </c>
       <c r="B81" s="3" t="s">
@@ -7326,7 +7593,7 @@
       <c r="F81" s="17"/>
     </row>
     <row r="82" spans="1:7" ht="30">
-      <c r="A82" s="31"/>
+      <c r="A82" s="24"/>
       <c r="B82" s="3" t="s">
         <v>269</v>
       </c>
@@ -7339,13 +7606,13 @@
       <c r="F82" s="17"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="31"/>
+      <c r="A83" s="24"/>
       <c r="B83" s="3" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="30">
-      <c r="A85" s="31" t="s">
+      <c r="A85" s="24" t="s">
         <v>272</v>
       </c>
       <c r="B85" s="3" t="s">
@@ -7361,20 +7628,20 @@
         <v>#VALUE!</v>
       </c>
       <c r="F85" s="18"/>
-      <c r="G85" s="40" t="s">
+      <c r="G85" s="30" t="s">
         <v>668</v>
       </c>
     </row>
     <row r="86" spans="1:7">
-      <c r="A86" s="31"/>
+      <c r="A86" s="24"/>
       <c r="B86" s="3" t="s">
         <v>192</v>
       </c>
       <c r="F86" s="18"/>
-      <c r="G86" s="33"/>
+      <c r="G86" s="25"/>
     </row>
     <row r="87" spans="1:7" ht="30">
-      <c r="A87" s="31"/>
+      <c r="A87" s="24"/>
       <c r="B87" s="3" t="s">
         <v>273</v>
       </c>
@@ -7382,23 +7649,29 @@
         <v>275</v>
       </c>
       <c r="F87" s="18"/>
-      <c r="G87" s="33"/>
+      <c r="G87" s="25"/>
     </row>
     <row r="88" spans="1:7">
-      <c r="A88" s="31"/>
+      <c r="A88" s="24"/>
       <c r="B88" s="3" t="s">
         <v>214</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="E74:E76"/>
-    <mergeCell ref="G85:G87"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="G32:G34"/>
-    <mergeCell ref="G41:G43"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="E71:E73"/>
+    <mergeCell ref="A74:A76"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="A81:A83"/>
+    <mergeCell ref="A85:A88"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="A52:A54"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="A28:A29"/>
@@ -7410,19 +7683,13 @@
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="A74:A76"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="A81:A83"/>
-    <mergeCell ref="A85:A88"/>
-    <mergeCell ref="A56:A58"/>
-    <mergeCell ref="A60:A63"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="E74:E76"/>
+    <mergeCell ref="G85:G87"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="G32:G34"/>
+    <mergeCell ref="G41:G43"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="E71:E73"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7490,7 +7757,7 @@
         <v>50</v>
       </c>
       <c r="C4" s="11"/>
-      <c r="E4" s="36" t="s">
+      <c r="E4" s="27" t="s">
         <v>644</v>
       </c>
     </row>
@@ -7502,7 +7769,7 @@
         <v>51</v>
       </c>
       <c r="C5" s="11"/>
-      <c r="E5" s="31"/>
+      <c r="E5" s="24"/>
     </row>
     <row r="6" spans="1:7" ht="17.25" customHeight="1"/>
     <row r="7" spans="1:7">
@@ -7515,7 +7782,7 @@
       <c r="C7" s="10"/>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="24" t="s">
         <v>278</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -7526,7 +7793,7 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="31"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="3" t="s">
         <v>276</v>
       </c>
@@ -7534,7 +7801,7 @@
       <c r="E10" s="15"/>
     </row>
     <row r="11" spans="1:7" ht="30">
-      <c r="A11" s="31"/>
+      <c r="A11" s="24"/>
       <c r="B11" s="3" t="s">
         <v>279</v>
       </c>
@@ -7543,14 +7810,14 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="31"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="3" t="s">
         <v>280</v>
       </c>
       <c r="D12" s="15"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="31"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="3" t="s">
         <v>281</v>
       </c>
@@ -7562,7 +7829,7 @@
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:7" ht="33" customHeight="1">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="24" t="s">
         <v>285</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -7571,20 +7838,20 @@
       <c r="D15" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="34"/>
+      <c r="E15" s="26"/>
     </row>
     <row r="16" spans="1:7" ht="33.75" customHeight="1">
-      <c r="A16" s="31"/>
+      <c r="A16" s="24"/>
       <c r="B16" s="3" t="s">
         <v>287</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>289</v>
       </c>
-      <c r="E16" s="34"/>
+      <c r="E16" s="26"/>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1">
-      <c r="A17" s="31"/>
+      <c r="A17" s="24"/>
       <c r="B17" s="3" t="s">
         <v>288</v>
       </c>
@@ -7594,7 +7861,7 @@
     </row>
     <row r="18" spans="1:4" ht="28.5" customHeight="1"/>
     <row r="19" spans="1:4" ht="27.75" customHeight="1">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="24" t="s">
         <v>291</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -7602,7 +7869,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="32.25" customHeight="1">
-      <c r="A20" s="31"/>
+      <c r="A20" s="24"/>
       <c r="B20" s="3" t="s">
         <v>292</v>
       </c>
@@ -7611,7 +7878,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="30">
-      <c r="A21" s="31"/>
+      <c r="A21" s="24"/>
       <c r="B21" s="3" t="s">
         <v>214</v>
       </c>
@@ -7620,7 +7887,7 @@
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="31"/>
+      <c r="A22" s="24"/>
       <c r="B22" s="3" t="s">
         <v>227</v>
       </c>
@@ -7629,13 +7896,13 @@
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="31"/>
+      <c r="A23" s="24"/>
       <c r="B23" s="3" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="30">
-      <c r="A25" s="31" t="s">
+      <c r="A25" s="24" t="s">
         <v>296</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -7646,14 +7913,14 @@
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="31"/>
+      <c r="A26" s="24"/>
       <c r="B26" s="3" t="s">
         <v>276</v>
       </c>
       <c r="D26" s="15"/>
     </row>
     <row r="27" spans="1:4" ht="30">
-      <c r="A27" s="31"/>
+      <c r="A27" s="24"/>
       <c r="B27" s="3" t="s">
         <v>297</v>
       </c>
@@ -7662,13 +7929,13 @@
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="31"/>
+      <c r="A28" s="24"/>
       <c r="B28" s="3" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="30">
-      <c r="A30" s="31" t="s">
+      <c r="A30" s="24" t="s">
         <v>300</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -7679,7 +7946,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="30">
-      <c r="A31" s="31"/>
+      <c r="A31" s="24"/>
       <c r="B31" s="3" t="s">
         <v>301</v>
       </c>
@@ -7688,13 +7955,13 @@
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="31"/>
+      <c r="A32" s="24"/>
       <c r="B32" s="3" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="30">
-      <c r="A34" s="31" t="s">
+      <c r="A34" s="24" t="s">
         <v>304</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -7705,7 +7972,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="30">
-      <c r="A35" s="31"/>
+      <c r="A35" s="24"/>
       <c r="B35" s="3" t="s">
         <v>305</v>
       </c>
@@ -7714,13 +7981,13 @@
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="31"/>
+      <c r="A36" s="24"/>
       <c r="B36" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="31" t="s">
+      <c r="A38" s="24" t="s">
         <v>309</v>
       </c>
       <c r="B38" s="11" t="s">
@@ -7731,7 +7998,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="30">
-      <c r="A39" s="31"/>
+      <c r="A39" s="24"/>
       <c r="B39" s="11" t="s">
         <v>276</v>
       </c>
@@ -7740,7 +8007,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="30">
-      <c r="A40" s="31"/>
+      <c r="A40" s="24"/>
       <c r="B40" s="11" t="s">
         <v>310</v>
       </c>
@@ -7749,7 +8016,7 @@
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="31"/>
+      <c r="A41" s="24"/>
       <c r="B41" s="11" t="s">
         <v>281</v>
       </c>
@@ -7760,7 +8027,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="30">
-      <c r="A43" s="31" t="s">
+      <c r="A43" s="24" t="s">
         <v>312</v>
       </c>
       <c r="B43" s="11" t="s">
@@ -7771,7 +8038,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="30">
-      <c r="A44" s="31"/>
+      <c r="A44" s="24"/>
       <c r="B44" s="11" t="s">
         <v>313</v>
       </c>
@@ -7780,13 +8047,13 @@
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="31"/>
+      <c r="A45" s="24"/>
       <c r="B45" s="11" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="31" t="s">
+      <c r="A47" s="24" t="s">
         <v>316</v>
       </c>
       <c r="B47" s="3" t="s">
@@ -7797,7 +8064,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="30">
-      <c r="A48" s="31"/>
+      <c r="A48" s="24"/>
       <c r="B48" s="3" t="s">
         <v>276</v>
       </c>
@@ -7806,7 +8073,7 @@
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="31"/>
+      <c r="A49" s="24"/>
       <c r="B49" s="3" t="s">
         <v>317</v>
       </c>
@@ -7815,13 +8082,13 @@
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="31"/>
+      <c r="A50" s="24"/>
       <c r="B50" s="3" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="30">
-      <c r="A52" s="31" t="s">
+      <c r="A52" s="24" t="s">
         <v>318</v>
       </c>
       <c r="B52" s="3" t="s">
@@ -7832,14 +8099,14 @@
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="31"/>
+      <c r="A53" s="24"/>
       <c r="B53" s="3" t="s">
         <v>319</v>
       </c>
       <c r="D53" s="11"/>
     </row>
     <row r="54" spans="1:4" ht="30">
-      <c r="A54" s="31"/>
+      <c r="A54" s="24"/>
       <c r="B54" s="3" t="s">
         <v>288</v>
       </c>
@@ -7848,7 +8115,7 @@
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="31" t="s">
+      <c r="A56" s="24" t="s">
         <v>322</v>
       </c>
       <c r="B56" s="11" t="s">
@@ -7856,7 +8123,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" ht="30">
-      <c r="A57" s="31"/>
+      <c r="A57" s="24"/>
       <c r="B57" s="11" t="s">
         <v>276</v>
       </c>
@@ -7865,7 +8132,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" ht="30">
-      <c r="A58" s="31"/>
+      <c r="A58" s="24"/>
       <c r="B58" s="11" t="s">
         <v>323</v>
       </c>
@@ -7874,13 +8141,13 @@
       </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="31"/>
+      <c r="A59" s="24"/>
       <c r="B59" s="11" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="30">
-      <c r="A61" s="31" t="s">
+      <c r="A61" s="24" t="s">
         <v>326</v>
       </c>
       <c r="B61" s="11" t="s">
@@ -7891,14 +8158,14 @@
       </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="31"/>
+      <c r="A62" s="24"/>
       <c r="B62" s="11" t="s">
         <v>327</v>
       </c>
       <c r="D62" s="11"/>
     </row>
     <row r="63" spans="1:4" ht="30">
-      <c r="A63" s="31"/>
+      <c r="A63" s="24"/>
       <c r="B63" s="11" t="s">
         <v>328</v>
       </c>
@@ -7907,13 +8174,13 @@
       </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="31"/>
+      <c r="A64" s="24"/>
       <c r="B64" s="11" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="30">
-      <c r="A66" s="31" t="s">
+      <c r="A66" s="24" t="s">
         <v>331</v>
       </c>
       <c r="B66" s="3" t="s">
@@ -7924,7 +8191,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" ht="30">
-      <c r="A67" s="31"/>
+      <c r="A67" s="24"/>
       <c r="B67" s="3" t="s">
         <v>332</v>
       </c>
@@ -7933,7 +8200,7 @@
       </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="31"/>
+      <c r="A68" s="24"/>
       <c r="B68" s="3" t="s">
         <v>333</v>
       </c>
@@ -7942,13 +8209,13 @@
       </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="31"/>
+      <c r="A69" s="24"/>
       <c r="B69" s="3" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="30">
-      <c r="A71" s="31" t="s">
+      <c r="A71" s="24" t="s">
         <v>337</v>
       </c>
       <c r="B71" t="s">
@@ -7959,14 +8226,14 @@
       </c>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="31"/>
+      <c r="A72" s="24"/>
       <c r="B72" t="s">
         <v>338</v>
       </c>
       <c r="D72" s="11"/>
     </row>
     <row r="73" spans="1:4" ht="30">
-      <c r="A73" s="31"/>
+      <c r="A73" s="24"/>
       <c r="B73" t="s">
         <v>288</v>
       </c>
@@ -7975,7 +8242,7 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="30">
-      <c r="A75" s="31" t="s">
+      <c r="A75" s="24" t="s">
         <v>341</v>
       </c>
       <c r="B75" s="3" t="s">
@@ -7986,14 +8253,14 @@
       </c>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="31"/>
+      <c r="A76" s="24"/>
       <c r="B76" s="3" t="s">
         <v>327</v>
       </c>
       <c r="D76" s="11"/>
     </row>
     <row r="77" spans="1:4" ht="30">
-      <c r="A77" s="31"/>
+      <c r="A77" s="24"/>
       <c r="B77" s="3" t="s">
         <v>342</v>
       </c>
@@ -8002,13 +8269,13 @@
       </c>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="31"/>
+      <c r="A78" s="24"/>
       <c r="B78" s="3" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="30">
-      <c r="A80" s="31" t="s">
+      <c r="A80" s="24" t="s">
         <v>345</v>
       </c>
       <c r="B80" s="3" t="s">
@@ -8019,7 +8286,7 @@
       </c>
     </row>
     <row r="81" spans="1:4" ht="30">
-      <c r="A81" s="31"/>
+      <c r="A81" s="24"/>
       <c r="B81" s="3" t="s">
         <v>346</v>
       </c>
@@ -8028,13 +8295,13 @@
       </c>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="31"/>
+      <c r="A82" s="24"/>
       <c r="B82" s="3" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="30">
-      <c r="A84" s="31" t="s">
+      <c r="A84" s="24" t="s">
         <v>348</v>
       </c>
       <c r="B84" s="3" t="s">
@@ -8045,7 +8312,7 @@
       </c>
     </row>
     <row r="85" spans="1:4" ht="30">
-      <c r="A85" s="31"/>
+      <c r="A85" s="24"/>
       <c r="B85" s="3" t="s">
         <v>349</v>
       </c>
@@ -8054,13 +8321,13 @@
       </c>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="31"/>
+      <c r="A86" s="24"/>
       <c r="B86" s="3" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="31" t="s">
+      <c r="A88" s="24" t="s">
         <v>351</v>
       </c>
       <c r="B88" s="3" t="s">
@@ -8071,7 +8338,7 @@
       </c>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" s="31"/>
+      <c r="A89" s="24"/>
       <c r="B89" s="3" t="s">
         <v>327</v>
       </c>
@@ -8080,7 +8347,7 @@
       </c>
     </row>
     <row r="90" spans="1:4" ht="30">
-      <c r="A90" s="31"/>
+      <c r="A90" s="24"/>
       <c r="B90" s="3" t="s">
         <v>352</v>
       </c>
@@ -8089,7 +8356,7 @@
       </c>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="31"/>
+      <c r="A91" s="24"/>
       <c r="B91" s="3" t="s">
         <v>353</v>
       </c>
@@ -8098,7 +8365,7 @@
       </c>
     </row>
     <row r="93" spans="1:4" ht="30">
-      <c r="A93" s="31" t="s">
+      <c r="A93" s="24" t="s">
         <v>355</v>
       </c>
       <c r="B93" s="11" t="s">
@@ -8109,14 +8376,14 @@
       </c>
     </row>
     <row r="94" spans="1:4">
-      <c r="A94" s="31"/>
+      <c r="A94" s="24"/>
       <c r="B94" s="11" t="s">
         <v>356</v>
       </c>
       <c r="D94" s="11"/>
     </row>
     <row r="95" spans="1:4" ht="30">
-      <c r="A95" s="31"/>
+      <c r="A95" s="24"/>
       <c r="B95" s="11" t="s">
         <v>288</v>
       </c>
@@ -8125,7 +8392,7 @@
       </c>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="31" t="s">
+      <c r="A97" s="24" t="s">
         <v>359</v>
       </c>
       <c r="B97" s="11" t="s">
@@ -8133,7 +8400,7 @@
       </c>
     </row>
     <row r="98" spans="1:4" ht="30">
-      <c r="A98" s="31"/>
+      <c r="A98" s="24"/>
       <c r="B98" s="11" t="s">
         <v>276</v>
       </c>
@@ -8142,7 +8409,7 @@
       </c>
     </row>
     <row r="99" spans="1:4" ht="30">
-      <c r="A99" s="31"/>
+      <c r="A99" s="24"/>
       <c r="B99" s="11" t="s">
         <v>360</v>
       </c>
@@ -8151,7 +8418,7 @@
       </c>
     </row>
     <row r="100" spans="1:4" ht="30">
-      <c r="A100" s="31"/>
+      <c r="A100" s="24"/>
       <c r="B100" s="11" t="s">
         <v>361</v>
       </c>
@@ -8160,13 +8427,19 @@
       </c>
     </row>
     <row r="101" spans="1:4">
-      <c r="A101" s="31"/>
+      <c r="A101" s="24"/>
       <c r="B101" s="11" t="s">
         <v>288</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A97:A101"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="A80:A82"/>
+    <mergeCell ref="A84:A86"/>
+    <mergeCell ref="A88:A91"/>
+    <mergeCell ref="A93:A95"/>
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="A75:A78"/>
@@ -8183,12 +8456,6 @@
     <mergeCell ref="A52:A54"/>
     <mergeCell ref="A61:A64"/>
     <mergeCell ref="A66:A69"/>
-    <mergeCell ref="A97:A101"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="A80:A82"/>
-    <mergeCell ref="A84:A86"/>
-    <mergeCell ref="A88:A91"/>
-    <mergeCell ref="A93:A95"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8269,10 +8536,10 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1">
-      <c r="F9" s="32"/>
+      <c r="F9" s="23"/>
     </row>
     <row r="10" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="24" t="s">
         <v>364</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -8285,10 +8552,10 @@
         <v>645</v>
       </c>
       <c r="E10" s="17"/>
-      <c r="F10" s="32"/>
+      <c r="F10" s="23"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="31"/>
+      <c r="A11" s="24"/>
       <c r="B11" s="3" t="s">
         <v>366</v>
       </c>
@@ -8298,7 +8565,7 @@
       <c r="E11" s="17"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="31"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="3" t="s">
         <v>367</v>
       </c>
@@ -8311,19 +8578,19 @@
       <c r="E12" s="17"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="31"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="3" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="31"/>
+      <c r="A14" s="24"/>
       <c r="B14" s="3" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="24" t="s">
         <v>372</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -8335,7 +8602,7 @@
       <c r="E16" s="17"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="31"/>
+      <c r="A17" s="24"/>
       <c r="B17" s="3" t="s">
         <v>366</v>
       </c>
@@ -8345,7 +8612,7 @@
       <c r="E17" s="17"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="31"/>
+      <c r="A18" s="24"/>
       <c r="B18" t="s">
         <v>373</v>
       </c>
@@ -8355,19 +8622,19 @@
       <c r="E18" s="17"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="31"/>
+      <c r="A19" s="24"/>
       <c r="B19" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="31"/>
+      <c r="A20" s="24"/>
       <c r="B20" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="31" t="s">
+      <c r="A22" s="24" t="s">
         <v>375</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -8375,7 +8642,7 @@
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="31"/>
+      <c r="A23" s="24"/>
       <c r="B23" s="3" t="s">
         <v>366</v>
       </c>
@@ -8388,7 +8655,7 @@
       <c r="E23" s="17"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="31"/>
+      <c r="A24" s="24"/>
       <c r="B24" t="s">
         <v>376</v>
       </c>
@@ -8401,21 +8668,21 @@
       <c r="E24" s="17"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="31"/>
+      <c r="A25" s="24"/>
       <c r="B25" t="s">
         <v>377</v>
       </c>
       <c r="E25" s="17"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="31"/>
+      <c r="A26" s="24"/>
       <c r="B26" t="s">
         <v>369</v>
       </c>
       <c r="E26" s="17"/>
     </row>
     <row r="28" spans="1:5" ht="30">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="24" t="s">
         <v>379</v>
       </c>
       <c r="B28" s="11" t="s">
@@ -8430,7 +8697,7 @@
       <c r="E28" s="17"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="31"/>
+      <c r="A29" s="24"/>
       <c r="B29" s="11" t="s">
         <v>366</v>
       </c>
@@ -8438,7 +8705,7 @@
       <c r="E29" s="17"/>
     </row>
     <row r="30" spans="1:5" ht="30">
-      <c r="A30" s="31"/>
+      <c r="A30" s="24"/>
       <c r="B30" s="11" t="s">
         <v>380</v>
       </c>
@@ -8451,19 +8718,19 @@
       <c r="E30" s="17"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="31"/>
+      <c r="A31" s="24"/>
       <c r="B31" s="11" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="31"/>
+      <c r="A32" s="24"/>
       <c r="B32" s="11" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="31" t="s">
+      <c r="A34" s="24" t="s">
         <v>383</v>
       </c>
       <c r="B34" s="11" t="s">
@@ -8478,7 +8745,7 @@
       <c r="E34" s="17"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="31"/>
+      <c r="A35" s="24"/>
       <c r="B35" s="11" t="s">
         <v>366</v>
       </c>
@@ -8491,7 +8758,7 @@
       <c r="E35" s="17"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="31"/>
+      <c r="A36" s="24"/>
       <c r="B36" t="s">
         <v>384</v>
       </c>
@@ -8504,19 +8771,19 @@
       <c r="E36" s="17"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="31"/>
+      <c r="A37" s="24"/>
       <c r="B37" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="31"/>
+      <c r="A38" s="24"/>
       <c r="B38" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="31" t="s">
+      <c r="A40" s="24" t="s">
         <v>385</v>
       </c>
       <c r="B40" t="s">
@@ -8531,14 +8798,14 @@
       <c r="E40" s="17"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="31"/>
+      <c r="A41" s="24"/>
       <c r="B41" s="11" t="s">
         <v>366</v>
       </c>
       <c r="E41" s="17"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="31"/>
+      <c r="A42" s="24"/>
       <c r="B42" t="s">
         <v>386</v>
       </c>
@@ -8551,19 +8818,19 @@
       <c r="E42" s="17"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="31"/>
+      <c r="A43" s="24"/>
       <c r="B43" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="31"/>
+      <c r="A44" s="24"/>
       <c r="B44" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="30">
-      <c r="A46" s="31" t="s">
+      <c r="A46" s="24" t="s">
         <v>388</v>
       </c>
       <c r="B46" s="3" t="s">
@@ -8578,7 +8845,7 @@
       <c r="E46" s="17"/>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="31"/>
+      <c r="A47" s="24"/>
       <c r="B47" s="11" t="s">
         <v>366</v>
       </c>
@@ -8586,7 +8853,7 @@
       <c r="E47" s="17"/>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="31"/>
+      <c r="A48" s="24"/>
       <c r="B48" s="3" t="s">
         <v>367</v>
       </c>
@@ -8599,25 +8866,25 @@
       <c r="E48" s="17"/>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="31"/>
+      <c r="A49" s="24"/>
       <c r="B49" s="3" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="31"/>
+      <c r="A50" s="24"/>
       <c r="B50" s="3" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="31"/>
+      <c r="A51" s="24"/>
       <c r="B51" s="3" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="45">
-      <c r="A53" s="31" t="s">
+      <c r="A53" s="24" t="s">
         <v>392</v>
       </c>
       <c r="B53" s="3" t="s">
@@ -8632,7 +8899,7 @@
       <c r="E53" s="17"/>
     </row>
     <row r="54" spans="1:5" ht="30">
-      <c r="A54" s="31"/>
+      <c r="A54" s="24"/>
       <c r="B54" t="s">
         <v>394</v>
       </c>
@@ -8645,28 +8912,28 @@
       <c r="E54" s="17"/>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="31"/>
+      <c r="A55" s="24"/>
       <c r="B55" t="s">
         <v>366</v>
       </c>
       <c r="E55" s="17"/>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="31"/>
+      <c r="A56" s="24"/>
       <c r="B56" t="s">
         <v>393</v>
       </c>
       <c r="E56" s="17"/>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="31"/>
+      <c r="A57" s="24"/>
       <c r="B57" t="s">
         <v>369</v>
       </c>
       <c r="E57" s="17"/>
     </row>
     <row r="59" spans="1:5" ht="30">
-      <c r="A59" s="31" t="s">
+      <c r="A59" s="24" t="s">
         <v>397</v>
       </c>
       <c r="B59" s="3" t="s">
@@ -8681,7 +8948,7 @@
       <c r="E59" s="13"/>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="31"/>
+      <c r="A60" s="24"/>
       <c r="B60" t="s">
         <v>366</v>
       </c>
@@ -8694,19 +8961,19 @@
       <c r="E60" s="13"/>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="31"/>
+      <c r="A61" s="24"/>
       <c r="B61" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="31"/>
+      <c r="A62" s="24"/>
       <c r="B62" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="31" t="s">
+      <c r="A64" s="24" t="s">
         <v>399</v>
       </c>
       <c r="B64" s="3" t="s">
@@ -8721,7 +8988,7 @@
       <c r="E64" s="17"/>
     </row>
     <row r="65" spans="1:6" ht="30">
-      <c r="A65" s="31"/>
+      <c r="A65" s="24"/>
       <c r="B65" s="3" t="s">
         <v>401</v>
       </c>
@@ -8731,7 +8998,7 @@
       <c r="E65" s="17"/>
     </row>
     <row r="66" spans="1:6" ht="30">
-      <c r="A66" s="31"/>
+      <c r="A66" s="24"/>
       <c r="B66" s="3" t="s">
         <v>402</v>
       </c>
@@ -8744,19 +9011,19 @@
       <c r="E66" s="17"/>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="31"/>
+      <c r="A67" s="24"/>
       <c r="B67" s="3" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="31"/>
+      <c r="A68" s="24"/>
       <c r="B68" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="30">
-      <c r="A70" s="31" t="s">
+      <c r="A70" s="24" t="s">
         <v>406</v>
       </c>
       <c r="B70" s="3" t="s">
@@ -8774,7 +9041,7 @@
       </c>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="31"/>
+      <c r="A71" s="24"/>
       <c r="B71" t="s">
         <v>366</v>
       </c>
@@ -8787,25 +9054,25 @@
       <c r="E71" s="13"/>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="31"/>
+      <c r="A72" s="24"/>
       <c r="B72" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="31"/>
+      <c r="A73" s="24"/>
       <c r="B73" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="31"/>
+      <c r="A74" s="24"/>
       <c r="B74" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="31" t="s">
+      <c r="A76" s="24" t="s">
         <v>410</v>
       </c>
       <c r="B76" s="3" t="s">
@@ -8820,7 +9087,7 @@
       <c r="E76" s="17"/>
     </row>
     <row r="77" spans="1:6" ht="30">
-      <c r="A77" s="31"/>
+      <c r="A77" s="24"/>
       <c r="B77" s="3" t="s">
         <v>366</v>
       </c>
@@ -8833,25 +9100,25 @@
       <c r="E77" s="17"/>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="31"/>
+      <c r="A78" s="24"/>
       <c r="B78" s="3" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="31"/>
+      <c r="A79" s="24"/>
       <c r="B79" s="3" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" s="31"/>
+      <c r="A80" s="24"/>
       <c r="B80" s="3" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="31" t="s">
+      <c r="A82" s="24" t="s">
         <v>415</v>
       </c>
       <c r="B82" t="s">
@@ -8864,12 +9131,12 @@
         <v>659</v>
       </c>
       <c r="E82" s="13"/>
-      <c r="F82" s="42" t="e" vm="3">
+      <c r="F82" s="33" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="31"/>
+      <c r="A83" s="24"/>
       <c r="B83" s="3" t="s">
         <v>366</v>
       </c>
@@ -8880,10 +9147,10 @@
         <v>658</v>
       </c>
       <c r="E83" s="13"/>
-      <c r="F83" s="42"/>
+      <c r="F83" s="33"/>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" s="31"/>
+      <c r="A84" s="24"/>
       <c r="B84" t="s">
         <v>416</v>
       </c>
@@ -8893,21 +9160,21 @@
       <c r="E84" s="13"/>
     </row>
     <row r="85" spans="1:6">
-      <c r="A85" s="31"/>
+      <c r="A85" s="24"/>
       <c r="B85" t="s">
         <v>408</v>
       </c>
       <c r="E85" s="13"/>
     </row>
     <row r="86" spans="1:6">
-      <c r="A86" s="31"/>
+      <c r="A86" s="24"/>
       <c r="B86" t="s">
         <v>369</v>
       </c>
       <c r="E86" s="13"/>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" s="31" t="s">
+      <c r="A88" s="24" t="s">
         <v>419</v>
       </c>
       <c r="B88" s="3" t="s">
@@ -8920,12 +9187,12 @@
         <v>659</v>
       </c>
       <c r="E88" s="13"/>
-      <c r="F88" s="42" t="e" vm="4">
+      <c r="F88" s="33" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="89" spans="1:6">
-      <c r="A89" s="31"/>
+      <c r="A89" s="24"/>
       <c r="B89" s="3" t="s">
         <v>366</v>
       </c>
@@ -8936,10 +9203,10 @@
         <v>658</v>
       </c>
       <c r="E89" s="13"/>
-      <c r="F89" s="42"/>
+      <c r="F89" s="33"/>
     </row>
     <row r="90" spans="1:6">
-      <c r="A90" s="31"/>
+      <c r="A90" s="24"/>
       <c r="B90" t="s">
         <v>420</v>
       </c>
@@ -8949,21 +9216,21 @@
       <c r="E90" s="13"/>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" s="31"/>
+      <c r="A91" s="24"/>
       <c r="B91" t="s">
         <v>408</v>
       </c>
       <c r="E91" s="13"/>
     </row>
     <row r="92" spans="1:6">
-      <c r="A92" s="31"/>
+      <c r="A92" s="24"/>
       <c r="B92" t="s">
         <v>369</v>
       </c>
       <c r="E92" s="13"/>
     </row>
     <row r="94" spans="1:6">
-      <c r="A94" s="31" t="s">
+      <c r="A94" s="24" t="s">
         <v>422</v>
       </c>
       <c r="B94" t="s">
@@ -8972,45 +9239,50 @@
       <c r="C94" t="s">
         <v>427</v>
       </c>
-      <c r="D94" s="31" t="s">
+      <c r="D94" s="24" t="s">
         <v>665</v>
       </c>
       <c r="E94" s="18"/>
     </row>
     <row r="95" spans="1:6">
-      <c r="A95" s="31"/>
+      <c r="A95" s="24"/>
       <c r="B95" t="s">
         <v>424</v>
       </c>
       <c r="C95" t="s">
         <v>428</v>
       </c>
-      <c r="D95" s="31"/>
+      <c r="D95" s="24"/>
       <c r="E95" s="18"/>
     </row>
     <row r="96" spans="1:6">
-      <c r="A96" s="31"/>
+      <c r="A96" s="24"/>
       <c r="B96" t="s">
         <v>425</v>
       </c>
       <c r="C96" t="s">
         <v>429</v>
       </c>
-      <c r="D96" s="31"/>
+      <c r="D96" s="24"/>
       <c r="E96" s="18"/>
     </row>
     <row r="97" spans="1:5">
-      <c r="A97" s="31"/>
+      <c r="A97" s="24"/>
       <c r="B97" t="s">
         <v>426</v>
       </c>
       <c r="E97" s="18"/>
     </row>
     <row r="98" spans="1:5">
-      <c r="A98" s="31"/>
+      <c r="A98" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="A28:A32"/>
     <mergeCell ref="A34:A38"/>
     <mergeCell ref="A40:A44"/>
     <mergeCell ref="F82:F83"/>
@@ -9025,11 +9297,6 @@
     <mergeCell ref="A59:A62"/>
     <mergeCell ref="A64:A68"/>
     <mergeCell ref="A70:A74"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="A10:A14"/>
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="A28:A32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9076,7 +9343,7 @@
       <c r="B3" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="31" t="s">
         <v>666</v>
       </c>
     </row>
@@ -9087,7 +9354,7 @@
       <c r="B4" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="41"/>
+      <c r="D4" s="31"/>
     </row>
     <row r="5" spans="1:6" ht="30">
       <c r="A5" s="10" t="s">
@@ -9096,7 +9363,7 @@
       <c r="B5" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="41"/>
+      <c r="D5" s="31"/>
     </row>
     <row r="6" spans="1:6" ht="30">
       <c r="A6" s="10" t="s">
@@ -9105,10 +9372,10 @@
       <c r="B6" s="11" t="s">
         <v>431</v>
       </c>
-      <c r="D6" s="41"/>
+      <c r="D6" s="31"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="D7" s="41"/>
+      <c r="D7" s="31"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="10" t="s">
@@ -9119,7 +9386,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="30">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="24" t="s">
         <v>432</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -9130,7 +9397,7 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="31"/>
+      <c r="A11" s="24"/>
       <c r="B11" s="3" t="s">
         <v>434</v>
       </c>
@@ -9139,19 +9406,19 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="31"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="3" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="31"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="3" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="45">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="24" t="s">
         <v>438</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -9162,7 +9429,7 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="31"/>
+      <c r="A16" s="24"/>
       <c r="B16" s="3" t="s">
         <v>440</v>
       </c>
@@ -9171,25 +9438,25 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="31"/>
+      <c r="A17" s="24"/>
       <c r="B17" s="3" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="31"/>
+      <c r="A18" s="24"/>
       <c r="B18" s="3" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="31"/>
+      <c r="A19" s="24"/>
       <c r="B19" s="3" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="30">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="24" t="s">
         <v>444</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -9200,7 +9467,7 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="31"/>
+      <c r="A22" s="24"/>
       <c r="B22" s="3" t="s">
         <v>445</v>
       </c>
@@ -9209,13 +9476,13 @@
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="31"/>
+      <c r="A23" s="24"/>
       <c r="B23" s="3" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="31" t="s">
+      <c r="A25" s="24" t="s">
         <v>448</v>
       </c>
       <c r="B25" s="11" t="s">
@@ -9226,7 +9493,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="30">
-      <c r="A26" s="31"/>
+      <c r="A26" s="24"/>
       <c r="B26" s="11" t="s">
         <v>449</v>
       </c>
@@ -9235,14 +9502,14 @@
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="31"/>
+      <c r="A27" s="24"/>
       <c r="B27" s="11" t="s">
         <v>369</v>
       </c>
       <c r="C27" s="11"/>
     </row>
     <row r="29" spans="1:3" ht="30">
-      <c r="A29" s="31" t="s">
+      <c r="A29" s="24" t="s">
         <v>451</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -9253,7 +9520,7 @@
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="31"/>
+      <c r="A30" s="24"/>
       <c r="B30" s="3" t="s">
         <v>452</v>
       </c>
@@ -9262,16 +9529,16 @@
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="31"/>
+      <c r="A31" s="24"/>
       <c r="B31" s="3" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="31"/>
+      <c r="A32" s="24"/>
     </row>
     <row r="34" spans="1:3" ht="30">
-      <c r="A34" s="31" t="s">
+      <c r="A34" s="24" t="s">
         <v>455</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -9282,7 +9549,7 @@
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="31"/>
+      <c r="A35" s="24"/>
       <c r="B35" s="3" t="s">
         <v>456</v>
       </c>
@@ -9291,13 +9558,13 @@
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="31"/>
+      <c r="A36" s="24"/>
       <c r="B36" s="3" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="31" t="s">
+      <c r="A38" s="24" t="s">
         <v>459</v>
       </c>
       <c r="B38" s="11" t="s">
@@ -9308,7 +9575,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" ht="30">
-      <c r="A39" s="31"/>
+      <c r="A39" s="24"/>
       <c r="B39" s="11" t="s">
         <v>460</v>
       </c>
@@ -9317,14 +9584,14 @@
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="31"/>
+      <c r="A40" s="24"/>
       <c r="B40" s="11" t="s">
         <v>369</v>
       </c>
       <c r="C40" s="11"/>
     </row>
     <row r="42" spans="1:3" ht="45">
-      <c r="A42" s="31" t="s">
+      <c r="A42" s="24" t="s">
         <v>463</v>
       </c>
       <c r="B42" s="11" t="s">
@@ -9335,7 +9602,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" ht="30">
-      <c r="A43" s="31"/>
+      <c r="A43" s="24"/>
       <c r="B43" s="11" t="s">
         <v>464</v>
       </c>
@@ -9344,14 +9611,14 @@
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="31"/>
+      <c r="A44" s="24"/>
       <c r="B44" s="11" t="s">
         <v>369</v>
       </c>
       <c r="C44" s="11"/>
     </row>
     <row r="46" spans="1:3" ht="30">
-      <c r="A46" s="31" t="s">
+      <c r="A46" s="24" t="s">
         <v>467</v>
       </c>
       <c r="B46" s="11" t="s">
@@ -9362,7 +9629,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" ht="30">
-      <c r="A47" s="31"/>
+      <c r="A47" s="24"/>
       <c r="B47" s="11" t="s">
         <v>468</v>
       </c>
@@ -9371,14 +9638,14 @@
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="31"/>
+      <c r="A48" s="24"/>
       <c r="B48" s="11" t="s">
         <v>369</v>
       </c>
       <c r="C48" s="11"/>
     </row>
     <row r="50" spans="1:3" ht="30">
-      <c r="A50" s="31" t="s">
+      <c r="A50" s="24" t="s">
         <v>471</v>
       </c>
       <c r="B50" s="11" t="s">
@@ -9389,7 +9656,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" ht="30">
-      <c r="A51" s="31"/>
+      <c r="A51" s="24"/>
       <c r="B51" s="11" t="s">
         <v>472</v>
       </c>
@@ -9398,14 +9665,14 @@
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="31"/>
+      <c r="A52" s="24"/>
       <c r="B52" s="11" t="s">
         <v>369</v>
       </c>
       <c r="C52" s="11"/>
     </row>
     <row r="54" spans="1:3" ht="30">
-      <c r="A54" s="31" t="s">
+      <c r="A54" s="24" t="s">
         <v>475</v>
       </c>
       <c r="B54" s="11" t="s">
@@ -9416,7 +9683,7 @@
       </c>
     </row>
     <row r="55" spans="1:3" ht="30">
-      <c r="A55" s="31"/>
+      <c r="A55" s="24"/>
       <c r="B55" s="11" t="s">
         <v>477</v>
       </c>
@@ -9425,14 +9692,14 @@
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="31"/>
+      <c r="A56" s="24"/>
       <c r="B56" s="11" t="s">
         <v>369</v>
       </c>
       <c r="C56" s="11"/>
     </row>
     <row r="58" spans="1:3" ht="30">
-      <c r="A58" s="31" t="s">
+      <c r="A58" s="24" t="s">
         <v>480</v>
       </c>
       <c r="B58" s="11" t="s">
@@ -9443,7 +9710,7 @@
       </c>
     </row>
     <row r="59" spans="1:3" ht="30">
-      <c r="A59" s="31"/>
+      <c r="A59" s="24"/>
       <c r="B59" s="11" t="s">
         <v>481</v>
       </c>
@@ -9452,14 +9719,14 @@
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="31"/>
+      <c r="A60" s="24"/>
       <c r="B60" s="11" t="s">
         <v>369</v>
       </c>
       <c r="C60" s="11"/>
     </row>
     <row r="62" spans="1:3" ht="30">
-      <c r="A62" s="31" t="s">
+      <c r="A62" s="24" t="s">
         <v>484</v>
       </c>
       <c r="B62" s="11" t="s">
@@ -9470,7 +9737,7 @@
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="31"/>
+      <c r="A63" s="24"/>
       <c r="B63" s="11" t="s">
         <v>486</v>
       </c>
@@ -9548,7 +9815,7 @@
       <c r="B3" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="31" t="s">
         <v>666</v>
       </c>
     </row>
@@ -9559,7 +9826,7 @@
       <c r="B4" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="41"/>
+      <c r="D4" s="31"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="16" t="s">
@@ -9568,10 +9835,10 @@
       <c r="B5" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="41"/>
+      <c r="D5" s="31"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="D6" s="41"/>
+      <c r="D6" s="31"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="10" t="s">
@@ -9580,10 +9847,10 @@
       <c r="B7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="41"/>
+      <c r="D7" s="31"/>
     </row>
     <row r="9" spans="1:6" ht="30">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="24" t="s">
         <v>489</v>
       </c>
       <c r="B9" s="11" t="s">
@@ -9594,7 +9861,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="30">
-      <c r="A10" s="31"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="11" t="s">
         <v>491</v>
       </c>
@@ -9603,7 +9870,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="30">
-      <c r="A11" s="31"/>
+      <c r="A11" s="24"/>
       <c r="B11" s="11" t="s">
         <v>492</v>
       </c>
@@ -9612,14 +9879,14 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="31"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="11" t="s">
         <v>369</v>
       </c>
       <c r="C12" s="11"/>
     </row>
     <row r="14" spans="1:6" ht="30">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="24" t="s">
         <v>496</v>
       </c>
       <c r="B14" s="11" t="s">
@@ -9630,7 +9897,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="30">
-      <c r="A15" s="31"/>
+      <c r="A15" s="24"/>
       <c r="B15" s="11" t="s">
         <v>498</v>
       </c>
@@ -9639,14 +9906,14 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="31"/>
+      <c r="A16" s="24"/>
       <c r="B16" s="11" t="s">
         <v>369</v>
       </c>
       <c r="C16" s="11"/>
     </row>
     <row r="18" spans="1:3" ht="30">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="24" t="s">
         <v>501</v>
       </c>
       <c r="B18" s="11" t="s">
@@ -9657,7 +9924,7 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="31"/>
+      <c r="A19" s="24"/>
       <c r="B19" s="11" t="s">
         <v>502</v>
       </c>
@@ -9666,14 +9933,14 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="31"/>
+      <c r="A20" s="24"/>
       <c r="B20" s="11" t="s">
         <v>369</v>
       </c>
       <c r="C20" s="11"/>
     </row>
     <row r="22" spans="1:3" ht="30">
-      <c r="A22" s="31" t="s">
+      <c r="A22" s="24" t="s">
         <v>505</v>
       </c>
       <c r="B22" s="11" t="s">
@@ -9684,7 +9951,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="30">
-      <c r="A23" s="31"/>
+      <c r="A23" s="24"/>
       <c r="B23" s="11" t="s">
         <v>506</v>
       </c>
@@ -9693,14 +9960,14 @@
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="31"/>
+      <c r="A24" s="24"/>
       <c r="B24" s="11" t="s">
         <v>369</v>
       </c>
       <c r="C24" s="11"/>
     </row>
     <row r="26" spans="1:3" ht="30">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="24" t="s">
         <v>509</v>
       </c>
       <c r="B26" s="11" t="s">
@@ -9711,7 +9978,7 @@
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="31"/>
+      <c r="A27" s="24"/>
       <c r="B27" s="11" t="s">
         <v>510</v>
       </c>
@@ -9720,13 +9987,13 @@
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="31"/>
+      <c r="A28" s="24"/>
       <c r="B28" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="30">
-      <c r="A30" s="31" t="s">
+      <c r="A30" s="24" t="s">
         <v>455</v>
       </c>
       <c r="B30" s="11" t="s">
@@ -9737,7 +10004,7 @@
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="31"/>
+      <c r="A31" s="24"/>
       <c r="B31" s="11" t="s">
         <v>456</v>
       </c>
@@ -9746,14 +10013,14 @@
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="31"/>
+      <c r="A32" s="24"/>
       <c r="B32" s="11" t="s">
         <v>369</v>
       </c>
       <c r="C32" s="11"/>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="31" t="s">
+      <c r="A34" s="24" t="s">
         <v>459</v>
       </c>
       <c r="B34" s="11" t="s">
@@ -9764,7 +10031,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="30">
-      <c r="A35" s="31"/>
+      <c r="A35" s="24"/>
       <c r="B35" s="11" t="s">
         <v>513</v>
       </c>
@@ -9773,14 +10040,14 @@
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="31"/>
+      <c r="A36" s="24"/>
       <c r="B36" s="11" t="s">
         <v>369</v>
       </c>
       <c r="C36" s="11"/>
     </row>
     <row r="38" spans="1:3" ht="30">
-      <c r="A38" s="31" t="s">
+      <c r="A38" s="24" t="s">
         <v>514</v>
       </c>
       <c r="B38" s="11" t="s">
@@ -9791,7 +10058,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" ht="30">
-      <c r="A39" s="31"/>
+      <c r="A39" s="24"/>
       <c r="B39" s="11" t="s">
         <v>472</v>
       </c>
@@ -9800,14 +10067,14 @@
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="31"/>
+      <c r="A40" s="24"/>
       <c r="B40" s="11" t="s">
         <v>369</v>
       </c>
       <c r="C40" s="11"/>
     </row>
     <row r="42" spans="1:3" ht="30">
-      <c r="A42" s="31" t="s">
+      <c r="A42" s="24" t="s">
         <v>515</v>
       </c>
       <c r="B42" s="11" t="s">
@@ -9818,7 +10085,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" ht="30">
-      <c r="A43" s="31"/>
+      <c r="A43" s="24"/>
       <c r="B43" s="11" t="s">
         <v>516</v>
       </c>
@@ -9827,14 +10094,14 @@
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="31"/>
+      <c r="A44" s="24"/>
       <c r="B44" s="11" t="s">
         <v>369</v>
       </c>
       <c r="C44" s="11"/>
     </row>
     <row r="46" spans="1:3" ht="30">
-      <c r="A46" s="31" t="s">
+      <c r="A46" s="24" t="s">
         <v>519</v>
       </c>
       <c r="B46" s="11" t="s">
@@ -9845,7 +10112,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" ht="30">
-      <c r="A47" s="31"/>
+      <c r="A47" s="24"/>
       <c r="B47" s="11" t="s">
         <v>520</v>
       </c>
@@ -9854,14 +10121,14 @@
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="31"/>
+      <c r="A48" s="24"/>
       <c r="B48" s="11" t="s">
         <v>369</v>
       </c>
       <c r="C48" s="11"/>
     </row>
     <row r="50" spans="1:3" ht="33" customHeight="1">
-      <c r="A50" s="31" t="s">
+      <c r="A50" s="24" t="s">
         <v>521</v>
       </c>
       <c r="B50" s="11" t="s">
@@ -9872,7 +10139,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" ht="30">
-      <c r="A51" s="31"/>
+      <c r="A51" s="24"/>
       <c r="B51" s="11" t="s">
         <v>523</v>
       </c>
@@ -9881,14 +10148,14 @@
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="31"/>
+      <c r="A52" s="24"/>
       <c r="B52" s="11"/>
       <c r="C52" s="11" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="45">
-      <c r="A54" s="31" t="s">
+      <c r="A54" s="24" t="s">
         <v>527</v>
       </c>
       <c r="B54" s="11" t="s">
@@ -9899,7 +10166,7 @@
       </c>
     </row>
     <row r="55" spans="1:3" ht="30">
-      <c r="A55" s="31"/>
+      <c r="A55" s="24"/>
       <c r="B55" s="11" t="s">
         <v>528</v>
       </c>
@@ -9908,7 +10175,7 @@
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="31"/>
+      <c r="A56" s="24"/>
       <c r="B56" s="11" t="s">
         <v>369</v>
       </c>

--- a/Week_8/end_to_end_testing.xlsx
+++ b/Week_8/end_to_end_testing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\QA\Week_8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86464435-A9B5-42B5-A51F-5CF5D67CE514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD760C7-2DEB-46A5-9B94-F66B09189EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D306577F-726B-460D-A4B8-43874F0773D9}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{D306577F-726B-460D-A4B8-43874F0773D9}"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="18" r:id="rId1"/>
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="798">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="801">
   <si>
     <t>Operating System</t>
   </si>
@@ -225,9 +225,6 @@
     <t>User Login</t>
   </si>
   <si>
-    <t>TC_002</t>
-  </si>
-  <si>
     <t>High (Users might not be able to log in, impacting user retention)</t>
   </si>
   <si>
@@ -313,9 +310,6 @@
   </si>
   <si>
     <t>ORD_002</t>
-  </si>
-  <si>
-    <t>LGREG_001</t>
   </si>
   <si>
     <t>1. Register with valid details</t>
@@ -982,22 +976,6 @@
     <t>2. Successful payment with valid credit card</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Follow steps in </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TC_CP_001</t>
-    </r>
-  </si>
-  <si>
     <t>Enter valid credit card details (number, expiration, CVV)</t>
   </si>
   <si>
@@ -1014,22 +992,6 @@
   </si>
   <si>
     <t>Go to the cart page and enter a valid promo code</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Follow steps in </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TC_CP_002</t>
-    </r>
   </si>
   <si>
     <t>The promo code discount is applied correctly</t>
@@ -2586,6 +2548,53 @@
   </si>
   <si>
     <t>There are short list of problems:</t>
+  </si>
+  <si>
+    <t>E2EREG_001</t>
+  </si>
+  <si>
+    <t>E2ELOG_002</t>
+  </si>
+  <si>
+    <t>E2ESR_001</t>
+  </si>
+  <si>
+    <t>E2ECT_002</t>
+  </si>
+  <si>
+    <t>E2EORD_001</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Follow steps in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Follow steps in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2943,7 +2952,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3000,84 +3009,37 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3101,33 +3063,6 @@
     <xf numFmtId="49" fontId="1" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3136,6 +3071,79 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3567,249 +3575,247 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03E50950-0777-4465-8C4E-877A3B414320}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" style="36" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" style="36" customWidth="1"/>
-    <col min="3" max="5" width="9.140625" style="36"/>
-    <col min="6" max="6" width="9.140625" style="36" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="36"/>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="31" t="s">
+        <v>759</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="33" t="s">
+        <v>762</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A3" s="29" t="s">
         <v>763</v>
       </c>
-      <c r="B1" s="47" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="48" t="s">
-        <v>766</v>
-      </c>
-      <c r="B2" s="49" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A3" s="44" t="s">
-        <v>767</v>
-      </c>
-      <c r="B3" s="45">
+      <c r="B3" s="30">
         <v>45535</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1"/>
     <row r="5" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="46" t="s">
+        <v>764</v>
+      </c>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="48"/>
+    </row>
+    <row r="6" spans="1:6" ht="15" customHeight="1">
+      <c r="A6" s="49" t="s">
+        <v>792</v>
+      </c>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="51"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A7" s="52"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="54"/>
+    </row>
+    <row r="8" spans="1:6" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A9" s="58" t="s">
+        <v>793</v>
+      </c>
+      <c r="B9" s="59"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="60"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="35" t="s">
+        <v>790</v>
+      </c>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="36"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="35" t="s">
+        <v>765</v>
+      </c>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="36"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="35" t="s">
+        <v>766</v>
+      </c>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="36"/>
+    </row>
+    <row r="13" spans="1:6" ht="15" customHeight="1">
+      <c r="A13" s="49" t="s">
+        <v>767</v>
+      </c>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="51"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="49"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="51"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="35" t="s">
         <v>768</v>
       </c>
-      <c r="B5" s="73"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="74"/>
-    </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1">
-      <c r="A6" s="50" t="s">
-        <v>796</v>
-      </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="51"/>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A7" s="66"/>
-      <c r="B7" s="67"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="68"/>
-    </row>
-    <row r="8" spans="1:6" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A8" s="41"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A9" s="71" t="s">
-        <v>797</v>
-      </c>
-      <c r="B9" s="69"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="70"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="52" t="s">
-        <v>794</v>
-      </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="53"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="52" t="s">
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="36"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="37" t="s">
         <v>769</v>
       </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="53"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="52" t="s">
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="38"/>
+    </row>
+    <row r="17" spans="1:6" ht="15" customHeight="1" thickBot="1">
+      <c r="A17" s="55" t="s">
         <v>770</v>
       </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="53"/>
-    </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1">
-      <c r="A13" s="50" t="s">
-        <v>771</v>
-      </c>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="51"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="50"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="51"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="52" t="s">
-        <v>772</v>
-      </c>
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="53"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="54" t="s">
-        <v>773</v>
-      </c>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="55"/>
-    </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" thickBot="1">
-      <c r="A17" s="63" t="s">
-        <v>774</v>
-      </c>
-      <c r="B17" s="64"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="65"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="57"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1"/>
     <row r="19" spans="1:6" ht="30.75" thickBot="1">
-      <c r="A19" s="56" t="s">
-        <v>795</v>
-      </c>
-      <c r="B19" s="35" t="s">
+      <c r="A19" s="39" t="s">
+        <v>791</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="23" t="s">
+        <v>778</v>
+      </c>
+      <c r="B20" s="40" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="37" t="s">
+    <row r="21" spans="1:6">
+      <c r="A21" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="43" t="s">
         <v>782</v>
       </c>
-      <c r="B20" s="57" t="s">
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="24" t="s">
+        <v>771</v>
+      </c>
+      <c r="B22" s="41" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="24" t="s">
+        <v>772</v>
+      </c>
+      <c r="B23" s="43" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="B24" s="42" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="60" t="s">
+    <row r="25" spans="1:6">
+      <c r="A25" s="24" t="s">
+        <v>774</v>
+      </c>
+      <c r="B25" s="44" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="38" t="s">
+    <row r="26" spans="1:6">
+      <c r="A26" s="24" t="s">
         <v>775</v>
       </c>
-      <c r="B22" s="58" t="s">
+      <c r="B26" s="44" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="24" t="s">
+        <v>776</v>
+      </c>
+      <c r="B27" s="44" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="38" t="s">
-        <v>776</v>
-      </c>
-      <c r="B23" s="60" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="38" t="s">
-        <v>777</v>
-      </c>
-      <c r="B24" s="59" t="s">
+    <row r="28" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A28" s="25" t="s">
+        <v>527</v>
+      </c>
+      <c r="B28" s="45" t="s">
         <v>789</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="38" t="s">
-        <v>778</v>
-      </c>
-      <c r="B25" s="61" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="38" t="s">
-        <v>779</v>
-      </c>
-      <c r="B26" s="61" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="38" t="s">
-        <v>780</v>
-      </c>
-      <c r="B27" s="61" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A28" s="39" t="s">
-        <v>531</v>
-      </c>
-      <c r="B28" s="62" t="s">
-        <v>793</v>
       </c>
     </row>
   </sheetData>
@@ -3881,7 +3887,7 @@
         <v>17</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="11"/>
@@ -3891,7 +3897,7 @@
         <v>19</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="11"/>
@@ -3901,7 +3907,7 @@
         <v>20</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -3911,7 +3917,7 @@
         <v>22</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
@@ -3933,173 +3939,173 @@
       <c r="D7" s="11"/>
     </row>
     <row r="9" spans="1:7" ht="30">
-      <c r="A9" s="24" t="s">
-        <v>697</v>
+      <c r="A9" s="61" t="s">
+        <v>693</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="F9" s="18"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="24"/>
+      <c r="A10" s="61"/>
       <c r="B10" s="11" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="F10" s="13"/>
     </row>
     <row r="11" spans="1:7" ht="30">
-      <c r="A11" s="24"/>
+      <c r="A11" s="61"/>
       <c r="B11" s="11" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="F11" s="18"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="61" t="s">
         <v>703</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>738</v>
-      </c>
-      <c r="F11" s="18"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="24" t="s">
-        <v>707</v>
-      </c>
       <c r="B13" s="11" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="F13" s="17"/>
     </row>
     <row r="14" spans="1:7" ht="30">
-      <c r="A14" s="24"/>
+      <c r="A14" s="61"/>
       <c r="B14" s="11" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="F14" s="17"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="24"/>
+      <c r="A15" s="61"/>
       <c r="B15" s="11" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
     </row>
     <row r="17" spans="1:7" ht="30">
-      <c r="A17" s="24" t="s">
-        <v>706</v>
+      <c r="A17" s="61" t="s">
+        <v>702</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="F17" s="17"/>
     </row>
     <row r="18" spans="1:7" ht="30">
-      <c r="A18" s="24"/>
+      <c r="A18" s="61"/>
       <c r="B18" s="11" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="F18" s="17"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="24"/>
+      <c r="A19" s="61"/>
       <c r="B19" s="11" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
     </row>
     <row r="21" spans="1:7" ht="30">
-      <c r="A21" s="24" t="s">
-        <v>709</v>
+      <c r="A21" s="61" t="s">
+        <v>705</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="F21" s="13"/>
     </row>
     <row r="22" spans="1:7" ht="30">
-      <c r="A22" s="24"/>
+      <c r="A22" s="61"/>
       <c r="B22" s="11" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="11" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="F22" s="13"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="24"/>
+      <c r="A23" s="61"/>
       <c r="B23" s="11" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
     </row>
     <row r="25" spans="1:7" ht="30">
-      <c r="A25" s="24" t="s">
-        <v>713</v>
+      <c r="A25" s="61" t="s">
+        <v>709</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="F25" s="17"/>
       <c r="G25" t="e" vm="5">
@@ -4107,189 +4113,189 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="30">
-      <c r="A26" s="24"/>
+      <c r="A26" s="61"/>
       <c r="B26" s="11" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="F26" s="13"/>
       <c r="G26" s="20" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="30">
-      <c r="A27" s="24"/>
+      <c r="A27" s="61"/>
       <c r="B27" s="11" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="F27" s="18"/>
     </row>
     <row r="29" spans="1:7" ht="30">
-      <c r="A29" s="24" t="s">
-        <v>718</v>
+      <c r="A29" s="61" t="s">
+        <v>714</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="11" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="F29" s="13"/>
     </row>
     <row r="30" spans="1:7" ht="30">
-      <c r="A30" s="24"/>
+      <c r="A30" s="61"/>
       <c r="B30" s="11" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="F30" s="13"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="24"/>
+      <c r="A31" s="61"/>
       <c r="B31" s="11" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="24" t="s">
-        <v>750</v>
+      <c r="A33" s="61" t="s">
+        <v>746</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="11" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="F33" s="17"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="24"/>
+      <c r="A34" s="61"/>
       <c r="B34" s="11" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="F34" s="17"/>
     </row>
     <row r="35" spans="1:6" ht="30">
-      <c r="A35" s="24"/>
+      <c r="A35" s="61"/>
       <c r="B35" s="11" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="C35" s="11"/>
       <c r="D35" s="11" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="F35" s="17"/>
     </row>
     <row r="37" spans="1:6" ht="30">
-      <c r="A37" s="24" t="s">
-        <v>751</v>
+      <c r="A37" s="61" t="s">
+        <v>747</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C37" s="11"/>
       <c r="D37" s="11" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="F37" s="17"/>
     </row>
     <row r="38" spans="1:6" ht="45">
-      <c r="A38" s="24"/>
+      <c r="A38" s="61"/>
       <c r="B38" s="11" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="F38" s="17"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="24"/>
+      <c r="A39" s="61"/>
       <c r="B39" s="11" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="C39" s="11"/>
       <c r="D39" s="11"/>
       <c r="F39" s="17"/>
     </row>
     <row r="41" spans="1:6" ht="30">
-      <c r="A41" s="24" t="s">
-        <v>752</v>
+      <c r="A41" s="61" t="s">
+        <v>748</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="C41" s="11"/>
       <c r="D41" s="11" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="F41" s="13"/>
     </row>
     <row r="42" spans="1:6" ht="30">
-      <c r="A42" s="24"/>
+      <c r="A42" s="61"/>
       <c r="B42" s="11" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="C42" s="11"/>
       <c r="D42" s="11" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="E42" s="11"/>
       <c r="F42" s="13"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="24"/>
+      <c r="A43" s="61"/>
       <c r="B43" s="11" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="C43" s="11"/>
       <c r="D43" s="11"/>
@@ -4351,7 +4357,7 @@
         <v>17</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="C2" s="8"/>
     </row>
@@ -4360,7 +4366,7 @@
         <v>19</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C3" s="10"/>
     </row>
@@ -4369,11 +4375,11 @@
         <v>20</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="C4" s="11"/>
-      <c r="E4" s="34" t="s">
-        <v>672</v>
+      <c r="E4" s="73" t="s">
+        <v>668</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="54.75" customHeight="1">
@@ -4381,10 +4387,10 @@
         <v>22</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C5" s="11"/>
-      <c r="E5" s="34"/>
+      <c r="E5" s="73"/>
     </row>
     <row r="6" spans="1:7" ht="17.25" customHeight="1">
       <c r="A6" s="10"/>
@@ -4401,201 +4407,201 @@
       <c r="C7"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="24" t="s">
-        <v>534</v>
+      <c r="A9" s="61" t="s">
+        <v>530</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="F9" s="17"/>
     </row>
     <row r="10" spans="1:7" ht="30">
-      <c r="A10" s="24"/>
+      <c r="A10" s="61"/>
       <c r="B10" s="11" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="F10" s="17"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="24"/>
+      <c r="A11" s="61"/>
     </row>
     <row r="13" spans="1:7" ht="30">
-      <c r="A13" s="24" t="s">
-        <v>538</v>
+      <c r="A13" s="61" t="s">
+        <v>534</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="F13" s="17"/>
     </row>
     <row r="14" spans="1:7" ht="30">
-      <c r="A14" s="24"/>
+      <c r="A14" s="61"/>
       <c r="B14" s="11" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="F14" s="17"/>
     </row>
     <row r="16" spans="1:7" ht="30">
-      <c r="A16" s="24" t="s">
-        <v>542</v>
+      <c r="A16" s="61" t="s">
+        <v>538</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="F16" s="17"/>
     </row>
     <row r="17" spans="1:6" ht="45">
-      <c r="A17" s="24"/>
+      <c r="A17" s="61"/>
       <c r="B17" s="11" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="F17" s="17"/>
     </row>
     <row r="19" spans="1:6" ht="30">
-      <c r="A19" s="24" t="s">
-        <v>547</v>
+      <c r="A19" s="61" t="s">
+        <v>543</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="F19" s="17"/>
     </row>
     <row r="20" spans="1:6" ht="30">
-      <c r="A20" s="24"/>
+      <c r="A20" s="61"/>
       <c r="B20" s="11" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="11" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="F20" s="17"/>
     </row>
     <row r="22" spans="1:6" ht="45">
-      <c r="A22" s="24" t="s">
-        <v>552</v>
+      <c r="A22" s="61" t="s">
+        <v>548</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="11" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F22" s="13"/>
     </row>
     <row r="23" spans="1:6" ht="45">
-      <c r="A23" s="24"/>
+      <c r="A23" s="61"/>
       <c r="B23" s="11" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="F23" s="13"/>
     </row>
     <row r="25" spans="1:6" ht="30">
-      <c r="A25" s="24" t="s">
-        <v>557</v>
+      <c r="A25" s="61" t="s">
+        <v>553</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="F25" s="17"/>
     </row>
     <row r="26" spans="1:6" ht="30">
-      <c r="A26" s="24"/>
+      <c r="A26" s="61"/>
       <c r="B26" s="11" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="F26" s="13"/>
     </row>
     <row r="28" spans="1:6" ht="45">
       <c r="A28" s="10" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="11" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="F28" s="17"/>
     </row>
@@ -4603,112 +4609,112 @@
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
       <c r="D29" s="11" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="F29" s="17"/>
     </row>
     <row r="31" spans="1:6" ht="30">
-      <c r="A31" s="24" t="s">
-        <v>754</v>
+      <c r="A31" s="61" t="s">
+        <v>750</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="11" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="F31" s="17"/>
     </row>
     <row r="32" spans="1:6" ht="45">
-      <c r="A32" s="24"/>
+      <c r="A32" s="61"/>
       <c r="B32" s="11" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="F32" s="17"/>
     </row>
     <row r="34" spans="1:6" ht="30" customHeight="1">
-      <c r="A34" s="24" t="s">
-        <v>755</v>
+      <c r="A34" s="61" t="s">
+        <v>751</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11" t="s">
-        <v>571</v>
-      </c>
-      <c r="E34" s="25" t="s">
-        <v>672</v>
+        <v>567</v>
+      </c>
+      <c r="E34" s="63" t="s">
+        <v>668</v>
       </c>
       <c r="F34" s="13"/>
     </row>
     <row r="35" spans="1:6" ht="30">
-      <c r="A35" s="24"/>
+      <c r="A35" s="61"/>
       <c r="B35" s="11" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="C35" s="11"/>
       <c r="D35" s="11" t="s">
-        <v>572</v>
-      </c>
-      <c r="E35" s="25"/>
+        <v>568</v>
+      </c>
+      <c r="E35" s="63"/>
       <c r="F35" s="13"/>
     </row>
     <row r="36" spans="1:6" ht="30">
-      <c r="A36" s="24"/>
+      <c r="A36" s="61"/>
       <c r="B36" s="11" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11" t="s">
-        <v>573</v>
-      </c>
-      <c r="E36" s="25"/>
+        <v>569</v>
+      </c>
+      <c r="E36" s="63"/>
       <c r="F36" s="13"/>
     </row>
     <row r="38" spans="1:6" ht="60">
       <c r="A38" s="10" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="F38" s="13"/>
     </row>
     <row r="40" spans="1:6" ht="30">
       <c r="A40" s="10" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="F40" s="17"/>
     </row>
@@ -4716,26 +4722,26 @@
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
       <c r="D41" s="11" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="F41" s="13"/>
     </row>
     <row r="43" spans="1:6" ht="45">
       <c r="A43" s="10" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="C43" s="11"/>
       <c r="D43" s="11" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="F43" s="17"/>
     </row>
@@ -4743,56 +4749,56 @@
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
       <c r="D44" s="11" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="F44" s="13"/>
     </row>
     <row r="46" spans="1:6" ht="30">
-      <c r="A46" s="24" t="s">
-        <v>759</v>
+      <c r="A46" s="61" t="s">
+        <v>755</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="11" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="F46" s="17"/>
     </row>
     <row r="47" spans="1:6" ht="30">
-      <c r="A47" s="24"/>
+      <c r="A47" s="61"/>
       <c r="B47" s="11" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="C47" s="11"/>
       <c r="D47" s="11" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="F47" s="17"/>
     </row>
     <row r="49" spans="1:7" ht="30">
       <c r="A49" s="10" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="C49" s="11"/>
       <c r="D49" s="11" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="F49" s="13"/>
       <c r="G49" t="e" vm="6">
@@ -4803,10 +4809,10 @@
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
       <c r="D50" s="11" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="F50" s="17"/>
     </row>
@@ -4853,7 +4859,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="B2" s="2" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="24">
@@ -4866,7 +4872,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="B6" s="2" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="24">
@@ -4913,8 +4919,8 @@
   <dimension ref="A1:G157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G85" sqref="G85"/>
+      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4958,7 +4964,7 @@
         <v>19</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>65</v>
+        <v>794</v>
       </c>
       <c r="C3" s="10"/>
     </row>
@@ -5000,8 +5006,8 @@
       <c r="C8" s="10"/>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1">
-      <c r="A9" s="24" t="s">
-        <v>66</v>
+      <c r="A9" s="61" t="s">
+        <v>64</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>26</v>
@@ -5016,10 +5022,10 @@
         <v>27</v>
       </c>
       <c r="F9" s="17"/>
-      <c r="G9" s="23"/>
+      <c r="G9" s="62"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="24"/>
+      <c r="A10" s="61"/>
       <c r="B10" s="12" t="s">
         <v>28</v>
       </c>
@@ -5033,10 +5039,10 @@
         <v>28</v>
       </c>
       <c r="F10" s="17"/>
-      <c r="G10" s="23"/>
+      <c r="G10" s="62"/>
     </row>
     <row r="11" spans="1:7" ht="24.75" customHeight="1">
-      <c r="A11" s="24"/>
+      <c r="A11" s="61"/>
       <c r="B11" s="12" t="s">
         <v>29</v>
       </c>
@@ -5048,34 +5054,34 @@
         <v>30</v>
       </c>
       <c r="F11" s="17"/>
-      <c r="G11" s="23"/>
+      <c r="G11" s="62"/>
     </row>
     <row r="12" spans="1:7" ht="39.75" customHeight="1">
-      <c r="A12" s="25"/>
+      <c r="A12" s="63"/>
       <c r="B12" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F12" s="17"/>
       <c r="G12" s="11"/>
     </row>
     <row r="13" spans="1:7" ht="32.25" customHeight="1">
-      <c r="A13" s="25"/>
+      <c r="A13" s="63"/>
       <c r="B13" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="F13" s="13"/>
       <c r="G13" s="11"/>
@@ -5088,43 +5094,43 @@
       <c r="G14" s="11"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="24" t="s">
-        <v>72</v>
+      <c r="A15" s="61" t="s">
+        <v>70</v>
       </c>
       <c r="B15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F15" s="17"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="26"/>
+      <c r="A16" s="64"/>
       <c r="B16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16"/>
+      <c r="D16" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="C16"/>
-      <c r="D16" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>75</v>
+      <c r="E16" s="62" t="s">
+        <v>73</v>
       </c>
       <c r="F16" s="17"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="26"/>
+      <c r="A17" s="64"/>
       <c r="B17" t="s">
         <v>32</v>
       </c>
       <c r="C17"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
       <c r="F17" s="17"/>
     </row>
     <row r="18" spans="1:7">
@@ -5132,43 +5138,43 @@
       <c r="C18"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="24" t="s">
-        <v>76</v>
+      <c r="A19" s="61" t="s">
+        <v>74</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C19"/>
       <c r="D19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F19" s="17"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="24"/>
+      <c r="A20" s="61"/>
       <c r="B20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C20"/>
-      <c r="D20" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="E20" s="23" t="s">
-        <v>590</v>
+      <c r="D20" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20" s="62" t="s">
+        <v>586</v>
       </c>
       <c r="F20" s="17"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="24"/>
+      <c r="A21" s="61"/>
       <c r="B21" t="s">
         <v>32</v>
       </c>
       <c r="C21"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
       <c r="F21" s="17"/>
     </row>
     <row r="22" spans="1:7">
@@ -5176,43 +5182,43 @@
       <c r="C22"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="24" t="s">
-        <v>78</v>
+      <c r="A23" s="61" t="s">
+        <v>76</v>
       </c>
       <c r="B23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C23"/>
       <c r="D23" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E23" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F23" s="17"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="24"/>
+      <c r="A24" s="61"/>
       <c r="B24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C24"/>
-      <c r="D24" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="E24" s="23" t="s">
-        <v>591</v>
+      <c r="D24" s="62" t="s">
+        <v>78</v>
+      </c>
+      <c r="E24" s="62" t="s">
+        <v>587</v>
       </c>
       <c r="F24" s="17"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="24"/>
+      <c r="A25" s="61"/>
       <c r="B25" t="s">
         <v>32</v>
       </c>
       <c r="C25"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
       <c r="F25" s="17"/>
     </row>
     <row r="26" spans="1:7">
@@ -5220,41 +5226,41 @@
       <c r="C26"/>
     </row>
     <row r="27" spans="1:7" ht="24.75" customHeight="1">
-      <c r="A27" s="24" t="s">
-        <v>81</v>
+      <c r="A27" s="61" t="s">
+        <v>79</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C27"/>
       <c r="D27" t="s">
-        <v>74</v>
-      </c>
-      <c r="E27" s="24" t="s">
-        <v>592</v>
+        <v>72</v>
+      </c>
+      <c r="E27" s="61" t="s">
+        <v>588</v>
       </c>
       <c r="F27" s="18"/>
     </row>
     <row r="28" spans="1:7" ht="28.5" customHeight="1">
-      <c r="A28" s="24"/>
+      <c r="A28" s="61"/>
       <c r="B28" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C28"/>
-      <c r="D28" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="E28" s="24"/>
+      <c r="D28" s="62" t="s">
+        <v>85</v>
+      </c>
+      <c r="E28" s="61"/>
       <c r="F28" s="18"/>
     </row>
     <row r="29" spans="1:7" ht="39.75" customHeight="1">
-      <c r="A29" s="24"/>
+      <c r="A29" s="61"/>
       <c r="B29" s="11" t="s">
         <v>32</v>
       </c>
       <c r="C29"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="24"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="61"/>
       <c r="F29" s="18"/>
     </row>
     <row r="30" spans="1:7">
@@ -5262,56 +5268,56 @@
       <c r="C30"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="24" t="s">
-        <v>83</v>
+      <c r="A31" s="61" t="s">
+        <v>81</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C31"/>
       <c r="D31" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E31" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="F31" s="18"/>
     </row>
     <row r="32" spans="1:7" ht="45">
-      <c r="A32" s="24"/>
+      <c r="A32" s="61"/>
       <c r="B32" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C32"/>
-      <c r="D32" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="E32" s="23" t="s">
-        <v>593</v>
+      <c r="D32" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="E32" s="62" t="s">
+        <v>589</v>
       </c>
       <c r="F32" s="18"/>
       <c r="G32" s="11" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15" customHeight="1">
-      <c r="A33" s="24"/>
+      <c r="A33" s="61"/>
       <c r="B33" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C33"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="62"/>
       <c r="F33" s="18"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="24"/>
+      <c r="A34" s="61"/>
       <c r="B34" s="11" t="s">
         <v>32</v>
       </c>
       <c r="C34"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="62"/>
       <c r="F34" s="18"/>
     </row>
     <row r="35" spans="1:6" ht="26.25" customHeight="1">
@@ -5319,49 +5325,49 @@
       <c r="C35"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="24" t="s">
-        <v>89</v>
+      <c r="A36" s="61" t="s">
+        <v>87</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C36"/>
       <c r="D36" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E36" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="F36" s="17"/>
     </row>
     <row r="37" spans="1:6" ht="15" hidden="1" customHeight="1">
-      <c r="A37" s="24"/>
+      <c r="A37" s="61"/>
       <c r="B37"/>
       <c r="C37"/>
       <c r="F37" s="17"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="24"/>
+      <c r="A38" s="61"/>
       <c r="B38" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C38"/>
-      <c r="D38" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="E38" s="23" t="s">
-        <v>597</v>
+      <c r="D38" s="62" t="s">
+        <v>89</v>
+      </c>
+      <c r="E38" s="62" t="s">
+        <v>593</v>
       </c>
       <c r="F38" s="17"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="24"/>
+      <c r="A39" s="61"/>
       <c r="B39" t="s">
         <v>32</v>
       </c>
       <c r="C39"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
+      <c r="D39" s="62"/>
+      <c r="E39" s="62"/>
       <c r="F39" s="17"/>
     </row>
     <row r="40" spans="1:6">
@@ -5382,7 +5388,7 @@
         <v>19</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>35</v>
+        <v>795</v>
       </c>
       <c r="C43" s="10"/>
     </row>
@@ -5391,7 +5397,7 @@
         <v>20</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C44" s="11"/>
     </row>
@@ -5400,7 +5406,7 @@
         <v>22</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C45" s="11"/>
     </row>
@@ -5414,62 +5420,62 @@
       <c r="C47" s="10"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="24" t="s">
-        <v>92</v>
+      <c r="A49" s="61" t="s">
+        <v>90</v>
       </c>
       <c r="B49" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D49" t="s">
         <v>38</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
+        <v>38</v>
+      </c>
+      <c r="F49" s="17"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="61"/>
+      <c r="B50" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="E49" t="s">
-        <v>39</v>
-      </c>
-      <c r="F49" s="17"/>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="24"/>
-      <c r="B50" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="C50" s="14" t="s">
         <v>31</v>
       </c>
       <c r="D50" t="s">
+        <v>39</v>
+      </c>
+      <c r="E50" t="s">
+        <v>39</v>
+      </c>
+      <c r="F50" s="17"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="61"/>
+      <c r="B51" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="E50" t="s">
-        <v>40</v>
-      </c>
-      <c r="F50" s="17"/>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="24"/>
-      <c r="B51" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="C51" s="12" t="s">
         <v>33</v>
       </c>
       <c r="D51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F51" s="17"/>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="10"/>
       <c r="B52" t="s">
-        <v>93</v>
-      </c>
-      <c r="D52" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="E52" s="23" t="s">
-        <v>94</v>
+        <v>91</v>
+      </c>
+      <c r="D52" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="E52" s="62" t="s">
+        <v>92</v>
       </c>
       <c r="F52" s="17"/>
     </row>
@@ -5478,51 +5484,51 @@
       <c r="B53" t="s">
         <v>32</v>
       </c>
-      <c r="D53" s="23"/>
-      <c r="E53" s="23"/>
+      <c r="D53" s="62"/>
+      <c r="E53" s="62"/>
       <c r="F53" s="17"/>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="10"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="24" t="s">
-        <v>95</v>
+      <c r="A55" s="61" t="s">
+        <v>93</v>
       </c>
       <c r="B55" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C55"/>
       <c r="D55" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E55" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="F55" s="17"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="24"/>
+      <c r="A56" s="61"/>
       <c r="B56" t="s">
+        <v>95</v>
+      </c>
+      <c r="C56"/>
+      <c r="D56" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="C56"/>
-      <c r="D56" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="E56" s="23" t="s">
-        <v>599</v>
+      <c r="E56" s="62" t="s">
+        <v>595</v>
       </c>
       <c r="F56" s="17"/>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="24"/>
+      <c r="A57" s="61"/>
       <c r="B57" t="s">
         <v>32</v>
       </c>
       <c r="C57"/>
-      <c r="D57" s="23"/>
-      <c r="E57" s="23"/>
+      <c r="D57" s="62"/>
+      <c r="E57" s="62"/>
       <c r="F57" s="17"/>
     </row>
     <row r="58" spans="1:6">
@@ -5530,43 +5536,43 @@
       <c r="C58"/>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="24" t="s">
-        <v>100</v>
+      <c r="A59" s="61" t="s">
+        <v>98</v>
       </c>
       <c r="B59" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C59"/>
       <c r="D59" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E59" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="F59" s="17"/>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="24"/>
+      <c r="A60" s="61"/>
       <c r="B60" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C60"/>
-      <c r="D60" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="E60" s="23" t="s">
-        <v>600</v>
+      <c r="D60" s="62" t="s">
+        <v>100</v>
+      </c>
+      <c r="E60" s="62" t="s">
+        <v>596</v>
       </c>
       <c r="F60" s="17"/>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="24"/>
+      <c r="A61" s="61"/>
       <c r="B61" t="s">
         <v>32</v>
       </c>
       <c r="C61"/>
-      <c r="D61" s="23"/>
-      <c r="E61" s="23"/>
+      <c r="D61" s="62"/>
+      <c r="E61" s="62"/>
       <c r="F61" s="17"/>
     </row>
     <row r="62" spans="1:6">
@@ -5574,43 +5580,43 @@
       <c r="C62"/>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="24" t="s">
-        <v>103</v>
+      <c r="A63" s="61" t="s">
+        <v>101</v>
       </c>
       <c r="B63" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C63"/>
       <c r="D63" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E63" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="F63" s="17"/>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="24"/>
+      <c r="A64" s="61"/>
       <c r="B64" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C64"/>
-      <c r="D64" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="E64" s="23" t="s">
-        <v>601</v>
+      <c r="D64" s="62" t="s">
+        <v>103</v>
+      </c>
+      <c r="E64" s="62" t="s">
+        <v>597</v>
       </c>
       <c r="F64" s="17"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="24"/>
+      <c r="A65" s="61"/>
       <c r="B65" t="s">
         <v>32</v>
       </c>
       <c r="C65"/>
-      <c r="D65" s="23"/>
-      <c r="E65" s="23"/>
+      <c r="D65" s="62"/>
+      <c r="E65" s="62"/>
       <c r="F65" s="17"/>
     </row>
     <row r="66" spans="1:7">
@@ -5618,43 +5624,43 @@
       <c r="C66"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="24" t="s">
-        <v>106</v>
+      <c r="A67" s="61" t="s">
+        <v>104</v>
       </c>
       <c r="B67" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C67"/>
       <c r="D67" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E67" t="s">
+        <v>594</v>
+      </c>
+      <c r="F67" s="17"/>
+    </row>
+    <row r="68" spans="1:7" ht="30" customHeight="1">
+      <c r="A68" s="61"/>
+      <c r="B68" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C68"/>
+      <c r="D68" s="62" t="s">
+        <v>106</v>
+      </c>
+      <c r="E68" s="62" t="s">
         <v>598</v>
       </c>
-      <c r="F67" s="17"/>
-    </row>
-    <row r="68" spans="1:7" ht="30" customHeight="1">
-      <c r="A68" s="24"/>
-      <c r="B68" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="C68"/>
-      <c r="D68" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="E68" s="23" t="s">
-        <v>602</v>
-      </c>
       <c r="F68" s="17"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="24"/>
+      <c r="A69" s="61"/>
       <c r="B69" t="s">
         <v>32</v>
       </c>
       <c r="C69"/>
-      <c r="D69" s="23"/>
-      <c r="E69" s="23"/>
+      <c r="D69" s="62"/>
+      <c r="E69" s="62"/>
       <c r="F69" s="17"/>
     </row>
     <row r="70" spans="1:7">
@@ -5662,40 +5668,40 @@
       <c r="C70"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="24" t="s">
-        <v>109</v>
+      <c r="A71" s="61" t="s">
+        <v>107</v>
       </c>
       <c r="B71" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C71"/>
       <c r="D71" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F71" s="18"/>
     </row>
     <row r="72" spans="1:7" ht="30">
-      <c r="A72" s="24"/>
+      <c r="A72" s="61"/>
       <c r="B72" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C72"/>
-      <c r="D72" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="E72" s="24" t="s">
-        <v>603</v>
+      <c r="D72" s="62" t="s">
+        <v>109</v>
+      </c>
+      <c r="E72" s="61" t="s">
+        <v>599</v>
       </c>
       <c r="F72" s="18"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="24"/>
+      <c r="A73" s="61"/>
       <c r="B73" t="s">
         <v>32</v>
       </c>
       <c r="C73"/>
-      <c r="D73" s="23"/>
-      <c r="E73" s="24"/>
+      <c r="D73" s="62"/>
+      <c r="E73" s="61"/>
       <c r="F73" s="18"/>
     </row>
     <row r="74" spans="1:7">
@@ -5703,135 +5709,135 @@
       <c r="C74"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="24" t="s">
-        <v>112</v>
+      <c r="A75" s="61" t="s">
+        <v>110</v>
       </c>
       <c r="B75" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C75"/>
       <c r="D75" t="s">
-        <v>98</v>
-      </c>
-      <c r="E75" s="24" t="s">
-        <v>604</v>
+        <v>96</v>
+      </c>
+      <c r="E75" s="61" t="s">
+        <v>600</v>
       </c>
       <c r="F75" s="13"/>
     </row>
     <row r="76" spans="1:7" ht="30">
-      <c r="A76" s="24"/>
+      <c r="A76" s="61"/>
       <c r="B76" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C76"/>
-      <c r="D76" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="E76" s="24"/>
+      <c r="D76" s="62" t="s">
+        <v>112</v>
+      </c>
+      <c r="E76" s="61"/>
       <c r="F76" s="17"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="24"/>
+      <c r="A77" s="61"/>
       <c r="B77" t="s">
         <v>32</v>
       </c>
       <c r="C77"/>
-      <c r="D77" s="23"/>
-      <c r="E77" s="24"/>
+      <c r="D77" s="62"/>
+      <c r="E77" s="61"/>
     </row>
     <row r="78" spans="1:7" ht="26.25" customHeight="1">
       <c r="B78"/>
       <c r="C78"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="24" t="s">
-        <v>115</v>
+      <c r="A79" s="61" t="s">
+        <v>113</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C79"/>
       <c r="D79" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E79" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="F79" s="13"/>
-      <c r="G79" s="22" t="s">
-        <v>605</v>
+      <c r="G79" s="65" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="15" hidden="1" customHeight="1">
-      <c r="A80" s="24"/>
+      <c r="A80" s="61"/>
       <c r="C80"/>
       <c r="F80" s="13"/>
-      <c r="G80" s="22"/>
+      <c r="G80" s="65"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="24"/>
+      <c r="A81" s="61"/>
       <c r="B81" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C81"/>
+      <c r="D81" s="62" t="s">
         <v>117</v>
       </c>
-      <c r="C81"/>
-      <c r="D81" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="E81" s="23" t="s">
-        <v>784</v>
+      <c r="E81" s="62" t="s">
+        <v>780</v>
       </c>
       <c r="F81" s="13"/>
-      <c r="G81" s="22"/>
+      <c r="G81" s="65"/>
     </row>
     <row r="82" spans="1:7" ht="47.25" customHeight="1">
-      <c r="A82" s="24"/>
+      <c r="A82" s="61"/>
       <c r="B82" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C82"/>
-      <c r="D82" s="23"/>
-      <c r="E82" s="23"/>
+      <c r="D82" s="62"/>
+      <c r="E82" s="62"/>
       <c r="F82" s="13"/>
-      <c r="G82" s="22"/>
+      <c r="G82" s="65"/>
     </row>
     <row r="83" spans="1:7">
       <c r="B83"/>
       <c r="C83"/>
     </row>
     <row r="84" spans="1:7" ht="30">
-      <c r="A84" s="24" t="s">
+      <c r="A84" s="61" t="s">
+        <v>118</v>
+      </c>
+      <c r="B84" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C84"/>
+      <c r="D84" s="62" t="s">
+        <v>121</v>
+      </c>
+      <c r="E84" s="65" t="s">
+        <v>604</v>
+      </c>
+      <c r="F84" s="13"/>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="61"/>
+      <c r="B85" t="s">
         <v>120</v>
       </c>
-      <c r="B84" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="C84"/>
-      <c r="D84" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="E84" s="22" t="s">
-        <v>608</v>
-      </c>
-      <c r="F84" s="13"/>
-    </row>
-    <row r="85" spans="1:7">
-      <c r="A85" s="24"/>
-      <c r="B85" t="s">
-        <v>122</v>
-      </c>
       <c r="C85"/>
-      <c r="D85" s="23"/>
-      <c r="E85" s="22"/>
+      <c r="D85" s="62"/>
+      <c r="E85" s="65"/>
       <c r="F85" s="13"/>
     </row>
     <row r="86" spans="1:7">
-      <c r="A86" s="24"/>
+      <c r="A86" s="61"/>
       <c r="B86" t="s">
         <v>32</v>
       </c>
       <c r="C86"/>
-      <c r="D86" s="23"/>
-      <c r="E86" s="22"/>
+      <c r="D86" s="62"/>
+      <c r="E86" s="65"/>
       <c r="F86" s="13"/>
     </row>
     <row r="87" spans="1:7">
@@ -5839,39 +5845,39 @@
       <c r="C87"/>
     </row>
     <row r="88" spans="1:7" ht="30">
-      <c r="A88" s="24" t="s">
-        <v>124</v>
+      <c r="A88" s="61" t="s">
+        <v>122</v>
       </c>
       <c r="B88" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C88"/>
       <c r="D88" s="11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="F88" s="17"/>
     </row>
     <row r="89" spans="1:7" ht="30">
-      <c r="A89" s="24"/>
+      <c r="A89" s="61"/>
       <c r="B89" s="11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C89"/>
       <c r="D89" s="11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E89" s="11" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="F89" s="17"/>
     </row>
     <row r="90" spans="1:7">
-      <c r="A90" s="24"/>
+      <c r="A90" s="61"/>
       <c r="B90" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C90"/>
     </row>
@@ -6145,24 +6151,21 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="A88:A90"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="A75:A77"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="A79:A82"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="A67:A69"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="A84:A86"/>
-    <mergeCell ref="D84:D86"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="E84:E86"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="E75:E77"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="G79:G82"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="E64:E65"/>
     <mergeCell ref="G9:G11"/>
     <mergeCell ref="A49:A51"/>
     <mergeCell ref="A9:A13"/>
@@ -6179,21 +6182,24 @@
     <mergeCell ref="A36:A39"/>
     <mergeCell ref="D38:D39"/>
     <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="G79:G82"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="E84:E86"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="E75:E77"/>
-    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="A67:A69"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="A84:A86"/>
+    <mergeCell ref="D84:D86"/>
+    <mergeCell ref="A88:A90"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="A79:A82"/>
+    <mergeCell ref="D81:D82"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6204,8 +6210,8 @@
   <dimension ref="A1:G75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4:E5"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6240,7 +6246,7 @@
         <v>17</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2" s="8"/>
     </row>
@@ -6249,7 +6255,7 @@
         <v>19</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>63</v>
+        <v>796</v>
       </c>
       <c r="C3" s="10"/>
     </row>
@@ -6258,11 +6264,11 @@
         <v>20</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" s="11"/>
-      <c r="E4" s="27" t="s">
-        <v>609</v>
+      <c r="E4" s="66" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="54.75" customHeight="1">
@@ -6270,10 +6276,10 @@
         <v>22</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" s="11"/>
-      <c r="E5" s="24"/>
+      <c r="E5" s="61"/>
     </row>
     <row r="6" spans="1:7" ht="17.25" customHeight="1">
       <c r="A6" s="10"/>
@@ -6290,77 +6296,77 @@
       <c r="C7" s="10"/>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1">
-      <c r="A9" s="24" t="s">
-        <v>130</v>
+      <c r="A9" s="61" t="s">
+        <v>128</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" t="s">
         <v>45</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" s="11"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="61"/>
+      <c r="B10" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="11"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="24"/>
-      <c r="B10" s="3" t="s">
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="11"/>
+    </row>
+    <row r="11" spans="1:7" ht="21.75" customHeight="1">
+      <c r="A11" s="61"/>
+      <c r="B11" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D11" t="s">
         <v>47</v>
-      </c>
-      <c r="D10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="11"/>
-    </row>
-    <row r="11" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A11" s="24"/>
-      <c r="B11" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="D11" t="s">
-        <v>48</v>
       </c>
       <c r="E11" s="11"/>
     </row>
     <row r="12" spans="1:7" ht="36" customHeight="1">
       <c r="A12" s="10"/>
       <c r="B12" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="E12" s="11"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="61" t="s">
+        <v>131</v>
+      </c>
+      <c r="E13" s="11"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="61"/>
+      <c r="B14" t="s">
+        <v>133</v>
+      </c>
+      <c r="D14" s="62" t="s">
+        <v>136</v>
+      </c>
+      <c r="E14" s="11"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="61"/>
+      <c r="B15" t="s">
         <v>132</v>
       </c>
-      <c r="D12" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="E12" s="11"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="E13" s="11"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="24"/>
-      <c r="B14" t="s">
-        <v>135</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="E14" s="11"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="24"/>
-      <c r="B15" t="s">
+      <c r="D15" s="62"/>
+      <c r="E15" s="11"/>
+    </row>
+    <row r="16" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A16" s="61"/>
+      <c r="B16" t="s">
         <v>134</v>
       </c>
-      <c r="D15" s="23"/>
-      <c r="E15" s="11"/>
-    </row>
-    <row r="16" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A16" s="24"/>
-      <c r="B16" t="s">
-        <v>136</v>
-      </c>
-      <c r="D16" s="23"/>
+      <c r="D16" s="62"/>
       <c r="E16" s="11"/>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1">
@@ -6368,265 +6374,265 @@
       <c r="C17"/>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="61" t="s">
+        <v>137</v>
+      </c>
+      <c r="B18" t="s">
+        <v>133</v>
+      </c>
+      <c r="C18"/>
+      <c r="D18" s="62" t="s">
         <v>139</v>
       </c>
-      <c r="B18" t="s">
-        <v>135</v>
-      </c>
-      <c r="C18"/>
-      <c r="D18" s="23" t="s">
-        <v>141</v>
-      </c>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1">
-      <c r="A19" s="24"/>
+      <c r="A19" s="61"/>
       <c r="B19" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C19"/>
-      <c r="D19" s="23"/>
+      <c r="D19" s="62"/>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1">
-      <c r="A20" s="24"/>
+      <c r="A20" s="61"/>
       <c r="B20" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C20"/>
-      <c r="D20" s="23"/>
+      <c r="D20" s="62"/>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1">
       <c r="B21"/>
       <c r="C21"/>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="61" t="s">
+        <v>140</v>
+      </c>
+      <c r="B22" t="s">
+        <v>133</v>
+      </c>
+      <c r="C22"/>
+      <c r="D22" s="62" t="s">
         <v>142</v>
       </c>
-      <c r="B22" t="s">
-        <v>135</v>
-      </c>
-      <c r="C22"/>
-      <c r="D22" s="23" t="s">
-        <v>144</v>
-      </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="24"/>
+      <c r="A23" s="61"/>
       <c r="B23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C23"/>
-      <c r="D23" s="23"/>
+      <c r="D23" s="62"/>
     </row>
     <row r="24" spans="1:4" ht="18" customHeight="1">
-      <c r="A24" s="24"/>
+      <c r="A24" s="61"/>
       <c r="B24" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C24"/>
-      <c r="D24" s="23"/>
+      <c r="D24" s="62"/>
     </row>
     <row r="25" spans="1:4">
       <c r="B25"/>
       <c r="C25"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="61" t="s">
+        <v>143</v>
+      </c>
+      <c r="B26" t="s">
+        <v>133</v>
+      </c>
+      <c r="C26"/>
+      <c r="D26" s="62" t="s">
         <v>145</v>
       </c>
-      <c r="B26" t="s">
-        <v>135</v>
-      </c>
-      <c r="C26"/>
-      <c r="D26" s="23" t="s">
-        <v>147</v>
-      </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="24"/>
+      <c r="A27" s="61"/>
       <c r="B27" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C27"/>
-      <c r="D27" s="23"/>
+      <c r="D27" s="62"/>
     </row>
     <row r="28" spans="1:4" ht="18" customHeight="1">
-      <c r="A28" s="24"/>
+      <c r="A28" s="61"/>
       <c r="B28" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C28"/>
-      <c r="D28" s="23"/>
+      <c r="D28" s="62"/>
     </row>
     <row r="29" spans="1:4">
       <c r="B29"/>
       <c r="C29"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="24" t="s">
+      <c r="A30" s="61" t="s">
+        <v>146</v>
+      </c>
+      <c r="B30" t="s">
+        <v>133</v>
+      </c>
+      <c r="C30"/>
+      <c r="D30" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="B30" t="s">
-        <v>135</v>
-      </c>
-      <c r="C30"/>
-      <c r="D30" s="23" t="s">
-        <v>150</v>
-      </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="24"/>
+      <c r="A31" s="61"/>
       <c r="B31" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C31"/>
-      <c r="D31" s="23"/>
+      <c r="D31" s="62"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="24"/>
+      <c r="A32" s="61"/>
       <c r="B32" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C32"/>
-      <c r="D32" s="23"/>
+      <c r="D32" s="62"/>
     </row>
     <row r="33" spans="1:4">
       <c r="B33"/>
       <c r="C33"/>
     </row>
     <row r="34" spans="1:4" ht="23.25" customHeight="1">
-      <c r="A34" s="24" t="s">
+      <c r="A34" s="61" t="s">
+        <v>149</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C34"/>
+      <c r="D34" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C34"/>
-      <c r="D34" s="23" t="s">
-        <v>153</v>
-      </c>
     </row>
     <row r="35" spans="1:4" ht="30" customHeight="1">
-      <c r="A35" s="24"/>
+      <c r="A35" s="61"/>
       <c r="B35" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C35"/>
-      <c r="D35" s="23"/>
+      <c r="D35" s="62"/>
     </row>
     <row r="36" spans="1:4" ht="40.5" customHeight="1">
-      <c r="A36" s="24"/>
+      <c r="A36" s="61"/>
       <c r="B36" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C36"/>
-      <c r="D36" s="23"/>
+      <c r="D36" s="62"/>
     </row>
     <row r="37" spans="1:4">
       <c r="B37"/>
       <c r="C37"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="24" t="s">
+      <c r="A38" s="61" t="s">
+        <v>152</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C38"/>
+      <c r="D38" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C38"/>
-      <c r="D38" s="23" t="s">
-        <v>156</v>
-      </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="24"/>
+      <c r="A39" s="61"/>
       <c r="B39" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C39"/>
-      <c r="D39" s="23"/>
+      <c r="D39" s="62"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="24"/>
+      <c r="A40" s="61"/>
       <c r="B40" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C40"/>
-      <c r="D40" s="23"/>
+      <c r="D40" s="62"/>
     </row>
     <row r="41" spans="1:4">
       <c r="B41"/>
       <c r="C41"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="24" t="s">
+      <c r="A42" s="61" t="s">
+        <v>155</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C42"/>
+      <c r="D42" s="62" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="61"/>
+      <c r="B43" t="s">
+        <v>156</v>
+      </c>
+      <c r="C43"/>
+      <c r="D43" s="62"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="61"/>
+      <c r="B44" t="s">
         <v>157</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C42"/>
-      <c r="D42" s="23" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="24"/>
-      <c r="B43" t="s">
-        <v>158</v>
-      </c>
-      <c r="C43"/>
-      <c r="D43" s="23"/>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="24"/>
-      <c r="B44" t="s">
-        <v>159</v>
-      </c>
       <c r="C44"/>
-      <c r="D44" s="23"/>
+      <c r="D44" s="62"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="28"/>
+      <c r="A45" s="67"/>
       <c r="B45" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C45"/>
-      <c r="D45" s="23"/>
+      <c r="D45" s="62"/>
     </row>
     <row r="46" spans="1:4">
       <c r="B46"/>
       <c r="C46"/>
     </row>
     <row r="47" spans="1:4" ht="30">
-      <c r="A47" s="24" t="s">
-        <v>161</v>
+      <c r="A47" s="61" t="s">
+        <v>159</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C47"/>
       <c r="D47" s="11" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="24"/>
+      <c r="A48" s="61"/>
       <c r="B48" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C48"/>
       <c r="D48" s="11"/>
     </row>
     <row r="49" spans="1:4" ht="30">
-      <c r="A49" s="24"/>
+      <c r="A49" s="61"/>
       <c r="B49" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C49"/>
       <c r="D49" s="11" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -6634,152 +6640,152 @@
       <c r="C50"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="24" t="s">
+      <c r="A51" s="61" t="s">
+        <v>163</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C51"/>
+      <c r="D51" s="62" t="s">
         <v>165</v>
       </c>
-      <c r="B51" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C51"/>
-      <c r="D51" s="23" t="s">
-        <v>167</v>
-      </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="24"/>
+      <c r="A52" s="61"/>
       <c r="B52" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C52"/>
-      <c r="D52" s="23"/>
+      <c r="D52" s="62"/>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="24"/>
+      <c r="A53" s="61"/>
       <c r="B53" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C53"/>
-      <c r="D53" s="23"/>
+      <c r="D53" s="62"/>
     </row>
     <row r="54" spans="1:4">
       <c r="B54"/>
       <c r="C54"/>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="24" t="s">
+      <c r="A55" s="61" t="s">
+        <v>166</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C55"/>
+      <c r="D55" s="62" t="s">
         <v>168</v>
       </c>
-      <c r="B55" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C55"/>
-      <c r="D55" s="23" t="s">
-        <v>170</v>
-      </c>
     </row>
     <row r="56" spans="1:4" ht="30">
-      <c r="A56" s="24"/>
+      <c r="A56" s="61"/>
       <c r="B56" s="11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C56"/>
-      <c r="D56" s="23"/>
+      <c r="D56" s="62"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="24"/>
+      <c r="A57" s="61"/>
       <c r="B57" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C57"/>
-      <c r="D57" s="23"/>
+      <c r="D57" s="62"/>
     </row>
     <row r="58" spans="1:4">
       <c r="B58"/>
       <c r="C58"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="24" t="s">
+      <c r="A59" s="61" t="s">
+        <v>169</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C59"/>
+      <c r="D59" s="62" t="s">
         <v>171</v>
       </c>
-      <c r="B59" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C59"/>
-      <c r="D59" s="23" t="s">
-        <v>173</v>
-      </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="24"/>
+      <c r="A60" s="61"/>
       <c r="B60" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C60"/>
-      <c r="D60" s="23"/>
+      <c r="D60" s="62"/>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="24"/>
+      <c r="A61" s="61"/>
       <c r="B61" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C61"/>
-      <c r="D61" s="23"/>
+      <c r="D61" s="62"/>
     </row>
     <row r="62" spans="1:4">
       <c r="B62"/>
       <c r="C62"/>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="24" t="s">
+      <c r="A63" s="61" t="s">
+        <v>172</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C63"/>
+      <c r="D63" s="62" t="s">
         <v>174</v>
       </c>
-      <c r="B63" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C63"/>
-      <c r="D63" s="23" t="s">
-        <v>176</v>
-      </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="24"/>
+      <c r="A64" s="61"/>
       <c r="B64" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C64"/>
-      <c r="D64" s="23"/>
+      <c r="D64" s="62"/>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="24"/>
+      <c r="A65" s="61"/>
       <c r="B65" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C65"/>
-      <c r="D65" s="23"/>
+      <c r="D65" s="62"/>
     </row>
     <row r="66" spans="1:4">
       <c r="B66"/>
       <c r="C66"/>
     </row>
     <row r="67" spans="1:4" ht="23.25" customHeight="1">
-      <c r="A67" s="24" t="s">
+      <c r="A67" s="61" t="s">
+        <v>175</v>
+      </c>
+      <c r="B67" t="s">
+        <v>176</v>
+      </c>
+      <c r="C67"/>
+      <c r="D67" s="62" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="23.25" customHeight="1">
+      <c r="A68" s="61"/>
+      <c r="B68" t="s">
         <v>177</v>
       </c>
-      <c r="B67" t="s">
-        <v>178</v>
-      </c>
-      <c r="C67"/>
-      <c r="D67" s="23" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="23.25" customHeight="1">
-      <c r="A68" s="24"/>
-      <c r="B68" t="s">
-        <v>179</v>
-      </c>
       <c r="C68"/>
-      <c r="D68" s="23"/>
+      <c r="D68" s="62"/>
     </row>
     <row r="69" spans="1:4">
       <c r="B69"/>
@@ -6811,19 +6817,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="D55:D57"/>
-    <mergeCell ref="D59:D61"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="D22:D24"/>
     <mergeCell ref="A63:A65"/>
     <mergeCell ref="A67:A68"/>
     <mergeCell ref="D67:D68"/>
@@ -6840,6 +6833,19 @@
     <mergeCell ref="A51:A53"/>
     <mergeCell ref="D51:D53"/>
     <mergeCell ref="A55:A57"/>
+    <mergeCell ref="D55:D57"/>
+    <mergeCell ref="D59:D61"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="D22:D24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6850,8 +6856,8 @@
   <dimension ref="A1:G88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6887,7 +6893,7 @@
         <v>17</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="8"/>
     </row>
@@ -6896,7 +6902,7 @@
         <v>19</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>64</v>
+        <v>797</v>
       </c>
       <c r="C3" s="10"/>
     </row>
@@ -6905,7 +6911,7 @@
         <v>20</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" s="11"/>
     </row>
@@ -6914,7 +6920,7 @@
         <v>22</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5" s="11"/>
     </row>
@@ -6929,749 +6935,743 @@
       <c r="C7" s="10"/>
     </row>
     <row r="9" spans="1:7" ht="54.75" customHeight="1">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="61" t="s">
+        <v>179</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="D9" s="62" t="s">
+        <v>182</v>
+      </c>
+      <c r="E9" s="62" t="s">
+        <v>606</v>
+      </c>
+      <c r="F9" s="17"/>
+    </row>
+    <row r="10" spans="1:7" ht="54.75" customHeight="1">
+      <c r="A10" s="61"/>
+      <c r="B10" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>610</v>
-      </c>
-      <c r="F9" s="17"/>
-    </row>
-    <row r="10" spans="1:7" ht="54.75" customHeight="1">
-      <c r="A10" s="24"/>
-      <c r="B10" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
       <c r="F10" s="17"/>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1"/>
     <row r="12" spans="1:7" ht="48" customHeight="1">
-      <c r="A12" s="24" t="s">
-        <v>185</v>
+      <c r="A12" s="61" t="s">
+        <v>183</v>
       </c>
       <c r="B12" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="D12" s="62" t="s">
+        <v>187</v>
+      </c>
+      <c r="E12" s="62" t="s">
+        <v>607</v>
+      </c>
+      <c r="F12" s="17"/>
+    </row>
+    <row r="13" spans="1:7" ht="48.75" customHeight="1">
+      <c r="A13" s="61"/>
+      <c r="B13" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="17"/>
+    </row>
+    <row r="15" spans="1:7" ht="30.75" customHeight="1">
+      <c r="A15" s="61" t="s">
+        <v>188</v>
+      </c>
+      <c r="B15" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="D15" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>608</v>
+      </c>
+      <c r="F15" s="17"/>
+    </row>
+    <row r="16" spans="1:7" ht="30">
+      <c r="A16" s="61"/>
+      <c r="B16" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>609</v>
+      </c>
+      <c r="F16" s="17"/>
+    </row>
+    <row r="17" spans="1:7" ht="30">
+      <c r="A17" s="61"/>
+      <c r="B17" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>610</v>
+      </c>
+      <c r="F17" s="17"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="61" t="s">
+        <v>195</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="30">
+      <c r="A20" s="61"/>
+      <c r="B20" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="E20" s="11" t="s">
         <v>611</v>
       </c>
-      <c r="F12" s="17"/>
-    </row>
-    <row r="13" spans="1:7" ht="48.75" customHeight="1">
-      <c r="A13" s="24"/>
-      <c r="B13" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="17"/>
-    </row>
-    <row r="15" spans="1:7" ht="30.75" customHeight="1">
-      <c r="A15" s="24" t="s">
+      <c r="F20" s="17"/>
+    </row>
+    <row r="21" spans="1:7" ht="30">
+      <c r="A21" s="61"/>
+      <c r="B21" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>612</v>
+      </c>
+      <c r="F21" s="17"/>
+    </row>
+    <row r="22" spans="1:7" ht="30">
+      <c r="A22" s="61"/>
+      <c r="B22" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>613</v>
+      </c>
+      <c r="F22" s="17"/>
+    </row>
+    <row r="24" spans="1:7" ht="23.25" customHeight="1">
+      <c r="A24" s="61" t="s">
+        <v>201</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="F24" s="13"/>
+      <c r="G24" s="71" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="30">
+      <c r="A25" s="61"/>
+      <c r="B25" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>615</v>
+      </c>
+      <c r="F25" s="13"/>
+      <c r="G25" s="61"/>
+    </row>
+    <row r="26" spans="1:7" ht="28.5" customHeight="1">
+      <c r="A26" s="61"/>
+      <c r="B26" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>614</v>
+      </c>
+      <c r="F26" s="13"/>
+      <c r="G26" s="61"/>
+    </row>
+    <row r="28" spans="1:7" ht="30">
+      <c r="A28" s="61" t="s">
+        <v>206</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>617</v>
+      </c>
+      <c r="F28" s="17"/>
+    </row>
+    <row r="29" spans="1:7" ht="30">
+      <c r="A29" s="62"/>
+      <c r="D29" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>618</v>
+      </c>
+      <c r="F29" s="17"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="61" t="s">
+        <v>210</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15" customHeight="1">
+      <c r="A32" s="61"/>
+      <c r="B32" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>612</v>
-      </c>
-      <c r="F15" s="17"/>
-    </row>
-    <row r="16" spans="1:7" ht="30">
-      <c r="A16" s="24"/>
-      <c r="B16" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>613</v>
-      </c>
-      <c r="F16" s="17"/>
-    </row>
-    <row r="17" spans="1:7" ht="30">
-      <c r="A17" s="24"/>
-      <c r="B17" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>614</v>
-      </c>
-      <c r="F17" s="17"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="30">
-      <c r="A20" s="24"/>
-      <c r="B20" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>615</v>
-      </c>
-      <c r="F20" s="17"/>
-    </row>
-    <row r="21" spans="1:7" ht="30">
-      <c r="A21" s="24"/>
-      <c r="B21" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>616</v>
-      </c>
-      <c r="F21" s="17"/>
-    </row>
-    <row r="22" spans="1:7" ht="30">
-      <c r="A22" s="24"/>
-      <c r="B22" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>617</v>
-      </c>
-      <c r="F22" s="17"/>
-    </row>
-    <row r="24" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A24" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="F24" s="13"/>
-      <c r="G24" s="31" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="30">
-      <c r="A25" s="24"/>
-      <c r="B25" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>619</v>
-      </c>
-      <c r="F25" s="13"/>
-      <c r="G25" s="24"/>
-    </row>
-    <row r="26" spans="1:7" ht="28.5" customHeight="1">
-      <c r="A26" s="24"/>
-      <c r="B26" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>618</v>
-      </c>
-      <c r="F26" s="13"/>
-      <c r="G26" s="24"/>
-    </row>
-    <row r="28" spans="1:7" ht="30">
-      <c r="A28" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>621</v>
-      </c>
-      <c r="F28" s="17"/>
-    </row>
-    <row r="29" spans="1:7" ht="30">
-      <c r="A29" s="23"/>
-      <c r="D29" s="11" t="s">
+      <c r="D32" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="F32" s="18"/>
+      <c r="G32" s="70" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="30">
+      <c r="A33" s="61"/>
+      <c r="B33" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="E29" s="11" t="s">
-        <v>622</v>
-      </c>
-      <c r="F29" s="17"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="24" t="s">
-        <v>212</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1">
-      <c r="A32" s="24"/>
-      <c r="B32" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="F32" s="18"/>
-      <c r="G32" s="30" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="30">
-      <c r="A33" s="24"/>
-      <c r="B33" s="11" t="s">
-        <v>213</v>
-      </c>
       <c r="C33" s="21" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E33" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
       <c r="F33" s="18"/>
-      <c r="G33" s="25"/>
+      <c r="G33" s="63"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="24"/>
+      <c r="A34" s="61"/>
       <c r="B34" s="11" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D34" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="F34" s="18"/>
+      <c r="G34" s="63"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="61" t="s">
+        <v>216</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="30">
+      <c r="A37" s="61"/>
+      <c r="B37" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>619</v>
+      </c>
+      <c r="F37" s="17"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="61"/>
+      <c r="B38" t="s">
         <v>217</v>
       </c>
-      <c r="F34" s="18"/>
-      <c r="G34" s="25"/>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="30">
-      <c r="A37" s="24"/>
-      <c r="B37" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="D37" s="15" t="s">
+      <c r="F38" s="17"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="61"/>
+      <c r="B39" t="s">
+        <v>212</v>
+      </c>
+      <c r="D39" t="s">
+        <v>219</v>
+      </c>
+      <c r="E39" t="s">
+        <v>620</v>
+      </c>
+      <c r="F39" s="17"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="61" t="s">
         <v>220</v>
       </c>
-      <c r="E37" s="15" t="s">
+      <c r="B41" t="s">
+        <v>185</v>
+      </c>
+      <c r="D41" t="s">
+        <v>222</v>
+      </c>
+      <c r="E41" t="s">
+        <v>222</v>
+      </c>
+      <c r="F41" s="17"/>
+      <c r="G41" s="70" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="61"/>
+      <c r="B42" t="s">
+        <v>190</v>
+      </c>
+      <c r="D42" t="s">
+        <v>223</v>
+      </c>
+      <c r="E42" t="s">
+        <v>223</v>
+      </c>
+      <c r="F42" s="17"/>
+      <c r="G42" s="63"/>
+    </row>
+    <row r="43" spans="1:7" ht="31.5" customHeight="1">
+      <c r="A43" s="61"/>
+      <c r="B43" t="s">
+        <v>221</v>
+      </c>
+      <c r="D43" t="s">
+        <v>215</v>
+      </c>
+      <c r="E43" t="s">
+        <v>215</v>
+      </c>
+      <c r="F43" s="17"/>
+      <c r="G43" s="63"/>
+    </row>
+    <row r="45" spans="1:7" ht="30">
+      <c r="A45" s="61" t="s">
+        <v>224</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="E45" s="15" t="s">
+        <v>622</v>
+      </c>
+      <c r="F45" s="17"/>
+    </row>
+    <row r="46" spans="1:7" ht="30">
+      <c r="A46" s="61"/>
+      <c r="B46" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="E46" s="15" t="s">
         <v>623</v>
       </c>
-      <c r="F37" s="17"/>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="24"/>
-      <c r="B38" t="s">
-        <v>219</v>
-      </c>
-      <c r="F38" s="17"/>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="24"/>
-      <c r="B39" t="s">
-        <v>214</v>
-      </c>
-      <c r="D39" t="s">
-        <v>221</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="F46" s="17"/>
+    </row>
+    <row r="48" spans="1:7" ht="15" customHeight="1">
+      <c r="A48" s="61" t="s">
+        <v>228</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="51.75" customHeight="1">
+      <c r="A49" s="61"/>
+      <c r="B49" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="E49" s="11" t="s">
         <v>624</v>
       </c>
-      <c r="F39" s="17"/>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="24" t="s">
-        <v>222</v>
-      </c>
-      <c r="B41" t="s">
-        <v>187</v>
-      </c>
-      <c r="D41" t="s">
-        <v>224</v>
-      </c>
-      <c r="E41" t="s">
-        <v>224</v>
-      </c>
-      <c r="F41" s="17"/>
-      <c r="G41" s="30" t="s">
+      <c r="F49" s="17"/>
+    </row>
+    <row r="50" spans="1:6" ht="42" customHeight="1">
+      <c r="A50" s="61"/>
+      <c r="B50" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="E50" s="11" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="24"/>
-      <c r="B42" t="s">
-        <v>192</v>
-      </c>
-      <c r="D42" t="s">
+      <c r="F50" s="17"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="61" t="s">
+        <v>232</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="30">
+      <c r="A53" s="61"/>
+      <c r="B53" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>626</v>
+      </c>
+      <c r="F53" s="17"/>
+    </row>
+    <row r="54" spans="1:6" ht="30">
+      <c r="A54" s="61"/>
+      <c r="B54" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>627</v>
+      </c>
+      <c r="F54" s="17"/>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="61" t="s">
+        <v>238</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="30">
+      <c r="A57" s="61"/>
+      <c r="B57" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>628</v>
+      </c>
+      <c r="F57" s="17"/>
+    </row>
+    <row r="58" spans="1:6" ht="30">
+      <c r="A58" s="61"/>
+      <c r="B58" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>629</v>
+      </c>
+      <c r="F58" s="17"/>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="61" t="s">
+        <v>244</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="E60" s="11" t="s">
+        <v>630</v>
+      </c>
+      <c r="F60" s="13"/>
+    </row>
+    <row r="61" spans="1:6" ht="30">
+      <c r="A61" s="61"/>
+      <c r="B61" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>631</v>
+      </c>
+      <c r="F61" s="13"/>
+    </row>
+    <row r="62" spans="1:6" ht="26.25" customHeight="1">
+      <c r="A62" s="61"/>
+      <c r="B62" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="F62" s="13"/>
+    </row>
+    <row r="63" spans="1:6" ht="30">
+      <c r="A63" s="61"/>
+      <c r="B63" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="F63" s="13"/>
+    </row>
+    <row r="65" spans="1:6" ht="30">
+      <c r="A65" s="61" t="s">
+        <v>248</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D65" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="E65" s="69" t="s">
+        <v>632</v>
+      </c>
+      <c r="F65" s="13"/>
+    </row>
+    <row r="66" spans="1:6" ht="45">
+      <c r="A66" s="61"/>
+      <c r="B66" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="E66" s="69"/>
+      <c r="F66" s="13"/>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="61"/>
+      <c r="B67" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="E42" t="s">
-        <v>225</v>
-      </c>
-      <c r="F42" s="17"/>
-      <c r="G42" s="25"/>
-    </row>
-    <row r="43" spans="1:7" ht="31.5" customHeight="1">
-      <c r="A43" s="24"/>
-      <c r="B43" t="s">
-        <v>223</v>
-      </c>
-      <c r="D43" t="s">
-        <v>217</v>
-      </c>
-      <c r="E43" t="s">
-        <v>217</v>
-      </c>
-      <c r="F43" s="17"/>
-      <c r="G43" s="25"/>
-    </row>
-    <row r="45" spans="1:7" ht="30">
-      <c r="A45" s="24" t="s">
-        <v>226</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="D45" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="E45" s="15" t="s">
-        <v>626</v>
-      </c>
-      <c r="F45" s="17"/>
-    </row>
-    <row r="46" spans="1:7" ht="30">
-      <c r="A46" s="24"/>
-      <c r="B46" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="D46" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="E46" s="15" t="s">
-        <v>627</v>
-      </c>
-      <c r="F46" s="17"/>
-    </row>
-    <row r="48" spans="1:7" ht="15" customHeight="1">
-      <c r="A48" s="24" t="s">
-        <v>230</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="51.75" customHeight="1">
-      <c r="A49" s="24"/>
-      <c r="B49" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="D49" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="E49" s="11" t="s">
-        <v>628</v>
-      </c>
-      <c r="F49" s="17"/>
-    </row>
-    <row r="50" spans="1:6" ht="42" customHeight="1">
-      <c r="A50" s="24"/>
-      <c r="B50" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="D50" s="11" t="s">
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="68" t="s">
+        <v>251</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E69" s="11" t="s">
+        <v>633</v>
+      </c>
+      <c r="F69" s="17"/>
+    </row>
+    <row r="70" spans="1:6" ht="30">
+      <c r="A70" s="68"/>
+      <c r="B70" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="E70" s="11" t="s">
+        <v>634</v>
+      </c>
+      <c r="F70" s="17"/>
+    </row>
+    <row r="71" spans="1:6" ht="30">
+      <c r="A71" s="62"/>
+      <c r="D71" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="E71" s="69" t="s">
+        <v>632</v>
+      </c>
+      <c r="F71" s="13"/>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="E72" s="69"/>
+      <c r="F72" s="13"/>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="E73" s="69"/>
+    </row>
+    <row r="74" spans="1:6" ht="30">
+      <c r="A74" s="61" t="s">
+        <v>256</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D74" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="E74" s="69" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="61"/>
+      <c r="B75" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="E75" s="61"/>
+    </row>
+    <row r="76" spans="1:6" ht="30">
+      <c r="A76" s="61"/>
+      <c r="B76" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D76" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="E76" s="61"/>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="61" t="s">
+        <v>261</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D78" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="E78" s="15" t="s">
+        <v>636</v>
+      </c>
+      <c r="F78" s="17"/>
+    </row>
+    <row r="79" spans="1:6" ht="45">
+      <c r="A79" s="61"/>
+      <c r="B79" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D79" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="E79" s="11" t="s">
+        <v>637</v>
+      </c>
+      <c r="F79" s="17"/>
+    </row>
+    <row r="81" spans="1:7" ht="30">
+      <c r="A81" s="61" t="s">
+        <v>265</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D81" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="E81" s="15" t="s">
+        <v>638</v>
+      </c>
+      <c r="F81" s="17"/>
+    </row>
+    <row r="82" spans="1:7" ht="30">
+      <c r="A82" s="61"/>
+      <c r="B82" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D82" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="E82" s="15" t="s">
+        <v>639</v>
+      </c>
+      <c r="F82" s="17"/>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="61"/>
+      <c r="B83" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="30">
+      <c r="A85" s="61" t="s">
+        <v>270</v>
+      </c>
+      <c r="B85" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="E50" s="11" t="s">
-        <v>629</v>
-      </c>
-      <c r="F50" s="17"/>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="30">
-      <c r="A53" s="24"/>
-      <c r="B53" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="D53" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="E53" s="11" t="s">
-        <v>630</v>
-      </c>
-      <c r="F53" s="17"/>
-    </row>
-    <row r="54" spans="1:6" ht="30">
-      <c r="A54" s="24"/>
-      <c r="B54" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="D54" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="E54" s="11" t="s">
-        <v>631</v>
-      </c>
-      <c r="F54" s="17"/>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="24" t="s">
-        <v>240</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="30">
-      <c r="A57" s="24"/>
-      <c r="B57" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="D57" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="E57" s="11" t="s">
-        <v>632</v>
-      </c>
-      <c r="F57" s="17"/>
-    </row>
-    <row r="58" spans="1:6" ht="30">
-      <c r="A58" s="24"/>
-      <c r="B58" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="D58" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="E58" s="11" t="s">
-        <v>633</v>
-      </c>
-      <c r="F58" s="17"/>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="24" t="s">
-        <v>246</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D60" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="E60" s="11" t="s">
-        <v>634</v>
-      </c>
-      <c r="F60" s="13"/>
-    </row>
-    <row r="61" spans="1:6" ht="30">
-      <c r="A61" s="24"/>
-      <c r="B61" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D61" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="E61" s="11" t="s">
-        <v>635</v>
-      </c>
-      <c r="F61" s="13"/>
-    </row>
-    <row r="62" spans="1:6" ht="26.25" customHeight="1">
-      <c r="A62" s="24"/>
-      <c r="B62" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="F62" s="13"/>
-    </row>
-    <row r="63" spans="1:6" ht="30">
-      <c r="A63" s="24"/>
-      <c r="B63" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="D63" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="F63" s="13"/>
-    </row>
-    <row r="65" spans="1:6" ht="30">
-      <c r="A65" s="24" t="s">
-        <v>250</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="D65" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="E65" s="29" t="s">
-        <v>636</v>
-      </c>
-      <c r="F65" s="13"/>
-    </row>
-    <row r="66" spans="1:6" ht="45">
-      <c r="A66" s="24"/>
-      <c r="B66" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D66" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="E66" s="29"/>
-      <c r="F66" s="13"/>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67" s="24"/>
-      <c r="B67" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" s="32" t="s">
-        <v>253</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="D69" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="E69" s="11" t="s">
-        <v>637</v>
-      </c>
-      <c r="F69" s="17"/>
-    </row>
-    <row r="70" spans="1:6" ht="30">
-      <c r="A70" s="32"/>
-      <c r="B70" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="D70" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="E70" s="11" t="s">
-        <v>638</v>
-      </c>
-      <c r="F70" s="17"/>
-    </row>
-    <row r="71" spans="1:6" ht="30">
-      <c r="A71" s="23"/>
-      <c r="D71" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="E71" s="29" t="s">
-        <v>636</v>
-      </c>
-      <c r="F71" s="13"/>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="E72" s="29"/>
-      <c r="F72" s="13"/>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="E73" s="29"/>
-    </row>
-    <row r="74" spans="1:6" ht="30">
-      <c r="A74" s="24" t="s">
-        <v>258</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D74" s="15" t="s">
-        <v>261</v>
-      </c>
-      <c r="E74" s="29" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75" s="24"/>
-      <c r="B75" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="E75" s="24"/>
-    </row>
-    <row r="76" spans="1:6" ht="30">
-      <c r="A76" s="24"/>
-      <c r="B76" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="D76" s="15" t="s">
-        <v>262</v>
-      </c>
-      <c r="E76" s="24"/>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78" s="24" t="s">
-        <v>263</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="D78" s="15" t="s">
-        <v>265</v>
-      </c>
-      <c r="E78" s="15" t="s">
-        <v>640</v>
-      </c>
-      <c r="F78" s="17"/>
-    </row>
-    <row r="79" spans="1:6" ht="45">
-      <c r="A79" s="24"/>
-      <c r="B79" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="D79" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="E79" s="11" t="s">
-        <v>641</v>
-      </c>
-      <c r="F79" s="17"/>
-    </row>
-    <row r="81" spans="1:7" ht="30">
-      <c r="A81" s="24" t="s">
-        <v>267</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="D81" s="15" t="s">
-        <v>270</v>
-      </c>
-      <c r="E81" s="15" t="s">
-        <v>642</v>
-      </c>
-      <c r="F81" s="17"/>
-    </row>
-    <row r="82" spans="1:7" ht="30">
-      <c r="A82" s="24"/>
-      <c r="B82" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="D82" s="15" t="s">
-        <v>271</v>
-      </c>
-      <c r="E82" s="15" t="s">
-        <v>643</v>
-      </c>
-      <c r="F82" s="17"/>
-    </row>
-    <row r="83" spans="1:7">
-      <c r="A83" s="24"/>
-      <c r="B83" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="30">
-      <c r="A85" s="24" t="s">
+      <c r="C85" s="21" t="s">
+        <v>663</v>
+      </c>
+      <c r="D85" s="11" t="s">
         <v>272</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="C85" s="21" t="s">
-        <v>667</v>
-      </c>
-      <c r="D85" s="11" t="s">
-        <v>274</v>
       </c>
       <c r="E85" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
       <c r="F85" s="18"/>
-      <c r="G85" s="30" t="s">
-        <v>668</v>
+      <c r="G85" s="70" t="s">
+        <v>664</v>
       </c>
     </row>
     <row r="86" spans="1:7">
-      <c r="A86" s="24"/>
+      <c r="A86" s="61"/>
       <c r="B86" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F86" s="18"/>
-      <c r="G86" s="25"/>
+      <c r="G86" s="63"/>
     </row>
     <row r="87" spans="1:7" ht="30">
-      <c r="A87" s="24"/>
+      <c r="A87" s="61"/>
       <c r="B87" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D87" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="D87" s="11" t="s">
-        <v>275</v>
-      </c>
       <c r="F87" s="18"/>
-      <c r="G87" s="25"/>
+      <c r="G87" s="63"/>
     </row>
     <row r="88" spans="1:7">
-      <c r="A88" s="24"/>
+      <c r="A88" s="61"/>
       <c r="B88" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A74:A76"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="A81:A83"/>
-    <mergeCell ref="A85:A88"/>
-    <mergeCell ref="A56:A58"/>
-    <mergeCell ref="A60:A63"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="A69:A71"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="E74:E76"/>
+    <mergeCell ref="G85:G87"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="G32:G34"/>
+    <mergeCell ref="G41:G43"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="E71:E73"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="A28:A29"/>
@@ -7683,13 +7683,19 @@
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="A15:A17"/>
-    <mergeCell ref="E74:E76"/>
-    <mergeCell ref="G85:G87"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="G32:G34"/>
-    <mergeCell ref="G41:G43"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="E71:E73"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="A74:A76"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="A81:A83"/>
+    <mergeCell ref="A85:A88"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="A69:A71"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7699,9 +7705,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F51B629-ADE2-40B1-A3D9-EF4114315F25}">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4:E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7736,7 +7742,7 @@
         <v>17</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C2" s="8"/>
     </row>
@@ -7745,7 +7751,7 @@
         <v>19</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>64</v>
+        <v>798</v>
       </c>
       <c r="C3" s="10"/>
     </row>
@@ -7754,11 +7760,11 @@
         <v>20</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" s="11"/>
-      <c r="E4" s="27" t="s">
-        <v>644</v>
+      <c r="E4" s="66" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="54.75" customHeight="1">
@@ -7766,10 +7772,10 @@
         <v>22</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5" s="11"/>
-      <c r="E5" s="24"/>
+      <c r="E5" s="61"/>
     </row>
     <row r="6" spans="1:7" ht="17.25" customHeight="1"/>
     <row r="7" spans="1:7">
@@ -7782,664 +7788,658 @@
       <c r="C7" s="10"/>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1">
-      <c r="A9" s="24" t="s">
-        <v>278</v>
+      <c r="A9" s="61" t="s">
+        <v>276</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="24"/>
+      <c r="A10" s="61"/>
       <c r="B10" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
     </row>
     <row r="11" spans="1:7" ht="30">
-      <c r="A11" s="24"/>
+      <c r="A11" s="61"/>
       <c r="B11" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="61"/>
+      <c r="B12" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="D12" s="15"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="61"/>
+      <c r="B13" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="D11" s="15" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="24"/>
-      <c r="B12" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="D12" s="15"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="24"/>
-      <c r="B13" s="3" t="s">
-        <v>281</v>
-      </c>
       <c r="D13" s="15" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:7" ht="33" customHeight="1">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="61" t="s">
+        <v>283</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="64"/>
+    </row>
+    <row r="16" spans="1:7" ht="33.75" customHeight="1">
+      <c r="A16" s="61"/>
+      <c r="B16" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="E16" s="64"/>
+    </row>
+    <row r="17" spans="1:4" ht="15" customHeight="1">
+      <c r="A17" s="61"/>
+      <c r="B17" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" s="26"/>
-    </row>
-    <row r="16" spans="1:7" ht="33.75" customHeight="1">
-      <c r="A16" s="24"/>
-      <c r="B16" s="3" t="s">
+      <c r="D17" s="15" t="s">
         <v>287</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>289</v>
-      </c>
-      <c r="E16" s="26"/>
-    </row>
-    <row r="17" spans="1:4" ht="15" customHeight="1">
-      <c r="A17" s="24"/>
-      <c r="B17" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="28.5" customHeight="1"/>
     <row r="19" spans="1:4" ht="27.75" customHeight="1">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="61" t="s">
+        <v>288</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="32.25" customHeight="1">
+      <c r="A20" s="61"/>
+      <c r="B20" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="30">
+      <c r="A21" s="61"/>
+      <c r="B21" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D21" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="32.25" customHeight="1">
-      <c r="A20" s="24"/>
-      <c r="B20" s="3" t="s">
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="61"/>
+      <c r="B22" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="61"/>
+      <c r="B23" s="3" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="30">
+      <c r="A25" s="61" t="s">
         <v>292</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="B25" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D25" s="15" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="30">
-      <c r="A21" s="24"/>
-      <c r="B21" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="D21" s="11" t="s">
+    <row r="26" spans="1:4">
+      <c r="A26" s="61"/>
+      <c r="B26" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="D26" s="15"/>
+    </row>
+    <row r="27" spans="1:4" ht="30">
+      <c r="A27" s="61"/>
+      <c r="B27" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="D27" s="15" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="24"/>
-      <c r="B22" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="24"/>
-      <c r="B23" s="3" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="30">
-      <c r="A25" s="24" t="s">
+    <row r="28" spans="1:4">
+      <c r="A28" s="61"/>
+      <c r="B28" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="30">
+      <c r="A30" s="61" t="s">
         <v>296</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="D25" s="15" t="s">
+      <c r="B30" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="D30" s="11" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="24"/>
-      <c r="B26" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="D26" s="15"/>
-    </row>
-    <row r="27" spans="1:4" ht="30">
-      <c r="A27" s="24"/>
-      <c r="B27" s="3" t="s">
+    <row r="31" spans="1:4" ht="30">
+      <c r="A31" s="61"/>
+      <c r="B31" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="D31" s="11" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="24"/>
-      <c r="B28" s="3" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="30">
-      <c r="A30" s="24" t="s">
+    <row r="32" spans="1:4">
+      <c r="A32" s="61"/>
+      <c r="B32" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="30">
+      <c r="A34" s="61" t="s">
         <v>300</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="D30" s="11" t="s">
+      <c r="B34" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="D34" s="11" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="30">
-      <c r="A31" s="24"/>
-      <c r="B31" s="3" t="s">
+    <row r="35" spans="1:4" ht="30">
+      <c r="A35" s="61"/>
+      <c r="B35" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="D35" s="11" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="24"/>
-      <c r="B32" s="3" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="30">
-      <c r="A34" s="24" t="s">
-        <v>304</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="D34" s="11" t="s">
+    <row r="36" spans="1:4">
+      <c r="A36" s="61"/>
+      <c r="B36" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="61" t="s">
+        <v>305</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="30">
+      <c r="A39" s="61"/>
+      <c r="B39" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="30">
+      <c r="A40" s="61"/>
+      <c r="B40" s="11" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="30">
-      <c r="A35" s="24"/>
-      <c r="B35" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="24"/>
-      <c r="B36" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="24" t="s">
-        <v>309</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="D38" s="11" t="s">
+      <c r="D40" s="11" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="30">
-      <c r="A39" s="24"/>
-      <c r="B39" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="30">
-      <c r="A40" s="24"/>
-      <c r="B40" s="11" t="s">
-        <v>310</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>284</v>
-      </c>
-    </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="24"/>
+      <c r="A41" s="61"/>
       <c r="B41" s="11" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="30">
+      <c r="A43" s="61" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" ht="30">
-      <c r="A43" s="24" t="s">
+      <c r="B43" s="11" t="s">
+        <v>799</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="30">
+      <c r="A44" s="61"/>
+      <c r="B44" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="61"/>
+      <c r="B45" s="11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="61" t="s">
         <v>312</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B47" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="30">
+      <c r="A48" s="61"/>
+      <c r="B48" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="D48" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="D43" s="11" t="s">
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="61"/>
+      <c r="B49" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="61"/>
+      <c r="B50" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="30">
+      <c r="A52" s="61" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" ht="30">
-      <c r="A44" s="24"/>
-      <c r="B44" s="11" t="s">
-        <v>313</v>
-      </c>
-      <c r="D44" s="11" t="s">
+      <c r="B52" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="61"/>
+      <c r="B53" s="3" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="24"/>
-      <c r="B45" s="11" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="24" t="s">
-        <v>316</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="D47" s="11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="30">
-      <c r="A48" s="24"/>
-      <c r="B48" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="24"/>
-      <c r="B49" s="3" t="s">
+      <c r="D53" s="11"/>
+    </row>
+    <row r="54" spans="1:4" ht="30">
+      <c r="A54" s="61"/>
+      <c r="B54" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="D54" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="D49" s="11" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="24"/>
-      <c r="B50" s="3" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="30">
-      <c r="A52" s="24" t="s">
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="61" t="s">
         <v>318</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B56" s="11" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="30">
+      <c r="A57" s="61"/>
+      <c r="B57" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="30">
+      <c r="A58" s="61"/>
+      <c r="B58" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="61"/>
+      <c r="B59" s="11" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="30">
+      <c r="A61" s="61" t="s">
+        <v>322</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>799</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="61"/>
+      <c r="B62" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="D62" s="11"/>
+    </row>
+    <row r="63" spans="1:4" ht="30">
+      <c r="A63" s="61"/>
+      <c r="B63" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="61"/>
+      <c r="B64" s="11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="30">
+      <c r="A66" s="61" t="s">
+        <v>327</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="30">
+      <c r="A67" s="61"/>
+      <c r="B67" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="61"/>
+      <c r="B68" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="61"/>
+      <c r="B69" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="30">
+      <c r="A71" s="61" t="s">
+        <v>333</v>
+      </c>
+      <c r="B71" t="s">
+        <v>799</v>
+      </c>
+      <c r="D71" s="11" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="61"/>
+      <c r="B72" t="s">
+        <v>334</v>
+      </c>
+      <c r="D72" s="11"/>
+    </row>
+    <row r="73" spans="1:4" ht="30">
+      <c r="A73" s="61"/>
+      <c r="B73" t="s">
+        <v>285</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="30">
+      <c r="A75" s="61" t="s">
+        <v>337</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="D75" s="11" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="61"/>
+      <c r="B76" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D76" s="11"/>
+    </row>
+    <row r="77" spans="1:4" ht="30">
+      <c r="A77" s="61"/>
+      <c r="B77" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="D77" s="11" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="61"/>
+      <c r="B78" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="30">
+      <c r="A80" s="61" t="s">
+        <v>341</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="D80" s="11" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="30">
+      <c r="A81" s="61"/>
+      <c r="B81" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="D81" s="11" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="61"/>
+      <c r="B82" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="30">
+      <c r="A84" s="61" t="s">
+        <v>344</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="D84" s="11" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="30">
+      <c r="A85" s="61"/>
+      <c r="B85" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="D85" s="11" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="61"/>
+      <c r="B86" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="61" t="s">
+        <v>347</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="D88" s="11" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="61"/>
+      <c r="B89" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D89" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="30">
+      <c r="A90" s="61"/>
+      <c r="B90" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="D90" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="D52" s="11" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="24"/>
-      <c r="B53" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="D53" s="11"/>
-    </row>
-    <row r="54" spans="1:4" ht="30">
-      <c r="A54" s="24"/>
-      <c r="B54" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="D54" s="11" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="24" t="s">
-        <v>322</v>
-      </c>
-      <c r="B56" s="11" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="30">
-      <c r="A57" s="24"/>
-      <c r="B57" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="D57" s="11" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="30">
-      <c r="A58" s="24"/>
-      <c r="B58" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="D58" s="11" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="24"/>
-      <c r="B59" s="11" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="30">
-      <c r="A61" s="24" t="s">
-        <v>326</v>
-      </c>
-      <c r="B61" s="11" t="s">
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="61"/>
+      <c r="B91" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="D91" s="11" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="30">
+      <c r="A93" s="61" t="s">
+        <v>351</v>
+      </c>
+      <c r="B93" s="11" t="s">
+        <v>799</v>
+      </c>
+      <c r="D93" s="11" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="61"/>
+      <c r="B94" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="D94" s="11"/>
+    </row>
+    <row r="95" spans="1:4" ht="30">
+      <c r="A95" s="61"/>
+      <c r="B95" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="D95" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="61" t="s">
+        <v>355</v>
+      </c>
+      <c r="B97" s="11" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="30">
+      <c r="A98" s="61"/>
+      <c r="B98" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="D98" s="11" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="30">
+      <c r="A99" s="61"/>
+      <c r="B99" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="D99" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="D61" s="11" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="24"/>
-      <c r="B62" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="D62" s="11"/>
-    </row>
-    <row r="63" spans="1:4" ht="30">
-      <c r="A63" s="24"/>
-      <c r="B63" s="11" t="s">
-        <v>328</v>
-      </c>
-      <c r="D63" s="11" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="24"/>
-      <c r="B64" s="11" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="30">
-      <c r="A66" s="24" t="s">
-        <v>331</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="D66" s="11" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="30">
-      <c r="A67" s="24"/>
-      <c r="B67" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="D67" s="11" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="24"/>
-      <c r="B68" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="D68" s="11" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="24"/>
-      <c r="B69" s="3" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="30">
-      <c r="A71" s="24" t="s">
-        <v>337</v>
-      </c>
-      <c r="B71" t="s">
-        <v>286</v>
-      </c>
-      <c r="D71" s="11" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="24"/>
-      <c r="B72" t="s">
-        <v>338</v>
-      </c>
-      <c r="D72" s="11"/>
-    </row>
-    <row r="73" spans="1:4" ht="30">
-      <c r="A73" s="24"/>
-      <c r="B73" t="s">
-        <v>288</v>
-      </c>
-      <c r="D73" s="11" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="30">
-      <c r="A75" s="24" t="s">
-        <v>341</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="D75" s="11" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76" s="24"/>
-      <c r="B76" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="D76" s="11"/>
-    </row>
-    <row r="77" spans="1:4" ht="30">
-      <c r="A77" s="24"/>
-      <c r="B77" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="D77" s="11" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" s="24"/>
-      <c r="B78" s="3" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="30">
-      <c r="A80" s="24" t="s">
-        <v>345</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="D80" s="11" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="30">
-      <c r="A81" s="24"/>
-      <c r="B81" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="D81" s="11" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82" s="24"/>
-      <c r="B82" s="3" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="30">
-      <c r="A84" s="24" t="s">
-        <v>348</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="D84" s="11" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="30">
-      <c r="A85" s="24"/>
-      <c r="B85" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="D85" s="11" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="24"/>
-      <c r="B86" s="3" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88" s="24" t="s">
-        <v>351</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="D88" s="11" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
-      <c r="A89" s="24"/>
-      <c r="B89" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="D89" s="11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="30">
-      <c r="A90" s="24"/>
-      <c r="B90" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="D90" s="11" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
-      <c r="A91" s="24"/>
-      <c r="B91" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="D91" s="11" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" ht="30">
-      <c r="A93" s="24" t="s">
-        <v>355</v>
-      </c>
-      <c r="B93" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="D93" s="11" t="s">
+    </row>
+    <row r="100" spans="1:4" ht="30">
+      <c r="A100" s="61"/>
+      <c r="B100" s="11" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="94" spans="1:4">
-      <c r="A94" s="24"/>
-      <c r="B94" s="11" t="s">
-        <v>356</v>
-      </c>
-      <c r="D94" s="11"/>
-    </row>
-    <row r="95" spans="1:4" ht="30">
-      <c r="A95" s="24"/>
-      <c r="B95" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="D95" s="11" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
-      <c r="A97" s="24" t="s">
-        <v>359</v>
-      </c>
-      <c r="B97" s="11" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" ht="30">
-      <c r="A98" s="24"/>
-      <c r="B98" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="D98" s="11" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" ht="30">
-      <c r="A99" s="24"/>
-      <c r="B99" s="11" t="s">
-        <v>360</v>
-      </c>
-      <c r="D99" s="11" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="30">
-      <c r="A100" s="24"/>
-      <c r="B100" s="11" t="s">
-        <v>361</v>
-      </c>
       <c r="D100" s="11" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="101" spans="1:4">
-      <c r="A101" s="24"/>
+      <c r="A101" s="61"/>
       <c r="B101" s="11" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A97:A101"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="A80:A82"/>
-    <mergeCell ref="A84:A86"/>
-    <mergeCell ref="A88:A91"/>
-    <mergeCell ref="A93:A95"/>
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="A75:A78"/>
@@ -8456,6 +8456,12 @@
     <mergeCell ref="A52:A54"/>
     <mergeCell ref="A61:A64"/>
     <mergeCell ref="A66:A69"/>
+    <mergeCell ref="A97:A101"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="A80:A82"/>
+    <mergeCell ref="A84:A86"/>
+    <mergeCell ref="A88:A91"/>
+    <mergeCell ref="A93:A95"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8500,7 +8506,7 @@
         <v>17</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -8508,7 +8514,7 @@
         <v>19</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30">
@@ -8516,7 +8522,7 @@
         <v>20</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8524,7 +8530,7 @@
         <v>22</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8536,504 +8542,504 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1">
-      <c r="F9" s="23"/>
+      <c r="F9" s="62"/>
     </row>
     <row r="10" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="61" t="s">
+        <v>360</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>641</v>
+      </c>
+      <c r="E10" s="17"/>
+      <c r="F10" s="62"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="61"/>
+      <c r="B11" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="E11" s="17"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="61"/>
+      <c r="B12" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>642</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>644</v>
+      </c>
+      <c r="E12" s="17"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="61"/>
+      <c r="B13" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="B10" s="3" t="s">
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="61"/>
+      <c r="B14" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="C10" s="11" t="s">
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="61" t="s">
+        <v>368</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="C16" t="s">
+        <v>366</v>
+      </c>
+      <c r="E16" s="17"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="61"/>
+      <c r="B17" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="C17" t="s">
+        <v>367</v>
+      </c>
+      <c r="E17" s="17"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="61"/>
+      <c r="B18" t="s">
+        <v>369</v>
+      </c>
+      <c r="C18" t="s">
+        <v>643</v>
+      </c>
+      <c r="E18" s="17"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="61"/>
+      <c r="B19" t="s">
         <v>370</v>
       </c>
-      <c r="D10" s="11" t="s">
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="61"/>
+      <c r="B20" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="61" t="s">
+        <v>371</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="61"/>
+      <c r="B23" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>647</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>646</v>
+      </c>
+      <c r="E23" s="17"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="61"/>
+      <c r="B24" t="s">
+        <v>372</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="D24" s="11" t="s">
         <v>645</v>
       </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="23"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="24"/>
-      <c r="B11" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>371</v>
-      </c>
-      <c r="E11" s="17"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="24"/>
-      <c r="B12" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>646</v>
-      </c>
-      <c r="D12" s="11" t="s">
+      <c r="E24" s="17"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="61"/>
+      <c r="B25" t="s">
+        <v>373</v>
+      </c>
+      <c r="E25" s="17"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="61"/>
+      <c r="B26" t="s">
+        <v>365</v>
+      </c>
+      <c r="E26" s="17"/>
+    </row>
+    <row r="28" spans="1:5" ht="30">
+      <c r="A28" s="61" t="s">
+        <v>375</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="D28" s="11" t="s">
         <v>648</v>
       </c>
-      <c r="E12" s="17"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="24"/>
-      <c r="B13" s="3" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="24"/>
-      <c r="B14" s="3" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="24" t="s">
-        <v>372</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="C16" t="s">
-        <v>370</v>
-      </c>
-      <c r="E16" s="17"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="24"/>
-      <c r="B17" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="C17" t="s">
-        <v>371</v>
-      </c>
-      <c r="E17" s="17"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="24"/>
-      <c r="B18" t="s">
-        <v>373</v>
-      </c>
-      <c r="C18" t="s">
-        <v>647</v>
-      </c>
-      <c r="E18" s="17"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="24"/>
-      <c r="B19" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="24"/>
-      <c r="B20" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="24" t="s">
-        <v>375</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="24"/>
-      <c r="B23" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>651</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>650</v>
-      </c>
-      <c r="E23" s="17"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="24"/>
-      <c r="B24" t="s">
-        <v>376</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>378</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>649</v>
-      </c>
-      <c r="E24" s="17"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="24"/>
-      <c r="B25" t="s">
-        <v>377</v>
-      </c>
-      <c r="E25" s="17"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="24"/>
-      <c r="B26" t="s">
-        <v>369</v>
-      </c>
-      <c r="E26" s="17"/>
-    </row>
-    <row r="28" spans="1:5" ht="30">
-      <c r="A28" s="24" t="s">
-        <v>379</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>365</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>382</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>652</v>
-      </c>
       <c r="E28" s="17"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="24"/>
+      <c r="A29" s="61"/>
       <c r="B29" s="11" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C29" s="11"/>
       <c r="E29" s="17"/>
     </row>
     <row r="30" spans="1:5" ht="30">
-      <c r="A30" s="24"/>
+      <c r="A30" s="61"/>
       <c r="B30" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>645</v>
+      </c>
+      <c r="E30" s="17"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="61"/>
+      <c r="B31" s="11" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="61"/>
+      <c r="B32" s="11" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="61" t="s">
+        <v>379</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="C34" t="s">
+        <v>366</v>
+      </c>
+      <c r="D34" t="s">
+        <v>366</v>
+      </c>
+      <c r="E34" s="17"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="61"/>
+      <c r="B35" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="C35" t="s">
+        <v>367</v>
+      </c>
+      <c r="D35" t="s">
+        <v>367</v>
+      </c>
+      <c r="E35" s="17"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="61"/>
+      <c r="B36" t="s">
         <v>380</v>
       </c>
-      <c r="C30" s="11" t="s">
-        <v>378</v>
-      </c>
-      <c r="D30" s="11" t="s">
+      <c r="C36" t="s">
+        <v>642</v>
+      </c>
+      <c r="D36" t="s">
+        <v>644</v>
+      </c>
+      <c r="E36" s="17"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="61"/>
+      <c r="B37" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="61"/>
+      <c r="B38" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="61" t="s">
+        <v>381</v>
+      </c>
+      <c r="B40" t="s">
+        <v>361</v>
+      </c>
+      <c r="C40" t="s">
+        <v>650</v>
+      </c>
+      <c r="D40" t="s">
         <v>649</v>
       </c>
-      <c r="E30" s="17"/>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="24"/>
-      <c r="B31" s="11" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="24"/>
-      <c r="B32" s="11" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="24" t="s">
+      <c r="E40" s="17"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="61"/>
+      <c r="B41" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="E41" s="17"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="61"/>
+      <c r="B42" t="s">
+        <v>382</v>
+      </c>
+      <c r="C42" t="s">
+        <v>374</v>
+      </c>
+      <c r="D42" t="s">
+        <v>645</v>
+      </c>
+      <c r="E42" s="17"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="61"/>
+      <c r="B43" t="s">
         <v>383</v>
       </c>
-      <c r="B34" s="11" t="s">
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="61"/>
+      <c r="B44" t="s">
         <v>365</v>
       </c>
-      <c r="C34" t="s">
-        <v>370</v>
-      </c>
-      <c r="D34" t="s">
-        <v>370</v>
-      </c>
-      <c r="E34" s="17"/>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="24"/>
-      <c r="B35" s="11" t="s">
-        <v>366</v>
-      </c>
-      <c r="C35" t="s">
-        <v>371</v>
-      </c>
-      <c r="D35" t="s">
-        <v>371</v>
-      </c>
-      <c r="E35" s="17"/>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="24"/>
-      <c r="B36" t="s">
+    </row>
+    <row r="46" spans="1:5" ht="30">
+      <c r="A46" s="61" t="s">
         <v>384</v>
       </c>
-      <c r="C36" t="s">
-        <v>646</v>
-      </c>
-      <c r="D36" t="s">
-        <v>648</v>
-      </c>
-      <c r="E36" s="17"/>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="24"/>
-      <c r="B37" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="24"/>
-      <c r="B38" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="24" t="s">
-        <v>385</v>
-      </c>
-      <c r="B40" t="s">
-        <v>365</v>
-      </c>
-      <c r="C40" t="s">
-        <v>654</v>
-      </c>
-      <c r="D40" t="s">
-        <v>653</v>
-      </c>
-      <c r="E40" s="17"/>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="24"/>
-      <c r="B41" s="11" t="s">
-        <v>366</v>
-      </c>
-      <c r="E41" s="17"/>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="24"/>
-      <c r="B42" t="s">
+      <c r="B46" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="C46" s="11" t="s">
         <v>386</v>
       </c>
-      <c r="C42" t="s">
-        <v>378</v>
-      </c>
-      <c r="D42" t="s">
-        <v>649</v>
-      </c>
-      <c r="E42" s="17"/>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="24"/>
-      <c r="B43" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="24"/>
-      <c r="B44" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="30">
-      <c r="A46" s="24" t="s">
-        <v>388</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>390</v>
-      </c>
       <c r="D46" s="11" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="E46" s="17"/>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="24"/>
+      <c r="A47" s="61"/>
       <c r="B47" s="11" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C47" s="11"/>
       <c r="E47" s="17"/>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="24"/>
+      <c r="A48" s="61"/>
       <c r="B48" s="3" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C48" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>651</v>
+      </c>
+      <c r="E48" s="17"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="61"/>
+      <c r="B49" s="3" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="61"/>
+      <c r="B50" s="3" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="61"/>
+      <c r="B51" s="3" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="45">
+      <c r="A53" s="61" t="s">
+        <v>388</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="C53" s="11" t="s">
         <v>391</v>
       </c>
-      <c r="D48" s="11" t="s">
+      <c r="D53" s="11" t="s">
+        <v>653</v>
+      </c>
+      <c r="E53" s="17"/>
+    </row>
+    <row r="54" spans="1:5" ht="30">
+      <c r="A54" s="61"/>
+      <c r="B54" t="s">
+        <v>390</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="E54" s="17"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="61"/>
+      <c r="B55" t="s">
+        <v>362</v>
+      </c>
+      <c r="E55" s="17"/>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="61"/>
+      <c r="B56" t="s">
+        <v>389</v>
+      </c>
+      <c r="E56" s="17"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="61"/>
+      <c r="B57" t="s">
+        <v>365</v>
+      </c>
+      <c r="E57" s="17"/>
+    </row>
+    <row r="59" spans="1:5" ht="30">
+      <c r="A59" s="61" t="s">
+        <v>393</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="D59" s="11" t="s">
         <v>655</v>
       </c>
-      <c r="E48" s="17"/>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="24"/>
-      <c r="B49" s="3" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="24"/>
-      <c r="B50" s="3" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="24"/>
-      <c r="B51" s="3" t="s">
+      <c r="E59" s="13"/>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="61"/>
+      <c r="B60" t="s">
+        <v>362</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>654</v>
+      </c>
+      <c r="E60" s="13"/>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="61"/>
+      <c r="B61" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="45">
-      <c r="A53" s="24" t="s">
-        <v>392</v>
-      </c>
-      <c r="B53" s="3" t="s">
+    <row r="62" spans="1:5">
+      <c r="A62" s="61"/>
+      <c r="B62" t="s">
         <v>365</v>
       </c>
-      <c r="C53" s="11" t="s">
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="61" t="s">
         <v>395</v>
       </c>
-      <c r="D53" s="11" t="s">
+      <c r="B64" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>656</v>
+      </c>
+      <c r="E64" s="17"/>
+    </row>
+    <row r="65" spans="1:6" ht="30">
+      <c r="A65" s="61"/>
+      <c r="B65" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="E65" s="17"/>
+    </row>
+    <row r="66" spans="1:6" ht="30">
+      <c r="A66" s="61"/>
+      <c r="B66" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>658</v>
+      </c>
+      <c r="D66" s="11" t="s">
         <v>657</v>
       </c>
-      <c r="E53" s="17"/>
-    </row>
-    <row r="54" spans="1:5" ht="30">
-      <c r="A54" s="24"/>
-      <c r="B54" t="s">
-        <v>394</v>
-      </c>
-      <c r="C54" s="11" t="s">
-        <v>396</v>
-      </c>
-      <c r="D54" s="11" t="s">
-        <v>396</v>
-      </c>
-      <c r="E54" s="17"/>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="24"/>
-      <c r="B55" t="s">
-        <v>366</v>
-      </c>
-      <c r="E55" s="17"/>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="24"/>
-      <c r="B56" t="s">
-        <v>393</v>
-      </c>
-      <c r="E56" s="17"/>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="24"/>
-      <c r="B57" t="s">
-        <v>369</v>
-      </c>
-      <c r="E57" s="17"/>
-    </row>
-    <row r="59" spans="1:5" ht="30">
-      <c r="A59" s="24" t="s">
-        <v>397</v>
-      </c>
-      <c r="B59" s="3" t="s">
+      <c r="E66" s="17"/>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="61"/>
+      <c r="B67" s="3" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="61"/>
+      <c r="B68" t="s">
         <v>365</v>
       </c>
-      <c r="C59" s="11" t="s">
-        <v>398</v>
-      </c>
-      <c r="D59" s="11" t="s">
-        <v>659</v>
-      </c>
-      <c r="E59" s="13"/>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="24"/>
-      <c r="B60" t="s">
-        <v>366</v>
-      </c>
-      <c r="C60" s="11" t="s">
-        <v>378</v>
-      </c>
-      <c r="D60" s="11" t="s">
-        <v>658</v>
-      </c>
-      <c r="E60" s="13"/>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="24"/>
-      <c r="B61" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="24"/>
-      <c r="B62" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="24" t="s">
-        <v>399</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="C64" s="11" t="s">
-        <v>404</v>
-      </c>
-      <c r="D64" s="11" t="s">
-        <v>660</v>
-      </c>
-      <c r="E64" s="17"/>
-    </row>
-    <row r="65" spans="1:6" ht="30">
-      <c r="A65" s="24"/>
-      <c r="B65" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="C65" s="11" t="s">
+    </row>
+    <row r="70" spans="1:6" ht="30">
+      <c r="A70" s="61" t="s">
+        <v>402</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="C70" s="11" t="s">
         <v>405</v>
       </c>
-      <c r="E65" s="17"/>
-    </row>
-    <row r="66" spans="1:6" ht="30">
-      <c r="A66" s="24"/>
-      <c r="B66" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="C66" s="11" t="s">
-        <v>662</v>
-      </c>
-      <c r="D66" s="11" t="s">
-        <v>661</v>
-      </c>
-      <c r="E66" s="17"/>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67" s="24"/>
-      <c r="B67" s="3" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68" s="24"/>
-      <c r="B68" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="30">
-      <c r="A70" s="24" t="s">
-        <v>406</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="C70" s="11" t="s">
-        <v>409</v>
-      </c>
       <c r="D70" s="11" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="E70" s="13"/>
       <c r="F70" t="e" vm="2">
@@ -9041,248 +9047,243 @@
       </c>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="24"/>
+      <c r="A71" s="61"/>
       <c r="B71" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="E71" s="13"/>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="24"/>
+      <c r="A72" s="61"/>
       <c r="B72" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="61"/>
+      <c r="B73" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="61"/>
+      <c r="B74" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="61" t="s">
+        <v>406</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="D76" s="11" t="s">
+        <v>659</v>
+      </c>
+      <c r="E76" s="17"/>
+    </row>
+    <row r="77" spans="1:6" ht="30">
+      <c r="A77" s="61"/>
+      <c r="B77" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="D77" s="11" t="s">
+        <v>660</v>
+      </c>
+      <c r="E77" s="17"/>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="61"/>
+      <c r="B78" s="3" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
-      <c r="A73" s="24"/>
-      <c r="B73" t="s">
+    <row r="79" spans="1:6">
+      <c r="A79" s="61"/>
+      <c r="B79" s="3" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
-      <c r="A74" s="24"/>
-      <c r="B74" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76" s="24" t="s">
-        <v>410</v>
-      </c>
-      <c r="B76" s="3" t="s">
+    <row r="80" spans="1:6">
+      <c r="A80" s="61"/>
+      <c r="B80" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="C76" s="11" t="s">
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="61" t="s">
+        <v>411</v>
+      </c>
+      <c r="B82" t="s">
+        <v>361</v>
+      </c>
+      <c r="C82" t="s">
         <v>413</v>
       </c>
-      <c r="D76" s="11" t="s">
-        <v>663</v>
-      </c>
-      <c r="E76" s="17"/>
-    </row>
-    <row r="77" spans="1:6" ht="30">
-      <c r="A77" s="24"/>
-      <c r="B77" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="C77" s="11" t="s">
+      <c r="D82" t="s">
+        <v>655</v>
+      </c>
+      <c r="E82" s="13"/>
+      <c r="F82" s="72" t="e" vm="3">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="61"/>
+      <c r="B83" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="C83" t="s">
+        <v>374</v>
+      </c>
+      <c r="D83" t="s">
+        <v>654</v>
+      </c>
+      <c r="E83" s="13"/>
+      <c r="F83" s="72"/>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="61"/>
+      <c r="B84" t="s">
+        <v>412</v>
+      </c>
+      <c r="C84" t="s">
         <v>414</v>
       </c>
-      <c r="D77" s="11" t="s">
-        <v>664</v>
-      </c>
-      <c r="E77" s="17"/>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78" s="24"/>
-      <c r="B78" s="3" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79" s="24"/>
-      <c r="B79" s="3" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80" s="24"/>
-      <c r="B80" s="3" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82" s="24" t="s">
+      <c r="E84" s="13"/>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="61"/>
+      <c r="B85" t="s">
+        <v>404</v>
+      </c>
+      <c r="E85" s="13"/>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="61"/>
+      <c r="B86" t="s">
+        <v>365</v>
+      </c>
+      <c r="E86" s="13"/>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="61" t="s">
         <v>415</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B88" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="C88" t="s">
+        <v>413</v>
+      </c>
+      <c r="D88" t="s">
+        <v>655</v>
+      </c>
+      <c r="E88" s="13"/>
+      <c r="F88" s="72" t="e" vm="4">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="61"/>
+      <c r="B89" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="C89" t="s">
+        <v>374</v>
+      </c>
+      <c r="D89" t="s">
+        <v>654</v>
+      </c>
+      <c r="E89" s="13"/>
+      <c r="F89" s="72"/>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="61"/>
+      <c r="B90" t="s">
+        <v>416</v>
+      </c>
+      <c r="C90" t="s">
+        <v>417</v>
+      </c>
+      <c r="E90" s="13"/>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="61"/>
+      <c r="B91" t="s">
+        <v>404</v>
+      </c>
+      <c r="E91" s="13"/>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="61"/>
+      <c r="B92" t="s">
         <v>365</v>
       </c>
-      <c r="C82" t="s">
-        <v>417</v>
-      </c>
-      <c r="D82" t="s">
-        <v>659</v>
-      </c>
-      <c r="E82" s="13"/>
-      <c r="F82" s="33" t="e" vm="3">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83" s="24"/>
-      <c r="B83" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="C83" t="s">
-        <v>378</v>
-      </c>
-      <c r="D83" t="s">
-        <v>658</v>
-      </c>
-      <c r="E83" s="13"/>
-      <c r="F83" s="33"/>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84" s="24"/>
-      <c r="B84" t="s">
-        <v>416</v>
-      </c>
-      <c r="C84" t="s">
+      <c r="E92" s="13"/>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="61" t="s">
         <v>418</v>
       </c>
-      <c r="E84" s="13"/>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85" s="24"/>
-      <c r="B85" t="s">
-        <v>408</v>
-      </c>
-      <c r="E85" s="13"/>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86" s="24"/>
-      <c r="B86" t="s">
-        <v>369</v>
-      </c>
-      <c r="E86" s="13"/>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88" s="24" t="s">
+      <c r="B94" t="s">
         <v>419</v>
       </c>
-      <c r="B88" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="C88" t="s">
-        <v>417</v>
-      </c>
-      <c r="D88" t="s">
-        <v>659</v>
-      </c>
-      <c r="E88" s="13"/>
-      <c r="F88" s="33" t="e" vm="4">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89" s="24"/>
-      <c r="B89" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="C89" t="s">
-        <v>378</v>
-      </c>
-      <c r="D89" t="s">
-        <v>658</v>
-      </c>
-      <c r="E89" s="13"/>
-      <c r="F89" s="33"/>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90" s="24"/>
-      <c r="B90" t="s">
+      <c r="C94" t="s">
+        <v>423</v>
+      </c>
+      <c r="D94" s="61" t="s">
+        <v>661</v>
+      </c>
+      <c r="E94" s="18"/>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="61"/>
+      <c r="B95" t="s">
         <v>420</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C95" t="s">
+        <v>424</v>
+      </c>
+      <c r="D95" s="61"/>
+      <c r="E95" s="18"/>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="61"/>
+      <c r="B96" t="s">
         <v>421</v>
       </c>
-      <c r="E90" s="13"/>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91" s="24"/>
-      <c r="B91" t="s">
-        <v>408</v>
-      </c>
-      <c r="E91" s="13"/>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92" s="24"/>
-      <c r="B92" t="s">
-        <v>369</v>
-      </c>
-      <c r="E92" s="13"/>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94" s="24" t="s">
+      <c r="C96" t="s">
+        <v>425</v>
+      </c>
+      <c r="D96" s="61"/>
+      <c r="E96" s="18"/>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="61"/>
+      <c r="B97" t="s">
         <v>422</v>
       </c>
-      <c r="B94" t="s">
-        <v>423</v>
-      </c>
-      <c r="C94" t="s">
-        <v>427</v>
-      </c>
-      <c r="D94" s="24" t="s">
-        <v>665</v>
-      </c>
-      <c r="E94" s="18"/>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95" s="24"/>
-      <c r="B95" t="s">
-        <v>424</v>
-      </c>
-      <c r="C95" t="s">
-        <v>428</v>
-      </c>
-      <c r="D95" s="24"/>
-      <c r="E95" s="18"/>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96" s="24"/>
-      <c r="B96" t="s">
-        <v>425</v>
-      </c>
-      <c r="C96" t="s">
-        <v>429</v>
-      </c>
-      <c r="D96" s="24"/>
-      <c r="E96" s="18"/>
-    </row>
-    <row r="97" spans="1:5">
-      <c r="A97" s="24"/>
-      <c r="B97" t="s">
-        <v>426</v>
-      </c>
       <c r="E97" s="18"/>
     </row>
     <row r="98" spans="1:5">
-      <c r="A98" s="24"/>
+      <c r="A98" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="A10:A14"/>
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="A28:A32"/>
     <mergeCell ref="A34:A38"/>
     <mergeCell ref="A40:A44"/>
     <mergeCell ref="F82:F83"/>
@@ -9297,6 +9298,11 @@
     <mergeCell ref="A59:A62"/>
     <mergeCell ref="A64:A68"/>
     <mergeCell ref="A70:A74"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="A28:A32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9341,10 +9347,10 @@
         <v>17</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="D3" s="31" t="s">
-        <v>666</v>
+        <v>426</v>
+      </c>
+      <c r="D3" s="71" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -9352,30 +9358,30 @@
         <v>19</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="31"/>
+        <v>60</v>
+      </c>
+      <c r="D4" s="71"/>
     </row>
     <row r="5" spans="1:6" ht="30">
       <c r="A5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" s="31"/>
+        <v>58</v>
+      </c>
+      <c r="D5" s="71"/>
     </row>
     <row r="6" spans="1:6" ht="30">
       <c r="A6" s="10" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>431</v>
-      </c>
-      <c r="D6" s="31"/>
+        <v>427</v>
+      </c>
+      <c r="D6" s="71"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="D7" s="31"/>
+      <c r="D7" s="71"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="10" t="s">
@@ -9386,363 +9392,363 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="30">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="61" t="s">
+        <v>428</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>432</v>
       </c>
-      <c r="B10" s="3" t="s">
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="61"/>
+      <c r="B11" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>433</v>
       </c>
-      <c r="C10" s="11" t="s">
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="61"/>
+      <c r="B12" s="3" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="61"/>
+      <c r="B13" s="3" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="45">
+      <c r="A15" s="61" t="s">
+        <v>434</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="61"/>
+      <c r="B16" s="3" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="24"/>
-      <c r="B11" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="C11" s="11" t="s">
+      <c r="C16" s="11" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="61"/>
+      <c r="B17" s="3" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="24"/>
-      <c r="B12" s="3" t="s">
+    <row r="18" spans="1:3">
+      <c r="A18" s="61"/>
+      <c r="B18" s="3" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="61"/>
+      <c r="B19" s="3" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="30">
+      <c r="A21" s="61" t="s">
+        <v>440</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="61"/>
+      <c r="B22" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="61"/>
+      <c r="B23" s="3" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="61" t="s">
+        <v>444</v>
+      </c>
+      <c r="B25" s="11" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="24"/>
-      <c r="B13" s="3" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="45">
-      <c r="A15" s="24" t="s">
-        <v>438</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="C15" s="11" t="s">
+      <c r="C25" s="11" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="30">
+      <c r="A26" s="61"/>
+      <c r="B26" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="C26" s="11" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="24"/>
-      <c r="B16" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="24"/>
-      <c r="B17" s="3" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="24"/>
-      <c r="B18" s="3" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="24"/>
-      <c r="B19" s="3" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="30">
-      <c r="A21" s="24" t="s">
-        <v>444</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="24"/>
-      <c r="B22" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="C22" s="11" t="s">
+    <row r="27" spans="1:3">
+      <c r="A27" s="61"/>
+      <c r="B27" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="C27" s="11"/>
+    </row>
+    <row r="29" spans="1:3" ht="30">
+      <c r="A29" s="61" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="24"/>
-      <c r="B23" s="3" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="24" t="s">
+      <c r="B29" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="61"/>
+      <c r="B30" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="B25" s="11" t="s">
-        <v>439</v>
-      </c>
-      <c r="C25" s="11" t="s">
+      <c r="C30" s="11" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="30">
-      <c r="A26" s="24"/>
-      <c r="B26" s="11" t="s">
-        <v>449</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="24"/>
-      <c r="B27" s="11" t="s">
-        <v>369</v>
-      </c>
-      <c r="C27" s="11"/>
-    </row>
-    <row r="29" spans="1:3" ht="30">
-      <c r="A29" s="24" t="s">
+    <row r="31" spans="1:3">
+      <c r="A31" s="61"/>
+      <c r="B31" s="3" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="61"/>
+    </row>
+    <row r="34" spans="1:3" ht="30">
+      <c r="A34" s="61" t="s">
         <v>451</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="C29" s="11" t="s">
+      <c r="B34" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="C34" s="11" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="24"/>
-      <c r="B30" s="3" t="s">
+    <row r="35" spans="1:3">
+      <c r="A35" s="61"/>
+      <c r="B35" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C35" s="11" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="24"/>
-      <c r="B31" s="3" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="24"/>
-    </row>
-    <row r="34" spans="1:3" ht="30">
-      <c r="A34" s="24" t="s">
+    <row r="36" spans="1:3">
+      <c r="A36" s="61"/>
+      <c r="B36" s="3" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="61" t="s">
         <v>455</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="C34" s="11" t="s">
+      <c r="B38" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="C38" s="11" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="24"/>
-      <c r="B35" s="3" t="s">
+    <row r="39" spans="1:3" ht="30">
+      <c r="A39" s="61"/>
+      <c r="B39" s="11" t="s">
         <v>456</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C39" s="11" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="24"/>
-      <c r="B36" s="3" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="24" t="s">
+    <row r="40" spans="1:3">
+      <c r="A40" s="61"/>
+      <c r="B40" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="C40" s="11"/>
+    </row>
+    <row r="42" spans="1:3" ht="45">
+      <c r="A42" s="61" t="s">
         <v>459</v>
       </c>
-      <c r="B38" s="11" t="s">
-        <v>433</v>
-      </c>
-      <c r="C38" s="11" t="s">
+      <c r="B42" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="C42" s="11" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="30">
-      <c r="A39" s="24"/>
-      <c r="B39" s="11" t="s">
+    <row r="43" spans="1:3" ht="30">
+      <c r="A43" s="61"/>
+      <c r="B43" s="11" t="s">
         <v>460</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C43" s="11" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="24"/>
-      <c r="B40" s="11" t="s">
-        <v>369</v>
-      </c>
-      <c r="C40" s="11"/>
-    </row>
-    <row r="42" spans="1:3" ht="45">
-      <c r="A42" s="24" t="s">
+    <row r="44" spans="1:3">
+      <c r="A44" s="61"/>
+      <c r="B44" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="C44" s="11"/>
+    </row>
+    <row r="46" spans="1:3" ht="30">
+      <c r="A46" s="61" t="s">
         <v>463</v>
       </c>
-      <c r="B42" s="11" t="s">
-        <v>433</v>
-      </c>
-      <c r="C42" s="11" t="s">
+      <c r="B46" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="C46" s="11" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="30">
-      <c r="A43" s="24"/>
-      <c r="B43" s="11" t="s">
+    <row r="47" spans="1:3" ht="30">
+      <c r="A47" s="61"/>
+      <c r="B47" s="11" t="s">
         <v>464</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="C47" s="11" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="24"/>
-      <c r="B44" s="11" t="s">
-        <v>369</v>
-      </c>
-      <c r="C44" s="11"/>
-    </row>
-    <row r="46" spans="1:3" ht="30">
-      <c r="A46" s="24" t="s">
+    <row r="48" spans="1:3">
+      <c r="A48" s="61"/>
+      <c r="B48" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="C48" s="11"/>
+    </row>
+    <row r="50" spans="1:3" ht="30">
+      <c r="A50" s="61" t="s">
         <v>467</v>
       </c>
-      <c r="B46" s="11" t="s">
-        <v>433</v>
-      </c>
-      <c r="C46" s="11" t="s">
+      <c r="B50" s="11" t="s">
+        <v>435</v>
+      </c>
+      <c r="C50" s="11" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="30">
-      <c r="A47" s="24"/>
-      <c r="B47" s="11" t="s">
+    <row r="51" spans="1:3" ht="30">
+      <c r="A51" s="61"/>
+      <c r="B51" s="11" t="s">
         <v>468</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C51" s="11" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="24"/>
-      <c r="B48" s="11" t="s">
-        <v>369</v>
-      </c>
-      <c r="C48" s="11"/>
-    </row>
-    <row r="50" spans="1:3" ht="30">
-      <c r="A50" s="24" t="s">
+    <row r="52" spans="1:3">
+      <c r="A52" s="61"/>
+      <c r="B52" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="C52" s="11"/>
+    </row>
+    <row r="54" spans="1:3" ht="30">
+      <c r="A54" s="61" t="s">
         <v>471</v>
       </c>
-      <c r="B50" s="11" t="s">
-        <v>439</v>
-      </c>
-      <c r="C50" s="11" t="s">
+      <c r="B54" s="11" t="s">
+        <v>472</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="30">
+      <c r="A55" s="61"/>
+      <c r="B55" s="11" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" ht="30">
-      <c r="A51" s="24"/>
-      <c r="B51" s="11" t="s">
-        <v>472</v>
-      </c>
-      <c r="C51" s="11" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="24"/>
-      <c r="B52" s="11" t="s">
-        <v>369</v>
-      </c>
-      <c r="C52" s="11"/>
-    </row>
-    <row r="54" spans="1:3" ht="30">
-      <c r="A54" s="24" t="s">
+      <c r="C55" s="11" t="s">
         <v>475</v>
       </c>
-      <c r="B54" s="11" t="s">
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="61"/>
+      <c r="B56" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="C56" s="11"/>
+    </row>
+    <row r="58" spans="1:3" ht="30">
+      <c r="A58" s="61" t="s">
         <v>476</v>
       </c>
-      <c r="C54" s="11" t="s">
+      <c r="B58" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="C58" s="11" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="30">
-      <c r="A55" s="24"/>
-      <c r="B55" s="11" t="s">
+    <row r="59" spans="1:3" ht="30">
+      <c r="A59" s="61"/>
+      <c r="B59" s="11" t="s">
         <v>477</v>
       </c>
-      <c r="C55" s="11" t="s">
+      <c r="C59" s="11" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="24"/>
-      <c r="B56" s="11" t="s">
-        <v>369</v>
-      </c>
-      <c r="C56" s="11"/>
-    </row>
-    <row r="58" spans="1:3" ht="30">
-      <c r="A58" s="24" t="s">
+    <row r="60" spans="1:3">
+      <c r="A60" s="61"/>
+      <c r="B60" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="C60" s="11"/>
+    </row>
+    <row r="62" spans="1:3" ht="30">
+      <c r="A62" s="61" t="s">
         <v>480</v>
       </c>
-      <c r="B58" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="C58" s="11" t="s">
+      <c r="B62" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="61"/>
+      <c r="B63" s="11" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" ht="30">
-      <c r="A59" s="24"/>
-      <c r="B59" s="11" t="s">
-        <v>481</v>
-      </c>
-      <c r="C59" s="11" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="24"/>
-      <c r="B60" s="11" t="s">
-        <v>369</v>
-      </c>
-      <c r="C60" s="11"/>
-    </row>
-    <row r="62" spans="1:3" ht="30">
-      <c r="A62" s="24" t="s">
+      <c r="C63" s="11" t="s">
         <v>484</v>
-      </c>
-      <c r="B62" s="11" t="s">
-        <v>485</v>
-      </c>
-      <c r="C62" s="11" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="24"/>
-      <c r="B63" s="11" t="s">
-        <v>486</v>
-      </c>
-      <c r="C63" s="11" t="s">
-        <v>488</v>
       </c>
     </row>
   </sheetData>
@@ -9805,7 +9811,7 @@
         <v>17</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -9813,10 +9819,10 @@
         <v>19</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="31" t="s">
-        <v>666</v>
+        <v>59</v>
+      </c>
+      <c r="D3" s="71" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30">
@@ -9824,21 +9830,21 @@
         <v>20</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="31"/>
+        <v>56</v>
+      </c>
+      <c r="D4" s="71"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="16" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="31"/>
+        <v>57</v>
+      </c>
+      <c r="D5" s="71"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="D6" s="31"/>
+      <c r="D6" s="71"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="10" t="s">
@@ -9847,337 +9853,337 @@
       <c r="B7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="31"/>
+      <c r="D7" s="71"/>
     </row>
     <row r="9" spans="1:6" ht="30">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="61" t="s">
+        <v>485</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>486</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>489</v>
       </c>
-      <c r="B9" s="11" t="s">
+    </row>
+    <row r="10" spans="1:6" ht="30">
+      <c r="A10" s="61"/>
+      <c r="B10" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>490</v>
       </c>
-      <c r="C9" s="11" t="s">
+    </row>
+    <row r="11" spans="1:6" ht="30">
+      <c r="A11" s="61"/>
+      <c r="B11" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="61"/>
+      <c r="B12" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="C12" s="11"/>
+    </row>
+    <row r="14" spans="1:6" ht="30">
+      <c r="A14" s="61" t="s">
+        <v>492</v>
+      </c>
+      <c r="B14" s="11" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="30">
-      <c r="A10" s="24"/>
-      <c r="B10" s="11" t="s">
-        <v>491</v>
-      </c>
-      <c r="C10" s="11" t="s">
+      <c r="C14" s="11" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="30">
+      <c r="A15" s="61"/>
+      <c r="B15" s="11" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="30">
-      <c r="A11" s="24"/>
-      <c r="B11" s="11" t="s">
-        <v>492</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="24"/>
-      <c r="B12" s="11" t="s">
-        <v>369</v>
-      </c>
-      <c r="C12" s="11"/>
-    </row>
-    <row r="14" spans="1:6" ht="30">
-      <c r="A14" s="24" t="s">
+      <c r="C15" s="11" t="s">
         <v>496</v>
       </c>
-      <c r="B14" s="11" t="s">
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="61"/>
+      <c r="B16" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="C16" s="11"/>
+    </row>
+    <row r="18" spans="1:3" ht="30">
+      <c r="A18" s="61" t="s">
         <v>497</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="B18" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="30">
-      <c r="A15" s="24"/>
-      <c r="B15" s="11" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" s="61"/>
+      <c r="B19" s="11" t="s">
         <v>498</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C19" s="11" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="24"/>
-      <c r="B16" s="11" t="s">
-        <v>369</v>
-      </c>
-      <c r="C16" s="11"/>
-    </row>
-    <row r="18" spans="1:3" ht="30">
-      <c r="A18" s="24" t="s">
+    <row r="20" spans="1:3">
+      <c r="A20" s="61"/>
+      <c r="B20" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="C20" s="11"/>
+    </row>
+    <row r="22" spans="1:3" ht="30">
+      <c r="A22" s="61" t="s">
         <v>501</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>497</v>
-      </c>
-      <c r="C18" s="11" t="s">
+      <c r="B22" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="24"/>
-      <c r="B19" s="11" t="s">
+    <row r="23" spans="1:3" ht="30">
+      <c r="A23" s="61"/>
+      <c r="B23" s="11" t="s">
         <v>502</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C23" s="11" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="24"/>
-      <c r="B20" s="11" t="s">
-        <v>369</v>
-      </c>
-      <c r="C20" s="11"/>
-    </row>
-    <row r="22" spans="1:3" ht="30">
-      <c r="A22" s="24" t="s">
+    <row r="24" spans="1:3">
+      <c r="A24" s="61"/>
+      <c r="B24" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="C24" s="11"/>
+    </row>
+    <row r="26" spans="1:3" ht="30">
+      <c r="A26" s="61" t="s">
         <v>505</v>
       </c>
-      <c r="B22" s="11" t="s">
-        <v>497</v>
-      </c>
-      <c r="C22" s="11" t="s">
+      <c r="B26" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="C26" s="11" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="30">
-      <c r="A23" s="24"/>
-      <c r="B23" s="11" t="s">
+    <row r="27" spans="1:3">
+      <c r="A27" s="61"/>
+      <c r="B27" s="11" t="s">
         <v>506</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C27" s="11" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="24"/>
-      <c r="B24" s="11" t="s">
-        <v>369</v>
-      </c>
-      <c r="C24" s="11"/>
-    </row>
-    <row r="26" spans="1:3" ht="30">
-      <c r="A26" s="24" t="s">
+    <row r="28" spans="1:3">
+      <c r="A28" s="61"/>
+      <c r="B28" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="30">
+      <c r="A30" s="61" t="s">
+        <v>451</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="61"/>
+      <c r="B31" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="61"/>
+      <c r="B32" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="C32" s="11"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="61" t="s">
+        <v>455</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="30">
+      <c r="A35" s="61"/>
+      <c r="B35" s="11" t="s">
         <v>509</v>
       </c>
-      <c r="B26" s="11" t="s">
-        <v>497</v>
-      </c>
-      <c r="C26" s="11" t="s">
+      <c r="C35" s="11" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="61"/>
+      <c r="B36" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="C36" s="11"/>
+    </row>
+    <row r="38" spans="1:3" ht="30">
+      <c r="A38" s="61" t="s">
+        <v>510</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="30">
+      <c r="A39" s="61"/>
+      <c r="B39" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="61"/>
+      <c r="B40" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="C40" s="11"/>
+    </row>
+    <row r="42" spans="1:3" ht="30">
+      <c r="A42" s="61" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="24"/>
-      <c r="B27" s="11" t="s">
-        <v>510</v>
-      </c>
-      <c r="C27" s="11" t="s">
+      <c r="B42" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="30">
+      <c r="A43" s="61"/>
+      <c r="B43" s="11" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="24"/>
-      <c r="B28" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="30">
-      <c r="A30" s="24" t="s">
-        <v>455</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>497</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="24"/>
-      <c r="B31" s="11" t="s">
-        <v>456</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="24"/>
-      <c r="B32" s="11" t="s">
-        <v>369</v>
-      </c>
-      <c r="C32" s="11"/>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="24" t="s">
-        <v>459</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>497</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="30">
-      <c r="A35" s="24"/>
-      <c r="B35" s="11" t="s">
-        <v>513</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="24"/>
-      <c r="B36" s="11" t="s">
-        <v>369</v>
-      </c>
-      <c r="C36" s="11"/>
-    </row>
-    <row r="38" spans="1:3" ht="30">
-      <c r="A38" s="24" t="s">
+      <c r="C43" s="11" t="s">
         <v>514</v>
       </c>
-      <c r="B38" s="11" t="s">
-        <v>497</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="30">
-      <c r="A39" s="24"/>
-      <c r="B39" s="11" t="s">
-        <v>472</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="24"/>
-      <c r="B40" s="11" t="s">
-        <v>369</v>
-      </c>
-      <c r="C40" s="11"/>
-    </row>
-    <row r="42" spans="1:3" ht="30">
-      <c r="A42" s="24" t="s">
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="61"/>
+      <c r="B44" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="C44" s="11"/>
+    </row>
+    <row r="46" spans="1:3" ht="30">
+      <c r="A46" s="61" t="s">
         <v>515</v>
       </c>
-      <c r="B42" s="11" t="s">
-        <v>497</v>
-      </c>
-      <c r="C42" s="11" t="s">
+      <c r="B46" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="30">
+      <c r="A47" s="61"/>
+      <c r="B47" s="11" t="s">
+        <v>516</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="61"/>
+      <c r="B48" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="C48" s="11"/>
+    </row>
+    <row r="50" spans="1:3" ht="33" customHeight="1">
+      <c r="A50" s="61" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" ht="30">
-      <c r="A43" s="24"/>
-      <c r="B43" s="11" t="s">
-        <v>516</v>
-      </c>
-      <c r="C43" s="11" t="s">
+      <c r="B50" s="11" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="24"/>
-      <c r="B44" s="11" t="s">
-        <v>369</v>
-      </c>
-      <c r="C44" s="11"/>
-    </row>
-    <row r="46" spans="1:3" ht="30">
-      <c r="A46" s="24" t="s">
+      <c r="C50" s="11" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="30">
+      <c r="A51" s="61"/>
+      <c r="B51" s="11" t="s">
         <v>519</v>
       </c>
-      <c r="B46" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="30">
-      <c r="A47" s="24"/>
-      <c r="B47" s="11" t="s">
-        <v>520</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="24"/>
-      <c r="B48" s="11" t="s">
-        <v>369</v>
-      </c>
-      <c r="C48" s="11"/>
-    </row>
-    <row r="50" spans="1:3" ht="33" customHeight="1">
-      <c r="A50" s="24" t="s">
+      <c r="C51" s="11" t="s">
         <v>521</v>
       </c>
-      <c r="B50" s="11" t="s">
-        <v>522</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="30">
-      <c r="A51" s="24"/>
-      <c r="B51" s="11" t="s">
-        <v>523</v>
-      </c>
-      <c r="C51" s="11" t="s">
-        <v>525</v>
-      </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="24"/>
+      <c r="A52" s="61"/>
       <c r="B52" s="11"/>
       <c r="C52" s="11" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="45">
+      <c r="A54" s="61" t="s">
+        <v>523</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="30">
+      <c r="A55" s="61"/>
+      <c r="B55" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="C55" s="11" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="45">
-      <c r="A54" s="24" t="s">
-        <v>527</v>
-      </c>
-      <c r="B54" s="11" t="s">
-        <v>497</v>
-      </c>
-      <c r="C54" s="11" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="30">
-      <c r="A55" s="24"/>
-      <c r="B55" s="11" t="s">
-        <v>528</v>
-      </c>
-      <c r="C55" s="11" t="s">
-        <v>530</v>
-      </c>
-    </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="24"/>
+      <c r="A56" s="61"/>
       <c r="B56" s="11" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C56" s="11"/>
     </row>

--- a/Week_8/end_to_end_testing.xlsx
+++ b/Week_8/end_to_end_testing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\QA\Week_8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD760C7-2DEB-46A5-9B94-F66B09189EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88959E9D-39D4-4265-B66B-AF8EB14B9218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{D306577F-726B-460D-A4B8-43874F0773D9}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="10" xr2:uid="{D306577F-726B-460D-A4B8-43874F0773D9}"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="18" r:id="rId1"/>
@@ -297,21 +297,6 @@
     <t>High (Issues with warranty service sign-up can lead to dissatisfied customers)</t>
   </si>
   <si>
-    <t>TDR_001</t>
-  </si>
-  <si>
-    <t>SRV_001</t>
-  </si>
-  <si>
-    <t>REV_002</t>
-  </si>
-  <si>
-    <t>ORD_001</t>
-  </si>
-  <si>
-    <t>ORD_002</t>
-  </si>
-  <si>
     <t>1. Register with valid details</t>
   </si>
   <si>
@@ -2595,6 +2580,21 @@
       </rPr>
       <t>2</t>
     </r>
+  </si>
+  <si>
+    <t>E2EREV_001</t>
+  </si>
+  <si>
+    <t>E2ESRV_001</t>
+  </si>
+  <si>
+    <t>E2ETDR_001</t>
+  </si>
+  <si>
+    <t>E2ESB_002</t>
+  </si>
+  <si>
+    <t>E2EUS_001</t>
   </si>
 </sst>
 </file>
@@ -3590,23 +3590,23 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="31" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="33" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1">
       <c r="A3" s="29" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="B3" s="30">
         <v>45535</v>
@@ -3615,7 +3615,7 @@
     <row r="4" spans="1:6" ht="15.75" thickBot="1"/>
     <row r="5" spans="1:6" ht="15.75" thickBot="1">
       <c r="A5" s="46" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="B5" s="47"/>
       <c r="C5" s="47"/>
@@ -3625,7 +3625,7 @@
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1">
       <c r="A6" s="49" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="B6" s="50"/>
       <c r="C6" s="50"/>
@@ -3651,7 +3651,7 @@
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
       <c r="A9" s="58" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="B9" s="59"/>
       <c r="C9" s="59"/>
@@ -3661,7 +3661,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="35" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="B10" s="27"/>
       <c r="C10" s="27"/>
@@ -3671,7 +3671,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="35" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="B11" s="27"/>
       <c r="C11" s="27"/>
@@ -3681,7 +3681,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="35" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="B12" s="27"/>
       <c r="C12" s="27"/>
@@ -3691,7 +3691,7 @@
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1">
       <c r="A13" s="49" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="B13" s="50"/>
       <c r="C13" s="50"/>
@@ -3709,7 +3709,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="35" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="B15" s="27"/>
       <c r="C15" s="27"/>
@@ -3719,7 +3719,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="37" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="B16" s="28"/>
       <c r="C16" s="28"/>
@@ -3729,7 +3729,7 @@
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" thickBot="1">
       <c r="A17" s="55" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="B17" s="56"/>
       <c r="C17" s="56"/>
@@ -3740,18 +3740,18 @@
     <row r="18" spans="1:6" ht="15.75" thickBot="1"/>
     <row r="19" spans="1:6" ht="30.75" thickBot="1">
       <c r="A19" s="39" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="23" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="B20" s="40" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -3759,63 +3759,63 @@
         <v>41</v>
       </c>
       <c r="B21" s="43" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="24" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="B22" s="41" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="24" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="B23" s="43" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="24" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="B24" s="42" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="24" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="B25" s="44" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="24" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="B26" s="44" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="24" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="B27" s="44" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" thickBot="1">
       <c r="A28" s="25" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="B28" s="45" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
     </row>
   </sheetData>
@@ -3848,8 +3848,8 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A44" sqref="A44"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3887,7 +3887,7 @@
         <v>17</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="11"/>
@@ -3897,7 +3897,7 @@
         <v>19</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>63</v>
+        <v>799</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="11"/>
@@ -3907,7 +3907,7 @@
         <v>20</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -3940,172 +3940,172 @@
     </row>
     <row r="9" spans="1:7" ht="30">
       <c r="A9" s="61" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="F9" s="18"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="61"/>
       <c r="B10" s="11" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="F10" s="13"/>
     </row>
     <row r="11" spans="1:7" ht="30">
       <c r="A11" s="61"/>
       <c r="B11" s="11" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="F11" s="18"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="61" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="F13" s="17"/>
     </row>
     <row r="14" spans="1:7" ht="30">
       <c r="A14" s="61"/>
       <c r="B14" s="11" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="F14" s="17"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="61"/>
       <c r="B15" s="11" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
     </row>
     <row r="17" spans="1:7" ht="30">
       <c r="A17" s="61" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="F17" s="17"/>
     </row>
     <row r="18" spans="1:7" ht="30">
       <c r="A18" s="61"/>
       <c r="B18" s="11" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="F18" s="17"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="61"/>
       <c r="B19" s="11" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
     </row>
     <row r="21" spans="1:7" ht="30">
       <c r="A21" s="61" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="F21" s="13"/>
     </row>
     <row r="22" spans="1:7" ht="30">
       <c r="A22" s="61"/>
       <c r="B22" s="11" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="11" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="F22" s="13"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="61"/>
       <c r="B23" s="11" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
     </row>
     <row r="25" spans="1:7" ht="30">
       <c r="A25" s="61" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="F25" s="17"/>
       <c r="G25" t="e" vm="5">
@@ -4115,150 +4115,150 @@
     <row r="26" spans="1:7" ht="30">
       <c r="A26" s="61"/>
       <c r="B26" s="11" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="F26" s="13"/>
       <c r="G26" s="20" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="30">
       <c r="A27" s="61"/>
       <c r="B27" s="11" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="F27" s="18"/>
     </row>
     <row r="29" spans="1:7" ht="30">
       <c r="A29" s="61" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="11" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="F29" s="13"/>
     </row>
     <row r="30" spans="1:7" ht="30">
       <c r="A30" s="61"/>
       <c r="B30" s="11" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="F30" s="13"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="61"/>
       <c r="B31" s="11" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="61" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="11" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="F33" s="17"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="61"/>
       <c r="B34" s="11" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="F34" s="17"/>
     </row>
     <row r="35" spans="1:6" ht="30">
       <c r="A35" s="61"/>
       <c r="B35" s="11" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="C35" s="11"/>
       <c r="D35" s="11" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="F35" s="17"/>
     </row>
     <row r="37" spans="1:6" ht="30">
       <c r="A37" s="61" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="C37" s="11"/>
       <c r="D37" s="11" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="F37" s="17"/>
     </row>
     <row r="38" spans="1:6" ht="45">
       <c r="A38" s="61"/>
       <c r="B38" s="11" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="F38" s="17"/>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="61"/>
       <c r="B39" s="11" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="C39" s="11"/>
       <c r="D39" s="11"/>
@@ -4266,28 +4266,28 @@
     </row>
     <row r="41" spans="1:6" ht="30">
       <c r="A41" s="61" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="C41" s="11"/>
       <c r="D41" s="11" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="F41" s="13"/>
     </row>
     <row r="42" spans="1:6" ht="30">
       <c r="A42" s="61"/>
       <c r="B42" s="11" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="C42" s="11"/>
       <c r="D42" s="11" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="E42" s="11"/>
       <c r="F42" s="13"/>
@@ -4295,7 +4295,7 @@
     <row r="43" spans="1:6">
       <c r="A43" s="61"/>
       <c r="B43" s="11" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="C43" s="11"/>
       <c r="D43" s="11"/>
@@ -4320,9 +4320,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3249AC3-322E-4A57-8E9A-86B5F37D2F0E}">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A49" sqref="A49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4357,7 +4357,7 @@
         <v>17</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="C2" s="8"/>
     </row>
@@ -4366,7 +4366,7 @@
         <v>19</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>62</v>
+        <v>800</v>
       </c>
       <c r="C3" s="10"/>
     </row>
@@ -4375,11 +4375,11 @@
         <v>20</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="C4" s="11"/>
       <c r="E4" s="73" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="54.75" customHeight="1">
@@ -4387,7 +4387,7 @@
         <v>22</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="C5" s="11"/>
       <c r="E5" s="73"/>
@@ -4408,31 +4408,31 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="61" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="F9" s="17"/>
     </row>
     <row r="10" spans="1:7" ht="30">
       <c r="A10" s="61"/>
       <c r="B10" s="11" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="F10" s="17"/>
     </row>
@@ -4441,167 +4441,167 @@
     </row>
     <row r="13" spans="1:7" ht="30">
       <c r="A13" s="61" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="F13" s="17"/>
     </row>
     <row r="14" spans="1:7" ht="30">
       <c r="A14" s="61"/>
       <c r="B14" s="11" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="F14" s="17"/>
     </row>
     <row r="16" spans="1:7" ht="30">
       <c r="A16" s="61" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="F16" s="17"/>
     </row>
     <row r="17" spans="1:6" ht="45">
       <c r="A17" s="61"/>
       <c r="B17" s="11" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="F17" s="17"/>
     </row>
     <row r="19" spans="1:6" ht="30">
       <c r="A19" s="61" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="F19" s="17"/>
     </row>
     <row r="20" spans="1:6" ht="30">
       <c r="A20" s="61"/>
       <c r="B20" s="11" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="11" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="F20" s="17"/>
     </row>
     <row r="22" spans="1:6" ht="45">
       <c r="A22" s="61" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="11" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="F22" s="13"/>
     </row>
     <row r="23" spans="1:6" ht="45">
       <c r="A23" s="61"/>
       <c r="B23" s="11" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="F23" s="13"/>
     </row>
     <row r="25" spans="1:6" ht="30">
       <c r="A25" s="61" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="F25" s="17"/>
     </row>
     <row r="26" spans="1:6" ht="30">
       <c r="A26" s="61"/>
       <c r="B26" s="11" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="F26" s="13"/>
     </row>
     <row r="28" spans="1:6" ht="45">
       <c r="A28" s="10" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="11" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="F28" s="17"/>
     </row>
@@ -4609,67 +4609,67 @@
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
       <c r="D29" s="11" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="F29" s="17"/>
     </row>
     <row r="31" spans="1:6" ht="30">
       <c r="A31" s="61" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="11" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="F31" s="17"/>
     </row>
     <row r="32" spans="1:6" ht="45">
       <c r="A32" s="61"/>
       <c r="B32" s="11" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="F32" s="17"/>
     </row>
     <row r="34" spans="1:6" ht="30" customHeight="1">
       <c r="A34" s="61" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="E34" s="63" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="F34" s="13"/>
     </row>
     <row r="35" spans="1:6" ht="30">
       <c r="A35" s="61"/>
       <c r="B35" s="11" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="C35" s="11"/>
       <c r="D35" s="11" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="E35" s="63"/>
       <c r="F35" s="13"/>
@@ -4677,44 +4677,44 @@
     <row r="36" spans="1:6" ht="30">
       <c r="A36" s="61"/>
       <c r="B36" s="11" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="E36" s="63"/>
       <c r="F36" s="13"/>
     </row>
     <row r="38" spans="1:6" ht="60">
       <c r="A38" s="10" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="F38" s="13"/>
     </row>
     <row r="40" spans="1:6" ht="30">
       <c r="A40" s="10" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="F40" s="17"/>
     </row>
@@ -4722,26 +4722,26 @@
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
       <c r="D41" s="11" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="F41" s="13"/>
     </row>
     <row r="43" spans="1:6" ht="45">
       <c r="A43" s="10" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="C43" s="11"/>
       <c r="D43" s="11" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="F43" s="17"/>
     </row>
@@ -4749,56 +4749,56 @@
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
       <c r="D44" s="11" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="F44" s="13"/>
     </row>
     <row r="46" spans="1:6" ht="30">
       <c r="A46" s="61" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="11" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="F46" s="17"/>
     </row>
     <row r="47" spans="1:6" ht="30">
       <c r="A47" s="61"/>
       <c r="B47" s="11" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="C47" s="11"/>
       <c r="D47" s="11" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="F47" s="17"/>
     </row>
     <row r="49" spans="1:7" ht="30">
       <c r="A49" s="10" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="C49" s="11"/>
       <c r="D49" s="11" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="F49" s="13"/>
       <c r="G49" t="e" vm="6">
@@ -4809,10 +4809,10 @@
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
       <c r="D50" s="11" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="F50" s="17"/>
     </row>
@@ -4859,7 +4859,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="B2" s="2" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="24">
@@ -4872,7 +4872,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="B6" s="2" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="24">
@@ -4964,7 +4964,7 @@
         <v>19</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="C3" s="10"/>
     </row>
@@ -5007,7 +5007,7 @@
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1">
       <c r="A9" s="61" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>26</v>
@@ -5059,14 +5059,14 @@
     <row r="12" spans="1:7" ht="39.75" customHeight="1">
       <c r="A12" s="63"/>
       <c r="B12" s="11" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="11" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F12" s="17"/>
       <c r="G12" s="11"/>
@@ -5074,14 +5074,14 @@
     <row r="13" spans="1:7" ht="32.25" customHeight="1">
       <c r="A13" s="63"/>
       <c r="B13" s="11" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="11" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="F13" s="13"/>
       <c r="G13" s="11"/>
@@ -5095,31 +5095,31 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="61" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E15" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F15" s="17"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="64"/>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C16"/>
       <c r="D16" s="62" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E16" s="62" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F16" s="17"/>
     </row>
@@ -5139,31 +5139,31 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="61" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B19" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C19"/>
       <c r="D19" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E19" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F19" s="17"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="61"/>
       <c r="B20" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C20"/>
       <c r="D20" s="62" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E20" s="62" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="F20" s="17"/>
     </row>
@@ -5183,31 +5183,31 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="61" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C23"/>
       <c r="D23" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E23" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F23" s="17"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="61"/>
       <c r="B24" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C24"/>
       <c r="D24" s="62" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E24" s="62" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="F24" s="17"/>
     </row>
@@ -5227,28 +5227,28 @@
     </row>
     <row r="27" spans="1:7" ht="24.75" customHeight="1">
       <c r="A27" s="61" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C27"/>
       <c r="D27" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E27" s="61" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="F27" s="18"/>
     </row>
     <row r="28" spans="1:7" ht="28.5" customHeight="1">
       <c r="A28" s="61"/>
       <c r="B28" s="11" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C28"/>
       <c r="D28" s="62" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E28" s="61"/>
       <c r="F28" s="18"/>
@@ -5269,41 +5269,41 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="61" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C31"/>
       <c r="D31" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E31" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="F31" s="18"/>
     </row>
     <row r="32" spans="1:7" ht="45">
       <c r="A32" s="61"/>
       <c r="B32" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C32"/>
       <c r="D32" s="62" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E32" s="62" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="F32" s="18"/>
       <c r="G32" s="11" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15" customHeight="1">
       <c r="A33" s="61"/>
       <c r="B33" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C33"/>
       <c r="D33" s="62"/>
@@ -5326,17 +5326,17 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="61" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C36"/>
       <c r="D36" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E36" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="F36" s="17"/>
     </row>
@@ -5349,14 +5349,14 @@
     <row r="38" spans="1:6">
       <c r="A38" s="61"/>
       <c r="B38" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C38"/>
       <c r="D38" s="62" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E38" s="62" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="F38" s="17"/>
     </row>
@@ -5388,7 +5388,7 @@
         <v>19</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="C43" s="10"/>
     </row>
@@ -5421,7 +5421,7 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="61" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>37</v>
@@ -5469,13 +5469,13 @@
     <row r="52" spans="1:6">
       <c r="A52" s="10"/>
       <c r="B52" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D52" s="62" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E52" s="62" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F52" s="17"/>
     </row>
@@ -5493,31 +5493,31 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="61" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B55" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C55"/>
       <c r="D55" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E55" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="F55" s="17"/>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="61"/>
       <c r="B56" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C56"/>
       <c r="D56" s="62" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E56" s="62" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="F56" s="17"/>
     </row>
@@ -5537,31 +5537,31 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="61" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B59" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C59"/>
       <c r="D59" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E59" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="F59" s="17"/>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="61"/>
       <c r="B60" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C60"/>
       <c r="D60" s="62" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E60" s="62" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="F60" s="17"/>
     </row>
@@ -5581,31 +5581,31 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="61" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B63" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C63"/>
       <c r="D63" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E63" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="F63" s="17"/>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="61"/>
       <c r="B64" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C64"/>
       <c r="D64" s="62" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E64" s="62" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="F64" s="17"/>
     </row>
@@ -5625,31 +5625,31 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="61" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B67" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C67"/>
       <c r="D67" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E67" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="F67" s="17"/>
     </row>
     <row r="68" spans="1:7" ht="30" customHeight="1">
       <c r="A68" s="61"/>
       <c r="B68" s="11" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C68"/>
       <c r="D68" s="62" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E68" s="62" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="F68" s="17"/>
     </row>
@@ -5669,28 +5669,28 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="61" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B71" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C71"/>
       <c r="D71" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F71" s="18"/>
     </row>
     <row r="72" spans="1:7" ht="30">
       <c r="A72" s="61"/>
       <c r="B72" s="11" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C72"/>
       <c r="D72" s="62" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E72" s="61" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="F72" s="18"/>
     </row>
@@ -5710,28 +5710,28 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="61" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B75" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C75"/>
       <c r="D75" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E75" s="61" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="F75" s="13"/>
     </row>
     <row r="76" spans="1:7" ht="30">
       <c r="A76" s="61"/>
       <c r="B76" s="11" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C76"/>
       <c r="D76" s="62" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E76" s="61"/>
       <c r="F76" s="17"/>
@@ -5751,21 +5751,21 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="61" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C79"/>
       <c r="D79" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E79" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="F79" s="13"/>
       <c r="G79" s="65" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="15" hidden="1" customHeight="1">
@@ -5777,14 +5777,14 @@
     <row r="81" spans="1:7">
       <c r="A81" s="61"/>
       <c r="B81" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C81"/>
       <c r="D81" s="62" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E81" s="62" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="F81" s="13"/>
       <c r="G81" s="65"/>
@@ -5806,24 +5806,24 @@
     </row>
     <row r="84" spans="1:7" ht="30">
       <c r="A84" s="61" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C84"/>
       <c r="D84" s="62" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E84" s="65" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="F84" s="13"/>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="61"/>
       <c r="B85" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C85"/>
       <c r="D85" s="62"/>
@@ -5846,38 +5846,38 @@
     </row>
     <row r="88" spans="1:7" ht="30">
       <c r="A88" s="61" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B88" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C88"/>
       <c r="D88" s="11" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="F88" s="17"/>
     </row>
     <row r="89" spans="1:7" ht="30">
       <c r="A89" s="61"/>
       <c r="B89" s="11" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C89"/>
       <c r="D89" s="11" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E89" s="11" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="F89" s="17"/>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="61"/>
       <c r="B90" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C90"/>
     </row>
@@ -6255,7 +6255,7 @@
         <v>19</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="C3" s="10"/>
     </row>
@@ -6268,7 +6268,7 @@
       </c>
       <c r="C4" s="11"/>
       <c r="E4" s="66" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="54.75" customHeight="1">
@@ -6297,7 +6297,7 @@
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1">
       <c r="A9" s="61" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>44</v>
@@ -6320,7 +6320,7 @@
     <row r="11" spans="1:7" ht="21.75" customHeight="1">
       <c r="A11" s="61"/>
       <c r="B11" s="11" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D11" t="s">
         <v>47</v>
@@ -6330,33 +6330,33 @@
     <row r="12" spans="1:7" ht="36" customHeight="1">
       <c r="A12" s="10"/>
       <c r="B12" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D12" s="11" t="s">
         <v>130</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>135</v>
       </c>
       <c r="E12" s="11"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="61" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E13" s="11"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="61"/>
       <c r="B14" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D14" s="62" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E14" s="11"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="61"/>
       <c r="B15" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D15" s="62"/>
       <c r="E15" s="11"/>
@@ -6364,7 +6364,7 @@
     <row r="16" spans="1:7" ht="16.5" customHeight="1">
       <c r="A16" s="61"/>
       <c r="B16" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D16" s="62"/>
       <c r="E16" s="11"/>
@@ -6375,20 +6375,20 @@
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1">
       <c r="A18" s="61" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B18" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C18"/>
       <c r="D18" s="62" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1">
       <c r="A19" s="61"/>
       <c r="B19" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C19"/>
       <c r="D19" s="62"/>
@@ -6396,7 +6396,7 @@
     <row r="20" spans="1:4" ht="15" customHeight="1">
       <c r="A20" s="61"/>
       <c r="B20" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C20"/>
       <c r="D20" s="62"/>
@@ -6407,20 +6407,20 @@
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1">
       <c r="A22" s="61" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B22" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C22"/>
       <c r="D22" s="62" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="61"/>
       <c r="B23" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C23"/>
       <c r="D23" s="62"/>
@@ -6428,7 +6428,7 @@
     <row r="24" spans="1:4" ht="18" customHeight="1">
       <c r="A24" s="61"/>
       <c r="B24" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C24"/>
       <c r="D24" s="62"/>
@@ -6439,20 +6439,20 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="61" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B26" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C26"/>
       <c r="D26" s="62" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="61"/>
       <c r="B27" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C27"/>
       <c r="D27" s="62"/>
@@ -6460,7 +6460,7 @@
     <row r="28" spans="1:4" ht="18" customHeight="1">
       <c r="A28" s="61"/>
       <c r="B28" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C28"/>
       <c r="D28" s="62"/>
@@ -6471,20 +6471,20 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="61" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B30" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C30"/>
       <c r="D30" s="62" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="61"/>
       <c r="B31" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C31"/>
       <c r="D31" s="62"/>
@@ -6492,7 +6492,7 @@
     <row r="32" spans="1:4">
       <c r="A32" s="61"/>
       <c r="B32" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C32"/>
       <c r="D32" s="62"/>
@@ -6503,20 +6503,20 @@
     </row>
     <row r="34" spans="1:4" ht="23.25" customHeight="1">
       <c r="A34" s="61" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C34"/>
       <c r="D34" s="62" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="30" customHeight="1">
       <c r="A35" s="61"/>
       <c r="B35" s="3" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C35"/>
       <c r="D35" s="62"/>
@@ -6524,7 +6524,7 @@
     <row r="36" spans="1:4" ht="40.5" customHeight="1">
       <c r="A36" s="61"/>
       <c r="B36" s="3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C36"/>
       <c r="D36" s="62"/>
@@ -6535,20 +6535,20 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="61" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C38"/>
       <c r="D38" s="62" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="61"/>
       <c r="B39" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C39"/>
       <c r="D39" s="62"/>
@@ -6556,7 +6556,7 @@
     <row r="40" spans="1:4">
       <c r="A40" s="61"/>
       <c r="B40" s="3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C40"/>
       <c r="D40" s="62"/>
@@ -6567,20 +6567,20 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="61" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C42"/>
       <c r="D42" s="62" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="61"/>
       <c r="B43" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C43"/>
       <c r="D43" s="62"/>
@@ -6588,7 +6588,7 @@
     <row r="44" spans="1:4">
       <c r="A44" s="61"/>
       <c r="B44" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C44"/>
       <c r="D44" s="62"/>
@@ -6596,7 +6596,7 @@
     <row r="45" spans="1:4">
       <c r="A45" s="67"/>
       <c r="B45" s="3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C45"/>
       <c r="D45" s="62"/>
@@ -6607,20 +6607,20 @@
     </row>
     <row r="47" spans="1:4" ht="30">
       <c r="A47" s="61" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C47"/>
       <c r="D47" s="11" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="61"/>
       <c r="B48" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C48"/>
       <c r="D48" s="11"/>
@@ -6628,11 +6628,11 @@
     <row r="49" spans="1:4" ht="30">
       <c r="A49" s="61"/>
       <c r="B49" s="3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C49"/>
       <c r="D49" s="11" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -6641,20 +6641,20 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="61" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C51"/>
       <c r="D51" s="62" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="61"/>
       <c r="B52" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C52"/>
       <c r="D52" s="62"/>
@@ -6662,7 +6662,7 @@
     <row r="53" spans="1:4">
       <c r="A53" s="61"/>
       <c r="B53" s="3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C53"/>
       <c r="D53" s="62"/>
@@ -6673,20 +6673,20 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="61" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C55"/>
       <c r="D55" s="62" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="30">
       <c r="A56" s="61"/>
       <c r="B56" s="11" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C56"/>
       <c r="D56" s="62"/>
@@ -6694,7 +6694,7 @@
     <row r="57" spans="1:4">
       <c r="A57" s="61"/>
       <c r="B57" s="3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C57"/>
       <c r="D57" s="62"/>
@@ -6705,20 +6705,20 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="61" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C59"/>
       <c r="D59" s="62" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="61"/>
       <c r="B60" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C60"/>
       <c r="D60" s="62"/>
@@ -6726,7 +6726,7 @@
     <row r="61" spans="1:4">
       <c r="A61" s="61"/>
       <c r="B61" s="3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C61"/>
       <c r="D61" s="62"/>
@@ -6737,20 +6737,20 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="61" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C63"/>
       <c r="D63" s="62" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="61"/>
       <c r="B64" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C64"/>
       <c r="D64" s="62"/>
@@ -6758,7 +6758,7 @@
     <row r="65" spans="1:4">
       <c r="A65" s="61"/>
       <c r="B65" s="3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C65"/>
       <c r="D65" s="62"/>
@@ -6769,20 +6769,20 @@
     </row>
     <row r="67" spans="1:4" ht="23.25" customHeight="1">
       <c r="A67" s="61" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B67" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C67"/>
       <c r="D67" s="62" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="23.25" customHeight="1">
       <c r="A68" s="61"/>
       <c r="B68" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C68"/>
       <c r="D68" s="62"/>
@@ -6902,7 +6902,7 @@
         <v>19</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="C3" s="10"/>
     </row>
@@ -6936,23 +6936,23 @@
     </row>
     <row r="9" spans="1:7" ht="54.75" customHeight="1">
       <c r="A9" s="61" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D9" s="62" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E9" s="62" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="F9" s="17"/>
     </row>
     <row r="10" spans="1:7" ht="54.75" customHeight="1">
       <c r="A10" s="61"/>
       <c r="B10" s="11" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D10" s="62"/>
       <c r="E10" s="62"/>
@@ -6961,23 +6961,23 @@
     <row r="11" spans="1:7" ht="15" customHeight="1"/>
     <row r="12" spans="1:7" ht="48" customHeight="1">
       <c r="A12" s="61" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D12" s="62" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="E12" s="62" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F12" s="17"/>
     </row>
     <row r="13" spans="1:7" ht="48.75" customHeight="1">
       <c r="A13" s="61"/>
       <c r="B13" s="11" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D13" s="62"/>
       <c r="E13" s="62"/>
@@ -6985,114 +6985,114 @@
     </row>
     <row r="15" spans="1:7" ht="30.75" customHeight="1">
       <c r="A15" s="61" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="F15" s="17"/>
     </row>
     <row r="16" spans="1:7" ht="30">
       <c r="A16" s="61"/>
       <c r="B16" s="11" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="F16" s="17"/>
     </row>
     <row r="17" spans="1:7" ht="30">
       <c r="A17" s="61"/>
       <c r="B17" s="11" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="F17" s="17"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="61" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="30">
       <c r="A20" s="61"/>
       <c r="B20" s="11" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="F20" s="17"/>
     </row>
     <row r="21" spans="1:7" ht="30">
       <c r="A21" s="61"/>
       <c r="B21" s="11" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="F21" s="17"/>
     </row>
     <row r="22" spans="1:7" ht="30">
       <c r="A22" s="61"/>
       <c r="B22" s="11" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="F22" s="17"/>
     </row>
     <row r="24" spans="1:7" ht="23.25" customHeight="1">
       <c r="A24" s="61" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="F24" s="13"/>
       <c r="G24" s="71" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="30">
       <c r="A25" s="61"/>
       <c r="B25" s="11" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="F25" s="13"/>
       <c r="G25" s="61"/>
@@ -7100,73 +7100,73 @@
     <row r="26" spans="1:7" ht="28.5" customHeight="1">
       <c r="A26" s="61"/>
       <c r="B26" s="11" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="F26" s="13"/>
       <c r="G26" s="61"/>
     </row>
     <row r="28" spans="1:7" ht="30">
       <c r="A28" s="61" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="F28" s="17"/>
     </row>
     <row r="29" spans="1:7" ht="30">
       <c r="A29" s="62"/>
       <c r="D29" s="11" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="F29" s="17"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="61" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="15" customHeight="1">
       <c r="A32" s="61"/>
       <c r="B32" s="11" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F32" s="18"/>
       <c r="G32" s="70" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="30">
       <c r="A33" s="61"/>
       <c r="B33" s="11" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E33" t="e" vm="1">
         <v>#VALUE!</v>
@@ -7177,83 +7177,83 @@
     <row r="34" spans="1:7">
       <c r="A34" s="61"/>
       <c r="B34" s="11" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F34" s="18"/>
       <c r="G34" s="63"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="61" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="30">
       <c r="A37" s="61"/>
       <c r="B37" s="11" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="F37" s="17"/>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="61"/>
       <c r="B38" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F38" s="17"/>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="61"/>
       <c r="B39" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D39" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E39" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="F39" s="17"/>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="61" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B41" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D41" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="E41" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="F41" s="17"/>
       <c r="G41" s="70" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="61"/>
       <c r="B42" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D42" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="E42" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F42" s="17"/>
       <c r="G42" s="63"/>
@@ -7261,214 +7261,214 @@
     <row r="43" spans="1:7" ht="31.5" customHeight="1">
       <c r="A43" s="61"/>
       <c r="B43" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D43" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E43" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F43" s="17"/>
       <c r="G43" s="63"/>
     </row>
     <row r="45" spans="1:7" ht="30">
       <c r="A45" s="61" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="F45" s="17"/>
     </row>
     <row r="46" spans="1:7" ht="30">
       <c r="A46" s="61"/>
       <c r="B46" s="3" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="F46" s="17"/>
     </row>
     <row r="48" spans="1:7" ht="15" customHeight="1">
       <c r="A48" s="61" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="51.75" customHeight="1">
       <c r="A49" s="61"/>
       <c r="B49" s="3" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="F49" s="17"/>
     </row>
     <row r="50" spans="1:6" ht="42" customHeight="1">
       <c r="A50" s="61"/>
       <c r="B50" s="3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="F50" s="17"/>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="61" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="30">
       <c r="A53" s="61"/>
       <c r="B53" s="3" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="F53" s="17"/>
     </row>
     <row r="54" spans="1:6" ht="30">
       <c r="A54" s="61"/>
       <c r="B54" s="3" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="F54" s="17"/>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="61" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="30">
       <c r="A57" s="61"/>
       <c r="B57" s="3" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="F57" s="17"/>
     </row>
     <row r="58" spans="1:6" ht="30">
       <c r="A58" s="61"/>
       <c r="B58" s="3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="F58" s="17"/>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="61" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="F60" s="13"/>
     </row>
     <row r="61" spans="1:6" ht="30">
       <c r="A61" s="61"/>
       <c r="B61" s="3" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="F61" s="13"/>
     </row>
     <row r="62" spans="1:6" ht="26.25" customHeight="1">
       <c r="A62" s="61"/>
       <c r="B62" s="3" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F62" s="13"/>
     </row>
     <row r="63" spans="1:6" ht="30">
       <c r="A63" s="61"/>
       <c r="B63" s="3" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F63" s="13"/>
     </row>
     <row r="65" spans="1:6" ht="30">
       <c r="A65" s="61" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E65" s="69" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="F65" s="13"/>
     </row>
     <row r="66" spans="1:6" ht="45">
       <c r="A66" s="61"/>
       <c r="B66" s="3" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="E66" s="69"/>
       <c r="F66" s="13"/>
@@ -7476,44 +7476,44 @@
     <row r="67" spans="1:6">
       <c r="A67" s="61"/>
       <c r="B67" s="3" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="68" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="F69" s="17"/>
     </row>
     <row r="70" spans="1:6" ht="30">
       <c r="A70" s="68"/>
       <c r="B70" s="3" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="E70" s="11" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="F70" s="17"/>
     </row>
     <row r="71" spans="1:6" ht="30">
       <c r="A71" s="62"/>
       <c r="D71" s="11" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="E71" s="69" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="F71" s="13"/>
     </row>
@@ -7526,122 +7526,122 @@
     </row>
     <row r="74" spans="1:6" ht="30">
       <c r="A74" s="61" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D74" s="15" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="E74" s="69" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="61"/>
       <c r="B75" s="3" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="E75" s="61"/>
     </row>
     <row r="76" spans="1:6" ht="30">
       <c r="A76" s="61"/>
       <c r="B76" s="3" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D76" s="15" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="E76" s="61"/>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="61" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D78" s="15" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="E78" s="15" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="F78" s="17"/>
     </row>
     <row r="79" spans="1:6" ht="45">
       <c r="A79" s="61"/>
       <c r="B79" s="3" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D79" s="15" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="E79" s="11" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="F79" s="17"/>
     </row>
     <row r="81" spans="1:7" ht="30">
       <c r="A81" s="61" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D81" s="15" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="E81" s="15" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="F81" s="17"/>
     </row>
     <row r="82" spans="1:7" ht="30">
       <c r="A82" s="61"/>
       <c r="B82" s="3" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D82" s="15" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="E82" s="15" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="F82" s="17"/>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="61"/>
       <c r="B83" s="3" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="30">
       <c r="A85" s="61" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C85" s="21" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="E85" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
       <c r="F85" s="18"/>
       <c r="G85" s="70" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="61"/>
       <c r="B86" s="3" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F86" s="18"/>
       <c r="G86" s="63"/>
@@ -7649,10 +7649,10 @@
     <row r="87" spans="1:7" ht="30">
       <c r="A87" s="61"/>
       <c r="B87" s="3" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F87" s="18"/>
       <c r="G87" s="63"/>
@@ -7660,7 +7660,7 @@
     <row r="88" spans="1:7">
       <c r="A88" s="61"/>
       <c r="B88" s="3" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -7705,7 +7705,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F51B629-ADE2-40B1-A3D9-EF4114315F25}">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B93" sqref="B93"/>
     </sheetView>
@@ -7742,7 +7742,7 @@
         <v>17</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C2" s="8"/>
     </row>
@@ -7751,7 +7751,7 @@
         <v>19</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C3" s="10"/>
     </row>
@@ -7764,7 +7764,7 @@
       </c>
       <c r="C4" s="11"/>
       <c r="E4" s="66" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="54.75" customHeight="1">
@@ -7789,19 +7789,19 @@
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1">
       <c r="A9" s="61" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="61"/>
       <c r="B10" s="3" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
@@ -7809,26 +7809,26 @@
     <row r="11" spans="1:7" ht="30">
       <c r="A11" s="61"/>
       <c r="B11" s="3" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="61"/>
       <c r="B12" s="3" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D12" s="15"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="61"/>
       <c r="B13" s="3" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -7836,10 +7836,10 @@
     </row>
     <row r="15" spans="1:7" ht="33" customHeight="1">
       <c r="A15" s="61" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>52</v>
@@ -7849,53 +7849,53 @@
     <row r="16" spans="1:7" ht="33.75" customHeight="1">
       <c r="A16" s="61"/>
       <c r="B16" s="3" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="E16" s="64"/>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1">
       <c r="A17" s="61"/>
       <c r="B17" s="3" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="28.5" customHeight="1"/>
     <row r="19" spans="1:4" ht="27.75" customHeight="1">
       <c r="A19" s="61" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="32.25" customHeight="1">
       <c r="A20" s="61"/>
       <c r="B20" s="3" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="30">
       <c r="A21" s="61"/>
       <c r="B21" s="3" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="61"/>
       <c r="B22" s="3" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>51</v>
@@ -7904,166 +7904,166 @@
     <row r="23" spans="1:4">
       <c r="A23" s="61"/>
       <c r="B23" s="3" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="30">
       <c r="A25" s="61" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="61"/>
       <c r="B26" s="3" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D26" s="15"/>
     </row>
     <row r="27" spans="1:4" ht="30">
       <c r="A27" s="61"/>
       <c r="B27" s="3" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="61"/>
       <c r="B28" s="3" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="30">
       <c r="A30" s="61" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="30">
       <c r="A31" s="61"/>
       <c r="B31" s="3" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="61"/>
       <c r="B32" s="3" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="30">
       <c r="A34" s="61" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="30">
       <c r="A35" s="61"/>
       <c r="B35" s="3" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="61"/>
       <c r="B36" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="61" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="30">
       <c r="A39" s="61"/>
       <c r="B39" s="11" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="30">
       <c r="A40" s="61"/>
       <c r="B40" s="11" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="61"/>
       <c r="B41" s="11" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="30">
       <c r="A43" s="61" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="30">
       <c r="A44" s="61"/>
       <c r="B44" s="11" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="61"/>
       <c r="B45" s="11" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="61" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D47" s="11" t="s">
         <v>52</v>
@@ -8072,281 +8072,281 @@
     <row r="48" spans="1:4" ht="30">
       <c r="A48" s="61"/>
       <c r="B48" s="3" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="61"/>
       <c r="B49" s="3" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="61"/>
       <c r="B50" s="3" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="30">
       <c r="A52" s="61" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="61"/>
       <c r="B53" s="3" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D53" s="11"/>
     </row>
     <row r="54" spans="1:4" ht="30">
       <c r="A54" s="61"/>
       <c r="B54" s="3" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="61" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="30">
       <c r="A57" s="61"/>
       <c r="B57" s="11" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="30">
       <c r="A58" s="61"/>
       <c r="B58" s="11" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="61"/>
       <c r="B59" s="11" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="30">
       <c r="A61" s="61" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="61"/>
       <c r="B62" s="11" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D62" s="11"/>
     </row>
     <row r="63" spans="1:4" ht="30">
       <c r="A63" s="61"/>
       <c r="B63" s="11" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="61"/>
       <c r="B64" s="11" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="30">
       <c r="A66" s="61" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="30">
       <c r="A67" s="61"/>
       <c r="B67" s="3" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="61"/>
       <c r="B68" s="3" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="61"/>
       <c r="B69" s="3" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="30">
       <c r="A71" s="61" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B71" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="61"/>
       <c r="B72" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="D72" s="11"/>
     </row>
     <row r="73" spans="1:4" ht="30">
       <c r="A73" s="61"/>
       <c r="B73" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="30">
       <c r="A75" s="61" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="61"/>
       <c r="B76" s="3" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D76" s="11"/>
     </row>
     <row r="77" spans="1:4" ht="30">
       <c r="A77" s="61"/>
       <c r="B77" s="3" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="61"/>
       <c r="B78" s="3" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="30">
       <c r="A80" s="61" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="30">
       <c r="A81" s="61"/>
       <c r="B81" s="3" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="61"/>
       <c r="B82" s="3" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="30">
       <c r="A84" s="61" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="30">
       <c r="A85" s="61"/>
       <c r="B85" s="3" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="61"/>
       <c r="B86" s="3" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="61" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="61"/>
       <c r="B89" s="3" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D89" s="11" t="s">
         <v>52</v>
@@ -8355,87 +8355,87 @@
     <row r="90" spans="1:4" ht="30">
       <c r="A90" s="61"/>
       <c r="B90" s="3" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="61"/>
       <c r="B91" s="3" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="30">
       <c r="A93" s="61" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="D93" s="11" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="61"/>
       <c r="B94" s="11" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D94" s="11"/>
     </row>
     <row r="95" spans="1:4" ht="30">
       <c r="A95" s="61"/>
       <c r="B95" s="11" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D95" s="11" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="61" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="30">
       <c r="A98" s="61"/>
       <c r="B98" s="11" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D98" s="11" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="30">
       <c r="A99" s="61"/>
       <c r="B99" s="11" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="D99" s="11" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="30">
       <c r="A100" s="61"/>
       <c r="B100" s="11" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="D100" s="11" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="61"/>
       <c r="B101" s="11" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -8472,8 +8472,8 @@
   <dimension ref="A1:F98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
+      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8506,7 +8506,7 @@
         <v>17</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -8514,7 +8514,7 @@
         <v>19</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>61</v>
+        <v>796</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30">
@@ -8546,16 +8546,16 @@
     </row>
     <row r="10" spans="1:6" ht="27.75" customHeight="1">
       <c r="A10" s="61" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>366</v>
-      </c>
       <c r="D10" s="11" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="E10" s="17"/>
       <c r="F10" s="62"/>
@@ -8563,149 +8563,149 @@
     <row r="11" spans="1:6">
       <c r="A11" s="61"/>
       <c r="B11" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>362</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>367</v>
       </c>
       <c r="E11" s="17"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="61"/>
       <c r="B12" s="3" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="E12" s="17"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="61"/>
       <c r="B13" s="3" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="61"/>
       <c r="B14" s="3" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="61" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="C16" t="s">
         <v>361</v>
-      </c>
-      <c r="C16" t="s">
-        <v>366</v>
       </c>
       <c r="E16" s="17"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="61"/>
       <c r="B17" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="C17" t="s">
         <v>362</v>
-      </c>
-      <c r="C17" t="s">
-        <v>367</v>
       </c>
       <c r="E17" s="17"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="61"/>
       <c r="B18" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C18" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="E18" s="17"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="61"/>
       <c r="B19" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="61"/>
       <c r="B20" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="61" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="61"/>
       <c r="B23" s="3" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="E23" s="17"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="61"/>
       <c r="B24" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="E24" s="17"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="61"/>
       <c r="B25" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="E25" s="17"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="61"/>
       <c r="B26" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="E26" s="17"/>
     </row>
     <row r="28" spans="1:5" ht="30">
       <c r="A28" s="61" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="E28" s="17"/>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="61"/>
       <c r="B29" s="11" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C29" s="11"/>
       <c r="E29" s="17"/>
@@ -8713,147 +8713,147 @@
     <row r="30" spans="1:5" ht="30">
       <c r="A30" s="61"/>
       <c r="B30" s="11" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="E30" s="17"/>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="61"/>
       <c r="B31" s="11" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="61"/>
       <c r="B32" s="11" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="61" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="B34" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="C34" t="s">
         <v>361</v>
       </c>
-      <c r="C34" t="s">
-        <v>366</v>
-      </c>
       <c r="D34" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="E34" s="17"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="61"/>
       <c r="B35" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="C35" t="s">
         <v>362</v>
       </c>
-      <c r="C35" t="s">
-        <v>367</v>
-      </c>
       <c r="D35" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="E35" s="17"/>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="61"/>
       <c r="B36" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="C36" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="D36" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="E36" s="17"/>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="61"/>
       <c r="B37" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="61"/>
       <c r="B38" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="61" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B40" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C40" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="D40" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="E40" s="17"/>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="61"/>
       <c r="B41" s="11" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="E41" s="17"/>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="61"/>
       <c r="B42" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="C42" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="D42" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="E42" s="17"/>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="61"/>
       <c r="B43" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="61"/>
       <c r="B44" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="30">
       <c r="A46" s="61" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="E46" s="17"/>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="61"/>
       <c r="B47" s="11" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C47" s="11"/>
       <c r="E47" s="17"/>
@@ -8861,185 +8861,185 @@
     <row r="48" spans="1:5">
       <c r="A48" s="61"/>
       <c r="B48" s="3" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="E48" s="17"/>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="61"/>
       <c r="B49" s="3" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="61"/>
       <c r="B50" s="3" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="61"/>
       <c r="B51" s="3" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="45">
       <c r="A53" s="61" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="E53" s="17"/>
     </row>
     <row r="54" spans="1:5" ht="30">
       <c r="A54" s="61"/>
       <c r="B54" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="E54" s="17"/>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="61"/>
       <c r="B55" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="E55" s="17"/>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="61"/>
       <c r="B56" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="E56" s="17"/>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="61"/>
       <c r="B57" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="E57" s="17"/>
     </row>
     <row r="59" spans="1:5" ht="30">
       <c r="A59" s="61" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="E59" s="13"/>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="61"/>
       <c r="B60" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="E60" s="13"/>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="61"/>
       <c r="B61" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="61"/>
       <c r="B62" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="61" t="s">
+        <v>390</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="C64" s="11" t="s">
         <v>395</v>
       </c>
-      <c r="B64" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="C64" s="11" t="s">
-        <v>400</v>
-      </c>
       <c r="D64" s="11" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="E64" s="17"/>
     </row>
     <row r="65" spans="1:6" ht="30">
       <c r="A65" s="61"/>
       <c r="B65" s="3" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="E65" s="17"/>
     </row>
     <row r="66" spans="1:6" ht="30">
       <c r="A66" s="61"/>
       <c r="B66" s="3" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="E66" s="17"/>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="61"/>
       <c r="B67" s="3" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="61"/>
       <c r="B68" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="30">
       <c r="A70" s="61" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="E70" s="13"/>
       <c r="F70" t="e" vm="2">
@@ -9049,92 +9049,92 @@
     <row r="71" spans="1:6">
       <c r="A71" s="61"/>
       <c r="B71" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="E71" s="13"/>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="61"/>
       <c r="B72" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="61"/>
       <c r="B73" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="61"/>
       <c r="B74" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="61" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="E76" s="17"/>
     </row>
     <row r="77" spans="1:6" ht="30">
       <c r="A77" s="61"/>
       <c r="B77" s="3" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="E77" s="17"/>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="61"/>
       <c r="B78" s="3" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="61"/>
       <c r="B79" s="3" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="61"/>
       <c r="B80" s="3" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="61" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="B82" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C82" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="D82" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="E82" s="13"/>
       <c r="F82" s="72" t="e" vm="3">
@@ -9144,13 +9144,13 @@
     <row r="83" spans="1:6">
       <c r="A83" s="61"/>
       <c r="B83" s="3" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C83" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="D83" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="E83" s="13"/>
       <c r="F83" s="72"/>
@@ -9158,39 +9158,39 @@
     <row r="84" spans="1:6">
       <c r="A84" s="61"/>
       <c r="B84" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="C84" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="E84" s="13"/>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="61"/>
       <c r="B85" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="E85" s="13"/>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="61"/>
       <c r="B86" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="E86" s="13"/>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="61" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C88" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="D88" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="E88" s="13"/>
       <c r="F88" s="72" t="e" vm="4">
@@ -9200,13 +9200,13 @@
     <row r="89" spans="1:6">
       <c r="A89" s="61"/>
       <c r="B89" s="3" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C89" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="D89" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="E89" s="13"/>
       <c r="F89" s="72"/>
@@ -9214,49 +9214,49 @@
     <row r="90" spans="1:6">
       <c r="A90" s="61"/>
       <c r="B90" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="C90" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="E90" s="13"/>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="61"/>
       <c r="B91" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="E91" s="13"/>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="61"/>
       <c r="B92" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="E92" s="13"/>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="61" t="s">
+        <v>413</v>
+      </c>
+      <c r="B94" t="s">
+        <v>414</v>
+      </c>
+      <c r="C94" t="s">
         <v>418</v>
       </c>
-      <c r="B94" t="s">
-        <v>419</v>
-      </c>
-      <c r="C94" t="s">
-        <v>423</v>
-      </c>
       <c r="D94" s="61" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="E94" s="18"/>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="61"/>
       <c r="B95" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="C95" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="D95" s="61"/>
       <c r="E95" s="18"/>
@@ -9264,10 +9264,10 @@
     <row r="96" spans="1:6">
       <c r="A96" s="61"/>
       <c r="B96" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="C96" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="D96" s="61"/>
       <c r="E96" s="18"/>
@@ -9275,7 +9275,7 @@
     <row r="97" spans="1:5">
       <c r="A97" s="61"/>
       <c r="B97" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="E97" s="18"/>
     </row>
@@ -9313,8 +9313,8 @@
   <dimension ref="A1:F63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3:D7"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9347,10 +9347,10 @@
         <v>17</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="D3" s="71" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -9358,7 +9358,7 @@
         <v>19</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>60</v>
+        <v>797</v>
       </c>
       <c r="D4" s="71"/>
     </row>
@@ -9376,7 +9376,7 @@
         <v>22</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="D6" s="71"/>
     </row>
@@ -9393,151 +9393,151 @@
     </row>
     <row r="10" spans="1:6" ht="30">
       <c r="A10" s="61" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="61"/>
       <c r="B11" s="3" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="61"/>
       <c r="B12" s="3" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="61"/>
       <c r="B13" s="3" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="45">
       <c r="A15" s="61" t="s">
+        <v>429</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>434</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="61"/>
       <c r="B16" s="3" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="61"/>
       <c r="B17" s="3" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="61"/>
       <c r="B18" s="3" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="61"/>
       <c r="B19" s="3" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="30">
       <c r="A21" s="61" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="61"/>
       <c r="B22" s="3" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="61"/>
       <c r="B23" s="3" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="61" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="30">
       <c r="A26" s="61"/>
       <c r="B26" s="11" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="61"/>
       <c r="B27" s="11" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C27" s="11"/>
     </row>
     <row r="29" spans="1:3" ht="30">
       <c r="A29" s="61" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="61"/>
       <c r="B30" s="3" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="61"/>
       <c r="B31" s="3" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -9545,210 +9545,210 @@
     </row>
     <row r="34" spans="1:3" ht="30">
       <c r="A34" s="61" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="61"/>
       <c r="B35" s="3" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="61"/>
       <c r="B36" s="3" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="61" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="30">
       <c r="A39" s="61"/>
       <c r="B39" s="11" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="61"/>
       <c r="B40" s="11" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C40" s="11"/>
     </row>
     <row r="42" spans="1:3" ht="45">
       <c r="A42" s="61" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="30">
       <c r="A43" s="61"/>
       <c r="B43" s="11" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="61"/>
       <c r="B44" s="11" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C44" s="11"/>
     </row>
     <row r="46" spans="1:3" ht="30">
       <c r="A46" s="61" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="30">
       <c r="A47" s="61"/>
       <c r="B47" s="11" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="61"/>
       <c r="B48" s="11" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C48" s="11"/>
     </row>
     <row r="50" spans="1:3" ht="30">
       <c r="A50" s="61" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="30">
       <c r="A51" s="61"/>
       <c r="B51" s="11" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="61"/>
       <c r="B52" s="11" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C52" s="11"/>
     </row>
     <row r="54" spans="1:3" ht="30">
       <c r="A54" s="61" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="30">
       <c r="A55" s="61"/>
       <c r="B55" s="11" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="61"/>
       <c r="B56" s="11" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C56" s="11"/>
     </row>
     <row r="58" spans="1:3" ht="30">
       <c r="A58" s="61" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="30">
       <c r="A59" s="61"/>
       <c r="B59" s="11" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="61"/>
       <c r="B60" s="11" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C60" s="11"/>
     </row>
     <row r="62" spans="1:3" ht="30">
       <c r="A62" s="61" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="61"/>
       <c r="B63" s="11" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
     </row>
   </sheetData>
@@ -9777,8 +9777,8 @@
   <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:B2"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9819,10 +9819,10 @@
         <v>19</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>59</v>
+        <v>798</v>
       </c>
       <c r="D3" s="71" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30">
@@ -9857,333 +9857,333 @@
     </row>
     <row r="9" spans="1:6" ht="30">
       <c r="A9" s="61" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="30">
       <c r="A10" s="61"/>
       <c r="B10" s="11" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="30">
       <c r="A11" s="61"/>
       <c r="B11" s="11" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="61"/>
       <c r="B12" s="11" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C12" s="11"/>
     </row>
     <row r="14" spans="1:6" ht="30">
       <c r="A14" s="61" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="30">
       <c r="A15" s="61"/>
       <c r="B15" s="11" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="61"/>
       <c r="B16" s="11" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C16" s="11"/>
     </row>
     <row r="18" spans="1:3" ht="30">
       <c r="A18" s="61" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="61"/>
       <c r="B19" s="11" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="61"/>
       <c r="B20" s="11" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C20" s="11"/>
     </row>
     <row r="22" spans="1:3" ht="30">
       <c r="A22" s="61" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="30">
       <c r="A23" s="61"/>
       <c r="B23" s="11" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="61"/>
       <c r="B24" s="11" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C24" s="11"/>
     </row>
     <row r="26" spans="1:3" ht="30">
       <c r="A26" s="61" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="61"/>
       <c r="B27" s="11" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="61"/>
       <c r="B28" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="30">
       <c r="A30" s="61" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="61"/>
       <c r="B31" s="11" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="61"/>
       <c r="B32" s="11" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C32" s="11"/>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="61" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="30">
       <c r="A35" s="61"/>
       <c r="B35" s="11" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="61"/>
       <c r="B36" s="11" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C36" s="11"/>
     </row>
     <row r="38" spans="1:3" ht="30">
       <c r="A38" s="61" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="30">
       <c r="A39" s="61"/>
       <c r="B39" s="11" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="61"/>
       <c r="B40" s="11" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C40" s="11"/>
     </row>
     <row r="42" spans="1:3" ht="30">
       <c r="A42" s="61" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="30">
       <c r="A43" s="61"/>
       <c r="B43" s="11" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="61"/>
       <c r="B44" s="11" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C44" s="11"/>
     </row>
     <row r="46" spans="1:3" ht="30">
       <c r="A46" s="61" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="30">
       <c r="A47" s="61"/>
       <c r="B47" s="11" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="61"/>
       <c r="B48" s="11" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C48" s="11"/>
     </row>
     <row r="50" spans="1:3" ht="33" customHeight="1">
       <c r="A50" s="61" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="30">
       <c r="A51" s="61"/>
       <c r="B51" s="11" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="61"/>
       <c r="B52" s="11"/>
       <c r="C52" s="11" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="45">
       <c r="A54" s="61" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="30">
       <c r="A55" s="61"/>
       <c r="B55" s="11" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="61"/>
       <c r="B56" s="11" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C56" s="11"/>
     </row>
